--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="111">
+  <fills count="108">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,30 +138,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD4D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC3C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFDBDB"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -174,7 +150,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCACA"/>
+        <fgColor rgb="FFFFCBCB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7A7A"/>
+        <fgColor rgb="FFFFCACA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,19 +174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7777"/>
+        <fgColor rgb="FFFF7676"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7474"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7575"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7474"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,25 +216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC8C8"/>
+        <fgColor rgb="FFFF9E9E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBBBB"/>
+        <fgColor rgb="FFFF8B8B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB5B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFAFAF"/>
+        <fgColor rgb="FFFF8282"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,19 +240,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB4B4"/>
+        <fgColor rgb="FFFFC3C3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFACAC"/>
+        <fgColor rgb="FFFFBABA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA2A2"/>
+        <fgColor rgb="FFFFB2B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA1A1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,12 +288,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB2B2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFAAAA"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,25 +300,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF1111"/>
+        <fgColor rgb="FFFF1010"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF1414"/>
+        <fgColor rgb="FFFF1212"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0B0B"/>
+        <fgColor rgb="FFFF0909"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF1B1B"/>
+        <fgColor rgb="FFFF0D0D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +330,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0D0D"/>
+        <fgColor rgb="FFFF0C0C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,25 +366,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFF6B6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9191"/>
+        <fgColor rgb="FFFF4545"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF3333"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8787"/>
+        <fgColor rgb="FFFF2020"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF59B159"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF59B159"/>
+        <fgColor rgb="FF57B057"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,19 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF57B057"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF54AE54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4F6D4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,19 +444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDAF9DA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8F8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9F8D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAF9DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEFBDE"/>
+        <fgColor rgb="FFDBF9DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,25 +492,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7AC37A"/>
+        <fgColor rgb="FFA9DEA9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF85CA85"/>
+        <fgColor rgb="FFBCE8BC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF88CB88"/>
+        <fgColor rgb="FFC2ECC2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8BCD8B"/>
+        <fgColor rgb="FFCEF2CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,6 +534,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF028102"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF018001"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -570,25 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF028102"/>
+        <fgColor rgb="FFD3F5D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD2F4D2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFF3CF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EEC6"/>
+        <fgColor rgb="FFD1F4D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,25 +582,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF53AE53"/>
+        <fgColor rgb="FF6ABB6A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3FA33F"/>
+        <fgColor rgb="FF95D395"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF44A544"/>
+        <fgColor rgb="FFA6DCA6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF49A849"/>
+        <fgColor rgb="FFBEE9BE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3FEE3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,19 +618,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3FEE3"/>
+        <fgColor rgb="FFDEFBDE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBF9DB"/>
+        <fgColor rgb="FF99D599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF96D396"/>
+        <fgColor rgb="FF7AC47A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,19 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3EA23E"/>
+        <fgColor rgb="FF3DA23D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8F8D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF69BA69"/>
+        <fgColor rgb="FF49A849"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,19 +672,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4545"/>
+        <fgColor rgb="FFFFDFDF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE0E0"/>
+        <fgColor rgb="FFFFDCDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDDDD"/>
+        <fgColor rgb="FFFFD8D8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,6 +726,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFAFAF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF7979"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -774,7 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6B6B"/>
+        <fgColor rgb="FFFFDDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -841,10 +823,10 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -852,8 +834,8 @@
     <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -877,16 +859,16 @@
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -909,18 +891,15 @@
     <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3">
-        <v>37910.91953381371</v>
+        <v>37939.70256099912</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1274,8 +1253,8 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
-        <v>37934.54092866274</v>
+      <c r="F3" s="4">
+        <v>37966.91523575826</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1295,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="4">
-        <v>37965.94176694682</v>
+        <v>38001.23696537453</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1314,8 +1293,8 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3">
-        <v>37936.05702567058</v>
+      <c r="F5" s="4">
+        <v>37973.18542444355</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1335,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="3">
-        <v>37921.29626082347</v>
+        <v>37930.92000443382</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1355,7 +1334,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="3">
-        <v>37916.43873075548</v>
+        <v>37931.95850354146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1375,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="3">
-        <v>37910.73516876747</v>
+        <v>37933.21475120444</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1395,7 +1374,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="3">
-        <v>37912.9134739577</v>
+        <v>37934.83771646766</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1415,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="3">
-        <v>37930.26615187401</v>
+        <v>37931.80035779185</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1435,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="3">
-        <v>37929.46291648821</v>
+        <v>37932.31282757928</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1455,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="3">
-        <v>37927.29801205933</v>
+        <v>37932.41725377722</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1475,7 +1454,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="3">
-        <v>37927.36162407372</v>
+        <v>37934.31406613689</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1555,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="3">
-        <v>37943.20908202867</v>
+        <v>37943.59205678761</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1575,7 +1554,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="5">
-        <v>38533.96734062886</v>
+        <v>38598.27710901922</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1595,7 +1574,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="6">
-        <v>39077.94338748381</v>
+        <v>39145.85206970409</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1615,7 +1594,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="7">
-        <v>39627.80089621083</v>
+        <v>39697.91002397853</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1635,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="8">
-        <v>40302.82095760213</v>
+        <v>40374.76474857987</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1675,7 +1654,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="3">
-        <v>37945.26012165049</v>
+        <v>37945.30687729963</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1695,7 +1674,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3">
-        <v>37945.3907855853</v>
+        <v>37945.51550556521</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1715,7 +1694,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="3">
-        <v>37946.07404524731</v>
+        <v>37946.60645142139</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1735,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="3">
-        <v>37889.64779606149</v>
+        <v>37902.57854946035</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1755,7 +1734,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="3">
-        <v>37909.38341084086</v>
+        <v>37934.36053386513</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1774,8 +1753,8 @@
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="3">
-        <v>37933.035154122</v>
+      <c r="F28" s="4">
+        <v>37971.51295097001</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1795,7 +1774,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="3">
-        <v>37919.5017092083</v>
+        <v>37942.48489755584</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2054,7 +2033,7 @@
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="5">
         <v>38638.49761307208</v>
       </c>
     </row>
@@ -2074,7 +2053,7 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="6">
         <v>39187.68370642057</v>
       </c>
     </row>
@@ -2094,7 +2073,7 @@
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="9">
         <v>39740.84742497549</v>
       </c>
     </row>
@@ -2114,7 +2093,7 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="8">
         <v>40417.04740094244</v>
       </c>
     </row>
@@ -2214,8 +2193,8 @@
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="13">
-        <v>45479.05927101962</v>
+      <c r="F50" s="10">
+        <v>45562.55702774465</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2234,8 +2213,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="14">
-        <v>45562.97045917595</v>
+      <c r="F51" s="11">
+        <v>45685.54388311332</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2254,8 +2233,8 @@
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="15">
-        <v>45660.44691746857</v>
+      <c r="F52" s="12">
+        <v>45829.01150971936</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2274,8 +2253,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="14">
-        <v>45579.35577195052</v>
+      <c r="F53" s="11">
+        <v>45719.21669254097</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2294,8 +2273,8 @@
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="16">
-        <v>45769.64195250492</v>
+      <c r="F54" s="13">
+        <v>45794.72682554125</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2314,8 +2293,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="16">
-        <v>45788.89297838368</v>
+      <c r="F55" s="12">
+        <v>45828.94794643443</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2334,8 +2313,8 @@
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="17">
-        <v>45812.32599987106</v>
+      <c r="F56" s="12">
+        <v>45870.71812564322</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2354,8 +2333,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="16">
-        <v>45804.44814031399</v>
+      <c r="F57" s="12">
+        <v>45861.28723482264</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2374,8 +2353,8 @@
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="18">
-        <v>46130.03965804658</v>
+      <c r="F58" s="14">
+        <v>46134.11877332225</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2394,8 +2373,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="18">
-        <v>46132.09598549362</v>
+      <c r="F59" s="14">
+        <v>46139.57753796819</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2414,8 +2393,8 @@
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="19">
-        <v>46031.95335013142</v>
+      <c r="F60" s="15">
+        <v>46045.45302656455</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2434,8 +2413,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="19">
-        <v>46034.81419727699</v>
+      <c r="F61" s="15">
+        <v>46053.23513391466</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2454,7 +2433,7 @@
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="20">
+      <c r="F62" s="16">
         <v>46571.26356991468</v>
       </c>
     </row>
@@ -2474,7 +2453,7 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="16">
         <v>46571.26356991468</v>
       </c>
     </row>
@@ -2494,7 +2473,7 @@
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="20">
+      <c r="F64" s="16">
         <v>46571.26356991468</v>
       </c>
     </row>
@@ -2514,8 +2493,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="21">
-        <v>46291.69308429231</v>
+      <c r="F65" s="17">
+        <v>46292.68208531393</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2534,8 +2513,8 @@
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="22">
-        <v>39929.98806120411</v>
+      <c r="F66" s="18">
+        <v>42871.86049408011</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2554,8 +2533,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="23">
-        <v>40855.20039002644</v>
+      <c r="F67" s="19">
+        <v>44211.18071695189</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2574,8 +2553,8 @@
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="24">
-        <v>41301.38412743329</v>
+      <c r="F68" s="20">
+        <v>44889.38248434007</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2594,8 +2573,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="25">
-        <v>41714.07025968864</v>
+      <c r="F69" s="13">
+        <v>45769.93045283847</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2614,7 +2593,7 @@
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="20">
+      <c r="F70" s="16">
         <v>46571.26356991468</v>
       </c>
     </row>
@@ -2634,8 +2613,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="26">
-        <v>46525.50099590852</v>
+      <c r="F71" s="21">
+        <v>46525.61713451463</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2654,8 +2633,8 @@
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="26">
-        <v>46525.66455886754</v>
+      <c r="F72" s="21">
+        <v>46525.97435682542</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2674,8 +2653,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="26">
-        <v>46526.51985204591</v>
+      <c r="F73" s="21">
+        <v>46527.84232135359</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2694,8 +2673,8 @@
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="8">
-        <v>40252.94402188826</v>
+      <c r="F74" s="22">
+        <v>40273.77996587848</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2714,8 +2693,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="8">
-        <v>40272.91900505853</v>
+      <c r="F75" s="22">
+        <v>40293.59717303295</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2735,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="F76" s="8">
-        <v>40296.27328909327</v>
+        <v>40320.24563788408</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2754,8 +2733,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="8">
-        <v>40283.11354737793</v>
+      <c r="F77" s="22">
+        <v>40303.79111878073</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2774,8 +2753,8 @@
       <c r="E78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="8">
-        <v>40246.34850323401</v>
+      <c r="F78" s="22">
+        <v>40250.24122586514</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2794,8 +2773,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="8">
-        <v>40249.11427704722</v>
+      <c r="F79" s="22">
+        <v>40253.87643055695</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2814,8 +2793,8 @@
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="8">
-        <v>40256.22774595408</v>
+      <c r="F80" s="22">
+        <v>40261.83728177591</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2834,8 +2813,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="8">
-        <v>40257.54857517921</v>
+      <c r="F81" s="22">
+        <v>40262.97774016515</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2854,8 +2833,8 @@
       <c r="E82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="8">
-        <v>40244.51013409243</v>
+      <c r="F82" s="22">
+        <v>40245.19155608563</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2874,8 +2853,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="8">
-        <v>40247.66316786374</v>
+      <c r="F83" s="22">
+        <v>40248.69421081051</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2894,8 +2873,8 @@
       <c r="E84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="8">
-        <v>40247.87354393462</v>
+      <c r="F84" s="22">
+        <v>40249.3324317697</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2914,8 +2893,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="8">
-        <v>40250.75088080343</v>
+      <c r="F85" s="22">
+        <v>40252.42600581281</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2934,7 +2913,7 @@
       <c r="E86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="22">
         <v>40248.48442086939</v>
       </c>
     </row>
@@ -2954,7 +2933,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="22">
         <v>40248.48442086939</v>
       </c>
     </row>
@@ -2974,7 +2953,7 @@
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="22">
         <v>40248.48442086939</v>
       </c>
     </row>
@@ -2994,8 +2973,8 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="8">
-        <v>40248.68000467157</v>
+      <c r="F89" s="22">
+        <v>40248.76644505724</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3015,7 +2994,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="23">
-        <v>40827.75747120357</v>
+        <v>40897.01950031053</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3034,8 +3013,8 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="27">
-        <v>41376.67028081414</v>
+      <c r="F91" s="24">
+        <v>41447.09040661663</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3054,8 +3033,8 @@
       <c r="E92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="28">
-        <v>41929.83399936907</v>
+      <c r="F92" s="25">
+        <v>42000.25412517155</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3074,8 +3053,8 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="29">
-        <v>42606.03397533601</v>
+      <c r="F93" s="26">
+        <v>42676.45410113849</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3094,8 +3073,8 @@
       <c r="E94" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="8">
-        <v>40246.12312203762</v>
+      <c r="F94" s="22">
+        <v>40246.1652256884</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3114,8 +3093,8 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="8">
-        <v>40248.42421325902</v>
+      <c r="F95" s="22">
+        <v>40248.5106536447</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3134,8 +3113,8 @@
       <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="8">
-        <v>40248.59463692417</v>
+      <c r="F96" s="22">
+        <v>40248.68107730984</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3154,8 +3133,8 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="8">
-        <v>40249.48580567717</v>
+      <c r="F97" s="22">
+        <v>40249.57224606284</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3174,8 +3153,8 @@
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="30">
-        <v>40187.71711020224</v>
+      <c r="F98" s="27">
+        <v>40200.412277855</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3194,8 +3173,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="30">
-        <v>40199.7723792257</v>
+      <c r="F99" s="27">
+        <v>40220.06528632351</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3214,8 +3193,8 @@
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="30">
-        <v>40223.40158852856</v>
+      <c r="F100" s="22">
+        <v>40252.52974722309</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3234,8 +3213,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="30">
-        <v>40210.35027793088</v>
+      <c r="F101" s="27">
+        <v>40230.25923207129</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3254,7 +3233,7 @@
       <c r="E102" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="31">
+      <c r="F102" s="28">
         <v>40164.24404501593</v>
       </c>
     </row>
@@ -3274,7 +3253,7 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="31">
+      <c r="F103" s="28">
         <v>40169.90578043821</v>
       </c>
     </row>
@@ -3294,7 +3273,7 @@
       <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="30">
+      <c r="F104" s="27">
         <v>40178.96754498972</v>
       </c>
     </row>
@@ -3314,7 +3293,7 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="30">
+      <c r="F105" s="27">
         <v>40179.69304888317</v>
       </c>
     </row>
@@ -3334,7 +3313,7 @@
       <c r="E106" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="31">
+      <c r="F106" s="28">
         <v>40155.97099663804</v>
       </c>
     </row>
@@ -3354,7 +3333,7 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="31">
+      <c r="F107" s="28">
         <v>40156.96592561318</v>
       </c>
     </row>
@@ -3374,7 +3353,7 @@
       <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="31">
+      <c r="F108" s="28">
         <v>40158.78250011438</v>
       </c>
     </row>
@@ -3394,7 +3373,7 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="31">
+      <c r="F109" s="28">
         <v>40161.90624528476</v>
       </c>
     </row>
@@ -3414,7 +3393,7 @@
       <c r="E110" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="31">
+      <c r="F110" s="28">
         <v>40154.35282269291</v>
       </c>
     </row>
@@ -3434,7 +3413,7 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="31">
+      <c r="F111" s="28">
         <v>40154.35282269291</v>
       </c>
     </row>
@@ -3454,7 +3433,7 @@
       <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="31">
+      <c r="F112" s="28">
         <v>40154.35282269291</v>
       </c>
     </row>
@@ -3474,7 +3453,7 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="31">
+      <c r="F113" s="28">
         <v>40154.83533698008</v>
       </c>
     </row>
@@ -3494,7 +3473,7 @@
       <c r="E114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="32">
+      <c r="F114" s="29">
         <v>40953.53594838436</v>
       </c>
     </row>
@@ -3514,7 +3493,7 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="33">
+      <c r="F115" s="24">
         <v>41502.72204173285</v>
       </c>
     </row>
@@ -3534,7 +3513,7 @@
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="34">
+      <c r="F116" s="30">
         <v>42055.88576028778</v>
       </c>
     </row>
@@ -3554,7 +3533,7 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="35">
+      <c r="F117" s="31">
         <v>42732.08573625472</v>
       </c>
     </row>
@@ -3574,7 +3553,7 @@
       <c r="E118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F118" s="31">
+      <c r="F118" s="28">
         <v>40154.44485783783</v>
       </c>
     </row>
@@ -3594,7 +3573,7 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="31">
+      <c r="F119" s="28">
         <v>40154.57954556753</v>
       </c>
     </row>
@@ -3614,7 +3593,7 @@
       <c r="E120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="31">
+      <c r="F120" s="28">
         <v>40154.74996923268</v>
       </c>
     </row>
@@ -3634,7 +3613,7 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="31">
+      <c r="F121" s="28">
         <v>40155.64113798568</v>
       </c>
     </row>
@@ -3654,8 +3633,8 @@
       <c r="E122" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F122" s="36">
-        <v>52792.41089361304</v>
+      <c r="F122" s="32">
+        <v>52850.88071009266</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3674,8 +3653,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="37">
-        <v>52633.86683388102</v>
+      <c r="F123" s="33">
+        <v>52717.81418607136</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3694,8 +3673,8 @@
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="38">
-        <v>53262.14708683619</v>
+      <c r="F124" s="34">
+        <v>53378.66984389359</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3714,8 +3693,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="39">
-        <v>52103.64331866813</v>
+      <c r="F125" s="35">
+        <v>53121.59123269999</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3734,8 +3713,8 @@
       <c r="E126" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="40">
-        <v>53309.82039850143</v>
+      <c r="F126" s="36">
+        <v>53322.47361680965</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3754,8 +3733,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="41">
-        <v>53135.97146113488</v>
+      <c r="F127" s="37">
+        <v>53156.81907193398</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3774,8 +3753,8 @@
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="42">
-        <v>53423.82905592094</v>
+      <c r="F128" s="38">
+        <v>53455.85504184755</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3794,8 +3773,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="43">
-        <v>53478.21918049161</v>
+      <c r="F129" s="39">
+        <v>53511.61156725282</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3814,8 +3793,8 @@
       <c r="E130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="44">
-        <v>53729.28863365264</v>
+      <c r="F130" s="40">
+        <v>53731.37907439323</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3834,8 +3813,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="44">
-        <v>53766.74413799475</v>
+      <c r="F131" s="40">
+        <v>53770.05466864479</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3854,8 +3833,8 @@
       <c r="E132" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="45">
-        <v>53668.20448286978</v>
+      <c r="F132" s="41">
+        <v>53674.05796546005</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3874,8 +3853,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="44">
-        <v>53759.79641773165</v>
+      <c r="F133" s="40">
+        <v>53768.66882833755</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3894,7 +3873,7 @@
       <c r="E134" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="46">
+      <c r="F134" s="42">
         <v>54033.39123188433</v>
       </c>
     </row>
@@ -3914,7 +3893,7 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="46">
+      <c r="F135" s="42">
         <v>54033.39123188433</v>
       </c>
     </row>
@@ -3934,7 +3913,7 @@
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="46">
+      <c r="F136" s="42">
         <v>54033.39123188433</v>
       </c>
     </row>
@@ -3954,8 +3933,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="46">
-        <v>54019.03510039091</v>
+      <c r="F137" s="42">
+        <v>54019.58597591997</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3974,8 +3953,8 @@
       <c r="E138" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="47">
-        <v>45038.8506351</v>
+      <c r="F138" s="43">
+        <v>46459.89757982267</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3994,8 +3973,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="48">
-        <v>43845.04072243141</v>
+      <c r="F139" s="44">
+        <v>49129.56210527463</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4014,8 +3993,8 @@
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="49">
-        <v>44334.09380352889</v>
+      <c r="F140" s="45">
+        <v>50364.80981747346</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4034,8 +4013,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="50">
-        <v>44493.31041750177</v>
+      <c r="F141" s="46">
+        <v>51693.25301689769</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4054,8 +4033,8 @@
       <c r="E142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F142" s="46">
-        <v>54003.85863201644</v>
+      <c r="F142" s="42">
+        <v>54003.96370643703</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4074,8 +4053,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="46">
-        <v>54009.09344189273</v>
+      <c r="F143" s="42">
+        <v>54009.35228621471</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4094,8 +4073,8 @@
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F144" s="46">
-        <v>54015.71717433958</v>
+      <c r="F144" s="42">
+        <v>54016.17058746336</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4114,8 +4093,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="46">
-        <v>54032.89646779865</v>
+      <c r="F145" s="42">
+        <v>54033.84129367013</v>
       </c>
     </row>
   </sheetData>
@@ -4164,8 +4143,8 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="51">
-        <v>8671.563983966071</v>
+      <c r="F2" s="47">
+        <v>8642.780956780662</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4184,8 +4163,8 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="51">
-        <v>8682.298271468142</v>
+      <c r="F3" s="48">
+        <v>8649.923964372621</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4204,8 +4183,8 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51">
-        <v>8694.524688541154</v>
+      <c r="F4" s="48">
+        <v>8659.229490113443</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4224,8 +4203,8 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="51">
-        <v>8685.489026171161</v>
+      <c r="F5" s="48">
+        <v>8648.360627398193</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4244,8 +4223,8 @@
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="51">
-        <v>8650.804746730386</v>
+      <c r="F6" s="47">
+        <v>8641.181003120046</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4264,8 +4243,8 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="51">
-        <v>8655.662276798383</v>
+      <c r="F7" s="47">
+        <v>8640.142504012407</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4284,8 +4263,8 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="51">
-        <v>8661.365838786392</v>
+      <c r="F8" s="47">
+        <v>8638.886256349422</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4304,8 +4283,8 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="51">
-        <v>8659.187533596169</v>
+      <c r="F9" s="47">
+        <v>8637.263291086198</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4324,8 +4303,8 @@
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="52">
-        <v>8641.834855679857</v>
+      <c r="F10" s="47">
+        <v>8640.30064976201</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4344,8 +4323,8 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="52">
-        <v>8642.638091065652</v>
+      <c r="F11" s="47">
+        <v>8639.788179974581</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4364,8 +4343,8 @@
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="52">
-        <v>8644.802995494538</v>
+      <c r="F12" s="47">
+        <v>8639.683753776635</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4384,8 +4363,8 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="52">
-        <v>8644.739383480139</v>
+      <c r="F13" s="47">
+        <v>8637.786941416978</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4404,7 +4383,7 @@
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="47">
         <v>8620.656340198302</v>
       </c>
     </row>
@@ -4424,7 +4403,7 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="47">
         <v>8620.656340198302</v>
       </c>
     </row>
@@ -4444,7 +4423,7 @@
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="47">
         <v>8620.656340198302</v>
       </c>
     </row>
@@ -4464,8 +4443,8 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="52">
-        <v>8628.891925525199</v>
+      <c r="F17" s="47">
+        <v>8628.508950766251</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4484,8 +4463,8 @@
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="53">
-        <v>8778.692243402602</v>
+      <c r="F18" s="49">
+        <v>8714.382475012242</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4504,8 +4483,8 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="54">
-        <v>8837.548490841937</v>
+      <c r="F19" s="50">
+        <v>8769.639808621658</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4524,8 +4503,8 @@
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="55">
-        <v>8896.413242551349</v>
+      <c r="F20" s="51">
+        <v>8826.304114783654</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4544,8 +4523,8 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="55">
-        <v>8909.3215187898</v>
+      <c r="F21" s="51">
+        <v>8837.377727812061</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4564,7 +4543,7 @@
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="47">
         <v>8620.656340198302</v>
       </c>
     </row>
@@ -4584,8 +4563,8 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="52">
-        <v>8626.840885903375</v>
+      <c r="F23" s="47">
+        <v>8626.794130254239</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4604,8 +4583,8 @@
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="52">
-        <v>8626.710221968566</v>
+      <c r="F24" s="47">
+        <v>8626.585501988649</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4624,8 +4603,8 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="52">
-        <v>8626.026962306554</v>
+      <c r="F25" s="47">
+        <v>8625.494556132469</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4644,8 +4623,8 @@
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="56">
-        <v>8749.796815310317</v>
+      <c r="F26" s="49">
+        <v>8753.914526487739</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4664,8 +4643,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="56">
-        <v>8755.785442450833</v>
+      <c r="F27" s="50">
+        <v>8763.563776211247</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4684,8 +4663,8 @@
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="53">
-        <v>8762.968957502293</v>
+      <c r="F28" s="50">
+        <v>8774.857938398691</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4704,8 +4683,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="53">
-        <v>8758.99634213275</v>
+      <c r="F29" s="50">
+        <v>8766.207245204079</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4724,7 +4703,7 @@
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="49">
         <v>8739.889392181267</v>
       </c>
     </row>
@@ -4744,7 +4723,7 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="49">
         <v>8743.675075865305</v>
       </c>
     </row>
@@ -4764,7 +4743,7 @@
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="49">
         <v>8748.299086421785</v>
       </c>
     </row>
@@ -4784,7 +4763,7 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="49">
         <v>8747.052656666619</v>
       </c>
     </row>
@@ -4804,7 +4783,7 @@
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="49">
         <v>8735.00314401339</v>
       </c>
     </row>
@@ -4824,7 +4803,7 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="49">
         <v>8735.859820795597</v>
       </c>
     </row>
@@ -4844,7 +4823,7 @@
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="49">
         <v>8737.166348752145</v>
       </c>
     </row>
@@ -4864,7 +4843,7 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="49">
         <v>8738.05393323914</v>
       </c>
     </row>
@@ -4884,7 +4863,7 @@
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="49">
         <v>8734.075441687715</v>
       </c>
     </row>
@@ -4904,7 +4883,7 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="49">
         <v>8734.075441687715</v>
       </c>
     </row>
@@ -4924,7 +4903,7 @@
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40" s="49">
         <v>8734.075441687715</v>
       </c>
     </row>
@@ -4944,7 +4923,7 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="49">
         <v>8734.337162718542</v>
       </c>
     </row>
@@ -4964,7 +4943,7 @@
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="54">
+      <c r="F42" s="51">
         <v>8825.903456516397</v>
       </c>
     </row>
@@ -4984,7 +4963,7 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="55">
+      <c r="F43" s="52">
         <v>8882.698978676626</v>
       </c>
     </row>
@@ -5004,7 +4983,7 @@
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="57">
+      <c r="F44" s="53">
         <v>8940.767854942382</v>
       </c>
     </row>
@@ -5024,7 +5003,7 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="53">
         <v>8954.136057528258</v>
       </c>
     </row>
@@ -5044,7 +5023,7 @@
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="49">
         <v>8734.075441687715</v>
       </c>
     </row>
@@ -5064,7 +5043,7 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F47" s="49">
         <v>8734.10817252977</v>
       </c>
     </row>
@@ -5084,7 +5063,7 @@
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="49">
         <v>8734.162750708956</v>
       </c>
     </row>
@@ -5104,7 +5083,7 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="49">
         <v>8734.448147504319</v>
       </c>
     </row>
@@ -5124,8 +5103,8 @@
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="58">
-        <v>1093.04173653423</v>
+      <c r="F50" s="54">
+        <v>1009.543979809202</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5144,8 +5123,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="59">
-        <v>1009.130548377913</v>
+      <c r="F51" s="55">
+        <v>886.5571244405372</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5164,8 +5143,8 @@
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="60">
-        <v>911.6540900852889</v>
+      <c r="F52" s="56">
+        <v>743.0894978344924</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5184,8 +5163,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="59">
-        <v>992.745235603345</v>
+      <c r="F53" s="57">
+        <v>852.8843150128753</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5204,8 +5183,8 @@
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="61">
-        <v>802.4590550489307</v>
+      <c r="F54" s="58">
+        <v>777.3741820126058</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5224,8 +5203,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="61">
-        <v>783.2080291701715</v>
+      <c r="F55" s="56">
+        <v>743.1530611194273</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5244,8 +5223,8 @@
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="62">
-        <v>759.7750076827949</v>
+      <c r="F56" s="59">
+        <v>701.3828819106274</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5264,8 +5243,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="62">
-        <v>767.652867239862</v>
+      <c r="F57" s="59">
+        <v>710.8137727312044</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5284,8 +5263,8 @@
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="63">
-        <v>442.0613495072718</v>
+      <c r="F58" s="60">
+        <v>437.9822342315995</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5304,8 +5283,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="64">
-        <v>440.005022060243</v>
+      <c r="F59" s="60">
+        <v>432.5234695856651</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5324,8 +5303,8 @@
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="65">
-        <v>540.1476574224341</v>
+      <c r="F60" s="61">
+        <v>526.6479809893017</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5344,8 +5323,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="65">
-        <v>537.2868102768791</v>
+      <c r="F61" s="61">
+        <v>518.8658736392057</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5364,7 +5343,7 @@
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="66">
+      <c r="F62" s="62">
         <v>0.8374376391659397</v>
       </c>
     </row>
@@ -5384,7 +5363,7 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="66">
+      <c r="F63" s="62">
         <v>0.8374376391659397</v>
       </c>
     </row>
@@ -5404,7 +5383,7 @@
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="66">
+      <c r="F64" s="62">
         <v>0.8374376391659397</v>
       </c>
     </row>
@@ -5424,8 +5403,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="67">
-        <v>280.4079232615371</v>
+      <c r="F65" s="63">
+        <v>279.4189222399305</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5444,8 +5423,8 @@
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="68">
-        <v>6642.112946349741</v>
+      <c r="F66" s="64">
+        <v>3700.240513473752</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5464,8 +5443,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="69">
-        <v>5917.252354323884</v>
+      <c r="F67" s="65">
+        <v>2561.272027398423</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5484,8 +5463,8 @@
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="70">
-        <v>5767.582992213436</v>
+      <c r="F68" s="66">
+        <v>2179.58463530668</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5504,8 +5483,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="71">
-        <v>5534.33395684361</v>
+      <c r="F69" s="67">
+        <v>1478.473763693773</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5524,7 +5503,7 @@
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="66">
+      <c r="F70" s="62">
         <v>0.8374376391659397</v>
       </c>
     </row>
@@ -5544,8 +5523,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="66">
-        <v>46.60001164533607</v>
+      <c r="F71" s="62">
+        <v>46.4838730392234</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5564,8 +5543,8 @@
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="66">
-        <v>46.43644868631314</v>
+      <c r="F72" s="62">
+        <v>46.12665072843274</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5584,8 +5563,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="66">
-        <v>45.58115550795378</v>
+      <c r="F73" s="62">
+        <v>44.25868620026506</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5604,8 +5583,8 @@
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="72">
-        <v>13814.80069044788</v>
+      <c r="F74" s="68">
+        <v>13793.96474645766</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5624,8 +5603,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="72">
-        <v>13820.57751843686</v>
+      <c r="F75" s="68">
+        <v>13799.89935046245</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5644,8 +5623,8 @@
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="73">
-        <v>13832.09241584776</v>
+      <c r="F76" s="68">
+        <v>13808.12006705696</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5664,8 +5643,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="72">
-        <v>13823.82594843287</v>
+      <c r="F77" s="68">
+        <v>13803.14837703007</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5684,8 +5663,8 @@
       <c r="E78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="72">
-        <v>13790.56689857873</v>
+      <c r="F78" s="68">
+        <v>13786.6741759476</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5704,8 +5683,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="72">
-        <v>13793.66595023068</v>
+      <c r="F79" s="68">
+        <v>13788.90379672096</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5724,8 +5703,8 @@
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="72">
-        <v>13795.74302469497</v>
+      <c r="F80" s="68">
+        <v>13790.13348887314</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5744,8 +5723,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="72">
-        <v>13796.21358461973</v>
+      <c r="F81" s="68">
+        <v>13790.78441963379</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5764,8 +5743,8 @@
       <c r="E82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="72">
-        <v>13790.12294975656</v>
+      <c r="F82" s="68">
+        <v>13789.44152776336</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5784,8 +5763,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="72">
-        <v>13787.2800726869</v>
+      <c r="F83" s="68">
+        <v>13786.24902974014</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5804,8 +5783,8 @@
       <c r="E84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="72">
-        <v>13788.38304364588</v>
+      <c r="F84" s="68">
+        <v>13786.9241558108</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5824,8 +5803,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="72">
-        <v>13789.00532191684</v>
+      <c r="F85" s="68">
+        <v>13787.33019690747</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5844,7 +5823,7 @@
       <c r="E86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="72">
+      <c r="F86" s="68">
         <v>13785.88043383257</v>
       </c>
     </row>
@@ -5864,7 +5843,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="72">
+      <c r="F87" s="68">
         <v>13785.88043383257</v>
       </c>
     </row>
@@ -5884,7 +5863,7 @@
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="72">
+      <c r="F88" s="68">
         <v>13785.88043383257</v>
       </c>
     </row>
@@ -5904,8 +5883,8 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="72">
-        <v>13786.05719246511</v>
+      <c r="F89" s="68">
+        <v>13785.97075207943</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5924,8 +5903,8 @@
       <c r="E90" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="74">
-        <v>13933.41740396831</v>
+      <c r="F90" s="69">
+        <v>13864.15537486134</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5944,8 +5923,8 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="75">
-        <v>13990.46011027991</v>
+      <c r="F91" s="70">
+        <v>13920.03998447742</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5964,8 +5943,8 @@
       <c r="E92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="76">
-        <v>14048.52898654567</v>
+      <c r="F92" s="71">
+        <v>13978.10886074318</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5984,8 +5963,8 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="76">
-        <v>14061.89718913154</v>
+      <c r="F93" s="72">
+        <v>13991.47706332906</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -6004,8 +5983,8 @@
       <c r="E94" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="72">
-        <v>13788.24173266434</v>
+      <c r="F94" s="68">
+        <v>13788.19962901356</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6024,8 +6003,8 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="72">
-        <v>13785.97527526461</v>
+      <c r="F95" s="68">
+        <v>13785.88883487893</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6044,8 +6023,8 @@
       <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="72">
-        <v>13786.02985344379</v>
+      <c r="F96" s="68">
+        <v>13785.94341305812</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6064,8 +6043,8 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="72">
-        <v>13786.31525023915</v>
+      <c r="F97" s="68">
+        <v>13786.22880985348</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6084,8 +6063,8 @@
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="74">
-        <v>13890.38186110489</v>
+      <c r="F98" s="70">
+        <v>13894.37516607424</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6104,8 +6083,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="74">
-        <v>13894.12322700073</v>
+      <c r="F99" s="70">
+        <v>13900.47548995177</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6124,8 +6103,8 @@
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="74">
-        <v>13901.30014863339</v>
+      <c r="F100" s="70">
+        <v>13910.39796098993</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6144,8 +6123,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="74">
-        <v>13897.46860526732</v>
+      <c r="F101" s="70">
+        <v>13903.7245165194</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6164,7 +6143,7 @@
       <c r="E102" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="74">
+      <c r="F102" s="70">
         <v>13883.16841335918</v>
       </c>
     </row>
@@ -6184,7 +6163,7 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="74">
+      <c r="F103" s="70">
         <v>13884.96896376355</v>
       </c>
     </row>
@@ -6204,7 +6183,7 @@
       <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="74">
+      <c r="F104" s="70">
         <v>13887.84501719088</v>
       </c>
     </row>
@@ -6224,7 +6203,7 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="74">
+      <c r="F105" s="70">
         <v>13888.08859546056</v>
       </c>
     </row>
@@ -6244,7 +6223,7 @@
       <c r="E106" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="74">
+      <c r="F106" s="70">
         <v>13880.53014383446</v>
       </c>
     </row>
@@ -6264,7 +6243,7 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="74">
+      <c r="F107" s="70">
         <v>13880.84864835001</v>
       </c>
     </row>
@@ -6284,7 +6263,7 @@
       <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="74">
+      <c r="F108" s="70">
         <v>13881.4299355873</v>
       </c>
     </row>
@@ -6304,7 +6283,7 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="74">
+      <c r="F109" s="70">
         <v>13882.42985712672</v>
       </c>
     </row>
@@ -6324,7 +6303,7 @@
       <c r="E110" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="74">
+      <c r="F110" s="70">
         <v>13880.01203200905</v>
       </c>
     </row>
@@ -6344,7 +6323,7 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="74">
+      <c r="F111" s="70">
         <v>13880.01203200905</v>
       </c>
     </row>
@@ -6364,7 +6343,7 @@
       <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="74">
+      <c r="F112" s="70">
         <v>13880.01203200905</v>
       </c>
     </row>
@@ -6384,7 +6363,7 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="74">
+      <c r="F113" s="70">
         <v>13880.16655721071</v>
       </c>
     </row>
@@ -6404,7 +6383,7 @@
       <c r="E114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="77">
+      <c r="F114" s="71">
         <v>13971.11218835159</v>
       </c>
     </row>
@@ -6424,7 +6403,7 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="75">
+      <c r="F115" s="72">
         <v>14027.90771051182</v>
       </c>
     </row>
@@ -6444,7 +6423,7 @@
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="76">
+      <c r="F116" s="73">
         <v>14085.97658677757</v>
       </c>
     </row>
@@ -6464,7 +6443,7 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="76">
+      <c r="F117" s="73">
         <v>14099.34478936345</v>
       </c>
     </row>
@@ -6484,7 +6463,7 @@
       <c r="E118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F118" s="74">
+      <c r="F118" s="70">
         <v>13880.04150626444</v>
       </c>
     </row>
@@ -6504,7 +6483,7 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="74">
+      <c r="F119" s="70">
         <v>13880.08464001021</v>
       </c>
     </row>
@@ -6524,7 +6503,7 @@
       <c r="E120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="74">
+      <c r="F120" s="70">
         <v>13880.13921818939</v>
       </c>
     </row>
@@ -6544,7 +6523,7 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="74">
+      <c r="F121" s="70">
         <v>13880.42461498476</v>
       </c>
     </row>
@@ -6564,8 +6543,8 @@
       <c r="E122" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F122" s="78">
-        <v>1241.953961088917</v>
+      <c r="F122" s="74">
+        <v>1183.484144609288</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6584,8 +6563,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="79">
-        <v>1400.498020820932</v>
+      <c r="F123" s="75">
+        <v>1316.550668630588</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6604,8 +6583,8 @@
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="61">
-        <v>787.3261591126259</v>
+      <c r="F124" s="59">
+        <v>670.8034020552282</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6624,8 +6603,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="80">
-        <v>1931.836756135605</v>
+      <c r="F125" s="55">
+        <v>913.8888421037665</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6644,8 +6623,8 @@
       <c r="E126" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="62">
-        <v>724.5444562005192</v>
+      <c r="F126" s="59">
+        <v>711.8912378922979</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6664,8 +6643,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="60">
-        <v>898.3933935670742</v>
+      <c r="F127" s="57">
+        <v>877.5457827679636</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6684,8 +6663,8 @@
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="81">
-        <v>610.5357987810036</v>
+      <c r="F128" s="76">
+        <v>578.5098128544048</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6704,8 +6683,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="81">
-        <v>557.1665473452589</v>
+      <c r="F129" s="61">
+        <v>523.7741605840455</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6724,8 +6703,8 @@
       <c r="E130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="67">
-        <v>305.076221049328</v>
+      <c r="F130" s="63">
+        <v>302.9857803087357</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6744,8 +6723,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="82">
-        <v>267.6207167072054</v>
+      <c r="F131" s="77">
+        <v>264.3101860571626</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6764,8 +6743,8 @@
       <c r="E132" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="83">
-        <v>366.1603718321803</v>
+      <c r="F132" s="78">
+        <v>360.3068892418987</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6784,8 +6763,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="82">
-        <v>275.5740478449551</v>
+      <c r="F133" s="77">
+        <v>266.7016372390647</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6804,7 +6783,7 @@
       <c r="E134" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="66">
+      <c r="F134" s="62">
         <v>0.9736228176284953</v>
       </c>
     </row>
@@ -6824,7 +6803,7 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="66">
+      <c r="F135" s="62">
         <v>0.9736228176284953</v>
       </c>
     </row>
@@ -6844,7 +6823,7 @@
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="66">
+      <c r="F136" s="62">
         <v>0.9736228176284953</v>
       </c>
     </row>
@@ -6864,8 +6843,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="66">
-        <v>15.3297543110488</v>
+      <c r="F137" s="62">
+        <v>14.77887878198183</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6884,8 +6863,8 @@
       <c r="E138" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="84">
-        <v>8995.514219601944</v>
+      <c r="F138" s="79">
+        <v>7574.46727487928</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6904,8 +6883,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="85">
-        <v>10238.78692780908</v>
+      <c r="F139" s="80">
+        <v>4954.26554496586</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6924,8 +6903,8 @@
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="86">
-        <v>9926.120804142391</v>
+      <c r="F140" s="81">
+        <v>3895.404790197805</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6944,8 +6923,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="87">
-        <v>9634.009817737886</v>
+      <c r="F141" s="82">
+        <v>2434.067218341982</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6964,8 +6943,8 @@
       <c r="E142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F142" s="66">
-        <v>30.50622268550961</v>
+      <c r="F142" s="62">
+        <v>30.40114826492576</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6984,8 +6963,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="66">
-        <v>25.27141280922952</v>
+      <c r="F143" s="62">
+        <v>25.01256848724546</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7004,8 +6983,8 @@
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F144" s="66">
-        <v>18.64768036238078</v>
+      <c r="F144" s="62">
+        <v>18.19426723860159</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7024,8 +7003,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="66">
-        <v>2.062580977110742</v>
+      <c r="F145" s="62">
+        <v>1.117755105648182</v>
       </c>
     </row>
   </sheetData>
@@ -7074,7 +7053,7 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="83">
         <v>46.90713208944782</v>
       </c>
     </row>
@@ -7094,7 +7073,7 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="82">
+      <c r="F3" s="83">
         <v>52.75977017468887</v>
       </c>
     </row>
@@ -7114,7 +7093,7 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="77">
         <v>57.51988920787191</v>
       </c>
     </row>
@@ -7134,7 +7113,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="77">
         <v>60.50741967808703</v>
       </c>
     </row>
@@ -7154,7 +7133,7 @@
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="62">
         <v>15.68362527740344</v>
       </c>
     </row>
@@ -7174,7 +7153,7 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="62">
         <v>25.29226781396442</v>
       </c>
     </row>
@@ -7194,7 +7173,7 @@
       <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="84">
         <v>36.63453242406739</v>
       </c>
     </row>
@@ -7214,7 +7193,7 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="84">
         <v>35.72950589080602</v>
       </c>
     </row>
@@ -7234,7 +7213,7 @@
       <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="62">
         <v>2.500265145055447</v>
       </c>
     </row>
@@ -7254,7 +7233,7 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="62">
         <v>4.644443933256662</v>
       </c>
     </row>
@@ -7274,7 +7253,7 @@
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="62">
         <v>8.342727327207307</v>
       </c>
     </row>
@@ -7294,7 +7273,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="62">
         <v>11.33025779742243</v>
       </c>
     </row>
@@ -7314,7 +7293,7 @@
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7334,7 +7313,7 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7354,7 +7333,7 @@
       <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7374,7 +7353,7 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="62">
         <v>0.6241264162076505</v>
       </c>
     </row>
@@ -7394,8 +7373,8 @@
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="81">
-        <v>131.8047347087822</v>
+      <c r="F18" s="76">
+        <v>159.7147501898658</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7414,8 +7393,8 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="90">
-        <v>137.6719346006508</v>
+      <c r="F19" s="76">
+        <v>165.5673882751069</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7434,8 +7413,8 @@
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="90">
-        <v>140.916237673597</v>
+      <c r="F20" s="59">
+        <v>170.3624000521493</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7454,8 +7433,8 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="90">
-        <v>143.9105016631337</v>
+      <c r="F21" s="59">
+        <v>173.3499305223644</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7474,7 +7453,7 @@
       <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7494,7 +7473,7 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="62">
         <v>0.07619675984203426</v>
       </c>
     </row>
@@ -7514,7 +7493,7 @@
       <c r="E24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="62">
         <v>0.2032536930335217</v>
       </c>
     </row>
@@ -7534,7 +7513,7 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="62">
         <v>0.8676518481602703</v>
       </c>
     </row>
@@ -7554,7 +7533,7 @@
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7574,7 +7553,7 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7594,7 +7573,7 @@
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="66">
+      <c r="F28" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7614,7 +7593,7 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7634,7 +7613,7 @@
       <c r="E30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7654,7 +7633,7 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="66">
+      <c r="F31" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7674,7 +7653,7 @@
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="66">
+      <c r="F32" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7694,7 +7673,7 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="66">
+      <c r="F33" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7714,7 +7693,7 @@
       <c r="E34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F34" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7734,7 +7713,7 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7754,7 +7733,7 @@
       <c r="E36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="66">
+      <c r="F36" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7774,7 +7753,7 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7794,7 +7773,7 @@
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7814,7 +7793,7 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7834,7 +7813,7 @@
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7854,7 +7833,7 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="66">
+      <c r="F41" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7874,7 +7853,7 @@
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7894,7 +7873,7 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="66">
+      <c r="F43" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7914,7 +7893,7 @@
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="66">
+      <c r="F44" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7934,7 +7913,7 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="66">
+      <c r="F45" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7954,7 +7933,7 @@
       <c r="E46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="66">
+      <c r="F46" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7974,7 +7953,7 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="66">
+      <c r="F47" s="62">
         <v>0</v>
       </c>
     </row>
@@ -7994,7 +7973,7 @@
       <c r="E48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="66">
+      <c r="F48" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8014,7 +7993,7 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="66">
+      <c r="F49" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8034,7 +8013,7 @@
       <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="67">
+      <c r="F50" s="77">
         <v>56.14594667479075</v>
       </c>
     </row>
@@ -8054,7 +8033,7 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="63">
         <v>82.46667905745227</v>
       </c>
     </row>
@@ -8074,7 +8053,7 @@
       <c r="E52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="81">
+      <c r="F52" s="85">
         <v>113.4374161850758</v>
       </c>
     </row>
@@ -8094,7 +8073,7 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="63">
+      <c r="F53" s="78">
         <v>93.92004389601966</v>
       </c>
     </row>
@@ -8114,7 +8093,7 @@
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="66">
+      <c r="F54" s="62">
         <v>16.65957078264462</v>
       </c>
     </row>
@@ -8134,7 +8113,7 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="88">
+      <c r="F55" s="62">
         <v>26.66424454913176</v>
       </c>
     </row>
@@ -8154,7 +8133,7 @@
       <c r="E56" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="89">
+      <c r="F56" s="84">
         <v>38.91678766439048</v>
       </c>
     </row>
@@ -8174,7 +8153,7 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="89">
+      <c r="F57" s="84">
         <v>37.77556914547296</v>
       </c>
     </row>
@@ -8194,7 +8173,7 @@
       <c r="E58" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="66">
+      <c r="F58" s="62">
         <v>2.670698610944005</v>
       </c>
     </row>
@@ -8214,7 +8193,7 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="66">
+      <c r="F59" s="62">
         <v>4.903749659620536</v>
       </c>
     </row>
@@ -8234,7 +8213,7 @@
       <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F60" s="66">
+      <c r="F60" s="62">
         <v>8.867720406068822</v>
       </c>
     </row>
@@ -8254,7 +8233,7 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="66">
+      <c r="F61" s="62">
         <v>12.09125392916781</v>
       </c>
     </row>
@@ -8274,7 +8253,7 @@
       <c r="E62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="66">
+      <c r="F62" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8294,7 +8273,7 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="66">
+      <c r="F63" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8314,7 +8293,7 @@
       <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="66">
+      <c r="F64" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8334,7 +8313,7 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="66">
+      <c r="F65" s="62">
         <v>0.6489382197301405</v>
       </c>
     </row>
@@ -8354,8 +8333,8 @@
       <c r="E66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="91">
-        <v>987.6623600216769</v>
+      <c r="F66" s="86">
+        <v>1194.11243489431</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8374,8 +8353,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="68">
-        <v>1338.30302055633</v>
+      <c r="F67" s="87">
+        <v>1666.167783668886</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8394,8 +8373,8 @@
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="92">
-        <v>1579.065940593151</v>
+      <c r="F68" s="88">
+        <v>1985.970376620051</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8414,8 +8393,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="93">
-        <v>2072.622061627781</v>
+      <c r="F69" s="89">
+        <v>2617.868170538067</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8434,7 +8413,7 @@
       <c r="E70" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="66">
+      <c r="F70" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8454,7 +8433,7 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="66">
+      <c r="F71" s="62">
         <v>0.07619675984203428</v>
       </c>
     </row>
@@ -8474,7 +8453,7 @@
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="66">
+      <c r="F72" s="62">
         <v>0.2032536930335217</v>
       </c>
     </row>
@@ -8494,7 +8473,7 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="66">
+      <c r="F73" s="62">
         <v>0.8676518481602704</v>
       </c>
     </row>
@@ -8514,8 +8493,8 @@
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="66">
-        <v>13.05209318050215</v>
+      <c r="F74" s="62">
+        <v>17.32124829714157</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8534,8 +8513,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="66">
-        <v>13.06075943764743</v>
+      <c r="F75" s="62">
+        <v>17.32814674702626</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8554,8 +8533,8 @@
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="66">
-        <v>18.42963876053003</v>
+      <c r="F76" s="62">
+        <v>22.69688301522719</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8574,8 +8553,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="66">
-        <v>13.06080295365306</v>
+      <c r="F77" s="62">
+        <v>17.32814674702626</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8594,7 +8573,7 @@
       <c r="E78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="66">
+      <c r="F78" s="62">
         <v>6.34389334623248</v>
       </c>
     </row>
@@ -8614,7 +8593,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="66">
+      <c r="F79" s="62">
         <v>7.760787712569048</v>
       </c>
     </row>
@@ -8634,7 +8613,7 @@
       <c r="E80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="66">
+      <c r="F80" s="62">
         <v>9.14174996466695</v>
       </c>
     </row>
@@ -8654,7 +8633,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="66">
+      <c r="F81" s="62">
         <v>8.84780316853792</v>
       </c>
     </row>
@@ -8674,7 +8653,7 @@
       <c r="E82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="66">
+      <c r="F82" s="62">
         <v>1.110499991463826</v>
       </c>
     </row>
@@ -8694,7 +8673,7 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="66">
+      <c r="F83" s="62">
         <v>1.680270368443387</v>
       </c>
     </row>
@@ -8714,7 +8693,7 @@
       <c r="E84" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="66">
+      <c r="F84" s="62">
         <v>2.377520750099458</v>
       </c>
     </row>
@@ -8734,7 +8713,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="66">
+      <c r="F85" s="62">
         <v>2.729918211001658</v>
       </c>
     </row>
@@ -8754,7 +8733,7 @@
       <c r="E86" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="66">
+      <c r="F86" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8774,7 +8753,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="66">
+      <c r="F87" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8794,7 +8773,7 @@
       <c r="E88" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="66">
+      <c r="F88" s="62">
         <v>0</v>
       </c>
     </row>
@@ -8814,7 +8793,7 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="66">
+      <c r="F89" s="62">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -8834,8 +8813,8 @@
       <c r="E90" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="90">
-        <v>141.32352401322</v>
+      <c r="F90" s="59">
+        <v>175.0756459102251</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8854,7 +8833,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="94">
+      <c r="F91" s="59">
         <v>175.1122544974064</v>
       </c>
     </row>
@@ -8874,7 +8853,7 @@
       <c r="E92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="94">
+      <c r="F92" s="59">
         <v>175.1122544974064</v>
       </c>
     </row>
@@ -8894,7 +8873,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="94">
+      <c r="F93" s="59">
         <v>175.1122544974064</v>
       </c>
     </row>
@@ -8914,7 +8893,7 @@
       <c r="E94" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="66">
+      <c r="F94" s="62">
         <v>0.06861548980660362</v>
       </c>
     </row>
@@ -8934,7 +8913,7 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="66">
+      <c r="F95" s="62">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -8954,7 +8933,7 @@
       <c r="E96" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="66">
+      <c r="F96" s="62">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -8974,7 +8953,7 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="66">
+      <c r="F97" s="62">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -8994,7 +8973,7 @@
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="66">
+      <c r="F98" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9014,7 +8993,7 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="66">
+      <c r="F99" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9034,7 +9013,7 @@
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="66">
+      <c r="F100" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9054,7 +9033,7 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="66">
+      <c r="F101" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9074,7 +9053,7 @@
       <c r="E102" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="66">
+      <c r="F102" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9094,7 +9073,7 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="66">
+      <c r="F103" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9114,7 +9093,7 @@
       <c r="E104" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="66">
+      <c r="F104" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9134,7 +9113,7 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="66">
+      <c r="F105" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9154,7 +9133,7 @@
       <c r="E106" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="66">
+      <c r="F106" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9174,7 +9153,7 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="66">
+      <c r="F107" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9194,7 +9173,7 @@
       <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="66">
+      <c r="F108" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9214,7 +9193,7 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="66">
+      <c r="F109" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9234,7 +9213,7 @@
       <c r="E110" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="66">
+      <c r="F110" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9254,7 +9233,7 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="66">
+      <c r="F111" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9274,7 +9253,7 @@
       <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="66">
+      <c r="F112" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9294,7 +9273,7 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="66">
+      <c r="F113" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9314,7 +9293,7 @@
       <c r="E114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="66">
+      <c r="F114" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9334,7 +9313,7 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="66">
+      <c r="F115" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9354,7 +9333,7 @@
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="66">
+      <c r="F116" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9374,7 +9353,7 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="66">
+      <c r="F117" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9394,7 +9373,7 @@
       <c r="E118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F118" s="66">
+      <c r="F118" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9414,7 +9393,7 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="66">
+      <c r="F119" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9434,7 +9413,7 @@
       <c r="E120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="66">
+      <c r="F120" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9454,7 +9433,7 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="66">
+      <c r="F121" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9474,7 +9453,7 @@
       <c r="E122" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F122" s="89">
+      <c r="F122" s="84">
         <v>39.38180150444062</v>
       </c>
     </row>
@@ -9494,7 +9473,7 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="67">
+      <c r="F123" s="77">
         <v>56.51337260818154</v>
       </c>
     </row>
@@ -9514,7 +9493,7 @@
       <c r="E124" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F124" s="64">
+      <c r="F124" s="63">
         <v>78.22282939554286</v>
       </c>
     </row>
@@ -9534,8 +9513,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="89">
-        <v>43.29703497908679</v>
+      <c r="F125" s="77">
+        <v>66.4486129197423</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9554,7 +9533,7 @@
       <c r="E126" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="66">
+      <c r="F126" s="62">
         <v>8.486567375387327</v>
       </c>
     </row>
@@ -9574,7 +9553,7 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="66">
+      <c r="F127" s="62">
         <v>14.01541339592255</v>
       </c>
     </row>
@@ -9594,7 +9573,7 @@
       <c r="E128" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F128" s="66">
+      <c r="F128" s="62">
         <v>21.56155719846485</v>
       </c>
     </row>
@@ -9614,7 +9593,7 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="88">
+      <c r="F129" s="62">
         <v>22.43301160624478</v>
       </c>
     </row>
@@ -9634,7 +9613,7 @@
       <c r="E130" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F130" s="66">
+      <c r="F130" s="62">
         <v>1.373200783700876</v>
       </c>
     </row>
@@ -9654,7 +9633,7 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="66">
+      <c r="F131" s="62">
         <v>2.177255841067113</v>
       </c>
     </row>
@@ -9674,7 +9653,7 @@
       <c r="E132" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F132" s="66">
+      <c r="F132" s="62">
         <v>3.864094120922158</v>
       </c>
     </row>
@@ -9694,7 +9673,7 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="66">
+      <c r="F133" s="62">
         <v>5.859345056431048</v>
       </c>
     </row>
@@ -9714,7 +9693,7 @@
       <c r="E134" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F134" s="66">
+      <c r="F134" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9734,7 +9713,7 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="66">
+      <c r="F135" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9754,7 +9733,7 @@
       <c r="E136" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F136" s="66">
+      <c r="F136" s="62">
         <v>0</v>
       </c>
     </row>
@@ -9774,7 +9753,7 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="66">
+      <c r="F137" s="62">
         <v>0.3597316458122778</v>
       </c>
     </row>
@@ -9794,7 +9773,7 @@
       <c r="E138" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="69">
+      <c r="F138" s="86">
         <v>1191.431886615747</v>
       </c>
     </row>
@@ -9814,8 +9793,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="95">
-        <v>1533.280238189245</v>
+      <c r="F139" s="79">
+        <v>1917.13428766186</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -9834,8 +9813,8 @@
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="87">
-        <v>1936.81901034836</v>
+      <c r="F140" s="90">
+        <v>2437.294730432523</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -9854,8 +9833,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="76">
-        <v>2840.926264521754</v>
+      <c r="F141" s="73">
+        <v>3578.719372993275</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -9874,7 +9853,7 @@
       <c r="E142" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F142" s="66">
+      <c r="F142" s="62">
         <v>0.06861548980660362</v>
       </c>
     </row>
@@ -9894,7 +9873,7 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="66">
+      <c r="F143" s="62">
         <v>0.1690300059510678</v>
       </c>
     </row>
@@ -9914,7 +9893,7 @@
       <c r="E144" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F144" s="66">
+      <c r="F144" s="62">
         <v>0.2960869391425553</v>
       </c>
     </row>
@@ -9934,7 +9913,7 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="66">
+      <c r="F145" s="62">
         <v>0.616988317348047</v>
       </c>
     </row>
@@ -10004,7 +9983,7 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="96">
+      <c r="F3" s="91">
         <v>25.26333756180536</v>
       </c>
     </row>
@@ -10024,7 +10003,7 @@
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="97">
+      <c r="F4" s="92">
         <v>49.89933681644658</v>
       </c>
     </row>
@@ -10044,7 +10023,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="96">
+      <c r="F5" s="91">
         <v>27.9212630785789</v>
       </c>
     </row>
@@ -10304,7 +10283,7 @@
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="93">
         <v>418.188134660008</v>
       </c>
     </row>
@@ -10324,7 +10303,7 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="10">
         <v>758.6032222319079</v>
       </c>
     </row>
@@ -10344,7 +10323,7 @@
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="99">
+      <c r="F20" s="44">
         <v>1102.344331583082</v>
       </c>
     </row>
@@ -10364,7 +10343,7 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="35">
         <v>1490.812546564112</v>
       </c>
     </row>
@@ -10464,8 +10443,8 @@
       <c r="E26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="100">
-        <v>38.02845170717329</v>
+      <c r="F26" s="94">
+        <v>47.65559779179455</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10484,8 +10463,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="97">
-        <v>52.55474724369371</v>
+      <c r="F27" s="95">
+        <v>71.05151955558001</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10504,8 +10483,8 @@
       <c r="E28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="5">
-        <v>69.96719721517491</v>
+      <c r="F28" s="96">
+        <v>98.40895658814932</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10524,8 +10503,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="101">
-        <v>60.08165010570127</v>
+      <c r="F29" s="5">
+        <v>77.13203770403373</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10564,7 +10543,7 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="102">
+      <c r="F31" s="97">
         <v>22.55884015596153</v>
       </c>
     </row>
@@ -10584,7 +10563,7 @@
       <c r="E32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="103">
+      <c r="F32" s="98">
         <v>33.46393631349639</v>
       </c>
     </row>
@@ -10604,7 +10583,7 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="96">
+      <c r="F33" s="91">
         <v>30.46174780813579</v>
       </c>
     </row>
@@ -10784,7 +10763,7 @@
       <c r="E42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="104">
+      <c r="F42" s="99">
         <v>503.8754669132527</v>
       </c>
     </row>
@@ -10804,7 +10783,7 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F43" s="21">
         <v>846.0689536637492</v>
       </c>
     </row>
@@ -10824,7 +10803,7 @@
       <c r="E44" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="105">
+      <c r="F44" s="100">
         <v>1191.22763089796</v>
       </c>
     </row>
@@ -10844,7 +10823,7 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="42">
         <v>1580.621852326743</v>
       </c>
     </row>
@@ -11284,7 +11263,7 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="106">
+      <c r="F67" s="101">
         <v>113.1371936644418</v>
       </c>
     </row>
@@ -11304,7 +11283,7 @@
       <c r="E68" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="107">
+      <c r="F68" s="102">
         <v>280.5767419239099</v>
       </c>
     </row>
@@ -11324,7 +11303,7 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="103">
         <v>381.9035879274644</v>
       </c>
     </row>
@@ -11424,7 +11403,7 @@
       <c r="E74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="102">
+      <c r="F74" s="97">
         <v>18.84936700841086</v>
       </c>
     </row>
@@ -11444,7 +11423,7 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="103">
+      <c r="F75" s="98">
         <v>33.3912306973459</v>
       </c>
     </row>
@@ -11464,7 +11443,7 @@
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="97">
+      <c r="F76" s="92">
         <v>53.0816082164754</v>
       </c>
     </row>
@@ -11484,7 +11463,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="100">
+      <c r="F77" s="104">
         <v>40.98238107413655</v>
       </c>
     </row>
@@ -11744,7 +11723,7 @@
       <c r="E90" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="34">
+      <c r="F90" s="30">
         <v>410.4244233564835</v>
       </c>
     </row>
@@ -11764,7 +11743,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="108">
+      <c r="F91" s="105">
         <v>752.603171857015</v>
       </c>
     </row>
@@ -11784,7 +11763,7 @@
       <c r="E92" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F92" s="109">
+      <c r="F92" s="106">
         <v>1097.761849091226</v>
       </c>
     </row>
@@ -11804,7 +11783,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="110">
+      <c r="F93" s="107">
         <v>1487.156070520009</v>
       </c>
     </row>
@@ -11904,8 +11883,8 @@
       <c r="E98" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="102">
-        <v>24.69634303758683</v>
+      <c r="F98" s="98">
+        <v>34.12020423890031</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -11924,8 +11903,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="103">
-        <v>33.61658986293783</v>
+      <c r="F99" s="94">
+        <v>48.66292693113396</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -11944,8 +11923,8 @@
       <c r="E100" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="97">
-        <v>51.01259180148503</v>
+      <c r="F100" s="95">
+        <v>72.59852441663345</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11964,8 +11943,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="100">
-        <v>41.47896484597716</v>
+      <c r="F101" s="108">
+        <v>56.2540773079246</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -12044,7 +12023,7 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="102">
+      <c r="F105" s="97">
         <v>18.87022224911117</v>
       </c>
     </row>
@@ -12224,7 +12203,7 @@
       <c r="E114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="104">
+      <c r="F114" s="99">
         <v>502.7366056627465</v>
       </c>
     </row>
@@ -12244,7 +12223,7 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="111">
+      <c r="F115" s="43">
         <v>844.9300924132431</v>
       </c>
     </row>
@@ -12264,7 +12243,7 @@
       <c r="E116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="105">
+      <c r="F116" s="100">
         <v>1190.088769647454</v>
       </c>
     </row>
@@ -12284,7 +12263,7 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="46">
+      <c r="F117" s="42">
         <v>1579.482991076237</v>
       </c>
     </row>
@@ -12724,7 +12703,7 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="96">
+      <c r="F139" s="91">
         <v>27.93128708294461</v>
       </c>
     </row>
@@ -12744,7 +12723,7 @@
       <c r="E140" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="10">
+      <c r="F140" s="6">
         <v>127.5357411386615</v>
       </c>
     </row>
@@ -12764,7 +12743,7 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="97">
+      <c r="F141" s="92">
         <v>52.49123894908087</v>
       </c>
     </row>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -40,13 +40,16 @@
     <t>SD</t>
   </si>
   <si>
+    <t>No reuse</t>
+  </si>
+  <si>
     <t>LFP reused</t>
   </si>
   <si>
-    <t>Direct recycling</t>
+    <t>All reused</t>
   </si>
   <si>
-    <t>All reused</t>
+    <t>No V2G</t>
   </si>
   <si>
     <t>Low</t>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>V2G mandate</t>
-  </si>
-  <si>
-    <t>No V2G</t>
   </si>
   <si>
     <t>Early</t>
@@ -117,12 +117,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="108">
+  <fills count="125">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD1D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBEBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -138,7 +162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDBDB"/>
+        <fgColor rgb="FFFFD7D7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,19 +174,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCBCB"/>
+        <fgColor rgb="FFFFCFCF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC2C2"/>
+        <fgColor rgb="FFFFD8D8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCACA"/>
+        <fgColor rgb="FFFFD9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA1A1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8787"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7D7D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7A7A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7676"/>
+        <fgColor rgb="FFFF7979"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7575"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,7 +252,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7575"/>
+        <fgColor rgb="FFFF7676"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6F6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7272"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,19 +276,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7171"/>
+        <fgColor rgb="FFFFAFAF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6969"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6E6E"/>
+        <fgColor rgb="FFFFA6A6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,25 +294,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8B8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8282"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6A6A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC3C3"/>
+        <fgColor rgb="FFFF9393"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,43 +306,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB2B2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFABAB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA1A1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC4C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFB9B9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFAAAA"/>
+        <fgColor rgb="FFFFBBBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA7A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA4A4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,13 +336,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF1010"/>
+        <fgColor rgb="FFFF9D9D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF1212"/>
+        <fgColor rgb="FFFFA5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6767"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3232"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2222"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0F0F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0808"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0202"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,31 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0D0D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0A0A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0C0C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0808"/>
+        <fgColor rgb="FFFF0707"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0707"/>
+        <fgColor rgb="FFFF0606"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,49 +426,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0303"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6B6B"/>
+        <fgColor rgb="FF55AF55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4545"/>
+        <fgColor rgb="FF53AE53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3333"/>
+        <fgColor rgb="FF52AD52"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF2020"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF59B159"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF58B158"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF57B057"/>
+        <fgColor rgb="FF56AF56"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,31 +468,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF56AF56"/>
+        <fgColor rgb="FF62B662"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF55AF55"/>
+        <fgColor rgb="FF60B560"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF54AE54"/>
+        <fgColor rgb="FF5FB55F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6D5"/>
+        <fgColor rgb="FF5EB45E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD7F7D7"/>
+        <fgColor rgb="FF67B967"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66B866"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9DEA9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE8BB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0EAC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9EFC9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6F7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8F8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBF9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9F8D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,25 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8F8D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F8D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBF9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFFCDF"/>
+        <fgColor rgb="FFDEFBDE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,48 +582,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9DEA9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE8BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2ECC2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCEF2CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF058205"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF048204"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF038103"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF028102"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,19 +600,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF048204"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF038103"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF178C17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF168C16"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F911F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6ABB6A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94D294"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5DBA5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBAE7BA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD3F5D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD1F4D1"/>
+        <fgColor rgb="FFDCFADC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCFADC"/>
+        <fgColor rgb="FFE3FEE3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,43 +684,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6ABB6A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF95D395"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6DCA6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFBEE9BE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3FEE3"/>
+        <fgColor rgb="FFB0E1B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1D9A1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93D193"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE4FEE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEFBDE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,13 +726,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66B866"/>
+        <fgColor rgb="FF3CA13C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3DA23D"/>
+        <fgColor rgb="FFB6E5B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0D9A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8ECF8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6CBC6C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9AD59A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,19 +768,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE2E2"/>
+        <fgColor rgb="FFFF6A6A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDEDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA9A9"/>
+        <fgColor rgb="FFFF3939"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD8D8"/>
+        <fgColor rgb="FFFFDBDB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,19 +810,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9D9D"/>
+        <fgColor rgb="FFFFE2E2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3939"/>
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD5D5"/>
+        <fgColor rgb="FFFFB0B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD6D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6B6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,37 +852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFAFAF"/>
+        <fgColor rgb="FFFF9292"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE0E0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7979"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4646"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0E0E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFDDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -823,29 +925,29 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -859,22 +961,22 @@
     <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -891,15 +993,32 @@
     <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1231,10 +1350,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>37939.70256099912</v>
+        <v>38466.83838074606</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1254,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="4">
-        <v>37966.91523575826</v>
+        <v>39016.02447409456</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1271,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4">
-        <v>38001.23696537453</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="5">
+        <v>39569.18819264948</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1293,8 +1412,8 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4">
-        <v>37973.18542444355</v>
+      <c r="F5" s="6">
+        <v>40245.38816861642</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1311,10 +1430,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>37930.92000443382</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>37730.99709115538</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1333,8 +1452,8 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3">
-        <v>37931.95850354146</v>
+      <c r="F7" s="7">
+        <v>37762.77907556015</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1351,10 +1470,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <v>37933.21475120444</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="8">
+        <v>37799.93149266503</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1373,8 +1492,8 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3">
-        <v>37934.83771646766</v>
+      <c r="F9" s="7">
+        <v>37770.90343925087</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1391,10 +1510,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>37931.80035779185</v>
+        <v>11</v>
+      </c>
+      <c r="F10" s="7">
+        <v>37684.81901846525</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1413,8 +1532,8 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3">
-        <v>37932.31282757928</v>
+      <c r="F11" s="7">
+        <v>37696.8463231445</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1431,10 +1550,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3">
-        <v>37932.41725377722</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="7">
+        <v>37711.53386597138</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1453,8 +1572,8 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3">
-        <v>37934.31406613689</v>
+      <c r="F13" s="7">
+        <v>37707.46379757278</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1471,10 +1590,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>37951.44466735556</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="7">
+        <v>37669.8426234517</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1493,8 +1612,8 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3">
-        <v>37951.44466735556</v>
+      <c r="F15" s="7">
+        <v>37672.42634054396</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1511,10 +1630,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3">
-        <v>37951.44466735556</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="7">
+        <v>37676.26279065417</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1533,8 +1652,8 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="3">
-        <v>37943.59205678761</v>
+      <c r="F17" s="7">
+        <v>37679.1264945474</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1551,10 +1670,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5">
-        <v>38598.27710901922</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="7">
+        <v>37667.00143402453</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1573,8 +1692,8 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="6">
-        <v>39145.85206970409</v>
+      <c r="F19" s="7">
+        <v>37667.00143402453</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1591,10 +1710,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="7">
-        <v>39697.91002397853</v>
+        <v>37667.00143402453</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1613,8 +1732,8 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="8">
-        <v>40374.76474857987</v>
+      <c r="F21" s="7">
+        <v>37667.47153277695</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1631,10 +1750,10 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
-        <v>37951.44466735556</v>
+        <v>11</v>
+      </c>
+      <c r="F22" s="7">
+        <v>37667.00143402453</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1653,8 +1772,8 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="3">
-        <v>37945.30687729963</v>
+      <c r="F23" s="7">
+        <v>37667.10363805824</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1671,10 +1790,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="3">
-        <v>37945.51550556521</v>
+        <v>13</v>
+      </c>
+      <c r="F24" s="7">
+        <v>37667.27406172339</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1693,8 +1812,8 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="3">
-        <v>37946.60645142139</v>
+      <c r="F25" s="7">
+        <v>37668.16523047639</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1711,10 +1830,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="3">
-        <v>37902.57854946035</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="9">
+        <v>38613.90249065099</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1733,8 +1852,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="3">
-        <v>37934.36053386513</v>
+      <c r="F27" s="10">
+        <v>38887.65812983527</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1751,10 +1870,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="4">
-        <v>37971.51295097001</v>
+        <v>13</v>
+      </c>
+      <c r="F28" s="11">
+        <v>39153.66369803043</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1773,8 +1892,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3">
-        <v>37942.48489755584</v>
+      <c r="F29" s="5">
+        <v>39554.09223134034</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1791,10 +1910,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="3">
-        <v>37856.34749491888</v>
+        <v>11</v>
+      </c>
+      <c r="F30" s="12">
+        <v>38553.9035357968</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1813,8 +1932,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="3">
-        <v>37868.37479959813</v>
+      <c r="F31" s="12">
+        <v>38588.31427928493</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1831,10 +1950,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3">
-        <v>37883.06234242502</v>
+        <v>13</v>
+      </c>
+      <c r="F32" s="9">
+        <v>38627.97961973099</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1853,8 +1972,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="3">
-        <v>37878.99227402641</v>
+      <c r="F33" s="9">
+        <v>38601.92467450554</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1871,10 +1990,10 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3">
-        <v>37840.92432212032</v>
+        <v>11</v>
+      </c>
+      <c r="F34" s="13">
+        <v>38526.34237406573</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1893,8 +2012,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="3">
-        <v>37843.60494210159</v>
+      <c r="F35" s="12">
+        <v>38540.78588136029</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1911,10 +2030,10 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="3">
-        <v>37847.69748940293</v>
+        <v>13</v>
+      </c>
+      <c r="F36" s="12">
+        <v>38558.42285806955</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1933,8 +2052,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="3">
-        <v>37850.46677000784</v>
+      <c r="F37" s="12">
+        <v>38555.13174793768</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1951,10 +2070,10 @@
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="3">
-        <v>37838.02556586615</v>
+        <v>11</v>
+      </c>
+      <c r="F38" s="12">
+        <v>38547.17679958106</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1973,8 +2092,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="3">
-        <v>37838.02556586615</v>
+      <c r="F39" s="12">
+        <v>38549.76986301991</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1991,10 +2110,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="3">
-        <v>37838.02556586615</v>
+        <v>13</v>
+      </c>
+      <c r="F40" s="12">
+        <v>38543.64850750891</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2013,8 +2132,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="3">
-        <v>37838.84449777109</v>
+      <c r="F41" s="12">
+        <v>38547.54191557411</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2031,10 +2150,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="5">
-        <v>38638.49761307208</v>
+        <v>11</v>
+      </c>
+      <c r="F42" s="12">
+        <v>38591.45891835352</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2053,8 +2172,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="6">
-        <v>39187.68370642057</v>
+      <c r="F43" s="12">
+        <v>38591.45891835352</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2071,10 +2190,10 @@
         <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="9">
-        <v>39740.84742497549</v>
+        <v>13</v>
+      </c>
+      <c r="F44" s="12">
+        <v>38591.45891835352</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2093,8 +2212,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="8">
-        <v>40417.04740094244</v>
+      <c r="F45" s="12">
+        <v>38562.680598274</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2111,10 +2230,10 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3">
-        <v>37838.02556586615</v>
+        <v>11</v>
+      </c>
+      <c r="F46" s="12">
+        <v>38591.45891835352</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2133,8 +2252,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="3">
-        <v>37838.12776989987</v>
+      <c r="F47" s="12">
+        <v>38585.3321939972</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2151,10 +2270,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="3">
-        <v>37838.29819356501</v>
+        <v>13</v>
+      </c>
+      <c r="F48" s="12">
+        <v>38585.55927414788</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2173,8 +2292,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="3">
-        <v>37839.18936231801</v>
+      <c r="F49" s="12">
+        <v>38586.74670744556</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2191,10 +2310,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="10">
-        <v>45562.55702774465</v>
+        <v>11</v>
+      </c>
+      <c r="F50" s="14">
+        <v>42114.62601563121</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2213,8 +2332,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="11">
-        <v>45685.54388311332</v>
+      <c r="F51" s="15">
+        <v>43251.72686854275</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2231,10 +2350,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="12">
-        <v>45829.01150971936</v>
+        <v>13</v>
+      </c>
+      <c r="F52" s="16">
+        <v>43774.90695030884</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2253,8 +2372,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="11">
-        <v>45719.21669254097</v>
+      <c r="F53" s="17">
+        <v>44426.28818769607</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2271,10 +2390,10 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="13">
-        <v>45794.72682554125</v>
+        <v>11</v>
+      </c>
+      <c r="F54" s="18">
+        <v>44483.3512717348</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2293,8 +2412,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="12">
-        <v>45828.94794643443</v>
+      <c r="F55" s="19">
+        <v>44600.04118971981</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2311,10 +2430,10 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="12">
-        <v>45870.71812564322</v>
+        <v>13</v>
+      </c>
+      <c r="F56" s="20">
+        <v>44736.26826711654</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2333,8 +2452,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="12">
-        <v>45861.28723482264</v>
+      <c r="F57" s="19">
+        <v>44634.30599184927</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2351,10 +2470,10 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="14">
-        <v>46134.11877332225</v>
+        <v>11</v>
+      </c>
+      <c r="F58" s="21">
+        <v>44665.99910190458</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2373,8 +2492,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="14">
-        <v>46139.57753796819</v>
+      <c r="F59" s="21">
+        <v>44699.49559276059</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2391,10 +2510,10 @@
         <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="15">
-        <v>46045.45302656455</v>
+        <v>13</v>
+      </c>
+      <c r="F60" s="20">
+        <v>44740.40531070931</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2413,8 +2532,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="15">
-        <v>46053.23513391466</v>
+      <c r="F61" s="20">
+        <v>44732.49725636177</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2431,10 +2550,10 @@
         <v>13</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="16">
-        <v>46571.26356991468</v>
+        <v>11</v>
+      </c>
+      <c r="F62" s="22">
+        <v>44946.67189682263</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2453,8 +2572,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="16">
-        <v>46571.26356991468</v>
+      <c r="F63" s="23">
+        <v>44952.41046647577</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2471,10 +2590,10 @@
         <v>13</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="16">
-        <v>46571.26356991468</v>
+        <v>13</v>
+      </c>
+      <c r="F64" s="24">
+        <v>44874.64294712504</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2493,8 +2612,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="17">
-        <v>46292.68208531393</v>
+      <c r="F65" s="24">
+        <v>44883.21644719988</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2511,10 +2630,10 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="18">
-        <v>42871.86049408011</v>
+        <v>11</v>
+      </c>
+      <c r="F66" s="25">
+        <v>45336.69915052638</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2533,8 +2652,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="19">
-        <v>44211.18071695189</v>
+      <c r="F67" s="25">
+        <v>45336.69915052638</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2551,10 +2670,10 @@
         <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="20">
-        <v>44889.38248434007</v>
+        <v>13</v>
+      </c>
+      <c r="F68" s="25">
+        <v>45336.69915052638</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2573,8 +2692,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="13">
-        <v>45769.93045283847</v>
+      <c r="F69" s="26">
+        <v>45095.40370222236</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2591,10 +2710,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="16">
-        <v>46571.26356991468</v>
+        <v>11</v>
+      </c>
+      <c r="F70" s="25">
+        <v>45336.69915052638</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2613,8 +2732,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="21">
-        <v>46525.61713451463</v>
+      <c r="F71" s="27">
+        <v>45291.08827519324</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2631,10 +2750,10 @@
         <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="21">
-        <v>46525.97435682542</v>
+        <v>13</v>
+      </c>
+      <c r="F72" s="27">
+        <v>45291.50479337249</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2653,8 +2772,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="21">
-        <v>46527.84232135359</v>
+      <c r="F73" s="27">
+        <v>45293.68282414121</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2671,10 +2790,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="22">
-        <v>40273.77996587848</v>
+        <v>11</v>
+      </c>
+      <c r="F74" s="28">
+        <v>41207.60473052369</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2693,8 +2812,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="22">
-        <v>40293.59717303295</v>
+      <c r="F75" s="29">
+        <v>41756.79082387219</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2711,10 +2830,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="8">
-        <v>40320.24563788408</v>
+        <v>13</v>
+      </c>
+      <c r="F76" s="30">
+        <v>42309.95454242711</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2733,8 +2852,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="22">
-        <v>40303.79111878073</v>
+      <c r="F77" s="31">
+        <v>42986.15451839405</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2751,10 +2870,10 @@
         <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="22">
-        <v>40250.24122586514</v>
+        <v>11</v>
+      </c>
+      <c r="F78" s="32">
+        <v>40454.90781617587</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2773,8 +2892,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="22">
-        <v>40253.87643055695</v>
+      <c r="F79" s="32">
+        <v>40474.56082464437</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2791,10 +2910,10 @@
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="22">
-        <v>40261.83728177591</v>
+        <v>13</v>
+      </c>
+      <c r="F80" s="33">
+        <v>40505.60995645622</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2813,8 +2932,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="22">
-        <v>40262.97774016515</v>
+      <c r="F81" s="32">
+        <v>40484.75477039215</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2831,10 +2950,10 @@
         <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="22">
-        <v>40245.19155608563</v>
+        <v>11</v>
+      </c>
+      <c r="F82" s="34">
+        <v>40418.88316793256</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2853,8 +2972,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="22">
-        <v>40248.69421081051</v>
+      <c r="F83" s="34">
+        <v>40424.23798751682</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2871,10 +2990,10 @@
         <v>12</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="22">
-        <v>40249.3324317697</v>
+        <v>13</v>
+      </c>
+      <c r="F84" s="34">
+        <v>40433.29975206833</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2893,8 +3012,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="22">
-        <v>40252.42600581281</v>
+      <c r="F85" s="34">
+        <v>40434.02525596179</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2911,10 +3030,10 @@
         <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="22">
-        <v>40248.48442086939</v>
+        <v>11</v>
+      </c>
+      <c r="F86" s="34">
+        <v>40410.6788216164</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2933,8 +3052,8 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="22">
-        <v>40248.48442086939</v>
+      <c r="F87" s="34">
+        <v>40411.67375059154</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2951,10 +3070,10 @@
         <v>13</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="22">
-        <v>40248.48442086939</v>
+        <v>13</v>
+      </c>
+      <c r="F88" s="34">
+        <v>40413.4054796498</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2973,8 +3092,8 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="22">
-        <v>40248.76644505724</v>
+      <c r="F89" s="34">
+        <v>40416.52922482019</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2991,10 +3110,10 @@
         <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="23">
-        <v>40897.01950031053</v>
+        <v>11</v>
+      </c>
+      <c r="F90" s="34">
+        <v>40409.09688229517</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3013,8 +3132,8 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="24">
-        <v>41447.09040661663</v>
+      <c r="F91" s="34">
+        <v>40409.09688229517</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3031,10 +3150,10 @@
         <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="25">
-        <v>42000.25412517155</v>
+        <v>13</v>
+      </c>
+      <c r="F92" s="34">
+        <v>40409.09688229517</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3053,8 +3172,8 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="26">
-        <v>42676.45410113849</v>
+      <c r="F93" s="34">
+        <v>40409.57939658233</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3071,10 +3190,10 @@
         <v>15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="22">
-        <v>40246.1652256884</v>
+        <v>11</v>
+      </c>
+      <c r="F94" s="34">
+        <v>40409.18891744009</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3093,8 +3212,8 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="22">
-        <v>40248.5106536447</v>
+      <c r="F95" s="34">
+        <v>40409.32360516979</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3111,10 +3230,10 @@
         <v>15</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="22">
-        <v>40248.68107730984</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="34">
+        <v>40409.49402883493</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3133,8 +3252,8 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="22">
-        <v>40249.57224606284</v>
+      <c r="F97" s="34">
+        <v>40410.38519758793</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3151,10 +3270,10 @@
         <v>10</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="27">
-        <v>40200.412277855</v>
+        <v>11</v>
+      </c>
+      <c r="F98" s="35">
+        <v>41660.21271115929</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3173,8 +3292,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="27">
-        <v>40220.06528632351</v>
+      <c r="F99" s="36">
+        <v>41925.19402832925</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3191,10 +3310,10 @@
         <v>10</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="22">
-        <v>40252.52974722309</v>
+        <v>13</v>
+      </c>
+      <c r="F100" s="37">
+        <v>42166.13735295455</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3213,8 +3332,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="27">
-        <v>40230.25923207129</v>
+      <c r="F101" s="38">
+        <v>42403.08846989398</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3231,10 +3350,10 @@
         <v>11</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="28">
-        <v>40164.24404501593</v>
+        <v>11</v>
+      </c>
+      <c r="F102" s="36">
+        <v>41888.93875138393</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3253,8 +3372,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="28">
-        <v>40169.90578043821</v>
+      <c r="F103" s="36">
+        <v>41908.75696036807</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3271,10 +3390,10 @@
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="27">
-        <v>40178.96754498972</v>
+        <v>13</v>
+      </c>
+      <c r="F104" s="36">
+        <v>41929.59563414384</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3293,8 +3412,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="27">
-        <v>40179.69304888317</v>
+      <c r="F105" s="36">
+        <v>41918.95090611585</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3311,10 +3430,10 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="28">
-        <v>40155.97099663804</v>
+        <v>11</v>
+      </c>
+      <c r="F106" s="39">
+        <v>41866.05991905608</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3333,8 +3452,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="28">
-        <v>40156.96592561318</v>
+      <c r="F107" s="39">
+        <v>41847.23235287643</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3351,10 +3470,10 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="28">
-        <v>40158.78250011438</v>
+        <v>13</v>
+      </c>
+      <c r="F108" s="39">
+        <v>41877.4523784449</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3373,8 +3492,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="28">
-        <v>40161.90624528476</v>
+      <c r="F109" s="39">
+        <v>41870.01792427101</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3391,10 +3510,10 @@
         <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="28">
-        <v>40154.35282269291</v>
+        <v>11</v>
+      </c>
+      <c r="F110" s="39">
+        <v>41849.54599954885</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3413,8 +3532,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="28">
-        <v>40154.35282269291</v>
+      <c r="F111" s="39">
+        <v>41861.08806053891</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3431,10 +3550,10 @@
         <v>13</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="28">
-        <v>40154.35282269291</v>
+        <v>13</v>
+      </c>
+      <c r="F112" s="39">
+        <v>41856.23868242764</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3453,8 +3572,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="28">
-        <v>40154.83533698008</v>
+      <c r="F113" s="39">
+        <v>41864.88815889527</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3471,10 +3590,10 @@
         <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="29">
-        <v>40953.53594838436</v>
+        <v>11</v>
+      </c>
+      <c r="F114" s="39">
+        <v>41863.54104064286</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3493,8 +3612,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="24">
-        <v>41502.72204173285</v>
+      <c r="F115" s="39">
+        <v>41863.54104064286</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3511,10 +3630,10 @@
         <v>14</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="30">
-        <v>42055.88576028778</v>
+        <v>13</v>
+      </c>
+      <c r="F116" s="39">
+        <v>41863.54104064286</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3533,8 +3652,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="31">
-        <v>42732.08573625472</v>
+      <c r="F117" s="39">
+        <v>41863.84352275098</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3551,10 +3670,10 @@
         <v>15</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="28">
-        <v>40154.44485783783</v>
+        <v>11</v>
+      </c>
+      <c r="F118" s="39">
+        <v>41861.23181016904</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3573,8 +3692,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="28">
-        <v>40154.57954556753</v>
+      <c r="F119" s="39">
+        <v>41863.58773133845</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3591,10 +3710,10 @@
         <v>15</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="28">
-        <v>40154.74996923268</v>
+        <v>13</v>
+      </c>
+      <c r="F120" s="39">
+        <v>41863.75815500359</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3613,8 +3732,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="28">
-        <v>40155.64113798568</v>
+      <c r="F121" s="39">
+        <v>41864.64932375659</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3631,10 +3750,10 @@
         <v>10</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="32">
-        <v>52850.88071009266</v>
+        <v>11</v>
+      </c>
+      <c r="F122" s="40">
+        <v>45872.51959590994</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3653,8 +3772,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="33">
-        <v>52717.81418607136</v>
+      <c r="F123" s="41">
+        <v>48184.37278618546</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3671,10 +3790,10 @@
         <v>10</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="34">
-        <v>53378.66984389359</v>
+        <v>13</v>
+      </c>
+      <c r="F124" s="42">
+        <v>49197.45108224607</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3693,8 +3812,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="35">
-        <v>53121.59123269999</v>
+      <c r="F125" s="43">
+        <v>50246.15488215336</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3711,10 +3830,10 @@
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="36">
-        <v>53322.47361680965</v>
+        <v>11</v>
+      </c>
+      <c r="F126" s="44">
+        <v>51463.88126521978</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3733,8 +3852,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="37">
-        <v>53156.81907193398</v>
+      <c r="F127" s="45">
+        <v>51933.11562351709</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3751,10 +3870,10 @@
         <v>11</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="38">
-        <v>53455.85504184755</v>
+        <v>13</v>
+      </c>
+      <c r="F128" s="45">
+        <v>51910.3569786758</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3773,8 +3892,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="39">
-        <v>53511.61156725282</v>
+      <c r="F129" s="46">
+        <v>52296.11917933967</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3791,10 +3910,10 @@
         <v>12</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="40">
-        <v>53731.37907439323</v>
+        <v>11</v>
+      </c>
+      <c r="F130" s="47">
+        <v>51853.30621245755</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3813,8 +3932,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="40">
-        <v>53770.05466864479</v>
+      <c r="F131" s="48">
+        <v>51711.11265350207</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3831,10 +3950,10 @@
         <v>12</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="41">
-        <v>53674.05796546005</v>
+        <v>13</v>
+      </c>
+      <c r="F132" s="49">
+        <v>51968.87110723612</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3853,8 +3972,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="40">
-        <v>53768.66882833755</v>
+      <c r="F133" s="50">
+        <v>52021.4162801157</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3871,10 +3990,10 @@
         <v>13</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="42">
-        <v>54033.39123188433</v>
+        <v>11</v>
+      </c>
+      <c r="F134" s="51">
+        <v>52194.23981491681</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3893,8 +4012,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="42">
-        <v>54033.39123188433</v>
+      <c r="F135" s="51">
+        <v>52229.46566230058</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3911,10 +4030,10 @@
         <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="42">
-        <v>54033.39123188433</v>
+        <v>13</v>
+      </c>
+      <c r="F136" s="52">
+        <v>52150.42784238054</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3933,8 +4052,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="42">
-        <v>54019.58597591997</v>
+      <c r="F137" s="53">
+        <v>52236.30332990517</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3951,10 +4070,10 @@
         <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="43">
-        <v>46459.89757982267</v>
+        <v>11</v>
+      </c>
+      <c r="F138" s="54">
+        <v>52465.97572135027</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3973,8 +4092,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="44">
-        <v>49129.56210527463</v>
+      <c r="F139" s="54">
+        <v>52465.97572135027</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3991,10 +4110,10 @@
         <v>14</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="45">
-        <v>50364.80981747346</v>
+        <v>13</v>
+      </c>
+      <c r="F140" s="54">
+        <v>52465.97572135027</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4013,8 +4132,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="46">
-        <v>51693.25301689769</v>
+      <c r="F141" s="54">
+        <v>52452.33924796498</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4031,10 +4150,10 @@
         <v>15</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="42">
-        <v>54003.96370643703</v>
+        <v>11</v>
+      </c>
+      <c r="F142" s="54">
+        <v>52436.58038962145</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4053,8 +4172,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="42">
-        <v>54009.35228621471</v>
+      <c r="F143" s="54">
+        <v>52442.01608291057</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4071,10 +4190,10 @@
         <v>15</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="42">
-        <v>54016.17058746336</v>
+        <v>13</v>
+      </c>
+      <c r="F144" s="54">
+        <v>52448.89399803286</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4093,8 +4212,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="42">
-        <v>54033.84129367013</v>
+      <c r="F145" s="54">
+        <v>52466.71526803591</v>
       </c>
     </row>
   </sheetData>
@@ -4141,10 +4260,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="47">
-        <v>8642.780956780662</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="55">
+        <v>7762.230904495669</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4163,8 +4282,8 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="48">
-        <v>8649.923964372621</v>
+      <c r="F3" s="56">
+        <v>7819.026426655899</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4181,10 +4300,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="48">
-        <v>8659.229490113443</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="57">
+        <v>7877.095302921653</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4203,8 +4322,8 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="48">
-        <v>8648.360627398193</v>
+      <c r="F5" s="57">
+        <v>7890.46350550753</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4221,10 +4340,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="47">
-        <v>8641.181003120046</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="58">
+        <v>7690.104977588864</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4243,8 +4362,8 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="47">
-        <v>8640.142504012407</v>
+      <c r="F7" s="58">
+        <v>7699.754227312374</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4261,10 +4380,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="47">
-        <v>8638.886256349422</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="58">
+        <v>7711.048389499818</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4283,8 +4402,8 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="47">
-        <v>8637.263291086198</v>
+      <c r="F9" s="58">
+        <v>7702.397696305205</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4301,10 +4420,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="47">
-        <v>8640.30064976201</v>
+        <v>11</v>
+      </c>
+      <c r="F10" s="58">
+        <v>7676.086457795165</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4323,8 +4442,8 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="47">
-        <v>8639.788179974581</v>
+      <c r="F11" s="58">
+        <v>7679.872141479203</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4341,10 +4460,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="47">
-        <v>8639.683753776635</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="58">
+        <v>7684.496152035683</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4363,8 +4482,8 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="47">
-        <v>8637.786941416978</v>
+      <c r="F13" s="58">
+        <v>7683.249722280518</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4381,10 +4500,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="47">
-        <v>8620.656340198302</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="59">
+        <v>7671.339218616151</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4403,8 +4522,8 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="47">
-        <v>8620.656340198302</v>
+      <c r="F15" s="59">
+        <v>7672.164983781145</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4421,10 +4540,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="47">
-        <v>8620.656340198302</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="59">
+        <v>7673.390166516975</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4443,8 +4562,8 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="47">
-        <v>8628.508950766251</v>
+      <c r="F17" s="58">
+        <v>7674.307743067507</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4461,10 +4580,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="49">
-        <v>8714.382475012242</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="59">
+        <v>7670.429926877565</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4483,8 +4602,8 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="50">
-        <v>8769.639808621658</v>
+      <c r="F19" s="59">
+        <v>7670.429926877565</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4501,10 +4620,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="51">
-        <v>8826.304114783654</v>
+        <v>13</v>
+      </c>
+      <c r="F20" s="59">
+        <v>7670.429926877565</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4523,8 +4642,8 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="51">
-        <v>8837.377727812061</v>
+      <c r="F21" s="59">
+        <v>7670.580224704273</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4541,10 +4660,10 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="47">
-        <v>8620.656340198302</v>
+        <v>11</v>
+      </c>
+      <c r="F22" s="59">
+        <v>7670.429926877565</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4563,8 +4682,8 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="47">
-        <v>8626.794130254239</v>
+      <c r="F23" s="59">
+        <v>7670.462657719619</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4581,10 +4700,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="47">
-        <v>8626.585501988649</v>
+        <v>13</v>
+      </c>
+      <c r="F24" s="59">
+        <v>7670.517235898805</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4603,8 +4722,8 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="47">
-        <v>8625.494556132469</v>
+      <c r="F25" s="59">
+        <v>7670.802632694169</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4621,10 +4740,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="49">
-        <v>8753.914526487739</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="60">
+        <v>7039.837393859539</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4643,8 +4762,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="50">
-        <v>8763.563776211247</v>
+      <c r="F27" s="61">
+        <v>7103.996577508893</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4661,10 +4780,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="50">
-        <v>8774.857938398691</v>
+        <v>13</v>
+      </c>
+      <c r="F28" s="62">
+        <v>7189.979484605195</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4683,8 +4802,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="50">
-        <v>8766.207245204079</v>
+      <c r="F29" s="63">
+        <v>7225.496891927759</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4701,10 +4820,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="49">
-        <v>8739.889392181267</v>
+        <v>11</v>
+      </c>
+      <c r="F30" s="64">
+        <v>6789.871817807083</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4723,8 +4842,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="49">
-        <v>8743.675075865305</v>
+      <c r="F31" s="64">
+        <v>6789.816688323283</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4741,10 +4860,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="49">
-        <v>8748.299086421785</v>
+        <v>13</v>
+      </c>
+      <c r="F32" s="64">
+        <v>6793.614168581201</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4763,8 +4882,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="49">
-        <v>8747.052656666619</v>
+      <c r="F33" s="64">
+        <v>6780.748710160409</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4781,10 +4900,10 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="49">
-        <v>8735.00314401339</v>
+        <v>11</v>
+      </c>
+      <c r="F34" s="65">
+        <v>6811.088986836358</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4803,8 +4922,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="49">
-        <v>8735.859820795597</v>
+      <c r="F35" s="64">
+        <v>6796.645479541797</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4821,10 +4940,10 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="49">
-        <v>8737.166348752145</v>
+        <v>13</v>
+      </c>
+      <c r="F36" s="64">
+        <v>6779.00850283254</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4843,8 +4962,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="49">
-        <v>8738.05393323914</v>
+      <c r="F37" s="64">
+        <v>6782.299612964406</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4861,10 +4980,10 @@
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="49">
-        <v>8734.075441687715</v>
+        <v>11</v>
+      </c>
+      <c r="F38" s="64">
+        <v>6790.25456132103</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4883,8 +5002,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="49">
-        <v>8734.075441687715</v>
+      <c r="F39" s="64">
+        <v>6787.661497882184</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4901,10 +5020,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="49">
-        <v>8734.075441687715</v>
+        <v>13</v>
+      </c>
+      <c r="F40" s="64">
+        <v>6793.782853393177</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4923,8 +5042,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="49">
-        <v>8734.337162718542</v>
+      <c r="F41" s="64">
+        <v>6789.889445327979</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4941,10 +5060,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="51">
-        <v>8825.903456516397</v>
+        <v>11</v>
+      </c>
+      <c r="F42" s="64">
+        <v>6745.972442548567</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4963,8 +5082,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="52">
-        <v>8882.698978676626</v>
+      <c r="F43" s="64">
+        <v>6745.972442548567</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4981,10 +5100,10 @@
         <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="53">
-        <v>8940.767854942382</v>
+        <v>13</v>
+      </c>
+      <c r="F44" s="64">
+        <v>6745.972442548567</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5003,8 +5122,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="53">
-        <v>8954.136057528258</v>
+      <c r="F45" s="64">
+        <v>6774.750762628098</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5021,10 +5140,10 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="49">
-        <v>8734.075441687715</v>
+        <v>11</v>
+      </c>
+      <c r="F46" s="64">
+        <v>6745.972442548567</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5043,8 +5162,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="49">
-        <v>8734.10817252977</v>
+      <c r="F47" s="64">
+        <v>6752.09916690489</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5061,10 +5180,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="49">
-        <v>8734.162750708956</v>
+        <v>13</v>
+      </c>
+      <c r="F48" s="64">
+        <v>6751.872086754217</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5083,8 +5202,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="49">
-        <v>8734.448147504319</v>
+      <c r="F49" s="64">
+        <v>6750.684653456537</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5101,10 +5220,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="54">
-        <v>1009.543979809202</v>
+        <v>11</v>
+      </c>
+      <c r="F50" s="66">
+        <v>3222.805345270897</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5123,8 +5242,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="55">
-        <v>886.5571244405372</v>
+      <c r="F51" s="67">
+        <v>2280.548176646946</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5141,10 +5260,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="56">
-        <v>743.0894978344924</v>
+        <v>13</v>
+      </c>
+      <c r="F52" s="68">
+        <v>2051.622879456639</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5163,8 +5282,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="57">
-        <v>852.8843150128753</v>
+      <c r="F53" s="69">
+        <v>1573.664438924538</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5181,10 +5300,10 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="58">
-        <v>777.3741820126058</v>
+        <v>11</v>
+      </c>
+      <c r="F54" s="70">
+        <v>854.0800891672823</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5203,8 +5322,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="56">
-        <v>743.1530611194273</v>
+      <c r="F55" s="71">
+        <v>737.3901711822878</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5221,10 +5340,10 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="59">
-        <v>701.3828819106274</v>
+        <v>13</v>
+      </c>
+      <c r="F56" s="72">
+        <v>601.1630937855632</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5243,8 +5362,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="59">
-        <v>710.8137727312044</v>
+      <c r="F57" s="73">
+        <v>703.125369052832</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5261,10 +5380,10 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="60">
-        <v>437.9822342315995</v>
+        <v>11</v>
+      </c>
+      <c r="F58" s="74">
+        <v>671.4322589975229</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5283,8 +5402,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="60">
-        <v>432.5234695856651</v>
+      <c r="F59" s="74">
+        <v>637.9357681415005</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5301,10 +5420,10 @@
         <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="61">
-        <v>526.6479809893017</v>
+        <v>13</v>
+      </c>
+      <c r="F60" s="72">
+        <v>597.0260501927921</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5323,8 +5442,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="61">
-        <v>518.8658736392057</v>
+      <c r="F61" s="72">
+        <v>604.9341045403293</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5341,10 +5460,10 @@
         <v>13</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="62">
-        <v>0.8374376391659397</v>
+        <v>11</v>
+      </c>
+      <c r="F62" s="75">
+        <v>390.7594640794792</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5363,8 +5482,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="62">
-        <v>0.8374376391659397</v>
+      <c r="F63" s="75">
+        <v>385.0208944263249</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5381,10 +5500,10 @@
         <v>13</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="62">
-        <v>0.8374376391659397</v>
+        <v>13</v>
+      </c>
+      <c r="F64" s="76">
+        <v>462.7884137770444</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5403,8 +5522,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="63">
-        <v>279.4189222399305</v>
+      <c r="F65" s="76">
+        <v>454.2149137022248</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5421,10 +5540,10 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="64">
-        <v>3700.240513473752</v>
+        <v>11</v>
+      </c>
+      <c r="F66" s="77">
+        <v>0.7322103757177454</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5443,8 +5562,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="65">
-        <v>2561.272027398423</v>
+      <c r="F67" s="77">
+        <v>0.7322103757177454</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5461,10 +5580,10 @@
         <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="66">
-        <v>2179.58463530668</v>
+        <v>13</v>
+      </c>
+      <c r="F68" s="77">
+        <v>0.7322103757177454</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5483,8 +5602,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="67">
-        <v>1478.473763693773</v>
+      <c r="F69" s="78">
+        <v>242.0276586797269</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5501,10 +5620,10 @@
         <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="62">
-        <v>0.8374376391659397</v>
+        <v>11</v>
+      </c>
+      <c r="F70" s="77">
+        <v>0.7322103757177454</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5523,8 +5642,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="62">
-        <v>46.4838730392234</v>
+      <c r="F71" s="77">
+        <v>46.34308570884293</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5541,10 +5660,10 @@
         <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="62">
-        <v>46.12665072843274</v>
+        <v>13</v>
+      </c>
+      <c r="F72" s="77">
+        <v>45.92656752959451</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5563,8 +5682,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="62">
-        <v>44.25868620026506</v>
+      <c r="F73" s="77">
+        <v>43.74853676088167</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5581,10 +5700,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="68">
-        <v>13793.96474645766</v>
+        <v>11</v>
+      </c>
+      <c r="F74" s="79">
+        <v>12148.77695620095</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5603,8 +5722,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="68">
-        <v>13799.89935046245</v>
+      <c r="F75" s="80">
+        <v>12205.57247836118</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5621,10 +5740,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="68">
-        <v>13808.12006705696</v>
+        <v>13</v>
+      </c>
+      <c r="F76" s="81">
+        <v>12263.64135462694</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5643,8 +5762,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="68">
-        <v>13803.14837703007</v>
+      <c r="F77" s="81">
+        <v>12277.00955721282</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5661,10 +5780,10 @@
         <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="68">
-        <v>13786.6741759476</v>
+        <v>11</v>
+      </c>
+      <c r="F78" s="82">
+        <v>12072.01404723274</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5683,8 +5802,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="68">
-        <v>13788.90379672096</v>
+      <c r="F79" s="82">
+        <v>12078.11437111027</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5701,10 +5820,10 @@
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="68">
-        <v>13790.13348887314</v>
+        <v>13</v>
+      </c>
+      <c r="F80" s="83">
+        <v>12087.62271831749</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5723,8 +5842,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="68">
-        <v>13790.78441963379</v>
+      <c r="F81" s="82">
+        <v>12081.36339767789</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5741,10 +5860,10 @@
         <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="68">
-        <v>13789.44152776336</v>
+        <v>11</v>
+      </c>
+      <c r="F82" s="82">
+        <v>12060.84963450486</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5763,8 +5882,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="68">
-        <v>13786.24902974014</v>
+      <c r="F83" s="82">
+        <v>12062.55347390027</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5781,10 +5900,10 @@
         <v>12</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="68">
-        <v>13786.9241558108</v>
+        <v>13</v>
+      </c>
+      <c r="F84" s="82">
+        <v>12065.4295273276</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5803,8 +5922,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="68">
-        <v>13787.33019690747</v>
+      <c r="F85" s="82">
+        <v>12065.67310559727</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5821,10 +5940,10 @@
         <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="68">
-        <v>13785.88043383257</v>
+        <v>11</v>
+      </c>
+      <c r="F86" s="82">
+        <v>12058.23314021843</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5843,8 +5962,8 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="68">
-        <v>13785.88043383257</v>
+      <c r="F87" s="82">
+        <v>12058.55164473398</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5861,10 +5980,10 @@
         <v>13</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="68">
-        <v>13785.88043383257</v>
+        <v>13</v>
+      </c>
+      <c r="F88" s="82">
+        <v>12059.10580824002</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5883,8 +6002,8 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="68">
-        <v>13785.97075207943</v>
+      <c r="F89" s="82">
+        <v>12060.10572977944</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5901,10 +6020,10 @@
         <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="69">
-        <v>13864.15537486134</v>
+        <v>11</v>
+      </c>
+      <c r="F90" s="82">
+        <v>12057.72662512459</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5923,8 +6042,8 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="70">
-        <v>13920.03998447742</v>
+      <c r="F91" s="82">
+        <v>12057.72662512459</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5941,10 +6060,10 @@
         <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="71">
-        <v>13978.10886074318</v>
+        <v>13</v>
+      </c>
+      <c r="F92" s="82">
+        <v>12057.72662512459</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5963,8 +6082,8 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="72">
-        <v>13991.47706332906</v>
+      <c r="F93" s="82">
+        <v>12057.88115032625</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5981,10 +6100,10 @@
         <v>15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="68">
-        <v>13788.19962901356</v>
+        <v>11</v>
+      </c>
+      <c r="F94" s="82">
+        <v>12057.75609937997</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6003,8 +6122,8 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="68">
-        <v>13785.88883487893</v>
+      <c r="F95" s="82">
+        <v>12057.79923312575</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6021,10 +6140,10 @@
         <v>15</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="68">
-        <v>13785.94341305812</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="82">
+        <v>12057.85381130493</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6043,8 +6162,8 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="68">
-        <v>13786.22880985348</v>
+      <c r="F97" s="82">
+        <v>12058.1392081003</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6061,10 +6180,10 @@
         <v>10</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="70">
-        <v>13894.37516607424</v>
+        <v>11</v>
+      </c>
+      <c r="F98" s="84">
+        <v>11031.37836986613</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6083,8 +6202,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="70">
-        <v>13900.47548995177</v>
+      <c r="F99" s="84">
+        <v>11035.33208228335</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6101,10 +6220,10 @@
         <v>10</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="70">
-        <v>13910.39796098993</v>
+        <v>13</v>
+      </c>
+      <c r="F100" s="85">
+        <v>11105.89504429228</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6123,8 +6242,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="70">
-        <v>13903.7245165194</v>
+      <c r="F101" s="85">
+        <v>11084.89361857412</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6141,10 +6260,10 @@
         <v>11</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="70">
-        <v>13883.16841335918</v>
+        <v>11</v>
+      </c>
+      <c r="F102" s="86">
+        <v>10607.77995253856</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6163,8 +6282,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="70">
-        <v>13884.96896376355</v>
+      <c r="F103" s="86">
+        <v>10613.71355471369</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6181,10 +6300,10 @@
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="70">
-        <v>13887.84501719088</v>
+        <v>13</v>
+      </c>
+      <c r="F104" s="86">
+        <v>10623.74665123005</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6203,8 +6322,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="70">
-        <v>13888.08859546056</v>
+      <c r="F105" s="86">
+        <v>10616.96258128131</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6221,10 +6340,10 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="70">
-        <v>13880.53014383446</v>
+        <v>11</v>
+      </c>
+      <c r="F106" s="86">
+        <v>10603.08514409136</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6243,8 +6362,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="70">
-        <v>13880.84864835001</v>
+      <c r="F107" s="86">
+        <v>10627.68399894577</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6261,10 +6380,10 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="70">
-        <v>13881.4299355873</v>
+        <v>13</v>
+      </c>
+      <c r="F108" s="86">
+        <v>10605.91028363779</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6283,8 +6402,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="70">
-        <v>13882.42985712672</v>
+      <c r="F109" s="86">
+        <v>10615.88036007222</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6301,10 +6420,10 @@
         <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="70">
-        <v>13880.01203200905</v>
+        <v>11</v>
+      </c>
+      <c r="F110" s="86">
+        <v>10617.54573701794</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6323,8 +6442,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="70">
-        <v>13880.01203200905</v>
+      <c r="F111" s="86">
+        <v>10606.30233247855</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6341,10 +6460,10 @@
         <v>13</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="70">
-        <v>13880.01203200905</v>
+        <v>13</v>
+      </c>
+      <c r="F112" s="86">
+        <v>10612.42618473804</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6363,8 +6482,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="70">
-        <v>13880.16655721071</v>
+      <c r="F113" s="86">
+        <v>10607.27632341018</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6381,10 +6500,10 @@
         <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="71">
-        <v>13971.11218835159</v>
+        <v>11</v>
+      </c>
+      <c r="F114" s="86">
+        <v>10603.28246677689</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6403,8 +6522,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="72">
-        <v>14027.90771051182</v>
+      <c r="F115" s="86">
+        <v>10603.28246677689</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6421,10 +6540,10 @@
         <v>14</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="73">
-        <v>14085.97658677757</v>
+        <v>13</v>
+      </c>
+      <c r="F116" s="86">
+        <v>10603.28246677689</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6443,8 +6562,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="73">
-        <v>14099.34478936345</v>
+      <c r="F117" s="86">
+        <v>10603.35232710348</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6461,10 +6580,10 @@
         <v>15</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="70">
-        <v>13880.04150626444</v>
+        <v>11</v>
+      </c>
+      <c r="F118" s="86">
+        <v>10605.59169725071</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6483,8 +6602,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="70">
-        <v>13880.08464001021</v>
+      <c r="F119" s="86">
+        <v>10603.27040990298</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6501,10 +6620,10 @@
         <v>15</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="70">
-        <v>13880.13921818939</v>
+        <v>13</v>
+      </c>
+      <c r="F120" s="86">
+        <v>10603.32498808217</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6523,8 +6642,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="70">
-        <v>13880.42461498476</v>
+      <c r="F121" s="86">
+        <v>10603.61038487753</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6541,10 +6660,10 @@
         <v>10</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="74">
-        <v>1183.484144609288</v>
+        <v>11</v>
+      </c>
+      <c r="F122" s="87">
+        <v>6594.303911509832</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6563,8 +6682,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="75">
-        <v>1316.550668630588</v>
+      <c r="F123" s="88">
+        <v>4328.597632736077</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6581,10 +6700,10 @@
         <v>10</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="59">
-        <v>670.8034020552282</v>
+        <v>13</v>
+      </c>
+      <c r="F124" s="89">
+        <v>3489.674925310702</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6603,8 +6722,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="55">
-        <v>913.8888421037665</v>
+      <c r="F125" s="90">
+        <v>2304.886526469567</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6621,10 +6740,10 @@
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="59">
-        <v>711.8912378922979</v>
+        <v>11</v>
+      </c>
+      <c r="F126" s="91">
+        <v>1002.942242200001</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6643,8 +6762,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="57">
-        <v>877.5457827679636</v>
+      <c r="F127" s="92">
+        <v>533.7078839026883</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6661,10 +6780,10 @@
         <v>11</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="76">
-        <v>578.5098128544048</v>
+        <v>13</v>
+      </c>
+      <c r="F128" s="92">
+        <v>571.0405616918021</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6683,8 +6802,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="61">
-        <v>523.7741605840455</v>
+      <c r="F129" s="93">
+        <v>171.7253964074964</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6701,10 +6820,10 @@
         <v>12</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="63">
-        <v>302.9857803087357</v>
+        <v>11</v>
+      </c>
+      <c r="F130" s="72">
+        <v>613.5172949622253</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6723,8 +6842,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="77">
-        <v>264.3101860571626</v>
+      <c r="F131" s="71">
+        <v>755.710853917706</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6741,10 +6860,10 @@
         <v>12</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="78">
-        <v>360.3068892418987</v>
+        <v>13</v>
+      </c>
+      <c r="F132" s="92">
+        <v>497.9524001836514</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6763,8 +6882,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="77">
-        <v>266.7016372390647</v>
+      <c r="F133" s="76">
+        <v>446.4281004389736</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6781,10 +6900,10 @@
         <v>13</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="62">
-        <v>0.9736228176284953</v>
+        <v>11</v>
+      </c>
+      <c r="F134" s="78">
+        <v>272.583692502955</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6803,8 +6922,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="62">
-        <v>0.9736228176284953</v>
+      <c r="F135" s="94">
+        <v>237.3578451191882</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6821,10 +6940,10 @@
         <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="62">
-        <v>0.9736228176284953</v>
+        <v>13</v>
+      </c>
+      <c r="F136" s="95">
+        <v>316.3956650392121</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6843,8 +6962,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="62">
-        <v>14.77887878198183</v>
+      <c r="F137" s="94">
+        <v>231.5257883892483</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6861,10 +6980,10 @@
         <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="79">
-        <v>7574.46727487928</v>
+        <v>11</v>
+      </c>
+      <c r="F138" s="77">
+        <v>0.8477860694981453</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6883,8 +7002,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="80">
-        <v>4954.26554496586</v>
+      <c r="F139" s="77">
+        <v>0.8477860694981453</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6901,10 +7020,10 @@
         <v>14</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="81">
-        <v>3895.404790197805</v>
+        <v>13</v>
+      </c>
+      <c r="F140" s="77">
+        <v>0.8477860694981453</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6923,8 +7042,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="82">
-        <v>2434.067218341982</v>
+      <c r="F141" s="77">
+        <v>14.48425945477546</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6941,10 +7060,10 @@
         <v>15</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="62">
-        <v>30.40114826492576</v>
+        <v>11</v>
+      </c>
+      <c r="F142" s="77">
+        <v>30.24311779831412</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6963,8 +7082,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="62">
-        <v>25.01256848724546</v>
+      <c r="F143" s="77">
+        <v>24.80742450919029</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6981,10 +7100,10 @@
         <v>15</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="62">
-        <v>18.19426723860159</v>
+        <v>13</v>
+      </c>
+      <c r="F144" s="77">
+        <v>17.9295093869183</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7003,8 +7122,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="62">
-        <v>1.117755105648182</v>
+      <c r="F145" s="77">
+        <v>0.7024334576649408</v>
       </c>
     </row>
   </sheetData>
@@ -7051,10 +7170,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="83">
-        <v>46.90713208944782</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7073,8 +7192,8 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="83">
-        <v>52.75977017468887</v>
+      <c r="F3" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7091,10 +7210,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="77">
-        <v>57.51988920787191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7114,7 +7233,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="77">
-        <v>60.50741967808703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7131,10 +7250,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="62">
-        <v>15.68362527740344</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7153,8 +7272,8 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="62">
-        <v>25.29226781396442</v>
+      <c r="F7" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7171,10 +7290,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="84">
-        <v>36.63453242406739</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7193,8 +7312,8 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="84">
-        <v>35.72950589080602</v>
+      <c r="F9" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -7211,10 +7330,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="62">
-        <v>2.500265145055447</v>
+        <v>11</v>
+      </c>
+      <c r="F10" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -7233,8 +7352,8 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="62">
-        <v>4.644443933256662</v>
+      <c r="F11" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7251,10 +7370,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="62">
-        <v>8.342727327207307</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7273,8 +7392,8 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="62">
-        <v>11.33025779742243</v>
+      <c r="F13" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7291,9 +7410,9 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="62">
+        <v>11</v>
+      </c>
+      <c r="F14" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7313,7 +7432,7 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7331,9 +7450,9 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="62">
+        <v>13</v>
+      </c>
+      <c r="F16" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7353,8 +7472,8 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="62">
-        <v>0.6241264162076505</v>
+      <c r="F17" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,10 +7490,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="76">
-        <v>159.7147501898658</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7393,8 +7512,8 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="76">
-        <v>165.5673882751069</v>
+      <c r="F19" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,10 +7530,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="59">
-        <v>170.3624000521493</v>
+        <v>13</v>
+      </c>
+      <c r="F20" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7433,8 +7552,8 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="59">
-        <v>173.3499305223644</v>
+      <c r="F21" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,9 +7570,9 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="62">
+        <v>11</v>
+      </c>
+      <c r="F22" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7473,8 +7592,8 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="62">
-        <v>0.07619675984203426</v>
+      <c r="F23" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7491,10 +7610,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="62">
-        <v>0.2032536930335217</v>
+        <v>13</v>
+      </c>
+      <c r="F24" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7513,8 +7632,8 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="62">
-        <v>0.8676518481602703</v>
+      <c r="F25" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,10 +7650,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="96">
+        <v>607.437687862064</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7553,8 +7672,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="62">
-        <v>0</v>
+      <c r="F27" s="97">
+        <v>833.2751826257771</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,10 +7690,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F28" s="98">
+        <v>1045.508224683551</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7593,8 +7712,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="62">
-        <v>0</v>
+      <c r="F29" s="99">
+        <v>1272.304507218042</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7611,10 +7730,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F30" s="93">
+        <v>48.71554310612554</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7633,8 +7752,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="62">
-        <v>0</v>
+      <c r="F31" s="93">
+        <v>54.56818119136659</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,10 +7770,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F32" s="94">
+        <v>59.43296922020684</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7673,8 +7792,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="62">
-        <v>0</v>
+      <c r="F33" s="94">
+        <v>62.42049969042196</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,10 +7810,10 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F34" s="77">
+        <v>15.30934695937282</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7713,8 +7832,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="62">
-        <v>0</v>
+      <c r="F35" s="77">
+        <v>24.91798949593381</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7731,10 +7850,10 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F36" s="100">
+        <v>36.67895187795017</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7753,8 +7872,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="62">
-        <v>0</v>
+      <c r="F37" s="100">
+        <v>35.35522757277542</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,10 +7890,10 @@
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F38" s="77">
+        <v>2.384861322190901</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7793,8 +7912,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="62">
-        <v>0</v>
+      <c r="F39" s="77">
+        <v>4.529040110392115</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,10 +7930,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F40" s="77">
+        <v>8.035303841467258</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7833,8 +7952,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="62">
-        <v>0</v>
+      <c r="F41" s="77">
+        <v>11.02283431168238</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7851,9 +7970,9 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="62">
+        <v>11</v>
+      </c>
+      <c r="F42" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7873,7 +7992,7 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7891,9 +8010,9 @@
         <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="62">
+        <v>13</v>
+      </c>
+      <c r="F44" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7913,8 +8032,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="62">
-        <v>0</v>
+      <c r="F45" s="77">
+        <v>0.36376748993015</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,9 +8050,9 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="62">
+        <v>11</v>
+      </c>
+      <c r="F46" s="77">
         <v>0</v>
       </c>
     </row>
@@ -7953,8 +8072,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="62">
-        <v>0</v>
+      <c r="F47" s="77">
+        <v>0.07619675984203433</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,10 +8090,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F48" s="77">
+        <v>0.2032536930335218</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7993,8 +8112,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="62">
-        <v>0</v>
+      <c r="F49" s="77">
+        <v>0.8676518481602704</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8011,10 +8130,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="77">
-        <v>56.14594667479075</v>
+        <v>11</v>
+      </c>
+      <c r="F50" s="101">
+        <v>1172.200666452452</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8033,8 +8152,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="63">
-        <v>82.46667905745227</v>
+      <c r="F51" s="102">
+        <v>1644.213957245313</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,10 +8170,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="85">
-        <v>113.4374161850758</v>
+        <v>13</v>
+      </c>
+      <c r="F52" s="65">
+        <v>1961.788155632516</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8073,8 +8192,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="78">
-        <v>93.92004389601966</v>
+      <c r="F53" s="103">
+        <v>2589.340564873989</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,10 +8210,10 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="62">
-        <v>16.65957078264462</v>
+        <v>11</v>
+      </c>
+      <c r="F54" s="94">
+        <v>55.71201530609848</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8113,8 +8232,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="62">
-        <v>26.66424454913176</v>
+      <c r="F55" s="78">
+        <v>82.02315825310703</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8131,10 +8250,10 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="84">
-        <v>38.91678766439048</v>
+        <v>13</v>
+      </c>
+      <c r="F56" s="75">
+        <v>112.9825432270896</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8153,8 +8272,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="84">
-        <v>37.77556914547296</v>
+      <c r="F57" s="95">
+        <v>93.474120302443</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,10 +8290,10 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="62">
-        <v>2.670698610944005</v>
+        <v>11</v>
+      </c>
+      <c r="F58" s="77">
+        <v>16.27777603300387</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8193,8 +8312,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="62">
-        <v>4.903749659620536</v>
+      <c r="F59" s="77">
+        <v>26.28174785105303</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,10 +8330,10 @@
         <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="62">
-        <v>8.867720406068822</v>
+        <v>13</v>
+      </c>
+      <c r="F60" s="100">
+        <v>38.53342821514357</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8233,8 +8352,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="62">
-        <v>12.09125392916781</v>
+      <c r="F61" s="100">
+        <v>37.39243263592762</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,10 +8370,10 @@
         <v>13</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F62" s="77">
+        <v>2.552629892846991</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8273,8 +8392,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="62">
-        <v>0</v>
+      <c r="F63" s="77">
+        <v>4.785675218759326</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8291,10 +8410,10 @@
         <v>13</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F64" s="77">
+        <v>8.553000502962744</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8313,8 +8432,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="62">
-        <v>0.6489382197301405</v>
+      <c r="F65" s="77">
+        <v>11.77651366788316</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,10 +8450,10 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="86">
-        <v>1194.11243489431</v>
+        <v>11</v>
+      </c>
+      <c r="F66" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8353,8 +8472,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="87">
-        <v>1666.167783668886</v>
+      <c r="F67" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8371,10 +8490,10 @@
         <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="88">
-        <v>1985.970376620051</v>
+        <v>13</v>
+      </c>
+      <c r="F68" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8393,8 +8512,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="89">
-        <v>2617.868170538067</v>
+      <c r="F69" s="77">
+        <v>0.3804208167270601</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,9 +8530,9 @@
         <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="62">
+        <v>11</v>
+      </c>
+      <c r="F70" s="77">
         <v>0</v>
       </c>
     </row>
@@ -8433,8 +8552,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="62">
-        <v>0.07619675984203428</v>
+      <c r="F71" s="77">
+        <v>0.07619675984203435</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8451,10 +8570,10 @@
         <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="62">
-        <v>0.2032536930335217</v>
+        <v>13</v>
+      </c>
+      <c r="F72" s="77">
+        <v>0.2032536930335218</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8473,8 +8592,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="62">
-        <v>0.8676518481602704</v>
+      <c r="F73" s="77">
+        <v>0.8676518481602706</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,10 +8610,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="62">
-        <v>17.32124829714157</v>
+        <v>11</v>
+      </c>
+      <c r="F74" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8513,8 +8632,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="62">
-        <v>17.32814674702626</v>
+      <c r="F75" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,10 +8650,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="62">
-        <v>22.69688301522719</v>
+        <v>13</v>
+      </c>
+      <c r="F76" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8553,8 +8672,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="62">
-        <v>17.32814674702626</v>
+      <c r="F77" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,10 +8690,10 @@
         <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="62">
-        <v>6.34389334623248</v>
+        <v>11</v>
+      </c>
+      <c r="F78" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8593,8 +8712,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="62">
-        <v>7.760787712569048</v>
+      <c r="F79" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8611,10 +8730,10 @@
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="62">
-        <v>9.14174996466695</v>
+        <v>13</v>
+      </c>
+      <c r="F80" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8633,8 +8752,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="62">
-        <v>8.84780316853792</v>
+      <c r="F81" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,10 +8770,10 @@
         <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="62">
-        <v>1.110499991463826</v>
+        <v>11</v>
+      </c>
+      <c r="F82" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8673,8 +8792,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="62">
-        <v>1.680270368443387</v>
+      <c r="F83" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,10 +8810,10 @@
         <v>12</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="62">
-        <v>2.377520750099458</v>
+        <v>13</v>
+      </c>
+      <c r="F84" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8713,8 +8832,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="62">
-        <v>2.729918211001658</v>
+      <c r="F85" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8731,9 +8850,9 @@
         <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="62">
+        <v>11</v>
+      </c>
+      <c r="F86" s="77">
         <v>0</v>
       </c>
     </row>
@@ -8753,7 +8872,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="62">
+      <c r="F87" s="77">
         <v>0</v>
       </c>
     </row>
@@ -8771,9 +8890,9 @@
         <v>13</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="62">
+        <v>13</v>
+      </c>
+      <c r="F88" s="77">
         <v>0</v>
       </c>
     </row>
@@ -8793,8 +8912,8 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="62">
-        <v>0.1408701927875116</v>
+      <c r="F89" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,10 +8930,10 @@
         <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="59">
-        <v>175.0756459102251</v>
+        <v>11</v>
+      </c>
+      <c r="F90" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8833,8 +8952,8 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="59">
-        <v>175.1122544974064</v>
+      <c r="F91" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8851,10 +8970,10 @@
         <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="59">
-        <v>175.1122544974064</v>
+        <v>13</v>
+      </c>
+      <c r="F92" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8873,8 +8992,8 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="59">
-        <v>175.1122544974064</v>
+      <c r="F93" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,10 +9010,10 @@
         <v>15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="62">
-        <v>0.06861548980660362</v>
+        <v>11</v>
+      </c>
+      <c r="F94" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8913,8 +9032,8 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="62">
-        <v>0.1408701927875116</v>
+      <c r="F95" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8931,10 +9050,10 @@
         <v>15</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="62">
-        <v>0.1408701927875116</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8953,8 +9072,8 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="62">
-        <v>0.1408701927875116</v>
+      <c r="F97" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8971,10 +9090,10 @@
         <v>10</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F98" s="104">
+        <v>741.4782266677248</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8993,8 +9112,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="62">
-        <v>0</v>
+      <c r="F99" s="105">
+        <v>1068.922450257201</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,10 +9130,10 @@
         <v>10</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F100" s="106">
+        <v>1339.762375182537</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9033,8 +9152,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="62">
-        <v>0</v>
+      <c r="F101" s="107">
+        <v>1863.626870505522</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9051,10 +9170,10 @@
         <v>11</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F102" s="77">
+        <v>19.05919834792099</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9073,8 +9192,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="62">
-        <v>0</v>
+      <c r="F103" s="77">
+        <v>19.06609679780568</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9091,10 +9210,10 @@
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F104" s="77">
+        <v>26.08118311098249</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -9113,8 +9232,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="62">
-        <v>0</v>
+      <c r="F105" s="77">
+        <v>19.06609679780568</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -9131,10 +9250,10 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F106" s="77">
+        <v>6.443652796510138</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -9153,8 +9272,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="62">
-        <v>0</v>
+      <c r="F107" s="77">
+        <v>7.637433976466809</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -9171,10 +9290,10 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F108" s="77">
+        <v>9.427313107656204</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9193,8 +9312,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="62">
-        <v>0</v>
+      <c r="F109" s="77">
+        <v>8.72444943243568</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -9211,10 +9330,10 @@
         <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F110" s="77">
+        <v>1.083611559453515</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -9233,8 +9352,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="62">
-        <v>0</v>
+      <c r="F111" s="77">
+        <v>1.659754453429354</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -9251,10 +9370,10 @@
         <v>13</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F112" s="77">
+        <v>2.315702546230825</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -9273,8 +9392,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="62">
-        <v>0</v>
+      <c r="F113" s="77">
+        <v>2.668100007133025</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -9291,9 +9410,9 @@
         <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="62">
+        <v>11</v>
+      </c>
+      <c r="F114" s="77">
         <v>0</v>
       </c>
     </row>
@@ -9313,7 +9432,7 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="62">
+      <c r="F115" s="77">
         <v>0</v>
       </c>
     </row>
@@ -9331,9 +9450,9 @@
         <v>14</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="62">
+        <v>13</v>
+      </c>
+      <c r="F116" s="77">
         <v>0</v>
       </c>
     </row>
@@ -9353,8 +9472,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="62">
-        <v>0</v>
+      <c r="F117" s="77">
+        <v>0.1408701927875116</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -9371,10 +9490,10 @@
         <v>15</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F118" s="77">
+        <v>0.06861548980660362</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -9393,8 +9512,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="62">
-        <v>0</v>
+      <c r="F119" s="77">
+        <v>0.1408701927875116</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -9411,10 +9530,10 @@
         <v>15</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F120" s="77">
+        <v>0.1408701927875116</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -9433,8 +9552,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="62">
-        <v>0</v>
+      <c r="F121" s="77">
+        <v>0.1408701927875116</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -9451,10 +9570,10 @@
         <v>10</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="84">
-        <v>39.38180150444062</v>
+        <v>11</v>
+      </c>
+      <c r="F122" s="108">
+        <v>1167.861062008968</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9473,8 +9592,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="77">
-        <v>56.51337260818154</v>
+      <c r="F123" s="87">
+        <v>1884.419398066373</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -9491,10 +9610,10 @@
         <v>10</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="63">
-        <v>78.22282939554286</v>
+        <v>13</v>
+      </c>
+      <c r="F124" s="109">
+        <v>2397.655810619903</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -9513,8 +9632,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="77">
-        <v>66.4486129197423</v>
+      <c r="F125" s="81">
+        <v>3520.099024319936</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9531,10 +9650,10 @@
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="62">
-        <v>8.486567375387327</v>
+        <v>11</v>
+      </c>
+      <c r="F126" s="100">
+        <v>39.15939450602083</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -9553,8 +9672,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="62">
-        <v>14.01541339592255</v>
+      <c r="F127" s="94">
+        <v>55.46315710563108</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -9571,10 +9690,10 @@
         <v>11</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="62">
-        <v>21.56155719846485</v>
+        <v>13</v>
+      </c>
+      <c r="F128" s="78">
+        <v>77.1686451320561</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9593,8 +9712,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="62">
-        <v>22.43301160624478</v>
+      <c r="F129" s="94">
+        <v>65.8902643256902</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9611,10 +9730,10 @@
         <v>12</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="62">
-        <v>1.373200783700876</v>
+        <v>11</v>
+      </c>
+      <c r="F130" s="77">
+        <v>8.406409354097793</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9633,8 +9752,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="62">
-        <v>2.177255841067113</v>
+      <c r="F131" s="77">
+        <v>13.70072822118465</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9651,10 +9770,10 @@
         <v>12</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="62">
-        <v>3.864094120922158</v>
+        <v>13</v>
+      </c>
+      <c r="F132" s="77">
+        <v>21.24513986599481</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9673,8 +9792,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="62">
-        <v>5.859345056431048</v>
+      <c r="F133" s="77">
+        <v>22.11649413792603</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -9691,10 +9810,10 @@
         <v>13</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="62">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F134" s="77">
+        <v>1.345943380631392</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -9713,8 +9832,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="62">
-        <v>0</v>
+      <c r="F135" s="77">
+        <v>2.149998437997628</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -9731,10 +9850,10 @@
         <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="62">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F136" s="77">
+        <v>3.772394230854767</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9753,8 +9872,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="62">
-        <v>0.3597316458122778</v>
+      <c r="F137" s="77">
+        <v>5.76762847243575</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -9771,10 +9890,10 @@
         <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="86">
-        <v>1191.431886615747</v>
+        <v>11</v>
+      </c>
+      <c r="F138" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -9793,8 +9912,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="79">
-        <v>1917.13428766186</v>
+      <c r="F139" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -9811,10 +9930,10 @@
         <v>14</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="90">
-        <v>2437.294730432523</v>
+        <v>13</v>
+      </c>
+      <c r="F140" s="77">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -9833,8 +9952,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="73">
-        <v>3578.719372993275</v>
+      <c r="F141" s="77">
+        <v>0.3597316458122779</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -9851,9 +9970,9 @@
         <v>15</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="62">
+        <v>11</v>
+      </c>
+      <c r="F142" s="77">
         <v>0.06861548980660362</v>
       </c>
     </row>
@@ -9873,7 +9992,7 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="62">
+      <c r="F143" s="77">
         <v>0.1690300059510678</v>
       </c>
     </row>
@@ -9891,9 +10010,9 @@
         <v>15</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="62">
+        <v>13</v>
+      </c>
+      <c r="F144" s="77">
         <v>0.2960869391425553</v>
       </c>
     </row>
@@ -9913,8 +10032,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="62">
-        <v>0.616988317348047</v>
+      <c r="F145" s="77">
+        <v>0.6169883173480468</v>
       </c>
     </row>
   </sheetData>
@@ -9961,10 +10080,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5.862929310895186</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="38">
+        <v>503.501562489833</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9983,8 +10102,8 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="91">
-        <v>25.26333756180536</v>
+      <c r="F3" s="110">
+        <v>845.6950492403296</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10001,10 +10120,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="92">
-        <v>49.89933681644658</v>
+        <v>13</v>
+      </c>
+      <c r="F4" s="111">
+        <v>1190.85372647454</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10023,8 +10142,8 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="91">
-        <v>27.9212630785789</v>
+      <c r="F5" s="54">
+        <v>1580.247947903324</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10041,10 +10160,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F6" s="112">
+        <v>47.2482506442884</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10063,8 +10182,8 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
+      <c r="F7" s="113">
+        <v>70.64417240807387</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10081,10 +10200,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F8" s="12">
+        <v>98.00160944064315</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10103,8 +10222,8 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="114">
+        <v>76.72469055652758</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10121,10 +10240,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F10" s="8">
+        <v>13.25566515100215</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10143,8 +10262,8 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3">
-        <v>0</v>
+      <c r="F11" s="115">
+        <v>22.18514664927616</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10161,10 +10280,10 @@
         <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="116">
+        <v>33.09024280681102</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10183,8 +10302,8 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
+      <c r="F13" s="117">
+        <v>30.08805430145042</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10201,10 +10320,10 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2.117869906045341</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10223,8 +10342,8 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="7">
+        <v>4.043180165901165</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10241,10 +10360,10 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="7">
+        <v>6.901448053761143</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10263,8 +10382,8 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
+      <c r="F17" s="7">
+        <v>9.036710091931607</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10281,10 +10400,10 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="93">
-        <v>418.188134660008</v>
+        <v>11</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10303,8 +10422,8 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="10">
-        <v>758.6032222319079</v>
+      <c r="F19" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -10321,10 +10440,10 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="44">
-        <v>1102.344331583082</v>
+        <v>13</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -10343,8 +10462,8 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="35">
-        <v>1490.812546564112</v>
+      <c r="F21" s="7">
+        <v>0.3503335136736847</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10361,9 +10480,9 @@
         <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10383,8 +10502,8 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
+      <c r="F23" s="7">
+        <v>0.07619675984203433</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10401,10 +10520,10 @@
         <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.2032536930335218</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10423,8 +10542,8 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="3">
-        <v>0</v>
+      <c r="F25" s="7">
+        <v>0.8676518481602705</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10441,10 +10560,10 @@
         <v>10</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="94">
-        <v>47.65559779179455</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="118">
+        <v>178.6171623236598</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10463,8 +10582,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="95">
-        <v>71.05151955558001</v>
+      <c r="F27" s="119">
+        <v>369.4352473789946</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10481,10 +10600,10 @@
         <v>10</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="96">
-        <v>98.40895658814932</v>
+        <v>13</v>
+      </c>
+      <c r="F28" s="31">
+        <v>568.2006233794907</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10503,8 +10622,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="5">
-        <v>77.13203770403373</v>
+      <c r="F29" s="27">
+        <v>814.3761799341463</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10521,10 +10640,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="4">
-        <v>13.62935865768752</v>
+        <v>11</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3.582407332148237</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10543,8 +10662,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="97">
-        <v>22.55884015596153</v>
+      <c r="F31" s="115">
+        <v>22.98277698812812</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10561,10 +10680,10 @@
         <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="98">
-        <v>33.46393631349639</v>
+        <v>13</v>
+      </c>
+      <c r="F32" s="112">
+        <v>47.52592116952269</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10583,8 +10702,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="91">
-        <v>30.46174780813579</v>
+      <c r="F33" s="117">
+        <v>25.54784743165502</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10601,10 +10720,10 @@
         <v>12</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3">
-        <v>2.160773808698407</v>
+        <v>11</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -10623,8 +10742,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="3">
-        <v>4.158260006609808</v>
+      <c r="F35" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10641,10 +10760,10 @@
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="3">
-        <v>7.20707921240805</v>
+        <v>13</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -10663,8 +10782,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="3">
-        <v>9.272084790712466</v>
+      <c r="F37" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -10681,9 +10800,9 @@
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="3">
+        <v>11</v>
+      </c>
+      <c r="F38" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10703,7 +10822,7 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10721,9 +10840,9 @@
         <v>13</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="3">
+        <v>13</v>
+      </c>
+      <c r="F40" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10743,8 +10862,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="3">
-        <v>0.6102369883749028</v>
+      <c r="F41" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -10761,10 +10880,10 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="99">
-        <v>503.8754669132527</v>
+        <v>11</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -10783,8 +10902,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="21">
-        <v>846.0689536637492</v>
+      <c r="F43" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -10801,10 +10920,10 @@
         <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="100">
-        <v>1191.22763089796</v>
+        <v>13</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -10823,8 +10942,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="42">
-        <v>1580.621852326743</v>
+      <c r="F45" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -10841,9 +10960,9 @@
         <v>15</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="3">
+        <v>11</v>
+      </c>
+      <c r="F46" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10863,8 +10982,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="3">
-        <v>0.07619675984203428</v>
+      <c r="F47" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -10881,10 +11000,10 @@
         <v>15</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.2032536930335218</v>
+        <v>13</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -10903,8 +11022,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="3">
-        <v>0.8676518481602704</v>
+      <c r="F49" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -10921,9 +11040,9 @@
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="3">
+        <v>11</v>
+      </c>
+      <c r="F50" s="7">
         <v>0</v>
       </c>
     </row>
@@ -10943,8 +11062,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="3">
-        <v>0</v>
+      <c r="F51" s="120">
+        <v>110.0268357839718</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -10961,10 +11080,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F52" s="6">
+        <v>276.1904093149447</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -10983,8 +11102,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="3">
-        <v>0</v>
+      <c r="F53" s="119">
+        <v>374.1210230812806</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -11001,9 +11120,9 @@
         <v>11</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="3">
+        <v>11</v>
+      </c>
+      <c r="F54" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11023,7 +11142,7 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11041,9 +11160,9 @@
         <v>11</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="3">
+        <v>13</v>
+      </c>
+      <c r="F56" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11063,7 +11182,7 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11081,9 +11200,9 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="3">
+        <v>11</v>
+      </c>
+      <c r="F58" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11103,7 +11222,7 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11121,9 +11240,9 @@
         <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="3">
+        <v>13</v>
+      </c>
+      <c r="F60" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11143,7 +11262,7 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11161,9 +11280,9 @@
         <v>13</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="3">
+        <v>11</v>
+      </c>
+      <c r="F62" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11183,7 +11302,7 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11201,9 +11320,9 @@
         <v>13</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="3">
+        <v>13</v>
+      </c>
+      <c r="F64" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11223,7 +11342,7 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11241,9 +11360,9 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="3">
+        <v>11</v>
+      </c>
+      <c r="F66" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11263,8 +11382,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="101">
-        <v>113.1371936644418</v>
+      <c r="F67" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -11281,10 +11400,10 @@
         <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="102">
-        <v>280.5767419239099</v>
+        <v>13</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -11303,8 +11422,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="103">
-        <v>381.9035879274644</v>
+      <c r="F69" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -11321,9 +11440,9 @@
         <v>15</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3">
+        <v>11</v>
+      </c>
+      <c r="F70" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11343,7 +11462,7 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11361,9 +11480,9 @@
         <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="3">
+        <v>13</v>
+      </c>
+      <c r="F72" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11383,7 +11502,7 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11401,10 +11520,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="97">
-        <v>18.84936700841086</v>
+        <v>11</v>
+      </c>
+      <c r="F74" s="38">
+        <v>502.3271453346225</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11423,8 +11542,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="98">
-        <v>33.3912306973459</v>
+      <c r="F75" s="121">
+        <v>844.5206320851189</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11441,10 +11560,10 @@
         <v>10</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="92">
-        <v>53.0816082164754</v>
+        <v>13</v>
+      </c>
+      <c r="F76" s="111">
+        <v>1189.67930931933</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11463,8 +11582,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="104">
-        <v>40.98238107413655</v>
+      <c r="F77" s="54">
+        <v>1579.073530748113</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -11481,10 +11600,10 @@
         <v>11</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="3">
-        <v>1.440275722269953</v>
+        <v>11</v>
+      </c>
+      <c r="F78" s="116">
+        <v>33.93711204676197</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -11503,8 +11622,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="3">
-        <v>4.75210074096036</v>
+      <c r="F79" s="112">
+        <v>48.47983473899561</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -11521,10 +11640,10 @@
         <v>11</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="3">
-        <v>9.941934889084646</v>
+        <v>13</v>
+      </c>
+      <c r="F80" s="113">
+        <v>71.38235323815853</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11543,8 +11662,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="3">
-        <v>10.95351953726277</v>
+      <c r="F81" s="122">
+        <v>56.07098511578626</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -11561,10 +11680,10 @@
         <v>12</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="3">
-        <v>0.1514670820378915</v>
+        <v>11</v>
+      </c>
+      <c r="F82" s="7">
+        <v>7.289786621461033</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -11583,8 +11702,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="3">
-        <v>0.3266103544763405</v>
+      <c r="F83" s="7">
+        <v>11.27576089232673</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -11601,10 +11720,10 @@
         <v>12</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1.068248034496553</v>
+        <v>13</v>
+      </c>
+      <c r="F84" s="8">
+        <v>18.01696137403346</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11623,8 +11742,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="3">
-        <v>3.044455688846337</v>
+      <c r="F85" s="115">
+        <v>18.56419514459801</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -11641,10 +11760,10 @@
         <v>13</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F86" s="7">
+        <v>1.179335280021038</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -11663,8 +11782,8 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="3">
-        <v>0</v>
+      <c r="F87" s="7">
+        <v>1.921021783854771</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -11681,10 +11800,10 @@
         <v>13</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F88" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F88" s="7">
+        <v>3.211848975469301</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11703,8 +11822,8 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="3">
-        <v>0.2102591113962535</v>
+      <c r="F89" s="7">
+        <v>5.540454090721285</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -11721,10 +11840,10 @@
         <v>14</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="30">
-        <v>410.4244233564835</v>
+        <v>11</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -11743,8 +11862,8 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="105">
-        <v>752.603171857015</v>
+      <c r="F91" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -11761,10 +11880,10 @@
         <v>14</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F92" s="106">
-        <v>1097.761849091226</v>
+        <v>13</v>
+      </c>
+      <c r="F92" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -11783,8 +11902,8 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="107">
-        <v>1487.156070520009</v>
+      <c r="F93" s="7">
+        <v>0.3597316458122779</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -11801,10 +11920,10 @@
         <v>15</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F94" s="7">
+        <v>0.06861548980660362</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11823,8 +11942,8 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="3">
-        <v>0.01955747153504342</v>
+      <c r="F95" s="7">
+        <v>0.1690300059510678</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11841,10 +11960,10 @@
         <v>15</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0.1466144047265309</v>
+        <v>13</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0.2960869391425553</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -11863,8 +11982,8 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="3">
-        <v>0.8110125598532796</v>
+      <c r="F97" s="7">
+        <v>0.9604850942693041</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -11881,10 +12000,10 @@
         <v>10</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" s="98">
-        <v>34.12020423890031</v>
+        <v>11</v>
+      </c>
+      <c r="F98" s="10">
+        <v>126.9246421873744</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -11903,8 +12022,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="94">
-        <v>48.66292693113396</v>
+      <c r="F99" s="123">
+        <v>278.7903310606651</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -11921,10 +12040,10 @@
         <v>10</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F100" s="95">
-        <v>72.59852441663345</v>
+        <v>13</v>
+      </c>
+      <c r="F100" s="36">
+        <v>454.6957044911437</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11943,8 +12062,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="108">
-        <v>56.2540773079246</v>
+      <c r="F101" s="124">
+        <v>576.6409515258404</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -11961,10 +12080,10 @@
         <v>11</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="3">
-        <v>7.367888530584862</v>
+        <v>11</v>
+      </c>
+      <c r="F102" s="8">
+        <v>16.88160377567795</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -11983,8 +12102,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="3">
-        <v>11.5817879968399</v>
+      <c r="F103" s="116">
+        <v>31.42346746461299</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -12001,10 +12120,10 @@
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104" s="4">
-        <v>18.32298847854663</v>
+        <v>13</v>
+      </c>
+      <c r="F104" s="112">
+        <v>48.85653547866163</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -12023,8 +12142,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="97">
-        <v>18.87022224911117</v>
+      <c r="F105" s="125">
+        <v>39.01461784140365</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -12041,10 +12160,10 @@
         <v>12</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" s="3">
-        <v>1.206345304558064</v>
+        <v>11</v>
+      </c>
+      <c r="F106" s="7">
+        <v>1.310965925054893</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -12063,8 +12182,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="3">
-        <v>1.948031808391797</v>
+      <c r="F107" s="7">
+        <v>4.569971386801662</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -12081,10 +12200,10 @@
         <v>12</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F108" s="3">
-        <v>3.302087192315033</v>
+        <v>13</v>
+      </c>
+      <c r="F108" s="7">
+        <v>9.339542417081486</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -12103,8 +12222,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="3">
-        <v>5.630692307567018</v>
+      <c r="F109" s="7">
+        <v>10.77139018310407</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -12121,10 +12240,10 @@
         <v>13</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0.1514670820378915</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -12143,8 +12262,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="3">
-        <v>0</v>
+      <c r="F111" s="7">
+        <v>0.3201162449533483</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -12161,10 +12280,10 @@
         <v>13</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F112" s="7">
+        <v>1.039802686574531</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -12183,8 +12302,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="3">
-        <v>0.3597316458122779</v>
+      <c r="F113" s="7">
+        <v>3.016010340924316</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -12201,10 +12320,10 @@
         <v>14</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" s="99">
-        <v>502.7366056627465</v>
+        <v>11</v>
+      </c>
+      <c r="F114" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -12223,8 +12342,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="43">
-        <v>844.9300924132431</v>
+      <c r="F115" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -12241,10 +12360,10 @@
         <v>14</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F116" s="100">
-        <v>1190.088769647454</v>
+        <v>13</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -12263,8 +12382,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="42">
-        <v>1579.482991076237</v>
+      <c r="F117" s="7">
+        <v>0.2102591113962535</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -12281,10 +12400,10 @@
         <v>15</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="3">
-        <v>0.06861548980660362</v>
+        <v>11</v>
+      </c>
+      <c r="F118" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -12303,8 +12422,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="3">
-        <v>0.1690300059510678</v>
+      <c r="F119" s="7">
+        <v>0.01955747153504342</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -12321,10 +12440,10 @@
         <v>15</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" s="3">
-        <v>0.2960869391425553</v>
+        <v>13</v>
+      </c>
+      <c r="F120" s="7">
+        <v>0.1466144047265309</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -12343,8 +12462,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="3">
-        <v>0.9604850942693041</v>
+      <c r="F121" s="7">
+        <v>0.8110125598532796</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -12361,9 +12480,9 @@
         <v>10</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="3">
+        <v>11</v>
+      </c>
+      <c r="F122" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12383,8 +12502,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="3">
-        <v>0</v>
+      <c r="F123" s="117">
+        <v>26.05883106916713</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -12401,10 +12520,10 @@
         <v>10</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F124" s="3">
-        <v>8.531600543055934</v>
+        <v>13</v>
+      </c>
+      <c r="F124" s="10">
+        <v>124.4032471157535</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12423,8 +12542,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="3">
-        <v>0.6297568199471405</v>
+      <c r="F125" s="112">
+        <v>47.55724682394026</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12441,9 +12560,9 @@
         <v>11</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" s="3">
+        <v>11</v>
+      </c>
+      <c r="F126" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12463,7 +12582,7 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12481,10 +12600,10 @@
         <v>11</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="3">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F128" s="7">
+        <v>8.229852231153483</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -12503,8 +12622,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="3">
-        <v>0.5764797621342508</v>
+      <c r="F129" s="7">
+        <v>0.5765899859278683</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -12521,9 +12640,9 @@
         <v>12</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="3">
+        <v>11</v>
+      </c>
+      <c r="F130" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12543,7 +12662,7 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12561,9 +12680,9 @@
         <v>12</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F132" s="3">
+        <v>13</v>
+      </c>
+      <c r="F132" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12583,8 +12702,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="3">
-        <v>0.5678612728592243</v>
+      <c r="F133" s="7">
+        <v>0.5764797621342508</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -12601,9 +12720,9 @@
         <v>13</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="3">
+        <v>11</v>
+      </c>
+      <c r="F134" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12623,7 +12742,7 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12641,9 +12760,9 @@
         <v>13</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="3">
+        <v>13</v>
+      </c>
+      <c r="F136" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12663,8 +12782,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="3">
-        <v>0</v>
+      <c r="F137" s="7">
+        <v>0.5678612728592243</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12681,9 +12800,9 @@
         <v>14</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="3">
+        <v>11</v>
+      </c>
+      <c r="F138" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12703,8 +12822,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="91">
-        <v>27.93128708294461</v>
+      <c r="F139" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -12721,10 +12840,10 @@
         <v>14</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="6">
-        <v>127.5357411386615</v>
+        <v>13</v>
+      </c>
+      <c r="F140" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -12743,8 +12862,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="92">
-        <v>52.49123894908087</v>
+      <c r="F141" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -12761,9 +12880,9 @@
         <v>15</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="3">
+        <v>11</v>
+      </c>
+      <c r="F142" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12783,7 +12902,7 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12801,9 +12920,9 @@
         <v>15</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="3">
+        <v>13</v>
+      </c>
+      <c r="F144" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12823,7 +12942,7 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="7">
         <v>0.335537146211912</v>
       </c>
     </row>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="125">
+  <fills count="124">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,25 +126,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDADA"/>
+        <fgColor rgb="FFFFD9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD1D1"/>
+        <fgColor rgb="FFFFD0D0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC9C9"/>
+        <fgColor rgb="FFFFC7C7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBEBE"/>
+        <fgColor rgb="FFFFBCBC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,19 +162,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
+        <fgColor rgb="FFFFD6D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD3D3"/>
+        <fgColor rgb="FFFFD1D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCFCF"/>
+        <fgColor rgb="FFFFCBCB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC4C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -186,13 +192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD9D9"/>
+        <fgColor rgb="FFFFD7D7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA1A1"/>
+        <fgColor rgb="FFFFA2A2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,13 +210,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8787"/>
+        <fgColor rgb="FFFF8585"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7D7D"/>
+        <fgColor rgb="FFFF7A7A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7E7E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +234,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7A7A"/>
+        <fgColor rgb="FFFF7B7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7777"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7676"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,13 +258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7979"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7575"/>
+        <fgColor rgb="FFFF7070"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,55 +270,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7676"/>
+        <fgColor rgb="FFFF7171"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6F6F"/>
+        <fgColor rgb="FFFFADAD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7272"/>
+        <fgColor rgb="FFFFA4A4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7070"/>
+        <fgColor rgb="FFFF9B9B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFAFAF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA6A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9E9E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9393"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFBABA"/>
+        <fgColor rgb="FFFFB8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,61 +306,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBBBB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA7A7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA4A4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA0A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9D9D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFA5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6767"/>
+        <fgColor rgb="FFFF9F9F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF4343"/>
+        <fgColor rgb="FFFF9595"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3232"/>
+        <fgColor rgb="FFFFA3A3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF2222"/>
+        <fgColor rgb="FFFF6565"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4141"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3030"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF1F1F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,13 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0202"/>
+        <fgColor rgb="FFFF0909"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0909"/>
+        <fgColor rgb="FFFF0303"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,13 +408,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0303"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF57B057"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF56B056"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF56AF56"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,55 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF53AE53"/>
+        <fgColor rgb="FF59B159"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF52AD52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF56AF56"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF56B056"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF62B662"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF60B560"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5FB55F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5EB45E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF67B967"/>
+        <fgColor rgb="FF58B158"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,31 +456,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9DEA9"/>
+        <fgColor rgb="FF69BA69"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBBE8BB"/>
+        <fgColor rgb="FF68BA68"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0EAC0"/>
+        <fgColor rgb="FF6ABB6A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9EFC9"/>
+        <fgColor rgb="FFABDFAB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6F7D6"/>
+        <fgColor rgb="FFBDE9BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3ECC3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEF2CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5F6D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7F7D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF9DA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,19 +522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBF9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9F8D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAF9DA"/>
+        <fgColor rgb="FFDBF9DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,31 +582,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF038103"/>
+        <fgColor rgb="FF188D18"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF178C17"/>
+        <fgColor rgb="FF198E19"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF168C16"/>
+        <fgColor rgb="FF1B8F1B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1F911F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6ABB6A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,7 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBAE7BA"/>
+        <fgColor rgb="FFBCE8BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFF3CF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,19 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3FEE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE2FDE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0FCE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,6 +672,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE3FEE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE4FEE4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -727,6 +697,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3CA13C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0FCE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,6 +739,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF49A849"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9D9D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,7 +810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD6D6"/>
+        <fgColor rgb="FFFF9393"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBEBE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,6 +829,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -932,9 +926,9 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -944,10 +938,10 @@
     <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -968,15 +962,15 @@
     <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1001,10 +995,10 @@
     <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1018,7 +1012,6 @@
     <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1833,7 +1826,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="9">
-        <v>38613.90249065099</v>
+        <v>38650.80752130019</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1853,7 +1846,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="10">
-        <v>38887.65812983527</v>
+        <v>38984.49514593837</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1873,7 +1866,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="11">
-        <v>39153.66369803043</v>
+        <v>39311.38509570764</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1892,8 +1885,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="5">
-        <v>39554.09223134034</v>
+      <c r="F29" s="12">
+        <v>39767.22057299249</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1912,8 +1905,8 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="12">
-        <v>38553.9035357968</v>
+      <c r="F30" s="3">
+        <v>38497.05961092487</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1932,8 +1925,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="12">
-        <v>38588.31427928493</v>
+      <c r="F31" s="13">
+        <v>38530.37206044274</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1952,8 +1945,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="9">
-        <v>38627.97961973099</v>
+      <c r="F32" s="14">
+        <v>38569.13746319568</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1972,8 +1965,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="9">
-        <v>38601.92467450554</v>
+      <c r="F33" s="13">
+        <v>38542.52940604517</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1992,8 +1985,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="13">
-        <v>38526.34237406573</v>
+      <c r="F34" s="3">
+        <v>38474.97349070217</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2012,8 +2005,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="12">
-        <v>38540.78588136029</v>
+      <c r="F35" s="3">
+        <v>38487.56598467378</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2032,8 +2025,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="12">
-        <v>38558.42285806955</v>
+      <c r="F36" s="13">
+        <v>38502.93880892026</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2052,8 +2045,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="12">
-        <v>38555.13174793768</v>
+      <c r="F37" s="13">
+        <v>38499.94999893898</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2072,8 +2065,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="12">
-        <v>38547.17679958106</v>
+      <c r="F38" s="3">
+        <v>38496.8903489603</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2092,8 +2085,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="12">
-        <v>38549.76986301991</v>
+      <c r="F39" s="13">
+        <v>38499.09282427571</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2112,8 +2105,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="12">
-        <v>38543.64850750891</v>
+      <c r="F40" s="3">
+        <v>38492.6945889872</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2132,8 +2125,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="12">
-        <v>38547.54191557411</v>
+      <c r="F41" s="3">
+        <v>38496.03488512734</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2152,8 +2145,8 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="12">
-        <v>38591.45891835352</v>
+      <c r="F42" s="13">
+        <v>38539.97620853581</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2172,8 +2165,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="12">
-        <v>38591.45891835352</v>
+      <c r="F43" s="13">
+        <v>38539.97620853581</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2192,8 +2185,8 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="12">
-        <v>38591.45891835352</v>
+      <c r="F44" s="13">
+        <v>38539.97620853581</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2212,8 +2205,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="12">
-        <v>38562.680598274</v>
+      <c r="F45" s="13">
+        <v>38512.14419018094</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2232,8 +2225,8 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="12">
-        <v>38591.45891835352</v>
+      <c r="F46" s="13">
+        <v>38539.97620853581</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2252,8 +2245,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="12">
-        <v>38585.3321939972</v>
+      <c r="F47" s="13">
+        <v>38534.04799169579</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2272,8 +2265,8 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="12">
-        <v>38585.55927414788</v>
+      <c r="F48" s="13">
+        <v>38534.2494964045</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2292,8 +2285,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="12">
-        <v>38586.74670744556</v>
+      <c r="F49" s="13">
+        <v>38535.30319220336</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2312,8 +2305,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="14">
-        <v>42114.62601563121</v>
+      <c r="F50" s="15">
+        <v>41864.7166713267</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2332,8 +2325,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="15">
-        <v>43251.72686854275</v>
+      <c r="F51" s="16">
+        <v>43018.43860416764</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2352,8 +2345,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="16">
-        <v>43774.90695030884</v>
+      <c r="F52" s="17">
+        <v>43622.0898445853</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2372,8 +2365,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="17">
-        <v>44426.28818769607</v>
+      <c r="F53" s="18">
+        <v>44364.69996763668</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2392,8 +2385,8 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="18">
-        <v>44483.3512717348</v>
+      <c r="F54" s="19">
+        <v>44062.90058110634</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2412,8 +2405,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="19">
-        <v>44600.04118971981</v>
+      <c r="F55" s="20">
+        <v>44164.17978736709</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2432,8 +2425,8 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="20">
-        <v>44736.26826711654</v>
+      <c r="F56" s="18">
+        <v>44282.30262993264</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2452,8 +2445,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="19">
-        <v>44634.30599184927</v>
+      <c r="F57" s="20">
+        <v>44192.1603564966</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2473,7 +2466,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="21">
-        <v>44665.99910190458</v>
+        <v>44256.10591325813</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2492,8 +2485,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="21">
-        <v>44699.49559276059</v>
+      <c r="F59" s="18">
+        <v>44284.03692916696</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2512,8 +2505,8 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="20">
-        <v>44740.40531070931</v>
+      <c r="F60" s="18">
+        <v>44318.13326564698</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2532,8 +2525,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="20">
-        <v>44732.49725636177</v>
+      <c r="F61" s="18">
+        <v>44310.94564646341</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2553,7 +2546,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="22">
-        <v>44946.67189682263</v>
+        <v>44533.05297144136</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2573,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="23">
-        <v>44952.41046647577</v>
+        <v>44537.58719864615</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2593,7 +2586,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="24">
-        <v>44874.64294712504</v>
+        <v>44460.84342889609</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2613,7 +2606,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="24">
-        <v>44883.21644719988</v>
+        <v>44467.66651150308</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2633,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="F66" s="25">
-        <v>45336.69915052638</v>
+        <v>44910.77467901512</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2653,7 +2646,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="25">
-        <v>45336.69915052638</v>
+        <v>44910.77467901512</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2673,7 +2666,7 @@
         <v>13</v>
       </c>
       <c r="F68" s="25">
-        <v>45336.69915052638</v>
+        <v>44910.77467901512</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2693,7 +2686,7 @@
         <v>17</v>
       </c>
       <c r="F69" s="26">
-        <v>45095.40370222236</v>
+        <v>44677.65780760661</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2713,7 +2706,7 @@
         <v>11</v>
       </c>
       <c r="F70" s="25">
-        <v>45336.69915052638</v>
+        <v>44910.77467901512</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2733,7 +2726,7 @@
         <v>16</v>
       </c>
       <c r="F71" s="27">
-        <v>45291.08827519324</v>
+        <v>44866.68404159298</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2753,7 +2746,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="27">
-        <v>45291.50479337249</v>
+        <v>44867.02908845689</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2773,7 +2766,7 @@
         <v>17</v>
       </c>
       <c r="F73" s="27">
-        <v>45293.68282414121</v>
+        <v>44868.83338590108</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2852,7 +2845,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="31">
+      <c r="F77" s="16">
         <v>42986.15451839405</v>
       </c>
     </row>
@@ -2872,7 +2865,7 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F78" s="31">
         <v>40454.90781617587</v>
       </c>
     </row>
@@ -2892,7 +2885,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="31">
         <v>40474.56082464437</v>
       </c>
     </row>
@@ -2912,7 +2905,7 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="33">
+      <c r="F80" s="31">
         <v>40505.60995645622</v>
       </c>
     </row>
@@ -2932,7 +2925,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="32">
+      <c r="F81" s="31">
         <v>40484.75477039215</v>
       </c>
     </row>
@@ -2952,7 +2945,7 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="34">
+      <c r="F82" s="32">
         <v>40418.88316793256</v>
       </c>
     </row>
@@ -2972,7 +2965,7 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="34">
+      <c r="F83" s="32">
         <v>40424.23798751682</v>
       </c>
     </row>
@@ -2992,7 +2985,7 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="34">
+      <c r="F84" s="32">
         <v>40433.29975206833</v>
       </c>
     </row>
@@ -3012,7 +3005,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="34">
+      <c r="F85" s="32">
         <v>40434.02525596179</v>
       </c>
     </row>
@@ -3032,7 +3025,7 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="34">
+      <c r="F86" s="32">
         <v>40410.6788216164</v>
       </c>
     </row>
@@ -3052,7 +3045,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="34">
+      <c r="F87" s="32">
         <v>40411.67375059154</v>
       </c>
     </row>
@@ -3072,7 +3065,7 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F88" s="32">
         <v>40413.4054796498</v>
       </c>
     </row>
@@ -3092,7 +3085,7 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="34">
+      <c r="F89" s="32">
         <v>40416.52922482019</v>
       </c>
     </row>
@@ -3112,7 +3105,7 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="34">
+      <c r="F90" s="32">
         <v>40409.09688229517</v>
       </c>
     </row>
@@ -3132,7 +3125,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="34">
+      <c r="F91" s="32">
         <v>40409.09688229517</v>
       </c>
     </row>
@@ -3152,7 +3145,7 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="34">
+      <c r="F92" s="32">
         <v>40409.09688229517</v>
       </c>
     </row>
@@ -3172,7 +3165,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="34">
+      <c r="F93" s="32">
         <v>40409.57939658233</v>
       </c>
     </row>
@@ -3192,7 +3185,7 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="34">
+      <c r="F94" s="32">
         <v>40409.18891744009</v>
       </c>
     </row>
@@ -3212,7 +3205,7 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="34">
+      <c r="F95" s="32">
         <v>40409.32360516979</v>
       </c>
     </row>
@@ -3232,7 +3225,7 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="34">
+      <c r="F96" s="32">
         <v>40409.49402883493</v>
       </c>
     </row>
@@ -3252,7 +3245,7 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="34">
+      <c r="F97" s="32">
         <v>40410.38519758793</v>
       </c>
     </row>
@@ -3272,8 +3265,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="35">
-        <v>41660.21271115929</v>
+      <c r="F98" s="33">
+        <v>41686.43187039512</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3292,8 +3285,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="36">
-        <v>41925.19402832925</v>
+      <c r="F99" s="34">
+        <v>42011.69413656875</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3312,8 +3305,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="37">
-        <v>42166.13735295455</v>
+      <c r="F100" s="30">
+        <v>42316.35937027059</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3332,8 +3325,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="38">
-        <v>42403.08846989398</v>
+      <c r="F101" s="35">
+        <v>42630.97069519464</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3353,7 +3346,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="36">
-        <v>41888.93875138393</v>
+        <v>41811.64839321895</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3372,8 +3365,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="36">
-        <v>41908.75696036807</v>
+      <c r="F103" s="15">
+        <v>41831.46000945286</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3392,8 +3385,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="36">
-        <v>41929.59563414384</v>
+      <c r="F104" s="15">
+        <v>41851.40775637022</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3412,8 +3405,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="36">
-        <v>41918.95090611585</v>
+      <c r="F105" s="15">
+        <v>41841.65395520064</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3432,8 +3425,8 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="39">
-        <v>41866.05991905608</v>
+      <c r="F106" s="36">
+        <v>41790.60202696239</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3452,8 +3445,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="39">
-        <v>41847.23235287643</v>
+      <c r="F107" s="36">
+        <v>41772.39478174338</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3472,8 +3465,8 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="39">
-        <v>41877.4523784449</v>
+      <c r="F108" s="36">
+        <v>41801.55522307436</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3492,8 +3485,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="39">
-        <v>41870.01792427101</v>
+      <c r="F109" s="36">
+        <v>41794.53685468994</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3512,8 +3505,8 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="39">
-        <v>41849.54599954885</v>
+      <c r="F110" s="36">
+        <v>41775.34626409529</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3532,8 +3525,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="39">
-        <v>41861.08806053891</v>
+      <c r="F111" s="36">
+        <v>41786.42464471187</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3552,8 +3545,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="39">
-        <v>41856.23868242764</v>
+      <c r="F112" s="36">
+        <v>41781.68013494527</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3572,8 +3565,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="39">
-        <v>41864.88815889527</v>
+      <c r="F113" s="36">
+        <v>41790.0770871761</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3592,8 +3585,8 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="39">
-        <v>41863.54104064286</v>
+      <c r="F114" s="36">
+        <v>41789.01296993181</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3612,8 +3605,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="39">
-        <v>41863.54104064286</v>
+      <c r="F115" s="36">
+        <v>41789.01296993181</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3632,8 +3625,8 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="39">
-        <v>41863.54104064286</v>
+      <c r="F116" s="36">
+        <v>41789.01296993181</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3652,8 +3645,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="39">
-        <v>41863.84352275098</v>
+      <c r="F117" s="36">
+        <v>41789.29499411966</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3672,8 +3665,8 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="39">
-        <v>41861.23181016904</v>
+      <c r="F118" s="36">
+        <v>41786.77219760076</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3692,8 +3685,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="39">
-        <v>41863.58773133845</v>
+      <c r="F119" s="36">
+        <v>41789.03920270711</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3712,8 +3705,8 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="39">
-        <v>41863.75815500359</v>
+      <c r="F120" s="36">
+        <v>41789.20962637226</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3732,8 +3725,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="39">
-        <v>41864.64932375659</v>
+      <c r="F121" s="36">
+        <v>41790.10079512526</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3752,8 +3745,8 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="40">
-        <v>45872.51959590994</v>
+      <c r="F122" s="37">
+        <v>45613.8544993611</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3772,8 +3765,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="41">
-        <v>48184.37278618546</v>
+      <c r="F123" s="38">
+        <v>47845.01201701008</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3792,8 +3785,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="42">
-        <v>49197.45108224607</v>
+      <c r="F124" s="39">
+        <v>48892.92209995392</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3812,8 +3805,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="43">
-        <v>50246.15488215336</v>
+      <c r="F125" s="40">
+        <v>49962.2814149409</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3832,8 +3825,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="44">
-        <v>51463.88126521978</v>
+      <c r="F126" s="41">
+        <v>50864.78438892138</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3852,8 +3845,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="45">
-        <v>51933.11562351709</v>
+      <c r="F127" s="42">
+        <v>51311.161252322</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3872,8 +3865,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="45">
-        <v>51910.3569786758</v>
+      <c r="F128" s="43">
+        <v>51280.46858162685</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3892,8 +3885,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="46">
-        <v>52296.11917933967</v>
+      <c r="F129" s="44">
+        <v>51657.38268678444</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3912,8 +3905,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="47">
-        <v>51853.30621245755</v>
+      <c r="F130" s="43">
+        <v>51253.99255914787</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3932,8 +3925,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="48">
-        <v>51711.11265350207</v>
+      <c r="F131" s="45">
+        <v>51114.33388130226</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3952,8 +3945,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="49">
-        <v>51968.87110723612</v>
+      <c r="F132" s="46">
+        <v>51360.10824944364</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3972,8 +3965,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="50">
-        <v>52021.4162801157</v>
+      <c r="F133" s="47">
+        <v>51410.49501097472</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3992,8 +3985,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="51">
-        <v>52194.23981491681</v>
+      <c r="F134" s="48">
+        <v>51586.47054066287</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4012,8 +4005,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="51">
-        <v>52229.46566230058</v>
+      <c r="F135" s="48">
+        <v>51620.14629495816</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4032,8 +4025,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="52">
-        <v>52150.42784238054</v>
+      <c r="F136" s="49">
+        <v>51543.05796441021</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4052,8 +4045,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="53">
-        <v>52236.30332990517</v>
+      <c r="F137" s="48">
+        <v>51625.16736097376</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4072,8 +4065,8 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="54">
-        <v>52465.97572135027</v>
+      <c r="F138" s="50">
+        <v>51849.63729290896</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4092,8 +4085,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="54">
-        <v>52465.97572135027</v>
+      <c r="F139" s="50">
+        <v>51849.63729290896</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4112,8 +4105,8 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="54">
-        <v>52465.97572135027</v>
+      <c r="F140" s="50">
+        <v>51849.63729290896</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4132,8 +4125,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="54">
-        <v>52452.33924796498</v>
+      <c r="F141" s="50">
+        <v>51836.29802214575</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4152,8 +4145,8 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="54">
-        <v>52436.58038962145</v>
+      <c r="F142" s="50">
+        <v>51821.20306967931</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4172,8 +4165,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="54">
-        <v>52442.01608291057</v>
+      <c r="F143" s="50">
+        <v>51826.40976232372</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4192,8 +4185,8 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="54">
-        <v>52448.89399803286</v>
+      <c r="F144" s="50">
+        <v>51832.99791735217</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4212,8 +4205,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="54">
-        <v>52466.71526803591</v>
+      <c r="F145" s="50">
+        <v>51850.08735469476</v>
       </c>
     </row>
   </sheetData>
@@ -4262,7 +4255,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="51">
         <v>7762.230904495669</v>
       </c>
     </row>
@@ -4282,7 +4275,7 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="52">
         <v>7819.026426655899</v>
       </c>
     </row>
@@ -4302,7 +4295,7 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="53">
         <v>7877.095302921653</v>
       </c>
     </row>
@@ -4322,7 +4315,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="57">
+      <c r="F5" s="54">
         <v>7890.46350550753</v>
       </c>
     </row>
@@ -4342,7 +4335,7 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="55">
         <v>7690.104977588864</v>
       </c>
     </row>
@@ -4362,7 +4355,7 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="56">
         <v>7699.754227312374</v>
       </c>
     </row>
@@ -4382,7 +4375,7 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="56">
         <v>7711.048389499818</v>
       </c>
     </row>
@@ -4402,7 +4395,7 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="56">
         <v>7702.397696305205</v>
       </c>
     </row>
@@ -4422,7 +4415,7 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="55">
         <v>7676.086457795165</v>
       </c>
     </row>
@@ -4442,7 +4435,7 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="55">
         <v>7679.872141479203</v>
       </c>
     </row>
@@ -4462,7 +4455,7 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="55">
         <v>7684.496152035683</v>
       </c>
     </row>
@@ -4482,7 +4475,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="58">
+      <c r="F13" s="55">
         <v>7683.249722280518</v>
       </c>
     </row>
@@ -4502,7 +4495,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="55">
         <v>7671.339218616151</v>
       </c>
     </row>
@@ -4522,7 +4515,7 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="55">
         <v>7672.164983781145</v>
       </c>
     </row>
@@ -4542,7 +4535,7 @@
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="55">
         <v>7673.390166516975</v>
       </c>
     </row>
@@ -4562,7 +4555,7 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="55">
         <v>7674.307743067507</v>
       </c>
     </row>
@@ -4582,7 +4575,7 @@
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="55">
         <v>7670.429926877565</v>
       </c>
     </row>
@@ -4602,7 +4595,7 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="55">
         <v>7670.429926877565</v>
       </c>
     </row>
@@ -4622,7 +4615,7 @@
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="55">
         <v>7670.429926877565</v>
       </c>
     </row>
@@ -4642,7 +4635,7 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="55">
         <v>7670.580224704273</v>
       </c>
     </row>
@@ -4662,7 +4655,7 @@
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="55">
         <v>7670.429926877565</v>
       </c>
     </row>
@@ -4682,7 +4675,7 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="55">
         <v>7670.462657719619</v>
       </c>
     </row>
@@ -4702,7 +4695,7 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="55">
         <v>7670.517235898805</v>
       </c>
     </row>
@@ -4722,7 +4715,7 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="55">
         <v>7670.802632694169</v>
       </c>
     </row>
@@ -4742,8 +4735,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="60">
-        <v>7039.837393859539</v>
+      <c r="F26" s="57">
+        <v>7002.932363210341</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4762,8 +4755,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="61">
-        <v>7103.996577508893</v>
+      <c r="F27" s="57">
+        <v>7007.159561405783</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4782,8 +4775,8 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="62">
-        <v>7189.979484605195</v>
+      <c r="F28" s="57">
+        <v>7032.258086927995</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4802,8 +4795,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="63">
-        <v>7225.496891927759</v>
+      <c r="F29" s="57">
+        <v>7012.36855027561</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4822,8 +4815,8 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="64">
-        <v>6789.871817807083</v>
+      <c r="F30" s="58">
+        <v>6846.715742679017</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4842,8 +4835,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="64">
-        <v>6789.816688323283</v>
+      <c r="F31" s="58">
+        <v>6847.758907165468</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4862,8 +4855,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="64">
-        <v>6793.614168581201</v>
+      <c r="F32" s="58">
+        <v>6852.456325116514</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4882,8 +4875,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="64">
-        <v>6780.748710160409</v>
+      <c r="F33" s="58">
+        <v>6840.143978620788</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4902,8 +4895,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="65">
-        <v>6811.088986836358</v>
+      <c r="F34" s="59">
+        <v>6862.457870199919</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4922,8 +4915,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="64">
-        <v>6796.645479541797</v>
+      <c r="F35" s="58">
+        <v>6849.865376228306</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4942,8 +4935,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="64">
-        <v>6779.00850283254</v>
+      <c r="F36" s="58">
+        <v>6834.492551981832</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4962,8 +4955,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="64">
-        <v>6782.299612964406</v>
+      <c r="F37" s="58">
+        <v>6837.481361963109</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4982,8 +4975,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="64">
-        <v>6790.25456132103</v>
+      <c r="F38" s="58">
+        <v>6840.541011941792</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5002,8 +4995,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="64">
-        <v>6787.661497882184</v>
+      <c r="F39" s="58">
+        <v>6838.338536626386</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5022,8 +5015,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="64">
-        <v>6793.782853393177</v>
+      <c r="F40" s="58">
+        <v>6844.736771914889</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5042,8 +5035,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="64">
-        <v>6789.889445327979</v>
+      <c r="F41" s="58">
+        <v>6841.396475774757</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5062,8 +5055,8 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="64">
-        <v>6745.972442548567</v>
+      <c r="F42" s="60">
+        <v>6797.455152366284</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5082,8 +5075,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="64">
-        <v>6745.972442548567</v>
+      <c r="F43" s="60">
+        <v>6797.455152366284</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5102,8 +5095,8 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="64">
-        <v>6745.972442548567</v>
+      <c r="F44" s="60">
+        <v>6797.455152366284</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5122,8 +5115,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="64">
-        <v>6774.750762628098</v>
+      <c r="F45" s="58">
+        <v>6825.287170721155</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5142,8 +5135,8 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="64">
-        <v>6745.972442548567</v>
+      <c r="F46" s="60">
+        <v>6797.455152366284</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5162,8 +5155,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="64">
-        <v>6752.09916690489</v>
+      <c r="F47" s="60">
+        <v>6803.383369206298</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5182,8 +5175,8 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="64">
-        <v>6751.872086754217</v>
+      <c r="F48" s="60">
+        <v>6803.181864497585</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5202,8 +5195,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="64">
-        <v>6750.684653456537</v>
+      <c r="F49" s="60">
+        <v>6802.128168698736</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5222,8 +5215,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="66">
-        <v>3222.805345270897</v>
+      <c r="F50" s="61">
+        <v>3472.714689575399</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5242,8 +5235,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="67">
-        <v>2280.548176646946</v>
+      <c r="F51" s="62">
+        <v>2513.836441022051</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5262,8 +5255,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="68">
-        <v>2051.622879456639</v>
+      <c r="F52" s="63">
+        <v>2204.43998518017</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5282,8 +5275,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="69">
-        <v>1573.664438924538</v>
+      <c r="F53" s="64">
+        <v>1635.252658983944</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5302,8 +5295,8 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="70">
-        <v>854.0800891672823</v>
+      <c r="F54" s="65">
+        <v>1274.530779795757</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5322,8 +5315,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="71">
-        <v>737.3901711822878</v>
+      <c r="F55" s="66">
+        <v>1173.251573535001</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5342,8 +5335,8 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="72">
-        <v>601.1630937855632</v>
+      <c r="F56" s="67">
+        <v>1055.128730969442</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5362,8 +5355,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="73">
-        <v>703.125369052832</v>
+      <c r="F57" s="68">
+        <v>1145.271004405493</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5382,8 +5375,8 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="74">
-        <v>671.4322589975229</v>
+      <c r="F58" s="69">
+        <v>1081.325447643974</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5402,8 +5395,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="74">
-        <v>637.9357681415005</v>
+      <c r="F59" s="67">
+        <v>1053.394431735138</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5422,8 +5415,8 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="72">
-        <v>597.0260501927921</v>
+      <c r="F60" s="70">
+        <v>1019.298095255111</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5442,8 +5435,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="72">
-        <v>604.9341045403293</v>
+      <c r="F61" s="70">
+        <v>1026.48571443867</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5462,8 +5455,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="75">
-        <v>390.7594640794792</v>
+      <c r="F62" s="71">
+        <v>804.3783894607336</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5482,8 +5475,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="75">
-        <v>385.0208944263249</v>
+      <c r="F63" s="71">
+        <v>799.8441622559388</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5502,8 +5495,8 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="76">
-        <v>462.7884137770444</v>
+      <c r="F64" s="72">
+        <v>876.5879320059944</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5522,8 +5515,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="76">
-        <v>454.2149137022248</v>
+      <c r="F65" s="72">
+        <v>869.7648493990166</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5542,8 +5535,8 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="77">
-        <v>0.7322103757177454</v>
+      <c r="F66" s="73">
+        <v>426.656681886973</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5562,8 +5555,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="77">
-        <v>0.7322103757177454</v>
+      <c r="F67" s="73">
+        <v>426.656681886973</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5582,8 +5575,8 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="77">
-        <v>0.7322103757177454</v>
+      <c r="F68" s="73">
+        <v>426.656681886973</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5602,8 +5595,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="78">
-        <v>242.0276586797269</v>
+      <c r="F69" s="74">
+        <v>659.7735532954936</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5622,8 +5615,8 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="77">
-        <v>0.7322103757177454</v>
+      <c r="F70" s="73">
+        <v>426.656681886973</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5642,8 +5635,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="77">
-        <v>46.34308570884293</v>
+      <c r="F71" s="73">
+        <v>470.7473193091322</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5662,8 +5655,8 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="77">
-        <v>45.92656752959451</v>
+      <c r="F72" s="73">
+        <v>470.4022724452064</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5682,8 +5675,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="77">
-        <v>43.74853676088167</v>
+      <c r="F73" s="73">
+        <v>468.5979750010124</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5702,7 +5695,7 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="79">
+      <c r="F74" s="75">
         <v>12148.77695620095</v>
       </c>
     </row>
@@ -5722,7 +5715,7 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="80">
+      <c r="F75" s="76">
         <v>12205.57247836118</v>
       </c>
     </row>
@@ -5742,7 +5735,7 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="81">
+      <c r="F76" s="77">
         <v>12263.64135462694</v>
       </c>
     </row>
@@ -5762,7 +5755,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="81">
+      <c r="F77" s="77">
         <v>12277.00955721282</v>
       </c>
     </row>
@@ -5782,7 +5775,7 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="82">
+      <c r="F78" s="78">
         <v>12072.01404723274</v>
       </c>
     </row>
@@ -5802,7 +5795,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="82">
+      <c r="F79" s="78">
         <v>12078.11437111027</v>
       </c>
     </row>
@@ -5822,7 +5815,7 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="83">
+      <c r="F80" s="78">
         <v>12087.62271831749</v>
       </c>
     </row>
@@ -5842,7 +5835,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="82">
+      <c r="F81" s="78">
         <v>12081.36339767789</v>
       </c>
     </row>
@@ -5862,7 +5855,7 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="82">
+      <c r="F82" s="78">
         <v>12060.84963450486</v>
       </c>
     </row>
@@ -5882,7 +5875,7 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="82">
+      <c r="F83" s="78">
         <v>12062.55347390027</v>
       </c>
     </row>
@@ -5902,7 +5895,7 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="82">
+      <c r="F84" s="78">
         <v>12065.4295273276</v>
       </c>
     </row>
@@ -5922,7 +5915,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="82">
+      <c r="F85" s="78">
         <v>12065.67310559727</v>
       </c>
     </row>
@@ -5942,7 +5935,7 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="82">
+      <c r="F86" s="78">
         <v>12058.23314021843</v>
       </c>
     </row>
@@ -5962,7 +5955,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="82">
+      <c r="F87" s="78">
         <v>12058.55164473398</v>
       </c>
     </row>
@@ -5982,7 +5975,7 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="82">
+      <c r="F88" s="78">
         <v>12059.10580824002</v>
       </c>
     </row>
@@ -6002,7 +5995,7 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="82">
+      <c r="F89" s="78">
         <v>12060.10572977944</v>
       </c>
     </row>
@@ -6022,7 +6015,7 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="82">
+      <c r="F90" s="78">
         <v>12057.72662512459</v>
       </c>
     </row>
@@ -6042,7 +6035,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="82">
+      <c r="F91" s="78">
         <v>12057.72662512459</v>
       </c>
     </row>
@@ -6062,7 +6055,7 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="82">
+      <c r="F92" s="78">
         <v>12057.72662512459</v>
       </c>
     </row>
@@ -6082,7 +6075,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="82">
+      <c r="F93" s="78">
         <v>12057.88115032625</v>
       </c>
     </row>
@@ -6102,7 +6095,7 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="82">
+      <c r="F94" s="78">
         <v>12057.75609937997</v>
       </c>
     </row>
@@ -6122,7 +6115,7 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="82">
+      <c r="F95" s="78">
         <v>12057.79923312575</v>
       </c>
     </row>
@@ -6142,7 +6135,7 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="82">
+      <c r="F96" s="78">
         <v>12057.85381130493</v>
       </c>
     </row>
@@ -6162,7 +6155,7 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="82">
+      <c r="F97" s="78">
         <v>12058.1392081003</v>
       </c>
     </row>
@@ -6182,8 +6175,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="84">
-        <v>11031.37836986613</v>
+      <c r="F98" s="79">
+        <v>11005.1592106303</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6202,8 +6195,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="84">
-        <v>11035.33208228335</v>
+      <c r="F99" s="80">
+        <v>10948.83197404385</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6222,8 +6215,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="85">
-        <v>11105.89504429228</v>
+      <c r="F100" s="80">
+        <v>10955.67302697624</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6242,8 +6235,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="85">
-        <v>11084.89361857412</v>
+      <c r="F101" s="81">
+        <v>10857.01139327345</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6262,8 +6255,8 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="86">
-        <v>10607.77995253856</v>
+      <c r="F102" s="82">
+        <v>10685.07031070354</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6282,8 +6275,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="86">
-        <v>10613.71355471369</v>
+      <c r="F103" s="82">
+        <v>10691.0105056289</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6302,8 +6295,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="86">
-        <v>10623.74665123005</v>
+      <c r="F104" s="82">
+        <v>10701.93452900368</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6322,8 +6315,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="86">
-        <v>10616.96258128131</v>
+      <c r="F105" s="82">
+        <v>10694.25953219652</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6342,8 +6335,8 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="86">
-        <v>10603.08514409136</v>
+      <c r="F106" s="82">
+        <v>10678.54303618505</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6362,8 +6355,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="86">
-        <v>10627.68399894577</v>
+      <c r="F107" s="82">
+        <v>10702.52157007882</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6382,8 +6375,8 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="86">
-        <v>10605.91028363779</v>
+      <c r="F108" s="82">
+        <v>10681.80743900833</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6402,8 +6395,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="86">
-        <v>10615.88036007222</v>
+      <c r="F109" s="82">
+        <v>10691.36142965329</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6422,8 +6415,8 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="86">
-        <v>10617.54573701794</v>
+      <c r="F110" s="82">
+        <v>10691.7454724715</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6442,8 +6435,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="86">
-        <v>10606.30233247855</v>
+      <c r="F111" s="82">
+        <v>10680.96574830559</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6462,8 +6455,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="86">
-        <v>10612.42618473804</v>
+      <c r="F112" s="82">
+        <v>10686.98473222042</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6482,8 +6475,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="86">
-        <v>10607.27632341018</v>
+      <c r="F113" s="82">
+        <v>10682.08739512936</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6502,8 +6495,8 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="86">
-        <v>10603.28246677689</v>
+      <c r="F114" s="82">
+        <v>10677.81053748795</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6522,8 +6515,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="86">
-        <v>10603.28246677689</v>
+      <c r="F115" s="82">
+        <v>10677.81053748795</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6542,8 +6535,8 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="86">
-        <v>10603.28246677689</v>
+      <c r="F116" s="82">
+        <v>10677.81053748795</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6562,8 +6555,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="86">
-        <v>10603.35232710348</v>
+      <c r="F117" s="82">
+        <v>10677.90085573481</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6582,8 +6575,8 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="86">
-        <v>10605.59169725071</v>
+      <c r="F118" s="82">
+        <v>10680.05130981899</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6602,8 +6595,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="86">
-        <v>10603.27040990298</v>
+      <c r="F119" s="82">
+        <v>10677.81893853431</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6622,8 +6615,8 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="86">
-        <v>10603.32498808217</v>
+      <c r="F120" s="82">
+        <v>10677.8735167135</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6642,8 +6635,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="86">
-        <v>10603.61038487753</v>
+      <c r="F121" s="82">
+        <v>10678.15891350886</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6662,8 +6655,8 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="87">
-        <v>6594.303911509832</v>
+      <c r="F122" s="58">
+        <v>6852.96900805867</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6682,8 +6675,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="88">
-        <v>4328.597632736077</v>
+      <c r="F123" s="83">
+        <v>4667.958401911477</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6702,8 +6695,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="89">
-        <v>3489.674925310702</v>
+      <c r="F124" s="84">
+        <v>3794.203907602871</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6722,8 +6715,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="90">
-        <v>2304.886526469567</v>
+      <c r="F125" s="85">
+        <v>2588.759993682026</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6742,8 +6735,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="91">
-        <v>1002.942242200001</v>
+      <c r="F126" s="86">
+        <v>1602.039118498386</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6762,8 +6755,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="92">
-        <v>533.7078839026883</v>
+      <c r="F127" s="68">
+        <v>1155.662255097781</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6782,8 +6775,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="92">
-        <v>571.0405616918021</v>
+      <c r="F128" s="66">
+        <v>1200.928958740735</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6802,8 +6795,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="93">
-        <v>171.7253964074964</v>
+      <c r="F129" s="71">
+        <v>810.461888962718</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6822,8 +6815,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="72">
-        <v>613.5172949622253</v>
+      <c r="F130" s="66">
+        <v>1212.830948271905</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6842,8 +6835,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="71">
-        <v>755.710853917706</v>
+      <c r="F131" s="87">
+        <v>1352.489626117512</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6862,8 +6855,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="92">
-        <v>497.9524001836514</v>
+      <c r="F132" s="69">
+        <v>1106.715257976132</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6882,8 +6875,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="76">
-        <v>446.4281004389736</v>
+      <c r="F133" s="67">
+        <v>1057.349369579965</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6902,8 +6895,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="78">
-        <v>272.583692502955</v>
+      <c r="F134" s="72">
+        <v>880.3529667568946</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6922,8 +6915,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="94">
-        <v>237.3578451191882</v>
+      <c r="F135" s="72">
+        <v>846.6772124616126</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6942,8 +6935,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="95">
-        <v>316.3956650392121</v>
+      <c r="F136" s="88">
+        <v>923.7655430095658</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6962,8 +6955,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="94">
-        <v>231.5257883892483</v>
+      <c r="F137" s="71">
+        <v>842.6617573206656</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6982,8 +6975,8 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="77">
-        <v>0.8477860694981453</v>
+      <c r="F138" s="89">
+        <v>617.1862145108174</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -7002,8 +6995,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="77">
-        <v>0.8477860694981453</v>
+      <c r="F139" s="89">
+        <v>617.1862145108174</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7022,8 +7015,8 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="77">
-        <v>0.8477860694981453</v>
+      <c r="F140" s="89">
+        <v>617.1862145108174</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7042,8 +7035,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="77">
-        <v>14.48425945477546</v>
+      <c r="F141" s="89">
+        <v>630.5254852740327</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7062,8 +7055,8 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="77">
-        <v>30.24311779831412</v>
+      <c r="F142" s="89">
+        <v>645.6204377404687</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7082,8 +7075,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="77">
-        <v>24.80742450919029</v>
+      <c r="F143" s="89">
+        <v>640.4137450960684</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7102,8 +7095,8 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="77">
-        <v>17.9295093869183</v>
+      <c r="F144" s="89">
+        <v>633.8255900676018</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7122,8 +7115,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="77">
-        <v>0.7024334576649408</v>
+      <c r="F145" s="89">
+        <v>617.3303467988371</v>
       </c>
     </row>
   </sheetData>
@@ -7172,7 +7165,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="77">
+      <c r="F2" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7192,7 +7185,7 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="77">
+      <c r="F3" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7212,7 +7205,7 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="77">
+      <c r="F4" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7232,7 +7225,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7252,7 +7245,7 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7272,7 +7265,7 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7292,7 +7285,7 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7312,7 +7305,7 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7332,7 +7325,7 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7352,7 +7345,7 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7372,7 +7365,7 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7392,7 +7385,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7412,7 +7405,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7432,7 +7425,7 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="77">
+      <c r="F15" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7452,7 +7445,7 @@
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7472,7 +7465,7 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7492,7 +7485,7 @@
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7512,7 +7505,7 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7532,7 +7525,7 @@
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7552,7 +7545,7 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7572,7 +7565,7 @@
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7592,7 +7585,7 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7612,7 +7605,7 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7632,7 +7625,7 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7652,7 +7645,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="96">
+      <c r="F26" s="90">
         <v>607.437687862064</v>
       </c>
     </row>
@@ -7672,7 +7665,7 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="97">
+      <c r="F27" s="91">
         <v>833.2751826257771</v>
       </c>
     </row>
@@ -7692,7 +7685,7 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="98">
+      <c r="F28" s="92">
         <v>1045.508224683551</v>
       </c>
     </row>
@@ -7712,7 +7705,7 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="99">
+      <c r="F29" s="93">
         <v>1272.304507218042</v>
       </c>
     </row>
@@ -7732,7 +7725,7 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="93">
+      <c r="F30" s="94">
         <v>48.71554310612554</v>
       </c>
     </row>
@@ -7752,7 +7745,7 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="93">
+      <c r="F31" s="94">
         <v>54.56818119136659</v>
       </c>
     </row>
@@ -7772,7 +7765,7 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="94">
+      <c r="F32" s="89">
         <v>59.43296922020684</v>
       </c>
     </row>
@@ -7792,7 +7785,7 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="94">
+      <c r="F33" s="89">
         <v>62.42049969042196</v>
       </c>
     </row>
@@ -7812,7 +7805,7 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="73">
         <v>15.30934695937282</v>
       </c>
     </row>
@@ -7832,7 +7825,7 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="77">
+      <c r="F35" s="73">
         <v>24.91798949593381</v>
       </c>
     </row>
@@ -7852,7 +7845,7 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="100">
+      <c r="F36" s="95">
         <v>36.67895187795017</v>
       </c>
     </row>
@@ -7872,7 +7865,7 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="100">
+      <c r="F37" s="95">
         <v>35.35522757277542</v>
       </c>
     </row>
@@ -7892,7 +7885,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="77">
+      <c r="F38" s="73">
         <v>2.384861322190901</v>
       </c>
     </row>
@@ -7912,7 +7905,7 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="77">
+      <c r="F39" s="73">
         <v>4.529040110392115</v>
       </c>
     </row>
@@ -7932,7 +7925,7 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="77">
+      <c r="F40" s="73">
         <v>8.035303841467258</v>
       </c>
     </row>
@@ -7952,7 +7945,7 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="77">
+      <c r="F41" s="73">
         <v>11.02283431168238</v>
       </c>
     </row>
@@ -7972,7 +7965,7 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="77">
+      <c r="F42" s="73">
         <v>0</v>
       </c>
     </row>
@@ -7992,7 +7985,7 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="77">
+      <c r="F43" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8012,7 +8005,7 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="77">
+      <c r="F44" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8032,7 +8025,7 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="77">
+      <c r="F45" s="73">
         <v>0.36376748993015</v>
       </c>
     </row>
@@ -8052,7 +8045,7 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="77">
+      <c r="F46" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8072,7 +8065,7 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="77">
+      <c r="F47" s="73">
         <v>0.07619675984203433</v>
       </c>
     </row>
@@ -8092,7 +8085,7 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="77">
+      <c r="F48" s="73">
         <v>0.2032536930335218</v>
       </c>
     </row>
@@ -8112,7 +8105,7 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="77">
+      <c r="F49" s="73">
         <v>0.8676518481602704</v>
       </c>
     </row>
@@ -8132,7 +8125,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="101">
+      <c r="F50" s="96">
         <v>1172.200666452452</v>
       </c>
     </row>
@@ -8152,7 +8145,7 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="102">
+      <c r="F51" s="97">
         <v>1644.213957245313</v>
       </c>
     </row>
@@ -8172,7 +8165,7 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="65">
+      <c r="F52" s="57">
         <v>1961.788155632516</v>
       </c>
     </row>
@@ -8192,7 +8185,7 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="103">
+      <c r="F53" s="98">
         <v>2589.340564873989</v>
       </c>
     </row>
@@ -8212,7 +8205,7 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="94">
+      <c r="F54" s="89">
         <v>55.71201530609848</v>
       </c>
     </row>
@@ -8232,7 +8225,7 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="78">
+      <c r="F55" s="74">
         <v>82.02315825310703</v>
       </c>
     </row>
@@ -8252,7 +8245,7 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="75">
+      <c r="F56" s="71">
         <v>112.9825432270896</v>
       </c>
     </row>
@@ -8272,7 +8265,7 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="95">
+      <c r="F57" s="99">
         <v>93.474120302443</v>
       </c>
     </row>
@@ -8292,7 +8285,7 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="77">
+      <c r="F58" s="73">
         <v>16.27777603300387</v>
       </c>
     </row>
@@ -8312,7 +8305,7 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="77">
+      <c r="F59" s="73">
         <v>26.28174785105303</v>
       </c>
     </row>
@@ -8332,7 +8325,7 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="100">
+      <c r="F60" s="95">
         <v>38.53342821514357</v>
       </c>
     </row>
@@ -8352,7 +8345,7 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="100">
+      <c r="F61" s="95">
         <v>37.39243263592762</v>
       </c>
     </row>
@@ -8372,7 +8365,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="77">
+      <c r="F62" s="73">
         <v>2.552629892846991</v>
       </c>
     </row>
@@ -8392,7 +8385,7 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="77">
+      <c r="F63" s="73">
         <v>4.785675218759326</v>
       </c>
     </row>
@@ -8412,7 +8405,7 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="77">
+      <c r="F64" s="73">
         <v>8.553000502962744</v>
       </c>
     </row>
@@ -8432,7 +8425,7 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="77">
+      <c r="F65" s="73">
         <v>11.77651366788316</v>
       </c>
     </row>
@@ -8452,7 +8445,7 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="77">
+      <c r="F66" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8472,7 +8465,7 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="77">
+      <c r="F67" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8492,7 +8485,7 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="77">
+      <c r="F68" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8512,7 +8505,7 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="77">
+      <c r="F69" s="73">
         <v>0.3804208167270601</v>
       </c>
     </row>
@@ -8532,7 +8525,7 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="77">
+      <c r="F70" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8552,7 +8545,7 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="77">
+      <c r="F71" s="73">
         <v>0.07619675984203435</v>
       </c>
     </row>
@@ -8572,7 +8565,7 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="77">
+      <c r="F72" s="73">
         <v>0.2032536930335218</v>
       </c>
     </row>
@@ -8592,7 +8585,7 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="77">
+      <c r="F73" s="73">
         <v>0.8676518481602706</v>
       </c>
     </row>
@@ -8612,7 +8605,7 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="77">
+      <c r="F74" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8632,7 +8625,7 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="77">
+      <c r="F75" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8652,7 +8645,7 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="77">
+      <c r="F76" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8672,7 +8665,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="77">
+      <c r="F77" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8692,7 +8685,7 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="77">
+      <c r="F78" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8712,7 +8705,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="77">
+      <c r="F79" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8732,7 +8725,7 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="77">
+      <c r="F80" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8752,7 +8745,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="77">
+      <c r="F81" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8772,7 +8765,7 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="77">
+      <c r="F82" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8792,7 +8785,7 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="77">
+      <c r="F83" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8812,7 +8805,7 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="77">
+      <c r="F84" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8832,7 +8825,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="77">
+      <c r="F85" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8852,7 +8845,7 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="77">
+      <c r="F86" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8872,7 +8865,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="77">
+      <c r="F87" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8892,7 +8885,7 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="77">
+      <c r="F88" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8912,7 +8905,7 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="77">
+      <c r="F89" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8932,7 +8925,7 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="77">
+      <c r="F90" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8952,7 +8945,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="77">
+      <c r="F91" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8972,7 +8965,7 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="77">
+      <c r="F92" s="73">
         <v>0</v>
       </c>
     </row>
@@ -8992,7 +8985,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="77">
+      <c r="F93" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9012,7 +9005,7 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="77">
+      <c r="F94" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9032,7 +9025,7 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="77">
+      <c r="F95" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9052,7 +9045,7 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="77">
+      <c r="F96" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9072,7 +9065,7 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="77">
+      <c r="F97" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9092,7 +9085,7 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="104">
+      <c r="F98" s="100">
         <v>741.4782266677248</v>
       </c>
     </row>
@@ -9112,7 +9105,7 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="105">
+      <c r="F99" s="101">
         <v>1068.922450257201</v>
       </c>
     </row>
@@ -9132,7 +9125,7 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="106">
+      <c r="F100" s="102">
         <v>1339.762375182537</v>
       </c>
     </row>
@@ -9152,7 +9145,7 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="107">
+      <c r="F101" s="103">
         <v>1863.626870505522</v>
       </c>
     </row>
@@ -9172,7 +9165,7 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="77">
+      <c r="F102" s="73">
         <v>19.05919834792099</v>
       </c>
     </row>
@@ -9192,7 +9185,7 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="77">
+      <c r="F103" s="73">
         <v>19.06609679780568</v>
       </c>
     </row>
@@ -9212,7 +9205,7 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="77">
+      <c r="F104" s="73">
         <v>26.08118311098249</v>
       </c>
     </row>
@@ -9232,7 +9225,7 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="77">
+      <c r="F105" s="73">
         <v>19.06609679780568</v>
       </c>
     </row>
@@ -9252,7 +9245,7 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="77">
+      <c r="F106" s="73">
         <v>6.443652796510138</v>
       </c>
     </row>
@@ -9272,7 +9265,7 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="77">
+      <c r="F107" s="73">
         <v>7.637433976466809</v>
       </c>
     </row>
@@ -9292,7 +9285,7 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="77">
+      <c r="F108" s="73">
         <v>9.427313107656204</v>
       </c>
     </row>
@@ -9312,7 +9305,7 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="77">
+      <c r="F109" s="73">
         <v>8.72444943243568</v>
       </c>
     </row>
@@ -9332,7 +9325,7 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="77">
+      <c r="F110" s="73">
         <v>1.083611559453515</v>
       </c>
     </row>
@@ -9352,7 +9345,7 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="77">
+      <c r="F111" s="73">
         <v>1.659754453429354</v>
       </c>
     </row>
@@ -9372,7 +9365,7 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="77">
+      <c r="F112" s="73">
         <v>2.315702546230825</v>
       </c>
     </row>
@@ -9392,7 +9385,7 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="77">
+      <c r="F113" s="73">
         <v>2.668100007133025</v>
       </c>
     </row>
@@ -9412,7 +9405,7 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="77">
+      <c r="F114" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9432,7 +9425,7 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="77">
+      <c r="F115" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9452,7 +9445,7 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="77">
+      <c r="F116" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9472,7 +9465,7 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="77">
+      <c r="F117" s="73">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -9492,7 +9485,7 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="77">
+      <c r="F118" s="73">
         <v>0.06861548980660362</v>
       </c>
     </row>
@@ -9512,7 +9505,7 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="77">
+      <c r="F119" s="73">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -9532,7 +9525,7 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="77">
+      <c r="F120" s="73">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -9552,7 +9545,7 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="77">
+      <c r="F121" s="73">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -9572,7 +9565,7 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="108">
+      <c r="F122" s="104">
         <v>1167.861062008968</v>
       </c>
     </row>
@@ -9592,7 +9585,7 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="87">
+      <c r="F123" s="60">
         <v>1884.419398066373</v>
       </c>
     </row>
@@ -9612,7 +9605,7 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="109">
+      <c r="F124" s="105">
         <v>2397.655810619903</v>
       </c>
     </row>
@@ -9632,7 +9625,7 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="81">
+      <c r="F125" s="77">
         <v>3520.099024319936</v>
       </c>
     </row>
@@ -9652,7 +9645,7 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="100">
+      <c r="F126" s="95">
         <v>39.15939450602083</v>
       </c>
     </row>
@@ -9672,7 +9665,7 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="94">
+      <c r="F127" s="89">
         <v>55.46315710563108</v>
       </c>
     </row>
@@ -9692,7 +9685,7 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="78">
+      <c r="F128" s="74">
         <v>77.1686451320561</v>
       </c>
     </row>
@@ -9712,7 +9705,7 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="94">
+      <c r="F129" s="89">
         <v>65.8902643256902</v>
       </c>
     </row>
@@ -9732,7 +9725,7 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="77">
+      <c r="F130" s="73">
         <v>8.406409354097793</v>
       </c>
     </row>
@@ -9752,7 +9745,7 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="77">
+      <c r="F131" s="73">
         <v>13.70072822118465</v>
       </c>
     </row>
@@ -9772,7 +9765,7 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="77">
+      <c r="F132" s="73">
         <v>21.24513986599481</v>
       </c>
     </row>
@@ -9792,7 +9785,7 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="77">
+      <c r="F133" s="73">
         <v>22.11649413792603</v>
       </c>
     </row>
@@ -9812,7 +9805,7 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="77">
+      <c r="F134" s="73">
         <v>1.345943380631392</v>
       </c>
     </row>
@@ -9832,7 +9825,7 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="77">
+      <c r="F135" s="73">
         <v>2.149998437997628</v>
       </c>
     </row>
@@ -9852,7 +9845,7 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="77">
+      <c r="F136" s="73">
         <v>3.772394230854767</v>
       </c>
     </row>
@@ -9872,7 +9865,7 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="77">
+      <c r="F137" s="73">
         <v>5.76762847243575</v>
       </c>
     </row>
@@ -9892,7 +9885,7 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="77">
+      <c r="F138" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9912,7 +9905,7 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="77">
+      <c r="F139" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9932,7 +9925,7 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="77">
+      <c r="F140" s="73">
         <v>0</v>
       </c>
     </row>
@@ -9952,7 +9945,7 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="77">
+      <c r="F141" s="73">
         <v>0.3597316458122779</v>
       </c>
     </row>
@@ -9972,7 +9965,7 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="77">
+      <c r="F142" s="73">
         <v>0.06861548980660362</v>
       </c>
     </row>
@@ -9992,7 +9985,7 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="77">
+      <c r="F143" s="73">
         <v>0.1690300059510678</v>
       </c>
     </row>
@@ -10012,7 +10005,7 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="77">
+      <c r="F144" s="73">
         <v>0.2960869391425553</v>
       </c>
     </row>
@@ -10032,7 +10025,7 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="77">
+      <c r="F145" s="73">
         <v>0.6169883173480468</v>
       </c>
     </row>
@@ -10082,7 +10075,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="106">
         <v>503.501562489833</v>
       </c>
     </row>
@@ -10102,7 +10095,7 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="110">
+      <c r="F3" s="107">
         <v>845.6950492403296</v>
       </c>
     </row>
@@ -10122,7 +10115,7 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="111">
+      <c r="F4" s="108">
         <v>1190.85372647454</v>
       </c>
     </row>
@@ -10142,7 +10135,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="50">
         <v>1580.247947903324</v>
       </c>
     </row>
@@ -10162,7 +10155,7 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="112">
+      <c r="F6" s="109">
         <v>47.2482506442884</v>
       </c>
     </row>
@@ -10182,7 +10175,7 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="113">
+      <c r="F7" s="110">
         <v>70.64417240807387</v>
       </c>
     </row>
@@ -10202,7 +10195,7 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>98.00160944064315</v>
       </c>
     </row>
@@ -10222,7 +10215,7 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="114">
+      <c r="F9" s="111">
         <v>76.72469055652758</v>
       </c>
     </row>
@@ -10262,7 +10255,7 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="115">
+      <c r="F11" s="112">
         <v>22.18514664927616</v>
       </c>
     </row>
@@ -10282,7 +10275,7 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="116">
+      <c r="F12" s="113">
         <v>33.09024280681102</v>
       </c>
     </row>
@@ -10302,7 +10295,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="117">
+      <c r="F13" s="114">
         <v>30.08805430145042</v>
       </c>
     </row>
@@ -10562,7 +10555,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="118">
+      <c r="F26" s="115">
         <v>178.6171623236598</v>
       </c>
     </row>
@@ -10582,7 +10575,7 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="119">
+      <c r="F27" s="116">
         <v>369.4352473789946</v>
       </c>
     </row>
@@ -10602,7 +10595,7 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="117">
         <v>568.2006233794907</v>
       </c>
     </row>
@@ -10622,7 +10615,7 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="25">
         <v>814.3761799341463</v>
       </c>
     </row>
@@ -10662,7 +10655,7 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="115">
+      <c r="F31" s="112">
         <v>22.98277698812812</v>
       </c>
     </row>
@@ -10682,7 +10675,7 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="112">
+      <c r="F32" s="109">
         <v>47.52592116952269</v>
       </c>
     </row>
@@ -10702,7 +10695,7 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="117">
+      <c r="F33" s="114">
         <v>25.54784743165502</v>
       </c>
     </row>
@@ -11062,7 +11055,7 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="120">
+      <c r="F51" s="9">
         <v>110.0268357839718</v>
       </c>
     </row>
@@ -11082,7 +11075,7 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="118">
         <v>276.1904093149447</v>
       </c>
     </row>
@@ -11102,7 +11095,7 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="119">
+      <c r="F53" s="116">
         <v>374.1210230812806</v>
       </c>
     </row>
@@ -11522,7 +11515,7 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="38">
+      <c r="F74" s="106">
         <v>502.3271453346225</v>
       </c>
     </row>
@@ -11542,7 +11535,7 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="121">
+      <c r="F75" s="119">
         <v>844.5206320851189</v>
       </c>
     </row>
@@ -11562,7 +11555,7 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="111">
+      <c r="F76" s="108">
         <v>1189.67930931933</v>
       </c>
     </row>
@@ -11582,7 +11575,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="54">
+      <c r="F77" s="50">
         <v>1579.073530748113</v>
       </c>
     </row>
@@ -11602,7 +11595,7 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="116">
+      <c r="F78" s="113">
         <v>33.93711204676197</v>
       </c>
     </row>
@@ -11622,7 +11615,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="112">
+      <c r="F79" s="109">
         <v>48.47983473899561</v>
       </c>
     </row>
@@ -11642,7 +11635,7 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="113">
+      <c r="F80" s="110">
         <v>71.38235323815853</v>
       </c>
     </row>
@@ -11662,7 +11655,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="122">
+      <c r="F81" s="120">
         <v>56.07098511578626</v>
       </c>
     </row>
@@ -11742,7 +11735,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="115">
+      <c r="F85" s="112">
         <v>18.56419514459801</v>
       </c>
     </row>
@@ -12002,7 +11995,7 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="121">
         <v>126.9246421873744</v>
       </c>
     </row>
@@ -12022,7 +12015,7 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="123">
+      <c r="F99" s="122">
         <v>278.7903310606651</v>
       </c>
     </row>
@@ -12042,7 +12035,7 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="36">
+      <c r="F100" s="29">
         <v>454.6957044911437</v>
       </c>
     </row>
@@ -12062,7 +12055,7 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="124">
+      <c r="F101" s="123">
         <v>576.6409515258404</v>
       </c>
     </row>
@@ -12102,7 +12095,7 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="116">
+      <c r="F103" s="113">
         <v>31.42346746461299</v>
       </c>
     </row>
@@ -12122,7 +12115,7 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="112">
+      <c r="F104" s="109">
         <v>48.85653547866163</v>
       </c>
     </row>
@@ -12142,7 +12135,7 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="125">
+      <c r="F105" s="124">
         <v>39.01461784140365</v>
       </c>
     </row>
@@ -12502,7 +12495,7 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="117">
+      <c r="F123" s="114">
         <v>26.05883106916713</v>
       </c>
     </row>
@@ -12522,7 +12515,7 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="10">
+      <c r="F124" s="121">
         <v>124.4032471157535</v>
       </c>
     </row>
@@ -12542,7 +12535,7 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="112">
+      <c r="F125" s="109">
         <v>47.55724682394026</v>
       </c>
     </row>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -34,10 +34,10 @@
     <t>Primary materials</t>
   </si>
   <si>
-    <t>STEP</t>
+    <t>Slow EV</t>
   </si>
   <si>
-    <t>SD</t>
+    <t>Fast EV</t>
   </si>
   <si>
     <t>No reuse</t>
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="124">
+  <fills count="106">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,19 +132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD0D0"/>
+        <fgColor rgb="FFFFCFCF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7C7"/>
+        <fgColor rgb="FFFFC6C6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBCBC"/>
+        <fgColor rgb="FFFFBABA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,25 +162,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD6D6"/>
+        <fgColor rgb="FFFFDCDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD1D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCBCB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC4C4"/>
+        <fgColor rgb="FFFFD6D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,61 +186,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA2A2"/>
+        <fgColor rgb="FFFFD3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8F8F"/>
+        <fgColor rgb="FFFFCACA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8585"/>
+        <fgColor rgb="FFFFC1C1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7A7A"/>
+        <fgColor rgb="FFFFB4B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7E7E"/>
+        <fgColor rgb="FFFF7474"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7C7C"/>
+        <fgColor rgb="FFFF7373"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7B7B"/>
+        <fgColor rgb="FFFF7272"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7777"/>
+        <fgColor rgb="FFFF7171"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7676"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF7878"/>
+        <fgColor rgb="FFFF6F6F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,25 +246,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7474"/>
+        <fgColor rgb="FFFFABAB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7171"/>
+        <fgColor rgb="FFFFA1A1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFADAD"/>
+        <fgColor rgb="FFFF9898"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA4A4"/>
+        <fgColor rgb="FFFF8C8C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB8B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB0B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA8A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA2A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9A9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA0A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,121 +324,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB8B8"/>
+        <fgColor rgb="FFFF9191"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB9B9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9F9F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9595"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA3A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6565"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF4141"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3030"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF1F1F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0F0F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0808"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0909"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0303"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0C0C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0707"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0606"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0404"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0505"/>
+        <fgColor rgb="FFFF8282"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF58B158"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF55AF55"/>
+        <fgColor rgb="FF5AB25A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,25 +378,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF58B158"/>
+        <fgColor rgb="FF5EB45E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66B866"/>
+        <fgColor rgb="FF60B560"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF69BA69"/>
+        <fgColor rgb="FF61B661"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF68BA68"/>
+        <fgColor rgb="FF63B763"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6BBB6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,73 +414,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFABDFAB"/>
+        <fgColor rgb="FF70BE70"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDE9BD"/>
+        <fgColor rgb="FF78C278"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC3ECC3"/>
+        <fgColor rgb="FF7CC57C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCEF2CE"/>
+        <fgColor rgb="FF88CB88"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD5F6D5"/>
+        <fgColor rgb="FFE0FCE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD7F7D7"/>
+        <fgColor rgb="FFE1FDE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDAF9DA"/>
+        <fgColor rgb="FFE3FEE3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD8F8D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9F8D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBF9DB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEFBDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDFBDD"/>
+        <fgColor rgb="FFE2FDE2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,7 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1FDE1"/>
+        <fgColor rgb="FFE4FEE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,67 +498,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0A850A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C860C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E870E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF138A13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E901E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF188D18"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF198E19"/>
+        <fgColor rgb="FF259425"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1B8F1B"/>
+        <fgColor rgb="FF2E992E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1F911F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94D294"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5DBA5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE8BC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFF3CF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3F5D3"/>
+        <fgColor rgb="FF42A442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCFADC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2FDE2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,18 +582,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3FEE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4FEE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF99D599"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -696,13 +594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF66B866"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF3CA13C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0FCE0"/>
+        <fgColor rgb="FFDEFBDE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,12 +672,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFDBDB"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -804,12 +702,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB0B0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF9393"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -834,13 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD3D3"/>
+        <fgColor rgb="FFFFBDBD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBDBD"/>
+        <fgColor rgb="FFFFA4A4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -925,19 +817,19 @@
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -948,13 +840,13 @@
     <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -962,10 +854,10 @@
     <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -979,7 +871,7 @@
     <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -994,24 +886,6 @@
     <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1826,7 +1700,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="9">
-        <v>38650.80752130019</v>
+        <v>38220.86882253804</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1846,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="10">
-        <v>38984.49514593837</v>
+        <v>38618.24672364227</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1865,8 +1739,8 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="11">
-        <v>39311.38509570764</v>
+      <c r="F28" s="4">
+        <v>39021.39408143059</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1885,8 +1759,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="12">
-        <v>39767.22057299249</v>
+      <c r="F29" s="5">
+        <v>39559.1764287118</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1905,8 +1779,8 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="3">
-        <v>38497.05961092487</v>
+      <c r="F30" s="11">
+        <v>38507.5126016381</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1925,8 +1799,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="13">
-        <v>38530.37206044274</v>
+      <c r="F31" s="12">
+        <v>38536.49624959972</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1945,8 +1819,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="14">
-        <v>38569.13746319568</v>
+      <c r="F32" s="12">
+        <v>38572.01405788543</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1965,8 +1839,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="13">
-        <v>38542.52940604517</v>
+      <c r="F33" s="12">
+        <v>38543.36395181112</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1985,8 +1859,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="3">
-        <v>38474.97349070217</v>
+      <c r="F34" s="11">
+        <v>38497.47784302043</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2005,8 +1879,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="3">
-        <v>38487.56598467378</v>
+      <c r="F35" s="11">
+        <v>38501.65332961389</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2025,8 +1899,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="13">
-        <v>38502.93880892026</v>
+      <c r="F36" s="11">
+        <v>38506.76411821543</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2045,8 +1919,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="13">
-        <v>38499.94999893898</v>
+      <c r="F37" s="11">
+        <v>38506.18888679553</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2065,8 +1939,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="3">
-        <v>38496.8903489603</v>
+      <c r="F38" s="11">
+        <v>38504.01082036334</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2085,8 +1959,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="13">
-        <v>38499.09282427571</v>
+      <c r="F39" s="11">
+        <v>38504.94258463182</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2105,8 +1979,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="3">
-        <v>38492.6945889872</v>
+      <c r="F40" s="11">
+        <v>38502.69291321689</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2125,8 +1999,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="3">
-        <v>38496.03488512734</v>
+      <c r="F41" s="11">
+        <v>38503.99116043323</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2145,8 +2019,8 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="13">
-        <v>38539.97620853581</v>
+      <c r="F42" s="11">
+        <v>38521.78412844617</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2165,8 +2039,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="13">
-        <v>38539.97620853581</v>
+      <c r="F43" s="11">
+        <v>38521.78412844617</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2185,8 +2059,8 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="13">
-        <v>38539.97620853581</v>
+      <c r="F44" s="11">
+        <v>38521.78412844617</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2205,8 +2079,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="13">
-        <v>38512.14419018094</v>
+      <c r="F45" s="11">
+        <v>38510.45582504639</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2225,8 +2099,8 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="13">
-        <v>38539.97620853581</v>
+      <c r="F46" s="11">
+        <v>38521.78412844617</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2245,8 +2119,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="13">
-        <v>38534.04799169579</v>
+      <c r="F47" s="11">
+        <v>38520.15976837015</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2265,8 +2139,8 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="13">
-        <v>38534.2494964045</v>
+      <c r="F48" s="11">
+        <v>38520.21498163458</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2285,8 +2159,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="13">
-        <v>38535.30319220336</v>
+      <c r="F49" s="11">
+        <v>38520.50369937789</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2305,8 +2179,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="15">
-        <v>41864.7166713267</v>
+      <c r="F50" s="13">
+        <v>38748.72302609441</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2325,8 +2199,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="16">
-        <v>43018.43860416764</v>
+      <c r="F51" s="14">
+        <v>39344.37066689577</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2345,8 +2219,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="17">
-        <v>43622.0898445853</v>
+      <c r="F52" s="15">
+        <v>39889.51858655626</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2365,8 +2239,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="18">
-        <v>44364.69996763668</v>
+      <c r="F53" s="16">
+        <v>40638.2274232596</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2385,8 +2259,8 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="19">
-        <v>44062.90058110634</v>
+      <c r="F54" s="17">
+        <v>44466.85107263732</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2405,8 +2279,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="20">
-        <v>44164.17978736709</v>
+      <c r="F55" s="18">
+        <v>44490.74514540662</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2426,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="18">
-        <v>44282.30262993264</v>
+        <v>44518.87612696919</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2445,8 +2319,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="20">
-        <v>44192.1603564966</v>
+      <c r="F57" s="18">
+        <v>44501.42453776985</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2465,8 +2339,8 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="21">
-        <v>44256.10591325813</v>
+      <c r="F58" s="18">
+        <v>44502.602783503</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2486,7 +2360,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="18">
-        <v>44284.03692916696</v>
+        <v>44511.84304376446</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2506,7 +2380,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="18">
-        <v>44318.13326564698</v>
+        <v>44523.16188609542</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2526,7 +2400,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="18">
-        <v>44310.94564646341</v>
+        <v>44522.2121149448</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2545,8 +2419,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="22">
-        <v>44533.05297144136</v>
+      <c r="F62" s="19">
+        <v>44589.90419191646</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2565,8 +2439,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="23">
-        <v>44537.58719864615</v>
+      <c r="F63" s="20">
+        <v>44592.00731591836</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2585,8 +2459,8 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="24">
-        <v>44460.84342889609</v>
+      <c r="F64" s="19">
+        <v>44562.9288488478</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2605,8 +2479,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="24">
-        <v>44467.66651150308</v>
+      <c r="F65" s="19">
+        <v>44565.970637422</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2625,8 +2499,8 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="25">
-        <v>44910.77467901512</v>
+      <c r="F66" s="21">
+        <v>44763.4423877481</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2645,8 +2519,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="25">
-        <v>44910.77467901512</v>
+      <c r="F67" s="21">
+        <v>44763.4423877481</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2665,8 +2539,8 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="25">
-        <v>44910.77467901512</v>
+      <c r="F68" s="21">
+        <v>44763.4423877481</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2685,8 +2559,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="26">
-        <v>44677.65780760661</v>
+      <c r="F69" s="22">
+        <v>44657.14791980329</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2705,8 +2579,8 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="25">
-        <v>44910.77467901512</v>
+      <c r="F70" s="21">
+        <v>44763.4423877481</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2725,8 +2599,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="27">
-        <v>44866.68404159298</v>
+      <c r="F71" s="22">
+        <v>44748.14366316918</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2745,8 +2619,8 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="27">
-        <v>44867.02908845689</v>
+      <c r="F72" s="22">
+        <v>44748.26338874464</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2765,8 +2639,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="27">
-        <v>44868.83338590108</v>
+      <c r="F73" s="22">
+        <v>44748.88945022325</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2785,7 +2659,7 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="23">
         <v>41207.60473052369</v>
       </c>
     </row>
@@ -2805,7 +2679,7 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="29">
+      <c r="F75" s="24">
         <v>41756.79082387219</v>
       </c>
     </row>
@@ -2825,7 +2699,7 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="30">
+      <c r="F76" s="25">
         <v>42309.95454242711</v>
       </c>
     </row>
@@ -2845,7 +2719,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="26">
         <v>42986.15451839405</v>
       </c>
     </row>
@@ -2865,7 +2739,7 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="31">
+      <c r="F78" s="27">
         <v>40454.90781617587</v>
       </c>
     </row>
@@ -2885,7 +2759,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="31">
+      <c r="F79" s="28">
         <v>40474.56082464437</v>
       </c>
     </row>
@@ -2905,7 +2779,7 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F80" s="28">
         <v>40505.60995645622</v>
       </c>
     </row>
@@ -2925,7 +2799,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="31">
+      <c r="F81" s="28">
         <v>40484.75477039215</v>
       </c>
     </row>
@@ -2945,7 +2819,7 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="27">
         <v>40418.88316793256</v>
       </c>
     </row>
@@ -2965,7 +2839,7 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="32">
+      <c r="F83" s="27">
         <v>40424.23798751682</v>
       </c>
     </row>
@@ -2985,7 +2859,7 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="32">
+      <c r="F84" s="27">
         <v>40433.29975206833</v>
       </c>
     </row>
@@ -3005,7 +2879,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="32">
+      <c r="F85" s="27">
         <v>40434.02525596179</v>
       </c>
     </row>
@@ -3025,7 +2899,7 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="32">
+      <c r="F86" s="27">
         <v>40410.6788216164</v>
       </c>
     </row>
@@ -3045,7 +2919,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="32">
+      <c r="F87" s="27">
         <v>40411.67375059154</v>
       </c>
     </row>
@@ -3065,7 +2939,7 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="32">
+      <c r="F88" s="27">
         <v>40413.4054796498</v>
       </c>
     </row>
@@ -3085,7 +2959,7 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="32">
+      <c r="F89" s="27">
         <v>40416.52922482019</v>
       </c>
     </row>
@@ -3105,7 +2979,7 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="32">
+      <c r="F90" s="27">
         <v>40409.09688229517</v>
       </c>
     </row>
@@ -3125,7 +2999,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="32">
+      <c r="F91" s="27">
         <v>40409.09688229517</v>
       </c>
     </row>
@@ -3145,7 +3019,7 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="32">
+      <c r="F92" s="27">
         <v>40409.09688229517</v>
       </c>
     </row>
@@ -3165,7 +3039,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="32">
+      <c r="F93" s="27">
         <v>40409.57939658233</v>
       </c>
     </row>
@@ -3185,7 +3059,7 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="32">
+      <c r="F94" s="27">
         <v>40409.18891744009</v>
       </c>
     </row>
@@ -3205,7 +3079,7 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="32">
+      <c r="F95" s="27">
         <v>40409.32360516979</v>
       </c>
     </row>
@@ -3225,7 +3099,7 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="32">
+      <c r="F96" s="27">
         <v>40409.49402883493</v>
       </c>
     </row>
@@ -3245,7 +3119,7 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="32">
+      <c r="F97" s="27">
         <v>40410.38519758793</v>
       </c>
     </row>
@@ -3265,8 +3139,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="33">
-        <v>41686.43187039512</v>
+      <c r="F98" s="29">
+        <v>40939.8918483761</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3285,8 +3159,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="34">
-        <v>42011.69413656875</v>
+      <c r="F99" s="30">
+        <v>41321.02545101201</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3305,8 +3179,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="30">
-        <v>42316.35937027059</v>
+      <c r="F100" s="31">
+        <v>41713.44765744992</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3325,8 +3199,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="35">
-        <v>42630.97069519464</v>
+      <c r="F101" s="32">
+        <v>42180.11791177165</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3345,8 +3219,8 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="36">
-        <v>41811.64839321895</v>
+      <c r="F102" s="24">
+        <v>41757.35005607025</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3365,8 +3239,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="15">
-        <v>41831.46000945286</v>
+      <c r="F103" s="24">
+        <v>41777.00493369412</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3385,8 +3259,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="15">
-        <v>41851.40775637022</v>
+      <c r="F104" s="33">
+        <v>41800.39402206728</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3405,8 +3279,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="15">
-        <v>41841.65395520064</v>
+      <c r="F105" s="24">
+        <v>41787.19887944189</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3425,8 +3299,8 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="36">
-        <v>41790.60202696239</v>
+      <c r="F106" s="31">
+        <v>41736.3140430138</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3445,8 +3319,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="36">
-        <v>41772.39478174338</v>
+      <c r="F107" s="31">
+        <v>41739.91550631755</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3465,8 +3339,8 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="36">
-        <v>41801.55522307436</v>
+      <c r="F108" s="24">
+        <v>41747.10014731561</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3485,8 +3359,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="36">
-        <v>41794.53685468994</v>
+      <c r="F109" s="24">
+        <v>41748.71140733389</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3505,8 +3379,8 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="36">
-        <v>41775.34626409529</v>
+      <c r="F110" s="31">
+        <v>41734.43517062966</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3525,8 +3399,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="36">
-        <v>41786.42464471187</v>
+      <c r="F111" s="31">
+        <v>41734.91175129175</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3545,8 +3419,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="36">
-        <v>41781.68013494527</v>
+      <c r="F112" s="31">
+        <v>41735.72007032299</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3565,8 +3439,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="36">
-        <v>41790.0770871761</v>
+      <c r="F113" s="31">
+        <v>41738.52407213709</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3585,8 +3459,8 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="36">
-        <v>41789.01296993181</v>
+      <c r="F114" s="31">
+        <v>41734.55789417306</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3605,8 +3479,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="36">
-        <v>41789.01296993181</v>
+      <c r="F115" s="31">
+        <v>41734.55789417306</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3625,8 +3499,8 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="36">
-        <v>41789.01296993181</v>
+      <c r="F116" s="31">
+        <v>41734.55789417306</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3645,8 +3519,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="36">
-        <v>41789.29499411966</v>
+      <c r="F117" s="31">
+        <v>41734.83991836091</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3665,8 +3539,8 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="36">
-        <v>41786.77219760076</v>
+      <c r="F118" s="31">
+        <v>41734.52649550853</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3685,8 +3559,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="36">
-        <v>41789.03920270711</v>
+      <c r="F119" s="31">
+        <v>41734.58412694837</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3705,8 +3579,8 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="36">
-        <v>41789.20962637226</v>
+      <c r="F120" s="31">
+        <v>41734.75455061352</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3725,8 +3599,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="36">
-        <v>41790.10079512526</v>
+      <c r="F121" s="31">
+        <v>41735.64571936651</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3745,8 +3619,8 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="37">
-        <v>45613.8544993611</v>
+      <c r="F122" s="34">
+        <v>41453.43786320782</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3765,8 +3639,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="38">
-        <v>47845.01201701008</v>
+      <c r="F123" s="35">
+        <v>42133.9611402068</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3785,8 +3659,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="39">
-        <v>48892.92209995392</v>
+      <c r="F124" s="36">
+        <v>42742.5208180529</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3805,8 +3679,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="40">
-        <v>49962.2814149409</v>
+      <c r="F125" s="37">
+        <v>43649.28565168451</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3825,8 +3699,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="41">
-        <v>50864.78438892138</v>
+      <c r="F126" s="38">
+        <v>51378.11655002379</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3845,8 +3719,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="42">
-        <v>51311.161252322</v>
+      <c r="F127" s="38">
+        <v>51392.73233370257</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3865,8 +3739,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="43">
-        <v>51280.46858162685</v>
+      <c r="F128" s="38">
+        <v>51397.89590622543</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3885,8 +3759,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="44">
-        <v>51657.38268678444</v>
+      <c r="F129" s="38">
+        <v>51403.02130923652</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3905,8 +3779,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="43">
-        <v>51253.99255914787</v>
+      <c r="F130" s="38">
+        <v>51392.46180800905</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3925,8 +3799,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="45">
-        <v>51114.33388130226</v>
+      <c r="F131" s="38">
+        <v>51387.51428061179</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3945,8 +3819,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="46">
-        <v>51360.10824944364</v>
+      <c r="F132" s="38">
+        <v>51394.38081371925</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3965,8 +3839,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="47">
-        <v>51410.49501097472</v>
+      <c r="F133" s="38">
+        <v>51396.01372867237</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3985,8 +3859,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="48">
-        <v>51586.47054066287</v>
+      <c r="F134" s="38">
+        <v>51401.79833223075</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4005,8 +3879,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="48">
-        <v>51620.14629495816</v>
+      <c r="F135" s="38">
+        <v>51402.55276678043</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4025,8 +3899,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="49">
-        <v>51543.05796441021</v>
+      <c r="F136" s="38">
+        <v>51400.40791876754</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4045,8 +3919,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="48">
-        <v>51625.16736097376</v>
+      <c r="F137" s="38">
+        <v>51403.03628714607</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4065,8 +3939,8 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="50">
-        <v>51849.63729290896</v>
+      <c r="F138" s="38">
+        <v>51407.76259419625</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4085,8 +3959,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="50">
-        <v>51849.63729290896</v>
+      <c r="F139" s="38">
+        <v>51407.76259419625</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4105,8 +3979,8 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="50">
-        <v>51849.63729290896</v>
+      <c r="F140" s="38">
+        <v>51407.76259419625</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4125,8 +3999,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="50">
-        <v>51836.29802214575</v>
+      <c r="F141" s="38">
+        <v>51407.51914752938</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4145,8 +4019,8 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="50">
-        <v>51821.20306967931</v>
+      <c r="F142" s="38">
+        <v>51407.24365901653</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4165,8 +4039,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="50">
-        <v>51826.40976232372</v>
+      <c r="F143" s="38">
+        <v>51407.33868309935</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4185,8 +4059,8 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="50">
-        <v>51832.99791735217</v>
+      <c r="F144" s="38">
+        <v>51407.45891938597</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4205,8 +4079,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="50">
-        <v>51850.08735469476</v>
+      <c r="F145" s="38">
+        <v>51408.21265598205</v>
       </c>
     </row>
   </sheetData>
@@ -4255,7 +4129,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="39">
         <v>7762.230904495669</v>
       </c>
     </row>
@@ -4275,7 +4149,7 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="40">
         <v>7819.026426655899</v>
       </c>
     </row>
@@ -4295,7 +4169,7 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="41">
         <v>7877.095302921653</v>
       </c>
     </row>
@@ -4315,7 +4189,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="42">
         <v>7890.46350550753</v>
       </c>
     </row>
@@ -4335,7 +4209,7 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="43">
         <v>7690.104977588864</v>
       </c>
     </row>
@@ -4355,7 +4229,7 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="43">
         <v>7699.754227312374</v>
       </c>
     </row>
@@ -4375,7 +4249,7 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="44">
         <v>7711.048389499818</v>
       </c>
     </row>
@@ -4395,7 +4269,7 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="43">
         <v>7702.397696305205</v>
       </c>
     </row>
@@ -4415,7 +4289,7 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="43">
         <v>7676.086457795165</v>
       </c>
     </row>
@@ -4435,7 +4309,7 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="43">
         <v>7679.872141479203</v>
       </c>
     </row>
@@ -4455,7 +4329,7 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="43">
         <v>7684.496152035683</v>
       </c>
     </row>
@@ -4475,7 +4349,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="43">
         <v>7683.249722280518</v>
       </c>
     </row>
@@ -4495,7 +4369,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="43">
         <v>7671.339218616151</v>
       </c>
     </row>
@@ -4515,7 +4389,7 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="43">
         <v>7672.164983781145</v>
       </c>
     </row>
@@ -4535,7 +4409,7 @@
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="43">
         <v>7673.390166516975</v>
       </c>
     </row>
@@ -4555,7 +4429,7 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="43">
         <v>7674.307743067507</v>
       </c>
     </row>
@@ -4575,7 +4449,7 @@
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="43">
         <v>7670.429926877565</v>
       </c>
     </row>
@@ -4595,7 +4469,7 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="43">
         <v>7670.429926877565</v>
       </c>
     </row>
@@ -4615,7 +4489,7 @@
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="43">
         <v>7670.429926877565</v>
       </c>
     </row>
@@ -4635,7 +4509,7 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="43">
         <v>7670.580224704273</v>
       </c>
     </row>
@@ -4655,7 +4529,7 @@
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="43">
         <v>7670.429926877565</v>
       </c>
     </row>
@@ -4675,7 +4549,7 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="43">
         <v>7670.462657719619</v>
       </c>
     </row>
@@ -4695,7 +4569,7 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="43">
         <v>7670.517235898805</v>
       </c>
     </row>
@@ -4715,7 +4589,7 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="43">
         <v>7670.802632694169</v>
       </c>
     </row>
@@ -4735,8 +4609,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="57">
-        <v>7002.932363210341</v>
+      <c r="F26" s="45">
+        <v>7432.871061972496</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4755,8 +4629,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="57">
-        <v>7007.159561405783</v>
+      <c r="F27" s="46">
+        <v>7373.407983701895</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4775,8 +4649,8 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="57">
-        <v>7032.258086927995</v>
+      <c r="F28" s="47">
+        <v>7322.24910120504</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4795,8 +4669,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="57">
-        <v>7012.36855027561</v>
+      <c r="F29" s="48">
+        <v>7220.412694556306</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4815,8 +4689,8 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="58">
-        <v>6846.715742679017</v>
+      <c r="F30" s="49">
+        <v>6836.262751965781</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4835,8 +4709,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="58">
-        <v>6847.758907165468</v>
+      <c r="F31" s="50">
+        <v>6841.634718008491</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4855,8 +4729,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="58">
-        <v>6852.456325116514</v>
+      <c r="F32" s="50">
+        <v>6849.579730426767</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4875,8 +4749,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="58">
-        <v>6840.143978620788</v>
+      <c r="F33" s="50">
+        <v>6839.309432854832</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4895,8 +4769,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="59">
-        <v>6862.457870199919</v>
+      <c r="F34" s="50">
+        <v>6839.953517881658</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4915,8 +4789,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="58">
-        <v>6849.865376228306</v>
+      <c r="F35" s="49">
+        <v>6835.778031288206</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4935,8 +4809,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="58">
-        <v>6834.492551981832</v>
+      <c r="F36" s="49">
+        <v>6830.667242686658</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4955,8 +4829,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="58">
-        <v>6837.481361963109</v>
+      <c r="F37" s="49">
+        <v>6831.242474106565</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4975,8 +4849,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="58">
-        <v>6840.541011941792</v>
+      <c r="F38" s="49">
+        <v>6833.420540538747</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4995,8 +4869,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="58">
-        <v>6838.338536626386</v>
+      <c r="F39" s="49">
+        <v>6832.488776270274</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5015,8 +4889,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="58">
-        <v>6844.736771914889</v>
+      <c r="F40" s="49">
+        <v>6834.738447685204</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -5035,8 +4909,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="58">
-        <v>6841.396475774757</v>
+      <c r="F41" s="49">
+        <v>6833.440200468862</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5055,8 +4929,8 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="60">
-        <v>6797.455152366284</v>
+      <c r="F42" s="49">
+        <v>6815.647232455925</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -5075,8 +4949,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="60">
-        <v>6797.455152366284</v>
+      <c r="F43" s="49">
+        <v>6815.647232455925</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -5095,8 +4969,8 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="60">
-        <v>6797.455152366284</v>
+      <c r="F44" s="49">
+        <v>6815.647232455925</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5115,8 +4989,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="58">
-        <v>6825.287170721155</v>
+      <c r="F45" s="49">
+        <v>6826.975535855702</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5135,8 +5009,8 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="60">
-        <v>6797.455152366284</v>
+      <c r="F46" s="49">
+        <v>6815.647232455925</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5155,8 +5029,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="60">
-        <v>6803.383369206298</v>
+      <c r="F47" s="49">
+        <v>6817.271592531938</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5175,8 +5049,8 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="60">
-        <v>6803.181864497585</v>
+      <c r="F48" s="49">
+        <v>6817.216379267512</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5195,8 +5069,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="60">
-        <v>6802.128168698736</v>
+      <c r="F49" s="49">
+        <v>6816.927661524201</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5215,8 +5089,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="61">
-        <v>3472.714689575399</v>
+      <c r="F50" s="51">
+        <v>6588.708334807691</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5235,8 +5109,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="62">
-        <v>2513.836441022051</v>
+      <c r="F51" s="52">
+        <v>6187.904378293919</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5255,8 +5129,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="63">
-        <v>2204.43998518017</v>
+      <c r="F52" s="53">
+        <v>5937.011243209198</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5275,8 +5149,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="64">
-        <v>1635.252658983944</v>
+      <c r="F53" s="54">
+        <v>5361.725203361011</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5295,8 +5169,8 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="65">
-        <v>1274.530779795757</v>
+      <c r="F54" s="55">
+        <v>870.5802882647909</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5315,8 +5189,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="66">
-        <v>1173.251573535001</v>
+      <c r="F55" s="56">
+        <v>846.6862154954856</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5335,8 +5209,8 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="67">
-        <v>1055.128730969442</v>
+      <c r="F56" s="56">
+        <v>818.5552339329178</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5355,8 +5229,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="68">
-        <v>1145.271004405493</v>
+      <c r="F57" s="56">
+        <v>836.0068231322499</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5375,8 +5249,8 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="69">
-        <v>1081.325447643974</v>
+      <c r="F58" s="56">
+        <v>834.828577399082</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5395,8 +5269,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="67">
-        <v>1053.394431735138</v>
+      <c r="F59" s="56">
+        <v>825.5883171376208</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5415,8 +5289,8 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="70">
-        <v>1019.298095255111</v>
+      <c r="F60" s="56">
+        <v>814.269474806686</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5435,8 +5309,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="70">
-        <v>1026.48571443867</v>
+      <c r="F61" s="56">
+        <v>815.2192459572987</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5455,8 +5329,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="71">
-        <v>804.3783894607336</v>
+      <c r="F62" s="57">
+        <v>747.5271689856309</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5475,8 +5349,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="71">
-        <v>799.8441622559388</v>
+      <c r="F63" s="57">
+        <v>745.4240449837337</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5495,8 +5369,8 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="72">
-        <v>876.5879320059944</v>
+      <c r="F64" s="58">
+        <v>774.5025120542956</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5515,8 +5389,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="72">
-        <v>869.7648493990166</v>
+      <c r="F65" s="58">
+        <v>771.4607234800824</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5535,8 +5409,8 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="73">
-        <v>426.656681886973</v>
+      <c r="F66" s="59">
+        <v>573.9889731539864</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5555,8 +5429,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="73">
-        <v>426.656681886973</v>
+      <c r="F67" s="59">
+        <v>573.9889731539864</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5575,8 +5449,8 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="73">
-        <v>426.656681886973</v>
+      <c r="F68" s="59">
+        <v>573.9889731539864</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5595,8 +5469,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="74">
-        <v>659.7735532954936</v>
+      <c r="F69" s="60">
+        <v>680.2834410988144</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5615,8 +5489,8 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="73">
-        <v>426.656681886973</v>
+      <c r="F70" s="59">
+        <v>573.9889731539864</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5635,8 +5509,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="73">
-        <v>470.7473193091322</v>
+      <c r="F71" s="59">
+        <v>589.2876977329224</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5655,8 +5529,8 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="73">
-        <v>470.4022724452064</v>
+      <c r="F72" s="59">
+        <v>589.1679721574563</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5675,8 +5549,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="73">
-        <v>468.5979750010124</v>
+      <c r="F73" s="59">
+        <v>588.5419106788502</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5695,7 +5569,7 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="75">
+      <c r="F74" s="61">
         <v>12148.77695620095</v>
       </c>
     </row>
@@ -5715,7 +5589,7 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="76">
+      <c r="F75" s="62">
         <v>12205.57247836118</v>
       </c>
     </row>
@@ -5735,7 +5609,7 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="77">
+      <c r="F76" s="63">
         <v>12263.64135462694</v>
       </c>
     </row>
@@ -5755,7 +5629,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="77">
+      <c r="F77" s="63">
         <v>12277.00955721282</v>
       </c>
     </row>
@@ -5775,7 +5649,7 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="78">
+      <c r="F78" s="64">
         <v>12072.01404723274</v>
       </c>
     </row>
@@ -5795,7 +5669,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="78">
+      <c r="F79" s="64">
         <v>12078.11437111027</v>
       </c>
     </row>
@@ -5815,7 +5689,7 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="78">
+      <c r="F80" s="64">
         <v>12087.62271831749</v>
       </c>
     </row>
@@ -5835,7 +5709,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="78">
+      <c r="F81" s="64">
         <v>12081.36339767789</v>
       </c>
     </row>
@@ -5855,7 +5729,7 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="78">
+      <c r="F82" s="64">
         <v>12060.84963450486</v>
       </c>
     </row>
@@ -5875,7 +5749,7 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="78">
+      <c r="F83" s="64">
         <v>12062.55347390027</v>
       </c>
     </row>
@@ -5895,7 +5769,7 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="78">
+      <c r="F84" s="64">
         <v>12065.4295273276</v>
       </c>
     </row>
@@ -5915,7 +5789,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="78">
+      <c r="F85" s="64">
         <v>12065.67310559727</v>
       </c>
     </row>
@@ -5935,7 +5809,7 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="78">
+      <c r="F86" s="64">
         <v>12058.23314021843</v>
       </c>
     </row>
@@ -5955,7 +5829,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="78">
+      <c r="F87" s="64">
         <v>12058.55164473398</v>
       </c>
     </row>
@@ -5975,7 +5849,7 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="78">
+      <c r="F88" s="64">
         <v>12059.10580824002</v>
       </c>
     </row>
@@ -5995,7 +5869,7 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="78">
+      <c r="F89" s="64">
         <v>12060.10572977944</v>
       </c>
     </row>
@@ -6015,7 +5889,7 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="78">
+      <c r="F90" s="64">
         <v>12057.72662512459</v>
       </c>
     </row>
@@ -6035,7 +5909,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="78">
+      <c r="F91" s="64">
         <v>12057.72662512459</v>
       </c>
     </row>
@@ -6055,7 +5929,7 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="78">
+      <c r="F92" s="64">
         <v>12057.72662512459</v>
       </c>
     </row>
@@ -6075,7 +5949,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="78">
+      <c r="F93" s="64">
         <v>12057.88115032625</v>
       </c>
     </row>
@@ -6095,7 +5969,7 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="78">
+      <c r="F94" s="64">
         <v>12057.75609937997</v>
       </c>
     </row>
@@ -6115,7 +5989,7 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="78">
+      <c r="F95" s="64">
         <v>12057.79923312575</v>
       </c>
     </row>
@@ -6135,7 +6009,7 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="78">
+      <c r="F96" s="64">
         <v>12057.85381130493</v>
       </c>
     </row>
@@ -6155,7 +6029,7 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="78">
+      <c r="F97" s="64">
         <v>12058.1392081003</v>
       </c>
     </row>
@@ -6175,8 +6049,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="79">
-        <v>11005.1592106303</v>
+      <c r="F98" s="65">
+        <v>11751.69923264933</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6195,8 +6069,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="80">
-        <v>10948.83197404385</v>
+      <c r="F99" s="66">
+        <v>11639.50065960059</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6215,8 +6089,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="80">
-        <v>10955.67302697624</v>
+      <c r="F100" s="67">
+        <v>11558.58473979691</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6235,8 +6109,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="81">
-        <v>10857.01139327345</v>
+      <c r="F101" s="68">
+        <v>11307.86417669644</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6255,8 +6129,8 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="82">
-        <v>10685.07031070354</v>
+      <c r="F102" s="69">
+        <v>10739.36864785224</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6275,8 +6149,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="82">
-        <v>10691.0105056289</v>
+      <c r="F103" s="69">
+        <v>10745.46558138765</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6295,8 +6169,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="82">
-        <v>10701.93452900368</v>
+      <c r="F104" s="69">
+        <v>10752.94826330661</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6315,8 +6189,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="82">
-        <v>10694.25953219652</v>
+      <c r="F105" s="69">
+        <v>10748.71460795527</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6335,8 +6209,8 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="82">
-        <v>10678.54303618505</v>
+      <c r="F106" s="69">
+        <v>10732.83102013364</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6355,8 +6229,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="82">
-        <v>10702.52157007882</v>
+      <c r="F107" s="69">
+        <v>10735.00084550465</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6375,8 +6249,8 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="82">
-        <v>10681.80743900833</v>
+      <c r="F108" s="69">
+        <v>10736.26251476708</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6395,8 +6269,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="82">
-        <v>10691.36142965329</v>
+      <c r="F109" s="69">
+        <v>10737.18687700934</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6415,8 +6289,8 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="82">
-        <v>10691.7454724715</v>
+      <c r="F110" s="69">
+        <v>10732.65656593712</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6435,8 +6309,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="82">
-        <v>10680.96574830559</v>
+      <c r="F111" s="69">
+        <v>10732.47864172571</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6455,8 +6329,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="82">
-        <v>10686.98473222042</v>
+      <c r="F112" s="69">
+        <v>10732.94479684269</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6475,8 +6349,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="82">
-        <v>10682.08739512936</v>
+      <c r="F113" s="69">
+        <v>10733.64041016837</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6495,8 +6369,8 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="82">
-        <v>10677.81053748795</v>
+      <c r="F114" s="69">
+        <v>10732.2656132467</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6515,8 +6389,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="82">
-        <v>10677.81053748795</v>
+      <c r="F115" s="69">
+        <v>10732.2656132467</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6535,8 +6409,8 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="82">
-        <v>10677.81053748795</v>
+      <c r="F116" s="69">
+        <v>10732.2656132467</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6555,8 +6429,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="82">
-        <v>10677.90085573481</v>
+      <c r="F117" s="69">
+        <v>10732.35593149356</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6575,8 +6449,8 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="82">
-        <v>10680.05130981899</v>
+      <c r="F118" s="69">
+        <v>10732.29701191123</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6595,8 +6469,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="82">
-        <v>10677.81893853431</v>
+      <c r="F119" s="69">
+        <v>10732.27401429305</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6615,8 +6489,8 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="82">
-        <v>10677.8735167135</v>
+      <c r="F120" s="69">
+        <v>10732.32859247224</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6635,8 +6509,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="82">
-        <v>10678.15891350886</v>
+      <c r="F121" s="69">
+        <v>10732.61398926761</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6655,8 +6529,8 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="58">
-        <v>6852.96900805867</v>
+      <c r="F122" s="70">
+        <v>11013.38564421196</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6675,8 +6549,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="83">
-        <v>4667.958401911477</v>
+      <c r="F123" s="71">
+        <v>10379.00927871477</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6695,8 +6569,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="84">
-        <v>3794.203907602871</v>
+      <c r="F124" s="72">
+        <v>9944.605189503889</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6715,8 +6589,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="85">
-        <v>2588.759993682026</v>
+      <c r="F125" s="73">
+        <v>8901.755756938424</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6735,8 +6609,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="86">
-        <v>1602.039118498386</v>
+      <c r="F126" s="74">
+        <v>1088.706957395976</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6755,8 +6629,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="68">
-        <v>1155.662255097781</v>
+      <c r="F127" s="74">
+        <v>1074.091173717198</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6775,8 +6649,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="66">
-        <v>1200.928958740735</v>
+      <c r="F128" s="74">
+        <v>1083.501634142172</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6795,8 +6669,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="71">
-        <v>810.461888962718</v>
+      <c r="F129" s="74">
+        <v>1064.823266510644</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6815,8 +6689,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="66">
-        <v>1212.830948271905</v>
+      <c r="F130" s="74">
+        <v>1074.361699410728</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6835,8 +6709,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="87">
-        <v>1352.489626117512</v>
+      <c r="F131" s="74">
+        <v>1079.309226807976</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6855,8 +6729,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="69">
-        <v>1106.715257976132</v>
+      <c r="F132" s="74">
+        <v>1072.442693700529</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6875,8 +6749,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="67">
-        <v>1057.349369579965</v>
+      <c r="F133" s="74">
+        <v>1071.830651882318</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6895,8 +6769,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="72">
-        <v>880.3529667568946</v>
+      <c r="F134" s="74">
+        <v>1065.025175189018</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6915,8 +6789,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="72">
-        <v>846.6772124616126</v>
+      <c r="F135" s="74">
+        <v>1064.270740639324</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6935,8 +6809,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="88">
-        <v>923.7655430095658</v>
+      <c r="F136" s="74">
+        <v>1066.415588652227</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6955,8 +6829,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="71">
-        <v>842.6617573206656</v>
+      <c r="F137" s="74">
+        <v>1064.792831148335</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6975,8 +6849,8 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="89">
-        <v>617.1862145108174</v>
+      <c r="F138" s="74">
+        <v>1059.060913223509</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6995,8 +6869,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="89">
-        <v>617.1862145108174</v>
+      <c r="F139" s="74">
+        <v>1059.060913223509</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -7015,8 +6889,8 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="89">
-        <v>617.1862145108174</v>
+      <c r="F140" s="74">
+        <v>1059.060913223509</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7035,8 +6909,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="89">
-        <v>630.5254852740327</v>
+      <c r="F141" s="74">
+        <v>1059.304359890403</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7055,8 +6929,8 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="89">
-        <v>645.6204377404687</v>
+      <c r="F142" s="74">
+        <v>1059.57984840324</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7075,8 +6949,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="89">
-        <v>640.4137450960684</v>
+      <c r="F143" s="74">
+        <v>1059.484824320415</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -7095,8 +6969,8 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="89">
-        <v>633.8255900676018</v>
+      <c r="F144" s="74">
+        <v>1059.364588033805</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7115,8 +6989,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="89">
-        <v>617.3303467988371</v>
+      <c r="F145" s="74">
+        <v>1059.205045511529</v>
       </c>
     </row>
   </sheetData>
@@ -7165,7 +7039,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="73">
+      <c r="F2" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7185,7 +7059,7 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="73">
+      <c r="F3" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7205,7 +7079,7 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="73">
+      <c r="F4" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7225,7 +7099,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7245,7 +7119,7 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7265,7 +7139,7 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7285,7 +7159,7 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7305,7 +7179,7 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7325,7 +7199,7 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7345,7 +7219,7 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7365,7 +7239,7 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7385,7 +7259,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7405,7 +7279,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7425,7 +7299,7 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7445,7 +7319,7 @@
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7465,7 +7339,7 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="73">
+      <c r="F17" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7485,7 +7359,7 @@
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="73">
+      <c r="F18" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7505,7 +7379,7 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="73">
+      <c r="F19" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7525,7 +7399,7 @@
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="73">
+      <c r="F20" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7545,7 +7419,7 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="73">
+      <c r="F21" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7565,7 +7439,7 @@
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="73">
+      <c r="F22" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7585,7 +7459,7 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="73">
+      <c r="F23" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7605,7 +7479,7 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7625,7 +7499,7 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="73">
+      <c r="F25" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7645,7 +7519,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="75">
         <v>607.437687862064</v>
       </c>
     </row>
@@ -7665,7 +7539,7 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="91">
+      <c r="F27" s="76">
         <v>833.2751826257771</v>
       </c>
     </row>
@@ -7685,7 +7559,7 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="77">
         <v>1045.508224683551</v>
       </c>
     </row>
@@ -7705,7 +7579,7 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="93">
+      <c r="F29" s="78">
         <v>1272.304507218042</v>
       </c>
     </row>
@@ -7725,7 +7599,7 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="94">
+      <c r="F30" s="57">
         <v>48.71554310612554</v>
       </c>
     </row>
@@ -7745,7 +7619,7 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="94">
+      <c r="F31" s="57">
         <v>54.56818119136659</v>
       </c>
     </row>
@@ -7765,7 +7639,7 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="89">
+      <c r="F32" s="58">
         <v>59.43296922020684</v>
       </c>
     </row>
@@ -7785,7 +7659,7 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F33" s="58">
         <v>62.42049969042196</v>
       </c>
     </row>
@@ -7805,7 +7679,7 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="73">
+      <c r="F34" s="59">
         <v>15.30934695937282</v>
       </c>
     </row>
@@ -7825,7 +7699,7 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="73">
+      <c r="F35" s="59">
         <v>24.91798949593381</v>
       </c>
     </row>
@@ -7845,7 +7719,7 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="95">
+      <c r="F36" s="60">
         <v>36.67895187795017</v>
       </c>
     </row>
@@ -7865,7 +7739,7 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="95">
+      <c r="F37" s="60">
         <v>35.35522757277542</v>
       </c>
     </row>
@@ -7885,7 +7759,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="73">
+      <c r="F38" s="59">
         <v>2.384861322190901</v>
       </c>
     </row>
@@ -7905,7 +7779,7 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="73">
+      <c r="F39" s="59">
         <v>4.529040110392115</v>
       </c>
     </row>
@@ -7925,7 +7799,7 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="73">
+      <c r="F40" s="59">
         <v>8.035303841467258</v>
       </c>
     </row>
@@ -7945,7 +7819,7 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="73">
+      <c r="F41" s="59">
         <v>11.02283431168238</v>
       </c>
     </row>
@@ -7965,7 +7839,7 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="73">
+      <c r="F42" s="59">
         <v>0</v>
       </c>
     </row>
@@ -7985,7 +7859,7 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="73">
+      <c r="F43" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8005,7 +7879,7 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="73">
+      <c r="F44" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8025,7 +7899,7 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="73">
+      <c r="F45" s="59">
         <v>0.36376748993015</v>
       </c>
     </row>
@@ -8045,7 +7919,7 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="73">
+      <c r="F46" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8065,7 +7939,7 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="73">
+      <c r="F47" s="59">
         <v>0.07619675984203433</v>
       </c>
     </row>
@@ -8085,7 +7959,7 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="73">
+      <c r="F48" s="59">
         <v>0.2032536930335218</v>
       </c>
     </row>
@@ -8105,7 +7979,7 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="73">
+      <c r="F49" s="59">
         <v>0.8676518481602704</v>
       </c>
     </row>
@@ -8125,7 +7999,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="96">
+      <c r="F50" s="79">
         <v>1172.200666452452</v>
       </c>
     </row>
@@ -8145,7 +8019,7 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="97">
+      <c r="F51" s="80">
         <v>1644.213957245313</v>
       </c>
     </row>
@@ -8165,7 +8039,7 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="57">
+      <c r="F52" s="81">
         <v>1961.788155632516</v>
       </c>
     </row>
@@ -8185,7 +8059,7 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="98">
+      <c r="F53" s="82">
         <v>2589.340564873989</v>
       </c>
     </row>
@@ -8205,7 +8079,7 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="89">
+      <c r="F54" s="58">
         <v>55.71201530609848</v>
       </c>
     </row>
@@ -8225,7 +8099,7 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="74">
+      <c r="F55" s="56">
         <v>82.02315825310703</v>
       </c>
     </row>
@@ -8245,7 +8119,7 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="71">
+      <c r="F56" s="83">
         <v>112.9825432270896</v>
       </c>
     </row>
@@ -8265,7 +8139,7 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="99">
+      <c r="F57" s="55">
         <v>93.474120302443</v>
       </c>
     </row>
@@ -8285,7 +8159,7 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="73">
+      <c r="F58" s="59">
         <v>16.27777603300387</v>
       </c>
     </row>
@@ -8305,7 +8179,7 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="73">
+      <c r="F59" s="59">
         <v>26.28174785105303</v>
       </c>
     </row>
@@ -8325,7 +8199,7 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="95">
+      <c r="F60" s="60">
         <v>38.53342821514357</v>
       </c>
     </row>
@@ -8345,7 +8219,7 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="95">
+      <c r="F61" s="60">
         <v>37.39243263592762</v>
       </c>
     </row>
@@ -8365,7 +8239,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="73">
+      <c r="F62" s="59">
         <v>2.552629892846991</v>
       </c>
     </row>
@@ -8385,7 +8259,7 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="73">
+      <c r="F63" s="59">
         <v>4.785675218759326</v>
       </c>
     </row>
@@ -8405,7 +8279,7 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="73">
+      <c r="F64" s="59">
         <v>8.553000502962744</v>
       </c>
     </row>
@@ -8425,7 +8299,7 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="73">
+      <c r="F65" s="59">
         <v>11.77651366788316</v>
       </c>
     </row>
@@ -8445,7 +8319,7 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="73">
+      <c r="F66" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8465,7 +8339,7 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="73">
+      <c r="F67" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8485,7 +8359,7 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="73">
+      <c r="F68" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8505,7 +8379,7 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="73">
+      <c r="F69" s="59">
         <v>0.3804208167270601</v>
       </c>
     </row>
@@ -8525,7 +8399,7 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="73">
+      <c r="F70" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8545,7 +8419,7 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="73">
+      <c r="F71" s="59">
         <v>0.07619675984203435</v>
       </c>
     </row>
@@ -8565,7 +8439,7 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="73">
+      <c r="F72" s="59">
         <v>0.2032536930335218</v>
       </c>
     </row>
@@ -8585,7 +8459,7 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="73">
+      <c r="F73" s="59">
         <v>0.8676518481602706</v>
       </c>
     </row>
@@ -8605,7 +8479,7 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="73">
+      <c r="F74" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8625,7 +8499,7 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="73">
+      <c r="F75" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8645,7 +8519,7 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="73">
+      <c r="F76" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8665,7 +8539,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="73">
+      <c r="F77" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8685,7 +8559,7 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="73">
+      <c r="F78" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8705,7 +8579,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="73">
+      <c r="F79" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8725,7 +8599,7 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="73">
+      <c r="F80" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8745,7 +8619,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="73">
+      <c r="F81" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8765,7 +8639,7 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="73">
+      <c r="F82" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8785,7 +8659,7 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="73">
+      <c r="F83" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8805,7 +8679,7 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="73">
+      <c r="F84" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8825,7 +8699,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="73">
+      <c r="F85" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8845,7 +8719,7 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="73">
+      <c r="F86" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8865,7 +8739,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="73">
+      <c r="F87" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8885,7 +8759,7 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="73">
+      <c r="F88" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8905,7 +8779,7 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="73">
+      <c r="F89" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8925,7 +8799,7 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="73">
+      <c r="F90" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8945,7 +8819,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="73">
+      <c r="F91" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8965,7 +8839,7 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="73">
+      <c r="F92" s="59">
         <v>0</v>
       </c>
     </row>
@@ -8985,7 +8859,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="73">
+      <c r="F93" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9005,7 +8879,7 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="73">
+      <c r="F94" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9025,7 +8899,7 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="73">
+      <c r="F95" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9045,7 +8919,7 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="73">
+      <c r="F96" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9065,7 +8939,7 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="73">
+      <c r="F97" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9085,7 +8959,7 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="100">
+      <c r="F98" s="84">
         <v>741.4782266677248</v>
       </c>
     </row>
@@ -9105,7 +8979,7 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="101">
+      <c r="F99" s="85">
         <v>1068.922450257201</v>
       </c>
     </row>
@@ -9125,7 +8999,7 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="102">
+      <c r="F100" s="86">
         <v>1339.762375182537</v>
       </c>
     </row>
@@ -9145,7 +9019,7 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="103">
+      <c r="F101" s="87">
         <v>1863.626870505522</v>
       </c>
     </row>
@@ -9165,7 +9039,7 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="73">
+      <c r="F102" s="59">
         <v>19.05919834792099</v>
       </c>
     </row>
@@ -9185,7 +9059,7 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="73">
+      <c r="F103" s="59">
         <v>19.06609679780568</v>
       </c>
     </row>
@@ -9205,7 +9079,7 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="73">
+      <c r="F104" s="59">
         <v>26.08118311098249</v>
       </c>
     </row>
@@ -9225,7 +9099,7 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="73">
+      <c r="F105" s="59">
         <v>19.06609679780568</v>
       </c>
     </row>
@@ -9245,7 +9119,7 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="73">
+      <c r="F106" s="59">
         <v>6.443652796510138</v>
       </c>
     </row>
@@ -9265,7 +9139,7 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="73">
+      <c r="F107" s="59">
         <v>7.637433976466809</v>
       </c>
     </row>
@@ -9285,7 +9159,7 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="73">
+      <c r="F108" s="59">
         <v>9.427313107656204</v>
       </c>
     </row>
@@ -9305,7 +9179,7 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="73">
+      <c r="F109" s="59">
         <v>8.72444943243568</v>
       </c>
     </row>
@@ -9325,7 +9199,7 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="73">
+      <c r="F110" s="59">
         <v>1.083611559453515</v>
       </c>
     </row>
@@ -9345,7 +9219,7 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="73">
+      <c r="F111" s="59">
         <v>1.659754453429354</v>
       </c>
     </row>
@@ -9365,7 +9239,7 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="73">
+      <c r="F112" s="59">
         <v>2.315702546230825</v>
       </c>
     </row>
@@ -9385,7 +9259,7 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="73">
+      <c r="F113" s="59">
         <v>2.668100007133025</v>
       </c>
     </row>
@@ -9405,7 +9279,7 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="73">
+      <c r="F114" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9425,7 +9299,7 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="73">
+      <c r="F115" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9445,7 +9319,7 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="73">
+      <c r="F116" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9465,7 +9339,7 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="73">
+      <c r="F117" s="59">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -9485,7 +9359,7 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="73">
+      <c r="F118" s="59">
         <v>0.06861548980660362</v>
       </c>
     </row>
@@ -9505,7 +9379,7 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="73">
+      <c r="F119" s="59">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -9525,7 +9399,7 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="73">
+      <c r="F120" s="59">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -9545,7 +9419,7 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="73">
+      <c r="F121" s="59">
         <v>0.1408701927875116</v>
       </c>
     </row>
@@ -9565,7 +9439,7 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="104">
+      <c r="F122" s="88">
         <v>1167.861062008968</v>
       </c>
     </row>
@@ -9585,7 +9459,7 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="60">
+      <c r="F123" s="50">
         <v>1884.419398066373</v>
       </c>
     </row>
@@ -9605,7 +9479,7 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="105">
+      <c r="F124" s="89">
         <v>2397.655810619903</v>
       </c>
     </row>
@@ -9625,7 +9499,7 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="77">
+      <c r="F125" s="63">
         <v>3520.099024319936</v>
       </c>
     </row>
@@ -9645,7 +9519,7 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="95">
+      <c r="F126" s="60">
         <v>39.15939450602083</v>
       </c>
     </row>
@@ -9665,7 +9539,7 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="89">
+      <c r="F127" s="58">
         <v>55.46315710563108</v>
       </c>
     </row>
@@ -9685,7 +9559,7 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="74">
+      <c r="F128" s="56">
         <v>77.1686451320561</v>
       </c>
     </row>
@@ -9705,7 +9579,7 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="89">
+      <c r="F129" s="58">
         <v>65.8902643256902</v>
       </c>
     </row>
@@ -9725,7 +9599,7 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="73">
+      <c r="F130" s="59">
         <v>8.406409354097793</v>
       </c>
     </row>
@@ -9745,7 +9619,7 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="73">
+      <c r="F131" s="59">
         <v>13.70072822118465</v>
       </c>
     </row>
@@ -9765,7 +9639,7 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="73">
+      <c r="F132" s="59">
         <v>21.24513986599481</v>
       </c>
     </row>
@@ -9785,7 +9659,7 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="73">
+      <c r="F133" s="59">
         <v>22.11649413792603</v>
       </c>
     </row>
@@ -9805,7 +9679,7 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="73">
+      <c r="F134" s="59">
         <v>1.345943380631392</v>
       </c>
     </row>
@@ -9825,7 +9699,7 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="73">
+      <c r="F135" s="59">
         <v>2.149998437997628</v>
       </c>
     </row>
@@ -9845,7 +9719,7 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="73">
+      <c r="F136" s="59">
         <v>3.772394230854767</v>
       </c>
     </row>
@@ -9865,7 +9739,7 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="73">
+      <c r="F137" s="59">
         <v>5.76762847243575</v>
       </c>
     </row>
@@ -9885,7 +9759,7 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="73">
+      <c r="F138" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9905,7 +9779,7 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="73">
+      <c r="F139" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9925,7 +9799,7 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="73">
+      <c r="F140" s="59">
         <v>0</v>
       </c>
     </row>
@@ -9945,7 +9819,7 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="73">
+      <c r="F141" s="59">
         <v>0.3597316458122779</v>
       </c>
     </row>
@@ -9965,7 +9839,7 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="73">
+      <c r="F142" s="59">
         <v>0.06861548980660362</v>
       </c>
     </row>
@@ -9985,7 +9859,7 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="73">
+      <c r="F143" s="59">
         <v>0.1690300059510678</v>
       </c>
     </row>
@@ -10005,7 +9879,7 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="73">
+      <c r="F144" s="59">
         <v>0.2960869391425553</v>
       </c>
     </row>
@@ -10025,7 +9899,7 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="73">
+      <c r="F145" s="59">
         <v>0.6169883173480468</v>
       </c>
     </row>
@@ -10075,7 +9949,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="106">
+      <c r="F2" s="90">
         <v>503.501562489833</v>
       </c>
     </row>
@@ -10095,7 +9969,7 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="107">
+      <c r="F3" s="91">
         <v>845.6950492403296</v>
       </c>
     </row>
@@ -10115,7 +9989,7 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="108">
+      <c r="F4" s="92">
         <v>1190.85372647454</v>
       </c>
     </row>
@@ -10135,7 +10009,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="38">
         <v>1580.247947903324</v>
       </c>
     </row>
@@ -10155,7 +10029,7 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="109">
+      <c r="F6" s="93">
         <v>47.2482506442884</v>
       </c>
     </row>
@@ -10175,7 +10049,7 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="9">
         <v>70.64417240807387</v>
       </c>
     </row>
@@ -10195,7 +10069,7 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <v>98.00160944064315</v>
       </c>
     </row>
@@ -10215,7 +10089,7 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="111">
+      <c r="F9" s="94">
         <v>76.72469055652758</v>
       </c>
     </row>
@@ -10255,7 +10129,7 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="95">
         <v>22.18514664927616</v>
       </c>
     </row>
@@ -10275,7 +10149,7 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="113">
+      <c r="F12" s="96">
         <v>33.09024280681102</v>
       </c>
     </row>
@@ -10295,7 +10169,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="114">
+      <c r="F13" s="97">
         <v>30.08805430145042</v>
       </c>
     </row>
@@ -10555,7 +10429,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="115">
+      <c r="F26" s="98">
         <v>178.6171623236598</v>
       </c>
     </row>
@@ -10575,7 +10449,7 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="116">
+      <c r="F27" s="29">
         <v>369.4352473789946</v>
       </c>
     </row>
@@ -10595,7 +10469,7 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="117">
+      <c r="F28" s="99">
         <v>568.2006233794907</v>
       </c>
     </row>
@@ -10615,7 +10489,7 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="22">
         <v>814.3761799341463</v>
       </c>
     </row>
@@ -10655,7 +10529,7 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="112">
+      <c r="F31" s="95">
         <v>22.98277698812812</v>
       </c>
     </row>
@@ -10675,7 +10549,7 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="109">
+      <c r="F32" s="93">
         <v>47.52592116952269</v>
       </c>
     </row>
@@ -10695,7 +10569,7 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="114">
+      <c r="F33" s="97">
         <v>25.54784743165502</v>
       </c>
     </row>
@@ -11055,7 +10929,7 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="10">
         <v>110.0268357839718</v>
       </c>
     </row>
@@ -11075,7 +10949,7 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="118">
+      <c r="F52" s="100">
         <v>276.1904093149447</v>
       </c>
     </row>
@@ -11095,7 +10969,7 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="116">
+      <c r="F53" s="29">
         <v>374.1210230812806</v>
       </c>
     </row>
@@ -11515,7 +11389,7 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="106">
+      <c r="F74" s="90">
         <v>502.3271453346225</v>
       </c>
     </row>
@@ -11535,7 +11409,7 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="119">
+      <c r="F75" s="101">
         <v>844.5206320851189</v>
       </c>
     </row>
@@ -11555,7 +11429,7 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="108">
+      <c r="F76" s="92">
         <v>1189.67930931933</v>
       </c>
     </row>
@@ -11575,7 +11449,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="50">
+      <c r="F77" s="38">
         <v>1579.073530748113</v>
       </c>
     </row>
@@ -11595,7 +11469,7 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="113">
+      <c r="F78" s="96">
         <v>33.93711204676197</v>
       </c>
     </row>
@@ -11615,7 +11489,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="109">
+      <c r="F79" s="93">
         <v>48.47983473899561</v>
       </c>
     </row>
@@ -11635,7 +11509,7 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="110">
+      <c r="F80" s="9">
         <v>71.38235323815853</v>
       </c>
     </row>
@@ -11655,7 +11529,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="120">
+      <c r="F81" s="102">
         <v>56.07098511578626</v>
       </c>
     </row>
@@ -11735,7 +11609,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="112">
+      <c r="F85" s="95">
         <v>18.56419514459801</v>
       </c>
     </row>
@@ -11995,7 +11869,7 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="121">
+      <c r="F98" s="13">
         <v>126.9246421873744</v>
       </c>
     </row>
@@ -12015,7 +11889,7 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="122">
+      <c r="F99" s="103">
         <v>278.7903310606651</v>
       </c>
     </row>
@@ -12035,7 +11909,7 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="29">
+      <c r="F100" s="104">
         <v>454.6957044911437</v>
       </c>
     </row>
@@ -12055,7 +11929,7 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="123">
+      <c r="F101" s="105">
         <v>576.6409515258404</v>
       </c>
     </row>
@@ -12095,7 +11969,7 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="113">
+      <c r="F103" s="96">
         <v>31.42346746461299</v>
       </c>
     </row>
@@ -12115,7 +11989,7 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="109">
+      <c r="F104" s="93">
         <v>48.85653547866163</v>
       </c>
     </row>
@@ -12135,7 +12009,7 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="124">
+      <c r="F105" s="106">
         <v>39.01461784140365</v>
       </c>
     </row>
@@ -12495,7 +12369,7 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="114">
+      <c r="F123" s="97">
         <v>26.05883106916713</v>
       </c>
     </row>
@@ -12515,7 +12389,7 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="121">
+      <c r="F124" s="13">
         <v>124.4032471157535</v>
       </c>
     </row>
@@ -12535,7 +12409,7 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="109">
+      <c r="F125" s="93">
         <v>47.55724682394026</v>
       </c>
     </row>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="106">
+  <fills count="111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,91 +558,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDBF9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6F7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2F4D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCEF2CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EEC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7EEC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5EDC5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4EDC4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBEE9BE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB0E1B0"/>
+        <fgColor rgb="FFB2E3B2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA1D9A1"/>
+        <fgColor rgb="FF53AE53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93D193"/>
+        <fgColor rgb="FF54AE54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99D599"/>
+        <fgColor rgb="FFD8F8D8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7AC47A"/>
+        <fgColor rgb="FFCCF1CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66B866"/>
+        <fgColor rgb="FFC2ECC2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3CA13C"/>
+        <fgColor rgb="FFB3E3B3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEFBDE"/>
+        <fgColor rgb="FFCFF3CF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6E5B6"/>
+        <fgColor rgb="FFC1EBC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E5B7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA0D9A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8ECF8E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6CBC6C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9AD59A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF49A849"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -871,12 +901,12 @@
     <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -886,6 +916,11 @@
     <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7520,7 +7555,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="75">
-        <v>607.437687862064</v>
+        <v>1192.566742520837</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7540,7 +7575,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="76">
-        <v>833.2751826257771</v>
+        <v>1630.643563649013</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7560,7 +7595,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="77">
-        <v>1045.508224683551</v>
+        <v>2042.330633151393</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7580,7 +7615,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="78">
-        <v>1272.304507218042</v>
+        <v>2482.267299117108</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7599,8 +7634,8 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="57">
-        <v>48.71554310612554</v>
+      <c r="F30" s="79">
+        <v>3254.461263313218</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7619,8 +7654,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="57">
-        <v>54.56818119136659</v>
+      <c r="F31" s="79">
+        <v>3265.814139372522</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7639,8 +7674,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="58">
-        <v>59.43296922020684</v>
+      <c r="F32" s="79">
+        <v>3275.25079592668</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7659,8 +7694,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="58">
-        <v>62.42049969042196</v>
+      <c r="F33" s="79">
+        <v>3281.045971137885</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7679,8 +7714,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="59">
-        <v>15.30934695937282</v>
+      <c r="F34" s="80">
+        <v>3231.416386024011</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7699,8 +7734,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="59">
-        <v>24.91798949593381</v>
+      <c r="F35" s="79">
+        <v>3250.055113761306</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7719,8 +7754,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="60">
-        <v>36.67895187795017</v>
+      <c r="F36" s="79">
+        <v>3272.868885314663</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7739,8 +7774,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="60">
-        <v>35.35522757277542</v>
+      <c r="F37" s="79">
+        <v>3270.301141033458</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7759,8 +7794,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="59">
-        <v>2.384861322190901</v>
+      <c r="F38" s="79">
+        <v>3260.578588627987</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7779,8 +7814,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="59">
-        <v>4.529040110392115</v>
+      <c r="F39" s="79">
+        <v>3264.737840520364</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7799,8 +7834,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="59">
-        <v>8.035303841467258</v>
+      <c r="F40" s="79">
+        <v>3254.695654522929</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7819,8 +7854,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="59">
-        <v>11.02283431168238</v>
+      <c r="F41" s="79">
+        <v>3260.490829734134</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7839,8 +7874,8 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="59">
-        <v>0</v>
+      <c r="F42" s="81">
+        <v>3339.915892899608</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7859,8 +7894,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="59">
-        <v>0</v>
+      <c r="F43" s="81">
+        <v>3339.915892899608</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7879,8 +7914,8 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="59">
-        <v>0</v>
+      <c r="F44" s="81">
+        <v>3339.915892899608</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7899,8 +7934,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="59">
-        <v>0.36376748993015</v>
+      <c r="F45" s="79">
+        <v>3289.348094855413</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7919,8 +7954,8 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="59">
-        <v>0</v>
+      <c r="F46" s="81">
+        <v>3339.915892899608</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7939,8 +7974,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="59">
-        <v>0.07619675984203433</v>
+      <c r="F47" s="81">
+        <v>3332.665000212848</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7959,8 +7994,8 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="59">
-        <v>0.2032536930335218</v>
+      <c r="F48" s="81">
+        <v>3332.91146370401</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7979,8 +8014,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="59">
-        <v>0.8676518481602704</v>
+      <c r="F49" s="81">
+        <v>3334.200255151443</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7999,8 +8034,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="79">
-        <v>1172.200666452452</v>
+      <c r="F50" s="78">
+        <v>2481.024726476281</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8019,8 +8054,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="80">
-        <v>1644.213957245313</v>
+      <c r="F51" s="82">
+        <v>3440.956080711199</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8039,8 +8074,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="81">
-        <v>1961.788155632516</v>
+      <c r="F52" s="83">
+        <v>4085.274564466942</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8059,8 +8094,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="82">
-        <v>2589.340564873989</v>
+      <c r="F53" s="84">
+        <v>5339.354453251439</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8079,8 +8114,8 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="58">
-        <v>55.71201530609848</v>
+      <c r="F54" s="43">
+        <v>14336.46364295511</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8099,8 +8134,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="56">
-        <v>82.02315825310703</v>
+      <c r="F55" s="43">
+        <v>14396.64852189639</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8119,8 +8154,8 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="83">
-        <v>112.9825432270896</v>
+      <c r="F56" s="44">
+        <v>14467.4977514981</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8139,8 +8174,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="55">
-        <v>93.474120302443</v>
+      <c r="F57" s="44">
+        <v>14423.37221738594</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8159,8 +8194,8 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="59">
-        <v>16.27777603300387</v>
+      <c r="F58" s="44">
+        <v>14426.76509905753</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8179,8 +8214,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="59">
-        <v>26.28174785105303</v>
+      <c r="F59" s="44">
+        <v>14449.96513881417</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8199,8 +8234,8 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="60">
-        <v>38.53342821514357</v>
+      <c r="F60" s="44">
+        <v>14478.38171960622</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8219,8 +8254,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="60">
-        <v>37.39243263592762</v>
+      <c r="F61" s="44">
+        <v>14475.9040845072</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8239,8 +8274,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="59">
-        <v>2.552629892846991</v>
+      <c r="F62" s="40">
+        <v>14646.29085739002</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8259,8 +8294,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="59">
-        <v>4.785675218759326</v>
+      <c r="F63" s="40">
+        <v>14651.53274150672</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8279,8 +8314,8 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="59">
-        <v>8.553000502962744</v>
+      <c r="F64" s="39">
+        <v>14578.68764784007</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8299,8 +8334,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="59">
-        <v>11.77651366788316</v>
+      <c r="F65" s="39">
+        <v>14586.26866467298</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8319,8 +8354,8 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="59">
-        <v>0</v>
+      <c r="F66" s="85">
+        <v>15078.75286938478</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8339,8 +8374,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="59">
-        <v>0</v>
+      <c r="F67" s="85">
+        <v>15078.75286938478</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8359,8 +8394,8 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="59">
-        <v>0</v>
+      <c r="F68" s="85">
+        <v>15078.75286938478</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8379,8 +8414,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="59">
-        <v>0.3804208167270601</v>
+      <c r="F69" s="42">
+        <v>14813.83789795569</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8399,8 +8434,8 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="59">
-        <v>0</v>
+      <c r="F70" s="85">
+        <v>15078.75286938478</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8419,8 +8454,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="59">
-        <v>0.07619675984203435</v>
+      <c r="F71" s="86">
+        <v>15040.53867316529</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8439,8 +8474,8 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="59">
-        <v>0.2032536930335218</v>
+      <c r="F72" s="86">
+        <v>15040.83773186197</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8459,8 +8494,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="59">
-        <v>0.8676518481602706</v>
+      <c r="F73" s="86">
+        <v>15042.40155086305</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8959,8 +8994,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="84">
-        <v>741.4782266677248</v>
+      <c r="F98" s="87">
+        <v>1438.712105889249</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8979,8 +9014,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="85">
-        <v>1068.922450257201</v>
+      <c r="F99" s="77">
+        <v>2073.884421792527</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -8999,8 +9034,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="86">
-        <v>1339.762375182537</v>
+      <c r="F100" s="88">
+        <v>2599.256408716236</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9019,8 +9054,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="87">
-        <v>1863.626870505522</v>
+      <c r="F101" s="89">
+        <v>3615.442374882401</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9039,8 +9074,8 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="59">
-        <v>19.05919834792099</v>
+      <c r="F102" s="90">
+        <v>5254.658944831477</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9059,8 +9094,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="59">
-        <v>19.06609679780568</v>
+      <c r="F103" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9079,8 +9114,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="59">
-        <v>26.08118311098249</v>
+      <c r="F104" s="90">
+        <v>5253.927584194422</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -9099,8 +9134,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="59">
-        <v>19.06609679780568</v>
+      <c r="F105" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -9119,8 +9154,8 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="59">
-        <v>6.443652796510138</v>
+      <c r="F106" s="90">
+        <v>5254.658060928985</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -9139,8 +9174,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="59">
-        <v>7.637433976466809</v>
+      <c r="F107" s="90">
+        <v>5251.200340626643</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -9159,8 +9194,8 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="59">
-        <v>9.427313107656204</v>
+      <c r="F108" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9179,8 +9214,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="59">
-        <v>8.72444943243568</v>
+      <c r="F109" s="90">
+        <v>5253.30891996581</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -9199,8 +9234,8 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="59">
-        <v>1.083611559453515</v>
+      <c r="F110" s="90">
+        <v>5253.217608320778</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -9219,8 +9254,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="59">
-        <v>1.659754453429354</v>
+      <c r="F111" s="90">
+        <v>5254.33520328778</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -9239,8 +9274,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="59">
-        <v>2.315702546230825</v>
+      <c r="F112" s="90">
+        <v>5253.634057135427</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -9259,8 +9294,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="59">
-        <v>2.668100007133025</v>
+      <c r="F113" s="90">
+        <v>5254.317633437082</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -9279,8 +9314,8 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="59">
-        <v>0</v>
+      <c r="F114" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -9299,8 +9334,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="59">
-        <v>0</v>
+      <c r="F115" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -9319,8 +9354,8 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="59">
-        <v>0</v>
+      <c r="F116" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -9339,8 +9374,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="59">
-        <v>0.1408701927875116</v>
+      <c r="F117" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -9359,8 +9394,8 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="59">
-        <v>0.06861548980660362</v>
+      <c r="F118" s="90">
+        <v>5254.532167567908</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -9379,8 +9414,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="59">
-        <v>0.1408701927875116</v>
+      <c r="F119" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -9399,8 +9434,8 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="59">
-        <v>0.1408701927875116</v>
+      <c r="F120" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -9419,8 +9454,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="59">
-        <v>0.1408701927875116</v>
+      <c r="F121" s="90">
+        <v>5254.672326360524</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -9439,8 +9474,8 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="88">
-        <v>1167.861062008968</v>
+      <c r="F122" s="91">
+        <v>2381.273593248932</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9459,8 +9494,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="50">
-        <v>1884.419398066373</v>
+      <c r="F123" s="92">
+        <v>3832.21096861236</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -9479,8 +9514,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="89">
-        <v>2397.655810619903</v>
+      <c r="F124" s="93">
+        <v>4865.777262699698</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -9499,8 +9534,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="63">
-        <v>3520.099024319936</v>
+      <c r="F125" s="94">
+        <v>7119.320605000225</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9519,8 +9554,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="60">
-        <v>39.15939450602083</v>
+      <c r="F126" s="63">
+        <v>23578.91448068537</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -9539,8 +9574,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="58">
-        <v>55.46315710563108</v>
+      <c r="F127" s="63">
+        <v>23615.70389965204</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -9559,8 +9594,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="56">
-        <v>77.1686451320561</v>
+      <c r="F128" s="63">
+        <v>23600.98989112295</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9579,8 +9614,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="58">
-        <v>65.8902643256902</v>
+      <c r="F129" s="63">
+        <v>23639.63739126733</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9599,8 +9634,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="59">
-        <v>8.406409354097793</v>
+      <c r="F130" s="63">
+        <v>23615.00185378734</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9619,8 +9654,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="59">
-        <v>13.70072822118465</v>
+      <c r="F131" s="63">
+        <v>23602.46106931721</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9639,8 +9674,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="59">
-        <v>21.24513986599481</v>
+      <c r="F132" s="63">
+        <v>23619.77297051077</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9659,8 +9694,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="59">
-        <v>22.11649413792603</v>
+      <c r="F133" s="63">
+        <v>23621.89113974066</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -9679,8 +9714,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="59">
-        <v>1.345943380631392</v>
+      <c r="F134" s="63">
+        <v>23638.58114996401</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -9699,8 +9734,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="59">
-        <v>2.149998437997628</v>
+      <c r="F135" s="63">
+        <v>23640.46418243904</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -9719,8 +9754,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="59">
-        <v>3.772394230854767</v>
+      <c r="F136" s="63">
+        <v>23635.05738166095</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9739,8 +9774,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="59">
-        <v>5.76762847243575</v>
+      <c r="F137" s="63">
+        <v>23639.72202872111</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -9759,8 +9794,8 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="59">
-        <v>0</v>
+      <c r="F138" s="63">
+        <v>23653.46811738121</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -9779,8 +9814,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="59">
-        <v>0</v>
+      <c r="F139" s="63">
+        <v>23653.46811738121</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -9799,8 +9834,8 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="59">
-        <v>0</v>
+      <c r="F140" s="63">
+        <v>23653.46811738121</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -9819,8 +9854,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="59">
-        <v>0.3597316458122779</v>
+      <c r="F141" s="63">
+        <v>23652.86218633332</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -9839,8 +9874,8 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="59">
-        <v>0.06861548980660362</v>
+      <c r="F142" s="63">
+        <v>23652.17650414513</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -9859,8 +9894,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="59">
-        <v>0.1690300059510678</v>
+      <c r="F143" s="63">
+        <v>23652.41301607941</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -9879,8 +9914,8 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="59">
-        <v>0.2960869391425553</v>
+      <c r="F144" s="63">
+        <v>23652.71228039084</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -9899,8 +9934,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="59">
-        <v>0.6169883173480468</v>
+      <c r="F145" s="63">
+        <v>23653.46811738121</v>
       </c>
     </row>
   </sheetData>
@@ -9949,8 +9984,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="90">
-        <v>503.501562489833</v>
+      <c r="F2" s="95">
+        <v>891.6379243396411</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9969,8 +10004,8 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="91">
-        <v>845.6950492403296</v>
+      <c r="F3" s="96">
+        <v>1497.619539848368</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9989,8 +10024,8 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="92">
-        <v>1190.85372647454</v>
+      <c r="F4" s="97">
+        <v>2108.852134669048</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10010,7 +10045,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="38">
-        <v>1580.247947903324</v>
+        <v>2798.420313221865</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10029,8 +10064,8 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="93">
-        <v>47.2482506442884</v>
+      <c r="F6" s="98">
+        <v>83.67070784214913</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10050,7 +10085,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="9">
-        <v>70.64417240807387</v>
+        <v>125.1019419704355</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10070,7 +10105,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="11">
-        <v>98.00160944064315</v>
+        <v>173.5485212627592</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10089,8 +10124,8 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="94">
-        <v>76.72469055652758</v>
+      <c r="F9" s="99">
+        <v>135.8697746539861</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10110,7 +10145,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8">
-        <v>13.25566515100215</v>
+        <v>23.47411535832032</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10129,8 +10164,8 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="95">
-        <v>22.18514664927616</v>
+      <c r="F11" s="100">
+        <v>39.28710372161073</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10149,8 +10184,8 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="96">
-        <v>33.09024280681102</v>
+      <c r="F12" s="101">
+        <v>58.59865710497272</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10169,8 +10204,8 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="97">
-        <v>30.08805430145042</v>
+      <c r="F13" s="102">
+        <v>53.2821589512056</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10190,7 +10225,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="7">
-        <v>2.117869906045341</v>
+        <v>3.750481165757633</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10210,7 +10245,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="7">
-        <v>4.043180165901165</v>
+        <v>7.159963423009469</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10230,7 +10265,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7">
-        <v>6.901448053761143</v>
+        <v>12.22159626906361</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10250,7 +10285,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7">
-        <v>9.036710091931607</v>
+        <v>16.00287671280401</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10330,7 +10365,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7">
-        <v>0.3503335136736847</v>
+        <v>0.6203965791365842</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10370,7 +10405,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="7">
-        <v>0.07619675984203433</v>
+        <v>0.1349348757747489</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10390,7 +10425,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="7">
-        <v>0.2032536930335218</v>
+        <v>0.3599367201058793</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10410,7 +10445,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="7">
-        <v>0.8676518481602705</v>
+        <v>1.536502268468528</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10429,8 +10464,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="98">
-        <v>178.6171623236598</v>
+      <c r="F26" s="103">
+        <v>316.308523608446</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10450,7 +10485,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="29">
-        <v>369.4352473789946</v>
+        <v>654.2233464420679</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10469,8 +10504,8 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="99">
-        <v>568.2006233794907</v>
+      <c r="F28" s="104">
+        <v>1006.211821733541</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10490,7 +10525,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="22">
-        <v>814.3761799341463</v>
+        <v>1442.157762366012</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10510,7 +10545,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="7">
-        <v>3.582407332148237</v>
+        <v>6.343992701790799</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10529,8 +10564,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="95">
-        <v>22.98277698812812</v>
+      <c r="F31" s="100">
+        <v>40.6996067061246</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10549,8 +10584,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="93">
-        <v>47.52592116952269</v>
+      <c r="F32" s="98">
+        <v>84.16242741010024</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10569,8 +10604,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="97">
-        <v>25.54784743165502</v>
+      <c r="F33" s="102">
+        <v>45.24202376386208</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10930,7 +10965,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="10">
-        <v>110.0268357839718</v>
+        <v>194.8436842875938</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -10949,8 +10984,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="100">
-        <v>276.1904093149447</v>
+      <c r="F52" s="105">
+        <v>489.0984688633728</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -10970,7 +11005,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="29">
-        <v>374.1210230812806</v>
+        <v>662.5212657185186</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -11389,8 +11424,8 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="90">
-        <v>502.3271453346225</v>
+      <c r="F74" s="95">
+        <v>889.5581793048835</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11409,8 +11444,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="101">
-        <v>844.5206320851189</v>
+      <c r="F75" s="106">
+        <v>1495.539794813611</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11429,8 +11464,8 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="92">
-        <v>1189.67930931933</v>
+      <c r="F76" s="97">
+        <v>2106.772389634291</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11450,7 +11485,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="38">
-        <v>1579.073530748113</v>
+        <v>2796.340568187108</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -11469,8 +11504,8 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="96">
-        <v>33.93711204676197</v>
+      <c r="F78" s="101">
+        <v>60.09835598885094</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -11489,8 +11524,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="93">
-        <v>48.47983473899561</v>
+      <c r="F79" s="98">
+        <v>85.85168833488918</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -11510,7 +11545,7 @@
         <v>13</v>
       </c>
       <c r="F80" s="9">
-        <v>71.38235323815853</v>
+        <v>126.4091673539462</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11529,8 +11564,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="102">
-        <v>56.07098511578626</v>
+      <c r="F81" s="107">
+        <v>99.29466065028961</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -11550,7 +11585,7 @@
         <v>11</v>
       </c>
       <c r="F82" s="7">
-        <v>7.289786621461033</v>
+        <v>12.90929501766869</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -11570,7 +11605,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="7">
-        <v>11.27576089232673</v>
+        <v>19.96795399733703</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -11590,7 +11625,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="8">
-        <v>18.01696137403346</v>
+        <v>31.90577197617944</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11609,8 +11644,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="95">
-        <v>18.56419514459801</v>
+      <c r="F85" s="100">
+        <v>32.87485413930497</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -11630,7 +11665,7 @@
         <v>11</v>
       </c>
       <c r="F86" s="7">
-        <v>1.179335280021038</v>
+        <v>2.088454415073838</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -11650,7 +11685,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="7">
-        <v>1.921021783854771</v>
+        <v>3.401887905764125</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -11670,7 +11705,7 @@
         <v>13</v>
       </c>
       <c r="F88" s="7">
-        <v>3.211848975469301</v>
+        <v>5.687780470070891</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11690,7 +11725,7 @@
         <v>17</v>
       </c>
       <c r="F89" s="7">
-        <v>5.540454090721285</v>
+        <v>9.811447179867596</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -11770,7 +11805,7 @@
         <v>17</v>
       </c>
       <c r="F93" s="7">
-        <v>0.3597316458122779</v>
+        <v>0.6370394888254576</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -11790,7 +11825,7 @@
         <v>11</v>
       </c>
       <c r="F94" s="7">
-        <v>0.06861548980660362</v>
+        <v>0.1215094003009042</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11810,7 +11845,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="7">
-        <v>0.1690300059510678</v>
+        <v>0.2993308757812854</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11830,7 +11865,7 @@
         <v>13</v>
       </c>
       <c r="F96" s="7">
-        <v>0.2960869391425553</v>
+        <v>0.5243327201124158</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -11850,7 +11885,7 @@
         <v>17</v>
       </c>
       <c r="F97" s="7">
-        <v>0.9604850942693041</v>
+        <v>1.700898268475065</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -11870,7 +11905,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="13">
-        <v>126.9246421873744</v>
+        <v>224.7675736056675</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -11889,8 +11924,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="103">
-        <v>278.7903310606651</v>
+      <c r="F99" s="108">
+        <v>493.7026031928395</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -11909,8 +11944,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="104">
-        <v>454.6957044911437</v>
+      <c r="F100" s="109">
+        <v>805.2088898270712</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11929,8 +11964,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="105">
-        <v>576.6409515258404</v>
+      <c r="F101" s="110">
+        <v>1021.158581048332</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -11950,7 +11985,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="8">
-        <v>16.88160377567795</v>
+        <v>29.8951965027391</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -11969,8 +12004,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="96">
-        <v>31.42346746461299</v>
+      <c r="F103" s="101">
+        <v>55.64700766200211</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -11989,8 +12024,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="93">
-        <v>48.85653547866163</v>
+      <c r="F104" s="98">
+        <v>86.51877795413894</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -12009,8 +12044,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="106">
-        <v>39.01461784140365</v>
+      <c r="F105" s="111">
+        <v>69.08997997740256</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -12030,7 +12065,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="7">
-        <v>1.310965925054893</v>
+        <v>2.321555727683656</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -12050,7 +12085,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="7">
-        <v>4.569971386801662</v>
+        <v>8.09284440244744</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -12070,7 +12105,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="7">
-        <v>9.339542417081486</v>
+        <v>16.53915466293458</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -12090,7 +12125,7 @@
         <v>17</v>
       </c>
       <c r="F109" s="7">
-        <v>10.77139018310407</v>
+        <v>19.07477692347624</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -12110,7 +12145,7 @@
         <v>11</v>
       </c>
       <c r="F110" s="7">
-        <v>0.1514670820378915</v>
+        <v>0.2682291470282672</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -12130,7 +12165,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="7">
-        <v>0.3201162449533483</v>
+        <v>0.5668855977053042</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -12150,7 +12185,7 @@
         <v>13</v>
       </c>
       <c r="F112" s="7">
-        <v>1.039802686574531</v>
+        <v>1.841359745926942</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -12170,7 +12205,7 @@
         <v>17</v>
       </c>
       <c r="F113" s="7">
-        <v>3.016010340924316</v>
+        <v>5.340974885699489</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -12250,7 +12285,7 @@
         <v>17</v>
       </c>
       <c r="F117" s="7">
-        <v>0.2102591113962535</v>
+        <v>0.372342434712183</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -12290,7 +12325,7 @@
         <v>16</v>
       </c>
       <c r="F119" s="7">
-        <v>0.01955747153504342</v>
+        <v>0.03463382166801091</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -12310,7 +12345,7 @@
         <v>13</v>
       </c>
       <c r="F120" s="7">
-        <v>0.1466144047265309</v>
+        <v>0.2596356659991413</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -12330,7 +12365,7 @@
         <v>17</v>
       </c>
       <c r="F121" s="7">
-        <v>0.8110125598532796</v>
+        <v>1.43620121436179</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -12369,8 +12404,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="97">
-        <v>26.05883106916713</v>
+      <c r="F123" s="102">
+        <v>46.14691150178646</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -12390,7 +12425,7 @@
         <v>13</v>
       </c>
       <c r="F124" s="13">
-        <v>124.4032471157535</v>
+        <v>220.3025001370114</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12409,8 +12444,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="93">
-        <v>47.55724682394026</v>
+      <c r="F125" s="98">
+        <v>84.21790120316125</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12470,7 +12505,7 @@
         <v>13</v>
       </c>
       <c r="F128" s="7">
-        <v>8.229852231153483</v>
+        <v>14.57403294782393</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -12490,7 +12525,7 @@
         <v>17</v>
       </c>
       <c r="F129" s="7">
-        <v>0.5765899859278683</v>
+        <v>1.021068327386032</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -12570,7 +12605,7 @@
         <v>17</v>
       </c>
       <c r="F133" s="7">
-        <v>0.5764797621342508</v>
+        <v>1.020873134914199</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -12650,7 +12685,7 @@
         <v>17</v>
       </c>
       <c r="F137" s="7">
-        <v>0.5678612728592243</v>
+        <v>1.005610874654017</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12810,7 +12845,7 @@
         <v>17</v>
       </c>
       <c r="F145" s="7">
-        <v>0.335537146211912</v>
+        <v>0.5941940738133797</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="111">
+  <fills count="110">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,12 +468,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE4FEE4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF028102"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,7 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2E992E"/>
+        <fgColor rgb="FF2D992D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +618,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF55AF55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF54AE54"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -684,7 +684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6A6A"/>
+        <fgColor rgb="FFFF6B6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,12 +739,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBEBE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6B6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -869,14 +863,14 @@
     <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -920,7 +914,6 @@
     <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>38466.83838074606</v>
+        <v>38465.27478711109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1275,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="4">
-        <v>39016.02447409456</v>
+        <v>39014.46088045958</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1295,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="5">
-        <v>39569.18819264948</v>
+        <v>39567.62459901452</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1315,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="6">
-        <v>40245.38816861642</v>
+        <v>40243.82457498145</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1335,7 +1328,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="7">
-        <v>37730.99709115538</v>
+        <v>37730.95593699767</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1355,7 +1348,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7">
-        <v>37762.77907556015</v>
+        <v>37762.73792140245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1375,7 +1368,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="8">
-        <v>37799.93149266503</v>
+        <v>37799.89033850733</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1395,7 +1388,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="7">
-        <v>37770.90343925087</v>
+        <v>37770.86228509317</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1415,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7">
-        <v>37684.81901846525</v>
+        <v>37684.73314062999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1435,7 +1428,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7">
-        <v>37696.8463231445</v>
+        <v>37696.76044530924</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1455,7 +1448,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="7">
-        <v>37711.53386597138</v>
+        <v>37711.44798813612</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1475,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="7">
-        <v>37707.46379757278</v>
+        <v>37707.37791973752</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1495,7 +1488,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="7">
-        <v>37669.8426234517</v>
+        <v>37669.82332127394</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1515,7 +1508,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="7">
-        <v>37672.42634054396</v>
+        <v>37672.37795973063</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1535,7 +1528,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7">
-        <v>37676.26279065417</v>
+        <v>37676.14093637807</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1555,7 +1548,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7">
-        <v>37679.1264945474</v>
+        <v>37679.07811373407</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1635,7 +1628,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7">
-        <v>37667.47153277695</v>
+        <v>37667.35120952562</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1735,7 +1728,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="9">
-        <v>38220.86882253804</v>
+        <v>38220.06094604808</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1755,7 +1748,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="10">
-        <v>38618.24672364227</v>
+        <v>38617.42402687058</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1775,7 +1768,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="4">
-        <v>39021.39408143059</v>
+        <v>39020.55188893808</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1795,7 +1788,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="5">
-        <v>39559.1764287118</v>
+        <v>39558.28047158827</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1815,7 +1808,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="11">
-        <v>38507.5126016381</v>
+        <v>38507.471510018</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1835,7 +1828,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="12">
-        <v>38536.49624959972</v>
+        <v>38536.45516180197</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1855,7 +1848,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="12">
-        <v>38572.01405788543</v>
+        <v>38571.97291141397</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1875,7 +1868,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="12">
-        <v>38543.36395181112</v>
+        <v>38543.32280533967</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1895,7 +1888,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="11">
-        <v>38497.47784302043</v>
+        <v>38497.4501283091</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1915,7 +1908,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="11">
-        <v>38501.65332961389</v>
+        <v>38501.62561490256</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1935,7 +1928,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="11">
-        <v>38506.76411821543</v>
+        <v>38506.7364035041</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1955,7 +1948,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="11">
-        <v>38506.18888679553</v>
+        <v>38506.1611720842</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1975,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="11">
-        <v>38504.01082036334</v>
+        <v>38503.9950241257</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1995,7 +1988,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="11">
-        <v>38504.94258463182</v>
+        <v>38504.92678839416</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2015,7 +2008,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="11">
-        <v>38502.69291321689</v>
+        <v>38502.65309035227</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2035,7 +2028,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="11">
-        <v>38503.99116043323</v>
+        <v>38503.95133756861</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2115,7 +2108,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="11">
-        <v>38510.45582504639</v>
+        <v>38513.92842738284</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2215,7 +2208,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="13">
-        <v>38748.72302609441</v>
+        <v>38747.1458241467</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2235,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="14">
-        <v>39344.37066689577</v>
+        <v>39342.87160938028</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2255,7 +2248,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="15">
-        <v>39889.51858655626</v>
+        <v>39888.04134533925</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2275,7 +2268,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="16">
-        <v>40638.2274232596</v>
+        <v>40636.79097634733</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2295,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="17">
-        <v>44466.85107263732</v>
+        <v>44466.82391280789</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2315,7 +2308,7 @@
         <v>16</v>
       </c>
       <c r="F55" s="18">
-        <v>44490.74514540662</v>
+        <v>44490.7179855772</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2335,7 +2328,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="18">
-        <v>44518.87612696919</v>
+        <v>44518.84896713976</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2355,7 +2348,7 @@
         <v>17</v>
       </c>
       <c r="F57" s="18">
-        <v>44501.42453776985</v>
+        <v>44501.39737794043</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2375,7 +2368,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="18">
-        <v>44502.602783503</v>
+        <v>44502.54340055366</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2395,7 +2388,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="18">
-        <v>44511.84304376446</v>
+        <v>44511.78366081511</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2415,7 +2408,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="18">
-        <v>44523.16188609542</v>
+        <v>44523.10250314605</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2435,7 +2428,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="18">
-        <v>44522.2121149448</v>
+        <v>44522.15273199545</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2455,7 +2448,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="19">
-        <v>44589.90419191646</v>
+        <v>44589.8691446212</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2475,7 +2468,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="20">
-        <v>44592.00731591836</v>
+        <v>44591.9722686231</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2495,7 +2488,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="19">
-        <v>44562.9288488478</v>
+        <v>44562.84107027439</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2515,7 +2508,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="19">
-        <v>44565.970637422</v>
+        <v>44565.88285884861</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2595,7 +2588,7 @@
         <v>17</v>
       </c>
       <c r="F69" s="22">
-        <v>44657.14791980329</v>
+        <v>44688.82472181291</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2695,7 +2688,7 @@
         <v>11</v>
       </c>
       <c r="F74" s="23">
-        <v>41207.60473052369</v>
+        <v>41205.88741284297</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2715,7 +2708,7 @@
         <v>16</v>
       </c>
       <c r="F75" s="24">
-        <v>41756.79082387219</v>
+        <v>41755.07350619146</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2735,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="25">
-        <v>42309.95454242711</v>
+        <v>42308.23722474639</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2755,7 +2748,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="26">
-        <v>42986.15451839405</v>
+        <v>42984.43720071333</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2775,7 +2768,7 @@
         <v>11</v>
       </c>
       <c r="F78" s="27">
-        <v>40454.90781617587</v>
+        <v>40454.88963445497</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2795,7 +2788,7 @@
         <v>16</v>
       </c>
       <c r="F79" s="28">
-        <v>40474.56082464437</v>
+        <v>40474.54264292348</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2815,7 +2808,7 @@
         <v>13</v>
       </c>
       <c r="F80" s="28">
-        <v>40505.60995645622</v>
+        <v>40505.48172590999</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2835,7 +2828,7 @@
         <v>17</v>
       </c>
       <c r="F81" s="28">
-        <v>40484.75477039215</v>
+        <v>40484.73658867125</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2855,7 +2848,7 @@
         <v>11</v>
       </c>
       <c r="F82" s="27">
-        <v>40418.88316793256</v>
+        <v>40418.86709466899</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2875,7 +2868,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="27">
-        <v>40424.23798751682</v>
+        <v>40424.17426154265</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2895,7 +2888,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="27">
-        <v>40433.29975206833</v>
+        <v>40433.23602609416</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2915,7 +2908,7 @@
         <v>17</v>
       </c>
       <c r="F85" s="27">
-        <v>40434.02525596179</v>
+        <v>40433.96152998762</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2935,7 +2928,7 @@
         <v>11</v>
       </c>
       <c r="F86" s="27">
-        <v>40410.6788216164</v>
+        <v>40410.66945720912</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2955,7 +2948,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="27">
-        <v>40411.67375059154</v>
+        <v>40411.66438618426</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2975,7 +2968,7 @@
         <v>13</v>
       </c>
       <c r="F88" s="27">
-        <v>40413.4054796498</v>
+        <v>40413.37642507819</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2995,7 +2988,7 @@
         <v>17</v>
       </c>
       <c r="F89" s="27">
-        <v>40416.52922482019</v>
+        <v>40416.50017024858</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3175,7 +3168,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="29">
-        <v>40939.8918483761</v>
+        <v>40938.89661601398</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3195,7 +3188,7 @@
         <v>16</v>
       </c>
       <c r="F99" s="30">
-        <v>41321.02545101201</v>
+        <v>41320.02067447848</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3215,7 +3208,7 @@
         <v>13</v>
       </c>
       <c r="F100" s="31">
-        <v>41713.44765744992</v>
+        <v>41712.42424762417</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3235,7 +3228,7 @@
         <v>17</v>
       </c>
       <c r="F101" s="32">
-        <v>42180.11791177165</v>
+        <v>42179.02396933924</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3255,7 +3248,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="24">
-        <v>41757.35005607025</v>
+        <v>41757.3318743456</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3275,7 +3268,7 @@
         <v>16</v>
       </c>
       <c r="F103" s="24">
-        <v>41777.00493369412</v>
+        <v>41776.98675197322</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3295,7 +3288,7 @@
         <v>13</v>
       </c>
       <c r="F104" s="33">
-        <v>41800.39402206728</v>
+        <v>41800.34093382565</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3315,7 +3308,7 @@
         <v>17</v>
       </c>
       <c r="F105" s="24">
-        <v>41787.19887944189</v>
+        <v>41787.180697721</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3335,7 +3328,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="31">
-        <v>41736.3140430138</v>
+        <v>41736.31004208286</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3355,7 +3348,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="31">
-        <v>41739.91550631755</v>
+        <v>41739.88405484702</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3375,7 +3368,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="24">
-        <v>41747.10014731561</v>
+        <v>41747.03642134144</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3395,7 +3388,7 @@
         <v>17</v>
       </c>
       <c r="F109" s="24">
-        <v>41748.71140733389</v>
+        <v>41748.67995586335</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3415,7 +3408,7 @@
         <v>11</v>
       </c>
       <c r="F110" s="31">
-        <v>41734.43517062966</v>
+        <v>41734.43213710619</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3435,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="31">
-        <v>41734.91175129175</v>
+        <v>41734.90676953557</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3455,7 +3448,7 @@
         <v>13</v>
       </c>
       <c r="F112" s="31">
-        <v>41735.72007032299</v>
+        <v>41735.70432949973</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3475,7 +3468,7 @@
         <v>17</v>
       </c>
       <c r="F113" s="31">
-        <v>41738.52407213709</v>
+        <v>41738.50833131382</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3655,7 +3648,7 @@
         <v>11</v>
       </c>
       <c r="F122" s="34">
-        <v>41453.43786320782</v>
+        <v>41451.4717268387</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3675,7 +3668,7 @@
         <v>16</v>
       </c>
       <c r="F123" s="35">
-        <v>42133.9611402068</v>
+        <v>42132.10293156586</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3695,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="F124" s="36">
-        <v>42742.5208180529</v>
+        <v>42740.70150034979</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3715,7 +3708,7 @@
         <v>17</v>
       </c>
       <c r="F125" s="37">
-        <v>43649.28565168451</v>
+        <v>43647.49738586253</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3735,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="F126" s="38">
-        <v>51378.11655002379</v>
+        <v>51378.10459256962</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3755,7 +3748,7 @@
         <v>16</v>
       </c>
       <c r="F127" s="38">
-        <v>51392.73233370257</v>
+        <v>51392.7203762484</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3775,7 +3768,7 @@
         <v>13</v>
       </c>
       <c r="F128" s="38">
-        <v>51397.89590622543</v>
+        <v>51397.80712297671</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3795,7 +3788,7 @@
         <v>17</v>
       </c>
       <c r="F129" s="38">
-        <v>51403.02130923652</v>
+        <v>51403.00941325721</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3815,7 +3808,7 @@
         <v>11</v>
       </c>
       <c r="F130" s="38">
-        <v>51392.46180800905</v>
+        <v>51392.45077803753</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3835,7 +3828,7 @@
         <v>16</v>
       </c>
       <c r="F131" s="38">
-        <v>51387.51428061179</v>
+        <v>51387.47096802077</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3855,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="F132" s="38">
-        <v>51394.38081371925</v>
+        <v>51394.33750112823</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3875,7 +3868,7 @@
         <v>17</v>
       </c>
       <c r="F133" s="38">
-        <v>51396.01372867237</v>
+        <v>51395.97041608134</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3895,7 +3888,7 @@
         <v>11</v>
       </c>
       <c r="F134" s="38">
-        <v>51401.79833223075</v>
+        <v>51401.79168828301</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3915,7 +3908,7 @@
         <v>16</v>
       </c>
       <c r="F135" s="38">
-        <v>51402.55276678043</v>
+        <v>51402.54612283271</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3935,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="F136" s="38">
-        <v>51400.40791876754</v>
+        <v>51400.38741980675</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3955,7 +3948,7 @@
         <v>17</v>
       </c>
       <c r="F137" s="38">
-        <v>51403.03628714607</v>
+        <v>51403.0157881853</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4165,7 +4158,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="39">
-        <v>7762.230904495669</v>
+        <v>7762.187402309328</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4185,7 +4178,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="40">
-        <v>7819.026426655899</v>
+        <v>7818.982924469557</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4205,7 +4198,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="41">
-        <v>7877.095302921653</v>
+        <v>7877.051800735312</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4225,7 +4218,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="42">
-        <v>7890.46350550753</v>
+        <v>7890.420003321188</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4245,7 +4238,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="43">
-        <v>7690.104977588864</v>
+        <v>7690.092865592277</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4265,7 +4258,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="43">
-        <v>7699.754227312374</v>
+        <v>7699.742115315785</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4285,7 +4278,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="44">
-        <v>7711.048389499818</v>
+        <v>7711.036277503229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4305,7 +4298,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="43">
-        <v>7702.397696305205</v>
+        <v>7702.385584308618</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4325,7 +4318,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="43">
-        <v>7676.086457795165</v>
+        <v>7676.059647992612</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4345,7 +4338,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="43">
-        <v>7679.872141479203</v>
+        <v>7679.845331676649</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4365,7 +4358,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="43">
-        <v>7684.496152035683</v>
+        <v>7684.469342233129</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4385,7 +4378,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="43">
-        <v>7683.249722280518</v>
+        <v>7683.222912477964</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4405,7 +4398,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="43">
-        <v>7671.339218616151</v>
+        <v>7671.333045060452</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4425,7 +4418,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="43">
-        <v>7672.164983781145</v>
+        <v>7672.149534262048</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4445,7 +4438,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="43">
-        <v>7673.390166516975</v>
+        <v>7673.351379314943</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4465,7 +4458,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="43">
-        <v>7674.307743067507</v>
+        <v>7674.29229354841</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4545,7 +4538,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="43">
-        <v>7670.580224704273</v>
+        <v>7670.541781585972</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4645,7 +4638,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="45">
-        <v>7432.871061972496</v>
+        <v>7433.461940002579</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4665,7 +4658,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="46">
-        <v>7373.407983701895</v>
+        <v>7373.961576532868</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4685,7 +4678,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="47">
-        <v>7322.24910120504</v>
+        <v>7322.759082200902</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4705,7 +4698,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="48">
-        <v>7220.412694556306</v>
+        <v>7220.820891655325</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4725,7 +4718,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="49">
-        <v>6836.262751965781</v>
+        <v>6836.250717622642</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4745,7 +4738,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="50">
-        <v>6841.634718008491</v>
+        <v>6841.622679708142</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4765,7 +4758,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="50">
-        <v>6849.579730426767</v>
+        <v>6849.567629135519</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4785,7 +4778,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="50">
-        <v>6839.309432854832</v>
+        <v>6839.297331563585</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4805,7 +4798,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="50">
-        <v>6839.953517881658</v>
+        <v>6839.98123259299</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4825,7 +4818,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="49">
-        <v>6835.778031288206</v>
+        <v>6835.805745999537</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4845,7 +4838,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="49">
-        <v>6830.667242686658</v>
+        <v>6830.694957397989</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4865,7 +4858,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="49">
-        <v>6831.242474106565</v>
+        <v>6831.270188817896</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4885,7 +4878,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="49">
-        <v>6833.420540538747</v>
+        <v>6833.436336776395</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4905,7 +4898,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="49">
-        <v>6832.488776270274</v>
+        <v>6832.504572507923</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4925,7 +4918,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="49">
-        <v>6834.738447685204</v>
+        <v>6834.778270549823</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4945,7 +4938,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="49">
-        <v>6833.440200468862</v>
+        <v>6833.480023333482</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -5025,7 +5018,7 @@
         <v>17</v>
       </c>
       <c r="F45" s="49">
-        <v>6826.975535855702</v>
+        <v>6823.502933519252</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5125,7 +5118,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="51">
-        <v>6588.708334807691</v>
+        <v>6590.285536755401</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5145,7 +5138,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="52">
-        <v>6187.904378293919</v>
+        <v>6189.270993553476</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5165,7 +5158,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="53">
-        <v>5937.011243209198</v>
+        <v>5938.315755350531</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5185,7 +5178,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="54">
-        <v>5361.725203361011</v>
+        <v>5362.894857524309</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5205,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="55">
-        <v>870.5802882647909</v>
+        <v>870.6074480942096</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5225,7 +5218,7 @@
         <v>16</v>
       </c>
       <c r="F55" s="56">
-        <v>846.6862154954856</v>
+        <v>846.7133753249044</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5245,7 +5238,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="56">
-        <v>818.5552339329178</v>
+        <v>818.582393762337</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5265,7 +5258,7 @@
         <v>17</v>
       </c>
       <c r="F57" s="56">
-        <v>836.0068231322499</v>
+        <v>836.0339829616685</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5285,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="56">
-        <v>834.828577399082</v>
+        <v>834.8879603484418</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5305,7 +5298,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="56">
-        <v>825.5883171376208</v>
+        <v>825.6477000869809</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5325,7 +5318,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="56">
-        <v>814.269474806686</v>
+        <v>814.3288577560461</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5345,7 +5338,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="56">
-        <v>815.2192459572987</v>
+        <v>815.2786289066586</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5365,7 +5358,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="57">
-        <v>747.5271689856309</v>
+        <v>747.562216280891</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5385,7 +5378,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="57">
-        <v>745.4240449837337</v>
+        <v>745.4590922789937</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5405,7 +5398,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="58">
-        <v>774.5025120542956</v>
+        <v>774.5902906276995</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5425,7 +5418,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="58">
-        <v>771.4607234800824</v>
+        <v>771.5485020534869</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5504,8 +5497,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="60">
-        <v>680.2834410988144</v>
+      <c r="F69" s="59">
+        <v>648.6066390891856</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5604,8 +5597,8 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="61">
-        <v>12148.77695620095</v>
+      <c r="F74" s="60">
+        <v>12148.68467526158</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5624,8 +5617,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="62">
-        <v>12205.57247836118</v>
+      <c r="F75" s="61">
+        <v>12205.48019742181</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5644,8 +5637,8 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="63">
-        <v>12263.64135462694</v>
+      <c r="F76" s="62">
+        <v>12263.54907368757</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5664,8 +5657,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="63">
-        <v>12277.00955721282</v>
+      <c r="F77" s="62">
+        <v>12276.91727627344</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5684,8 +5677,8 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="64">
-        <v>12072.01404723274</v>
+      <c r="F78" s="63">
+        <v>12072.00850882874</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5704,8 +5697,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="64">
-        <v>12078.11437111027</v>
+      <c r="F79" s="63">
+        <v>12078.10883270627</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5724,8 +5717,8 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="64">
-        <v>12087.62271831749</v>
+      <c r="F80" s="63">
+        <v>12087.58497974073</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5744,8 +5737,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="64">
-        <v>12081.36339767789</v>
+      <c r="F81" s="63">
+        <v>12081.3578592739</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5764,8 +5757,8 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="64">
-        <v>12060.84963450486</v>
+      <c r="F82" s="63">
+        <v>12060.84452287378</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5784,8 +5777,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="64">
-        <v>12062.55347390027</v>
+      <c r="F83" s="63">
+        <v>12062.53334661619</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5804,8 +5797,8 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="64">
-        <v>12065.4295273276</v>
+      <c r="F84" s="63">
+        <v>12065.40940004352</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5824,8 +5817,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="64">
-        <v>12065.67310559727</v>
+      <c r="F85" s="63">
+        <v>12065.65297831319</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5844,8 +5837,8 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="64">
-        <v>12058.23314021843</v>
+      <c r="F86" s="63">
+        <v>12058.23014303757</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5864,8 +5857,8 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="64">
-        <v>12058.55164473398</v>
+      <c r="F87" s="63">
+        <v>12058.54864755312</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5884,8 +5877,8 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="64">
-        <v>12059.10580824002</v>
+      <c r="F88" s="63">
+        <v>12059.09651642851</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5904,8 +5897,8 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="64">
-        <v>12060.10572977944</v>
+      <c r="F89" s="63">
+        <v>12060.09643796792</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5924,7 +5917,7 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="64">
+      <c r="F90" s="63">
         <v>12057.72662512459</v>
       </c>
     </row>
@@ -5944,7 +5937,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="64">
+      <c r="F91" s="63">
         <v>12057.72662512459</v>
       </c>
     </row>
@@ -5964,7 +5957,7 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="64">
+      <c r="F92" s="63">
         <v>12057.72662512459</v>
       </c>
     </row>
@@ -5984,7 +5977,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="64">
+      <c r="F93" s="63">
         <v>12057.88115032625</v>
       </c>
     </row>
@@ -6004,7 +5997,7 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="64">
+      <c r="F94" s="63">
         <v>12057.75609937997</v>
       </c>
     </row>
@@ -6024,7 +6017,7 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="64">
+      <c r="F95" s="63">
         <v>12057.79923312575</v>
       </c>
     </row>
@@ -6044,7 +6037,7 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="63">
         <v>12057.85381130493</v>
       </c>
     </row>
@@ -6064,7 +6057,7 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="64">
+      <c r="F97" s="63">
         <v>12058.1392081003</v>
       </c>
     </row>
@@ -6084,8 +6077,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="65">
-        <v>11751.69923264933</v>
+      <c r="F98" s="64">
+        <v>11752.39785298662</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6104,8 +6097,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="66">
-        <v>11639.50065960059</v>
+      <c r="F99" s="65">
+        <v>11640.1433753834</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6124,8 +6117,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="67">
-        <v>11558.58473979691</v>
+      <c r="F100" s="66">
+        <v>11559.17384620724</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6144,8 +6137,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="68">
-        <v>11307.86417669644</v>
+      <c r="F101" s="67">
+        <v>11308.27319372128</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6164,8 +6157,8 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="69">
-        <v>10739.36864785224</v>
+      <c r="F102" s="68">
+        <v>10739.36310945461</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6184,8 +6177,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="69">
-        <v>10745.46558138765</v>
+      <c r="F103" s="68">
+        <v>10745.46004298365</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6204,8 +6197,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="69">
-        <v>10752.94826330661</v>
+      <c r="F104" s="68">
+        <v>10752.97763142335</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6224,8 +6217,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="69">
-        <v>10748.71460795527</v>
+      <c r="F105" s="68">
+        <v>10748.70906955127</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6244,8 +6237,8 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="69">
-        <v>10732.83102013364</v>
+      <c r="F106" s="68">
+        <v>10732.82974394128</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6264,8 +6257,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="69">
-        <v>10735.00084550465</v>
+      <c r="F107" s="68">
+        <v>10735.01111208054</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6284,8 +6277,8 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="69">
-        <v>10736.26251476708</v>
+      <c r="F108" s="68">
+        <v>10736.242387483</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6304,8 +6297,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="69">
-        <v>10737.18687700934</v>
+      <c r="F109" s="68">
+        <v>10737.19714358523</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6324,8 +6317,8 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="69">
-        <v>10732.65656593712</v>
+      <c r="F110" s="68">
+        <v>10732.65959946059</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6344,8 +6337,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="69">
-        <v>10732.47864172571</v>
+      <c r="F111" s="68">
+        <v>10732.47981876086</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6364,8 +6357,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="69">
-        <v>10732.94479684269</v>
+      <c r="F112" s="68">
+        <v>10732.94817607782</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6384,8 +6377,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="69">
-        <v>10733.64041016837</v>
+      <c r="F113" s="68">
+        <v>10733.64378940349</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6404,7 +6397,7 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="69">
+      <c r="F114" s="68">
         <v>10732.2656132467</v>
       </c>
     </row>
@@ -6424,7 +6417,7 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="69">
+      <c r="F115" s="68">
         <v>10732.2656132467</v>
       </c>
     </row>
@@ -6444,7 +6437,7 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="69">
+      <c r="F116" s="68">
         <v>10732.2656132467</v>
       </c>
     </row>
@@ -6464,7 +6457,7 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="69">
+      <c r="F117" s="68">
         <v>10732.35593149356</v>
       </c>
     </row>
@@ -6484,7 +6477,7 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="69">
+      <c r="F118" s="68">
         <v>10732.29701191123</v>
       </c>
     </row>
@@ -6504,7 +6497,7 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="69">
+      <c r="F119" s="68">
         <v>10732.27401429305</v>
       </c>
     </row>
@@ -6524,7 +6517,7 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="69">
+      <c r="F120" s="68">
         <v>10732.32859247224</v>
       </c>
     </row>
@@ -6544,7 +6537,7 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="69">
+      <c r="F121" s="68">
         <v>10732.61398926761</v>
       </c>
     </row>
@@ -6564,8 +6557,8 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="70">
-        <v>11013.38564421196</v>
+      <c r="F122" s="69">
+        <v>11015.35178058107</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6584,8 +6577,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="71">
-        <v>10379.00927871477</v>
+      <c r="F123" s="70">
+        <v>10380.69420387899</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6604,8 +6597,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="72">
-        <v>9944.605189503889</v>
+      <c r="F124" s="71">
+        <v>9946.187506781527</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6624,8 +6617,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="73">
-        <v>8901.755756938424</v>
+      <c r="F125" s="72">
+        <v>8903.250902653697</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6644,8 +6637,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="74">
-        <v>1088.706957395976</v>
+      <c r="F126" s="73">
+        <v>1088.718914850149</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6664,8 +6657,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="74">
-        <v>1074.091173717198</v>
+      <c r="F127" s="73">
+        <v>1074.103131171371</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6684,8 +6677,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="74">
-        <v>1083.501634142172</v>
+      <c r="F128" s="73">
+        <v>1083.566746473921</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6704,8 +6697,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="74">
-        <v>1064.823266510644</v>
+      <c r="F129" s="73">
+        <v>1064.83516248994</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6724,8 +6717,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="74">
-        <v>1074.361699410728</v>
+      <c r="F130" s="73">
+        <v>1074.372729382242</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6744,8 +6737,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="74">
-        <v>1079.309226807976</v>
+      <c r="F131" s="73">
+        <v>1079.352539398994</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6764,8 +6757,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="74">
-        <v>1072.442693700529</v>
+      <c r="F132" s="73">
+        <v>1072.486006291548</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6784,8 +6777,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="74">
-        <v>1071.830651882318</v>
+      <c r="F133" s="73">
+        <v>1071.873964473336</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6804,8 +6797,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="74">
-        <v>1065.025175189018</v>
+      <c r="F134" s="73">
+        <v>1065.031819136754</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6824,8 +6817,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="74">
-        <v>1064.270740639324</v>
+      <c r="F135" s="73">
+        <v>1064.277384587059</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6844,8 +6837,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="74">
-        <v>1066.415588652227</v>
+      <c r="F136" s="73">
+        <v>1066.436087613017</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6864,8 +6857,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="74">
-        <v>1064.792831148335</v>
+      <c r="F137" s="73">
+        <v>1064.813330109125</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6884,7 +6877,7 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="74">
+      <c r="F138" s="73">
         <v>1059.060913223509</v>
       </c>
     </row>
@@ -6904,7 +6897,7 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="74">
+      <c r="F139" s="73">
         <v>1059.060913223509</v>
       </c>
     </row>
@@ -6924,7 +6917,7 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="74">
+      <c r="F140" s="73">
         <v>1059.060913223509</v>
       </c>
     </row>
@@ -6944,7 +6937,7 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="74">
+      <c r="F141" s="73">
         <v>1059.304359890403</v>
       </c>
     </row>
@@ -6964,7 +6957,7 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="74">
+      <c r="F142" s="73">
         <v>1059.57984840324</v>
       </c>
     </row>
@@ -6984,7 +6977,7 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="74">
+      <c r="F143" s="73">
         <v>1059.484824320415</v>
       </c>
     </row>
@@ -7004,7 +6997,7 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="74">
+      <c r="F144" s="73">
         <v>1059.364588033805</v>
       </c>
     </row>
@@ -7024,7 +7017,7 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="74">
+      <c r="F145" s="73">
         <v>1059.205045511529</v>
       </c>
     </row>
@@ -7554,8 +7547,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="75">
-        <v>1192.566742520837</v>
+      <c r="F26" s="74">
+        <v>1190.152650121769</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7574,8 +7567,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="76">
-        <v>1630.643563649013</v>
+      <c r="F27" s="75">
+        <v>1628.371702917464</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7594,8 +7587,8 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="77">
-        <v>2042.330633151393</v>
+      <c r="F28" s="76">
+        <v>2040.226496212629</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7614,8 +7607,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="78">
-        <v>2482.267299117108</v>
+      <c r="F29" s="77">
+        <v>2480.564110501467</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7634,8 +7627,8 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="79">
-        <v>3254.461263313218</v>
+      <c r="F30" s="78">
+        <v>3254.461085421613</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7654,8 +7647,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="79">
-        <v>3265.814139372522</v>
+      <c r="F31" s="78">
+        <v>3265.813961480916</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7674,8 +7667,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="79">
-        <v>3275.25079592668</v>
+      <c r="F32" s="78">
+        <v>3275.250768263941</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7694,8 +7687,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="79">
-        <v>3281.045971137885</v>
+      <c r="F33" s="78">
+        <v>3281.045943475146</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7714,8 +7707,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="80">
-        <v>3231.416386024011</v>
+      <c r="F34" s="79">
+        <v>3231.292671829926</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7734,8 +7727,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="79">
-        <v>3250.055113761306</v>
+      <c r="F35" s="78">
+        <v>3249.93139956722</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7754,8 +7747,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="79">
-        <v>3272.868885314663</v>
+      <c r="F36" s="78">
+        <v>3272.745171120578</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7774,8 +7767,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="79">
-        <v>3270.301141033458</v>
+      <c r="F37" s="78">
+        <v>3270.177426839373</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7794,8 +7787,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="79">
-        <v>3260.578588627987</v>
+      <c r="F38" s="78">
+        <v>3260.508076661006</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7814,8 +7807,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="79">
-        <v>3264.737840520364</v>
+      <c r="F39" s="78">
+        <v>3264.667328553383</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7834,8 +7827,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="79">
-        <v>3254.695654522929</v>
+      <c r="F40" s="78">
+        <v>3254.517891401251</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7854,8 +7847,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="79">
-        <v>3260.490829734134</v>
+      <c r="F41" s="78">
+        <v>3260.313066612457</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7874,7 +7867,7 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="81">
+      <c r="F42" s="80">
         <v>3339.915892899608</v>
       </c>
     </row>
@@ -7894,7 +7887,7 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="81">
+      <c r="F43" s="80">
         <v>3339.915892899608</v>
       </c>
     </row>
@@ -7914,7 +7907,7 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="81">
+      <c r="F44" s="80">
         <v>3339.915892899608</v>
       </c>
     </row>
@@ -7934,8 +7927,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="79">
-        <v>3289.348094855413</v>
+      <c r="F45" s="78">
+        <v>3304.849255747775</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7954,7 +7947,7 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="81">
+      <c r="F46" s="80">
         <v>3339.915892899608</v>
       </c>
     </row>
@@ -7974,7 +7967,7 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="81">
+      <c r="F47" s="80">
         <v>3332.665000212848</v>
       </c>
     </row>
@@ -7994,7 +7987,7 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="81">
+      <c r="F48" s="80">
         <v>3332.91146370401</v>
       </c>
     </row>
@@ -8014,7 +8007,7 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="80">
         <v>3334.200255151443</v>
       </c>
     </row>
@@ -8034,8 +8027,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="78">
-        <v>2481.024726476281</v>
+      <c r="F50" s="77">
+        <v>2477.634212148951</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8054,8 +8047,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="82">
-        <v>3440.956080711199</v>
+      <c r="F51" s="81">
+        <v>3438.011684338143</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8074,8 +8067,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="83">
-        <v>4085.274564466942</v>
+      <c r="F52" s="82">
+        <v>4082.462840033129</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8094,8 +8087,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="84">
-        <v>5339.354453251439</v>
+      <c r="F53" s="83">
+        <v>5336.833293919843</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8115,7 +8108,7 @@
         <v>11</v>
       </c>
       <c r="F54" s="43">
-        <v>14336.46364295511</v>
+        <v>14336.39511655654</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8135,7 +8128,7 @@
         <v>16</v>
       </c>
       <c r="F55" s="43">
-        <v>14396.64852189639</v>
+        <v>14396.57999549782</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8155,7 +8148,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="44">
-        <v>14467.4977514981</v>
+        <v>14467.42922509952</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8175,7 +8168,7 @@
         <v>17</v>
       </c>
       <c r="F57" s="44">
-        <v>14423.37221738594</v>
+        <v>14423.30369098736</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8195,7 +8188,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="44">
-        <v>14426.76509905753</v>
+        <v>14426.61552909569</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8215,7 +8208,7 @@
         <v>16</v>
       </c>
       <c r="F59" s="44">
-        <v>14449.96513881417</v>
+        <v>14449.81556885234</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8235,7 +8228,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="44">
-        <v>14478.38171960622</v>
+        <v>14478.23214964439</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8255,7 +8248,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="44">
-        <v>14475.9040845072</v>
+        <v>14475.75451454536</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8275,7 +8268,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="40">
-        <v>14646.29085739002</v>
+        <v>14646.20348020904</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8295,7 +8288,7 @@
         <v>16</v>
       </c>
       <c r="F63" s="40">
-        <v>14651.53274150672</v>
+        <v>14651.44536432575</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8315,7 +8308,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="39">
-        <v>14578.68764784007</v>
+        <v>14578.46822815151</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8335,7 +8328,7 @@
         <v>17</v>
       </c>
       <c r="F65" s="39">
-        <v>14586.26866467298</v>
+        <v>14586.04924498442</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8354,7 +8347,7 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="85">
+      <c r="F66" s="84">
         <v>15078.75286938478</v>
       </c>
     </row>
@@ -8374,7 +8367,7 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="85">
+      <c r="F67" s="84">
         <v>15078.75286938478</v>
       </c>
     </row>
@@ -8394,7 +8387,7 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="85">
+      <c r="F68" s="84">
         <v>15078.75286938478</v>
       </c>
     </row>
@@ -8414,8 +8407,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="42">
-        <v>14813.83789795569</v>
+      <c r="F69" s="85">
+        <v>14892.88670034486</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8434,7 +8427,7 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="85">
+      <c r="F70" s="84">
         <v>15078.75286938478</v>
       </c>
     </row>
@@ -8995,7 +8988,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="87">
-        <v>1438.712105889249</v>
+        <v>1435.710155762264</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9014,8 +9007,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="77">
-        <v>2073.884421792527</v>
+      <c r="F99" s="76">
+        <v>2071.087232439284</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9035,7 +9028,7 @@
         <v>13</v>
       </c>
       <c r="F100" s="88">
-        <v>2599.256408716236</v>
+        <v>2596.654884509274</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9055,7 +9048,7 @@
         <v>17</v>
       </c>
       <c r="F101" s="89">
-        <v>3615.442374882401</v>
+        <v>3613.528657774847</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9075,7 +9068,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="90">
-        <v>5254.658944831477</v>
+        <v>5254.658944806094</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9115,7 +9108,7 @@
         <v>13</v>
       </c>
       <c r="F104" s="90">
-        <v>5253.927584194422</v>
+        <v>5253.771766873075</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -9155,7 +9148,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="90">
-        <v>5254.658060928985</v>
+        <v>5254.658058053052</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -9175,7 +9168,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="90">
-        <v>5251.200340626643</v>
+        <v>5251.1316946841</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -9215,7 +9208,7 @@
         <v>17</v>
       </c>
       <c r="F109" s="90">
-        <v>5253.30891996581</v>
+        <v>5253.240274023266</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -9235,7 +9228,7 @@
         <v>11</v>
       </c>
       <c r="F110" s="90">
-        <v>5253.217608320778</v>
+        <v>5253.204067140179</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -9255,7 +9248,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="90">
-        <v>5254.33520328778</v>
+        <v>5254.325830229775</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -9275,7 +9268,7 @@
         <v>13</v>
       </c>
       <c r="F112" s="90">
-        <v>5253.634057135427</v>
+        <v>5253.605593798564</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -9295,7 +9288,7 @@
         <v>17</v>
       </c>
       <c r="F113" s="90">
-        <v>5254.317633437082</v>
+        <v>5254.289170100219</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -9475,7 +9468,7 @@
         <v>11</v>
       </c>
       <c r="F122" s="91">
-        <v>2381.273593248932</v>
+        <v>2376.942667200044</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9495,7 +9488,7 @@
         <v>16</v>
       </c>
       <c r="F123" s="92">
-        <v>3832.21096861236</v>
+        <v>3828.470016198345</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -9515,7 +9508,7 @@
         <v>13</v>
       </c>
       <c r="F124" s="93">
-        <v>4865.777262699698</v>
+        <v>4862.252861316723</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -9535,7 +9528,7 @@
         <v>17</v>
       </c>
       <c r="F125" s="94">
-        <v>7119.320605000225</v>
+        <v>7115.980371353848</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9554,8 +9547,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="63">
-        <v>23578.91448068537</v>
+      <c r="F126" s="62">
+        <v>23578.88444452253</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -9574,8 +9567,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="63">
-        <v>23615.70389965204</v>
+      <c r="F127" s="62">
+        <v>23615.6738634892</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -9594,8 +9587,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="63">
-        <v>23600.98989112295</v>
+      <c r="F128" s="62">
+        <v>23600.81358492681</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9614,8 +9607,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="63">
-        <v>23639.63739126733</v>
+      <c r="F129" s="62">
+        <v>23639.60752562124</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9634,8 +9627,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="63">
-        <v>23615.00185378734</v>
+      <c r="F130" s="62">
+        <v>23614.97399550261</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9654,8 +9647,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="63">
-        <v>23602.46106931721</v>
+      <c r="F131" s="62">
+        <v>23602.35161186323</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9674,8 +9667,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="63">
-        <v>23619.77297051077</v>
+      <c r="F132" s="62">
+        <v>23619.66351305681</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9694,8 +9687,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="63">
-        <v>23621.89113974066</v>
+      <c r="F133" s="62">
+        <v>23621.78168228667</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -9714,8 +9707,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="63">
-        <v>23638.58114996401</v>
+      <c r="F134" s="62">
+        <v>23638.56454010699</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -9734,8 +9727,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="63">
-        <v>23640.46418243904</v>
+      <c r="F135" s="62">
+        <v>23640.44757258202</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -9754,8 +9747,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="63">
-        <v>23635.05738166095</v>
+      <c r="F136" s="62">
+        <v>23635.0059516591</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9774,8 +9767,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="63">
-        <v>23639.72202872111</v>
+      <c r="F137" s="62">
+        <v>23639.67059871925</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -9794,7 +9787,7 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="63">
+      <c r="F138" s="62">
         <v>23653.46811738121</v>
       </c>
     </row>
@@ -9814,7 +9807,7 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="63">
+      <c r="F139" s="62">
         <v>23653.46811738121</v>
       </c>
     </row>
@@ -9834,7 +9827,7 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="63">
+      <c r="F140" s="62">
         <v>23653.46811738121</v>
       </c>
     </row>
@@ -9854,7 +9847,7 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="63">
+      <c r="F141" s="62">
         <v>23652.86218633332</v>
       </c>
     </row>
@@ -9874,7 +9867,7 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="63">
+      <c r="F142" s="62">
         <v>23652.17650414513</v>
       </c>
     </row>
@@ -9894,7 +9887,7 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="63">
+      <c r="F143" s="62">
         <v>23652.41301607941</v>
       </c>
     </row>
@@ -9914,7 +9907,7 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="63">
+      <c r="F144" s="62">
         <v>23652.71228039084</v>
       </c>
     </row>
@@ -9934,7 +9927,7 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="63">
+      <c r="F145" s="62">
         <v>23653.46811738121</v>
       </c>
     </row>
@@ -9985,7 +9978,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="95">
-        <v>891.6379243396411</v>
+        <v>890.0308285183272</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10005,7 +9998,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="96">
-        <v>1497.619539848368</v>
+        <v>1496.012444027054</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10025,7 +10018,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="97">
-        <v>2108.852134669048</v>
+        <v>2107.245038847735</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10045,7 +10038,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="38">
-        <v>2798.420313221865</v>
+        <v>2796.81321740055</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10065,7 +10058,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="98">
-        <v>83.67070784214913</v>
+        <v>83.61744168785674</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10085,7 +10078,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="9">
-        <v>125.1019419704355</v>
+        <v>125.0486758161432</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10105,7 +10098,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="11">
-        <v>173.5485212627592</v>
+        <v>173.4952551084668</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10125,7 +10118,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="99">
-        <v>135.8697746539861</v>
+        <v>135.8165084996937</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10145,7 +10138,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8">
-        <v>23.47411535832032</v>
+        <v>23.36142772050749</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10165,7 +10158,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="100">
-        <v>39.28710372161073</v>
+        <v>39.17441608379789</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10185,7 +10178,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="101">
-        <v>58.59865710497272</v>
+        <v>58.48596946715987</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10205,7 +10198,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="102">
-        <v>53.2821589512056</v>
+        <v>53.16947131339276</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10225,7 +10218,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="7">
-        <v>3.750481165757633</v>
+        <v>3.725005432296051</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10245,7 +10238,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="7">
-        <v>7.159963423009469</v>
+        <v>7.096133090591663</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10265,7 +10258,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7">
-        <v>12.22159626906361</v>
+        <v>12.06095479092581</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10285,7 +10278,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7">
-        <v>16.00287671280401</v>
+        <v>15.93904638038621</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10365,7 +10358,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7">
-        <v>0.6203965791365842</v>
+        <v>0.4616302094927468</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10465,7 +10458,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="103">
-        <v>316.308523608446</v>
+        <v>316.0915251485631</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10485,7 +10478,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="29">
-        <v>654.2233464420679</v>
+        <v>653.9542425013495</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10505,7 +10498,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="104">
-        <v>1006.211821733541</v>
+        <v>1005.87961023689</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10525,7 +10518,7 @@
         <v>17</v>
       </c>
       <c r="F29" s="22">
-        <v>1442.157762366012</v>
+        <v>1441.670002341504</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10545,7 +10538,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="7">
-        <v>6.343992701790799</v>
+        <v>6.290866738551616</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10565,7 +10558,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="100">
-        <v>40.6996067061246</v>
+        <v>40.64648060802619</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10585,7 +10578,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="98">
-        <v>84.16242741010024</v>
+        <v>84.10917964739554</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10605,7 +10598,7 @@
         <v>17</v>
       </c>
       <c r="F33" s="102">
-        <v>45.24202376386208</v>
+        <v>45.18877600115736</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10965,7 +10958,7 @@
         <v>16</v>
       </c>
       <c r="F51" s="10">
-        <v>194.8436842875938</v>
+        <v>194.7112420316693</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -10985,7 +10978,7 @@
         <v>13</v>
       </c>
       <c r="F52" s="105">
-        <v>489.0984688633728</v>
+        <v>488.9257397876959</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -11005,7 +10998,7 @@
         <v>17</v>
       </c>
       <c r="F53" s="29">
-        <v>662.5212657185186</v>
+        <v>662.2544729695388</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -11425,7 +11418,7 @@
         <v>11</v>
       </c>
       <c r="F74" s="95">
-        <v>889.5581793048835</v>
+        <v>887.748580684791</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11444,8 +11437,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="106">
-        <v>1495.539794813611</v>
+      <c r="F75" s="96">
+        <v>1493.730196193518</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11465,7 +11458,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="97">
-        <v>2106.772389634291</v>
+        <v>2104.962791014199</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11485,7 +11478,7 @@
         <v>17</v>
       </c>
       <c r="F77" s="38">
-        <v>2796.340568187108</v>
+        <v>2794.530969567015</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -11505,7 +11498,7 @@
         <v>11</v>
       </c>
       <c r="F78" s="101">
-        <v>60.09835598885094</v>
+        <v>60.07463586395637</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -11525,7 +11518,7 @@
         <v>16</v>
       </c>
       <c r="F79" s="98">
-        <v>85.85168833488918</v>
+        <v>85.82796820999462</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -11545,7 +11538,7 @@
         <v>13</v>
       </c>
       <c r="F80" s="9">
-        <v>126.4091673539462</v>
+        <v>126.2431982309678</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11564,8 +11557,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="107">
-        <v>99.29466065028961</v>
+      <c r="F81" s="106">
+        <v>99.27094052539503</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -11585,7 +11578,7 @@
         <v>11</v>
       </c>
       <c r="F82" s="7">
-        <v>12.90929501766869</v>
+        <v>12.88811012301628</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -11605,7 +11598,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="7">
-        <v>19.96795399733703</v>
+        <v>19.88410073908514</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -11625,7 +11618,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="8">
-        <v>31.90577197617944</v>
+        <v>31.82191871792756</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11645,7 +11638,7 @@
         <v>17</v>
       </c>
       <c r="F85" s="100">
-        <v>32.87485413930497</v>
+        <v>32.79100088105308</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -11665,7 +11658,7 @@
         <v>11</v>
       </c>
       <c r="F86" s="7">
-        <v>2.088454415073838</v>
+        <v>2.076092826937894</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -11685,7 +11678,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="7">
-        <v>3.401887905764125</v>
+        <v>3.389526317628182</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -11705,7 +11698,7 @@
         <v>13</v>
       </c>
       <c r="F88" s="7">
-        <v>5.687780470070891</v>
+        <v>5.649434086945375</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11725,7 +11718,7 @@
         <v>17</v>
       </c>
       <c r="F89" s="7">
-        <v>9.811447179867596</v>
+        <v>9.77310079674208</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -11905,7 +11898,7 @@
         <v>11</v>
       </c>
       <c r="F98" s="13">
-        <v>224.7675736056675</v>
+        <v>224.4709615808381</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -11924,8 +11917,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="108">
-        <v>493.7026031928395</v>
+      <c r="F99" s="107">
+        <v>493.3405424421207</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -11944,8 +11937,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="109">
-        <v>805.2088898270712</v>
+      <c r="F100" s="108">
+        <v>804.7745864116532</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11964,8 +11957,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="110">
-        <v>1021.158581048332</v>
+      <c r="F101" s="109">
+        <v>1020.473655640766</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -11985,7 +11978,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="8">
-        <v>29.8951965027391</v>
+        <v>29.8714763804514</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -12005,7 +11998,7 @@
         <v>16</v>
       </c>
       <c r="F103" s="101">
-        <v>55.64700766200211</v>
+        <v>55.62328753710755</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -12025,7 +12018,7 @@
         <v>13</v>
       </c>
       <c r="F104" s="98">
-        <v>86.51877795413894</v>
+        <v>86.49505782924437</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -12044,8 +12037,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="111">
-        <v>69.08997997740256</v>
+      <c r="F105" s="110">
+        <v>69.06625985250801</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -12065,7 +12058,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="7">
-        <v>2.321555727683656</v>
+        <v>2.316278604380043</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -12085,7 +12078,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="7">
-        <v>8.09284440244744</v>
+        <v>8.071659507795037</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -12105,7 +12098,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="7">
-        <v>16.53915466293458</v>
+        <v>16.45530140468269</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -12125,7 +12118,7 @@
         <v>17</v>
       </c>
       <c r="F109" s="7">
-        <v>19.07477692347624</v>
+        <v>19.05359202882384</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -12165,7 +12158,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="7">
-        <v>0.5668855977053042</v>
+        <v>0.563080876667762</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -12185,7 +12178,7 @@
         <v>13</v>
       </c>
       <c r="F112" s="7">
-        <v>1.841359745926942</v>
+        <v>1.828998157790998</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -12205,7 +12198,7 @@
         <v>17</v>
       </c>
       <c r="F113" s="7">
-        <v>5.340974885699489</v>
+        <v>5.328613297563545</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -12405,7 +12398,7 @@
         <v>16</v>
       </c>
       <c r="F123" s="102">
-        <v>46.14691150178646</v>
+        <v>45.97362802507425</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -12425,7 +12418,7 @@
         <v>13</v>
       </c>
       <c r="F124" s="13">
-        <v>220.3025001370114</v>
+        <v>220.0654997115531</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12445,7 +12438,7 @@
         <v>17</v>
       </c>
       <c r="F125" s="98">
-        <v>84.21790120316125</v>
+        <v>83.924781096443</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12505,7 +12498,7 @@
         <v>13</v>
       </c>
       <c r="F128" s="7">
-        <v>14.57403294782393</v>
+        <v>14.55036203084586</v>
       </c>
     </row>
     <row r="129" spans="1:6">

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -117,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="110">
+  <fills count="105">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,25 +126,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD9D9"/>
+        <fgColor rgb="FFFFD1D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCFCF"/>
+        <fgColor rgb="FFFFC2C2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC6C6"/>
+        <fgColor rgb="FFFFB4B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFBABA"/>
+        <fgColor rgb="FFFFA2A2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,49 +162,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDCDC"/>
+        <fgColor rgb="FFFFE3E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD6D6"/>
+        <fgColor rgb="FFFFC4C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD8D8"/>
+        <fgColor rgb="FFFFB8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD7D7"/>
+        <fgColor rgb="FFFFA7A7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD3D3"/>
+        <fgColor rgb="FFFFA1A1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCACA"/>
+        <fgColor rgb="FFFF8F8F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC1C1"/>
+        <fgColor rgb="FFFF7373"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB4B4"/>
+        <fgColor rgb="FFFFE1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE2E2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,121 +222,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7373"/>
+        <fgColor rgb="FFFF6666"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7272"/>
+        <fgColor rgb="FFFF5757"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7171"/>
+        <fgColor rgb="FFFF4545"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6F6F"/>
+        <fgColor rgb="FFFF8888"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7070"/>
+        <fgColor rgb="FFFF8787"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFABAB"/>
+        <fgColor rgb="FFFF8989"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA1A1"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9898"/>
+        <fgColor rgb="FFFF5959"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8C8C"/>
+        <fgColor rgb="FFFF4747"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB8B8"/>
+        <fgColor rgb="FFFF5B5B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB7B7"/>
+        <fgColor rgb="FFFF3F3F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFB0B0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA8A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA2A2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9A9A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA0A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA6A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9B9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9191"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8282"/>
+        <fgColor rgb="FFFF2828"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,25 +300,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF58B158"/>
+        <fgColor rgb="FFFF8686"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF57B057"/>
+        <fgColor rgb="FF8ACC8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF56B056"/>
+        <fgColor rgb="FF88CB88"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF56AF56"/>
+        <fgColor rgb="FF86CA86"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BCD8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97D497"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BD69B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ED79E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2DAA2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CCE8C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E5B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EEC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0F3D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5FFE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8ECF8E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FCF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90D090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DCE8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF038103"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF028102"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF058305"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF058205"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158B15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1A8E1A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F911F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF299729"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF068306"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF319B31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF49A849"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,79 +486,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF59B159"/>
+        <fgColor rgb="FF82C882"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5EB45E"/>
+        <fgColor rgb="FF078407"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF60B560"/>
+        <fgColor rgb="FF088408"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF61B661"/>
+        <fgColor rgb="FFBDE9BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF63B763"/>
+        <fgColor rgb="FFAFE1AF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6BBB6B"/>
+        <fgColor rgb="FFA0D9A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6ABB6A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70BE70"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF78C278"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CC57C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF88CB88"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0FCE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1FDE1"/>
+        <fgColor rgb="FF92D192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,235 +540,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE5FFE5"/>
+        <fgColor rgb="FFE4FEE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF028102"/>
+        <fgColor rgb="FF96D396"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF018001"/>
+        <fgColor rgb="FF79C379"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
+        <fgColor rgb="FF64B764"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF048204"/>
+        <fgColor rgb="FF3BA13B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0A850A"/>
+        <fgColor rgb="FFE0FCE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0C860C"/>
+        <fgColor rgb="FFDDFBDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0E870E"/>
+        <fgColor rgb="FFDFFCDF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF138A13"/>
+        <fgColor rgb="FFB4E4B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1E901E"/>
+        <fgColor rgb="FF9ED89E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF188D18"/>
+        <fgColor rgb="FF6BBB6B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF259425"/>
+        <fgColor rgb="FF69BA69"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2D992D"/>
+        <fgColor rgb="FF48A848"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF42A442"/>
+        <fgColor rgb="FFE1FDE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCFADC"/>
+        <fgColor rgb="FFFF9C9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDBF9DB"/>
+        <fgColor rgb="FFFF6A6A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD6F7D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2F4D2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCEF2CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EEC6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7EEC7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5EDC5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4EDC4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBEE9BE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2E3B2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF53AE53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF55AF55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF54AE54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8F8D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCF1CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2ECC2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB3E3B3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFF3CF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1EBC1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7E5B7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA0D9A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9D9D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6B6B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3939"/>
+        <fgColor rgb="FFFF3838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,37 +648,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFDCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFDBDB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE3E3"/>
+        <fgColor rgb="FFFFCBCB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE1E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE2E2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFFB0B0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9393"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDEDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD5D5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +709,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD3D3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -832,16 +802,16 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -853,23 +823,23 @@
     <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -891,7 +861,7 @@
     <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -900,7 +870,7 @@
     <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -909,11 +879,6 @@
     <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>38465.27478711109</v>
+        <v>40071.02162917338</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1268,7 +1233,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="4">
-        <v>39014.46088045958</v>
+        <v>40546.79854162907</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1288,7 +1253,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="5">
-        <v>39567.62459901452</v>
+        <v>41025.91314598935</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1308,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="6">
-        <v>40243.82457498145</v>
+        <v>41618.82915972585</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1328,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="F6" s="7">
-        <v>37730.95593699767</v>
+        <v>39414.76879998857</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1347,8 +1312,8 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="7">
-        <v>37762.73792140245</v>
+      <c r="F7" s="8">
+        <v>39441.5035352794</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1367,8 +1332,8 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="8">
-        <v>37799.89033850733</v>
+      <c r="F8" s="9">
+        <v>39472.75402352356</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1387,8 +1352,8 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="7">
-        <v>37770.86228509317</v>
+      <c r="F9" s="8">
+        <v>39448.31547240027</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1408,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7">
-        <v>37684.73314062999</v>
+        <v>39375.88651198311</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1428,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7">
-        <v>37696.76044530924</v>
+        <v>39385.98693806313</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1448,7 +1413,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="7">
-        <v>37711.44798813612</v>
+        <v>39398.321283835</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1468,7 +1433,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="7">
-        <v>37707.37791973752</v>
+        <v>39394.89892386727</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1488,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="7">
-        <v>37669.82332127394</v>
+        <v>39363.36963049244</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1508,7 +1473,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="7">
-        <v>37672.37795973063</v>
+        <v>39365.51342772974</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1528,7 +1493,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7">
-        <v>37676.14093637807</v>
+        <v>39368.6713316782</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1548,7 +1513,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7">
-        <v>37679.07811373407</v>
+        <v>39371.13590985919</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1568,7 +1533,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="7">
-        <v>37667.00143402453</v>
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1588,7 +1553,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="7">
-        <v>37667.00143402453</v>
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1608,7 +1573,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7">
-        <v>37667.00143402453</v>
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1628,7 +1593,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7">
-        <v>37667.35120952562</v>
+        <v>39361.29521230854</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1648,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="F22" s="7">
-        <v>37667.00143402453</v>
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1668,7 +1633,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="7">
-        <v>37667.10363805824</v>
+        <v>39361.08747061287</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1688,7 +1653,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="7">
-        <v>37667.27406172339</v>
+        <v>39361.23047337889</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1708,7 +1673,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="7">
-        <v>37668.16523047639</v>
+        <v>39361.9782544841</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1727,8 +1692,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="9">
-        <v>38220.06094604808</v>
+      <c r="F26" s="3">
+        <v>40062.5492926778</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1748,7 +1713,7 @@
         <v>16</v>
       </c>
       <c r="F27" s="10">
-        <v>38617.42402687058</v>
+        <v>40477.16533915629</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1767,8 +1732,8 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="4">
-        <v>39020.55188893808</v>
+      <c r="F28" s="11">
+        <v>40891.73248390487</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1787,8 +1752,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="5">
-        <v>39558.28047158827</v>
+      <c r="F29" s="12">
+        <v>41435.61276613206</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1807,8 +1772,8 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="11">
-        <v>38507.471510018</v>
+      <c r="F30" s="7">
+        <v>39403.1205640804</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1827,8 +1792,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="12">
-        <v>38536.45516180197</v>
+      <c r="F31" s="8">
+        <v>39429.91329171444</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1847,8 +1812,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="12">
-        <v>38571.97291141397</v>
+      <c r="F32" s="9">
+        <v>39461.71300717687</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1867,8 +1832,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="12">
-        <v>38543.32280533967</v>
+      <c r="F33" s="8">
+        <v>39438.1149018041</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1887,8 +1852,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="11">
-        <v>38497.4501283091</v>
+      <c r="F34" s="7">
+        <v>39372.5058806952</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1907,8 +1872,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="11">
-        <v>38501.62561490256</v>
+      <c r="F35" s="7">
+        <v>39379.82310587512</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1927,8 +1892,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="11">
-        <v>38506.7364035041</v>
+      <c r="F36" s="7">
+        <v>39388.70432583293</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1947,8 +1912,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="11">
-        <v>38506.1611720842</v>
+      <c r="F37" s="7">
+        <v>39387.28174544095</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1967,8 +1932,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="11">
-        <v>38503.9950241257</v>
+      <c r="F38" s="7">
+        <v>39362.6589409049</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1987,8 +1952,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="11">
-        <v>38504.92678839416</v>
+      <c r="F39" s="7">
+        <v>39364.22755697056</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2007,8 +1972,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="11">
-        <v>38502.65309035227</v>
+      <c r="F40" s="7">
+        <v>39366.75006000124</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2027,8 +1992,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="11">
-        <v>38503.95133756861</v>
+      <c r="F41" s="7">
+        <v>39368.76963185085</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2047,8 +2012,8 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="11">
-        <v>38521.78412844617</v>
+      <c r="F42" s="7">
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2067,8 +2032,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="11">
-        <v>38521.78412844617</v>
+      <c r="F43" s="7">
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2087,8 +2052,8 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="11">
-        <v>38521.78412844617</v>
+      <c r="F44" s="7">
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2107,8 +2072,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="11">
-        <v>38513.92842738284</v>
+      <c r="F45" s="7">
+        <v>39361.19842061254</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2127,8 +2092,8 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="11">
-        <v>38521.78412844617</v>
+      <c r="F46" s="7">
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2147,8 +2112,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="11">
-        <v>38520.15976837015</v>
+      <c r="F47" s="7">
+        <v>39361.05160526424</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2167,8 +2132,8 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="11">
-        <v>38520.21498163458</v>
+      <c r="F48" s="7">
+        <v>39361.1348029107</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2187,8 +2152,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="11">
-        <v>38520.50369937789</v>
+      <c r="F49" s="7">
+        <v>39361.81923102015</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2207,8 +2172,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="13">
-        <v>38747.1458241467</v>
+      <c r="F50" s="11">
+        <v>40900.03898107964</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2227,8 +2192,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="14">
-        <v>39342.87160938028</v>
+      <c r="F51" s="13">
+        <v>41635.29924746094</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2247,8 +2212,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="15">
-        <v>39888.04134533925</v>
+      <c r="F52" s="14">
+        <v>42248.59609775173</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2267,8 +2232,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="16">
-        <v>40636.79097634733</v>
+      <c r="F53" s="15">
+        <v>43184.43036186475</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2287,8 +2252,8 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="17">
-        <v>44466.82391280789</v>
+      <c r="F54" s="8">
+        <v>39439.60719061071</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2307,8 +2272,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="18">
-        <v>44490.7179855772</v>
+      <c r="F55" s="9">
+        <v>39476.65413278781</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2327,8 +2292,8 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="18">
-        <v>44518.84896713976</v>
+      <c r="F56" s="16">
+        <v>39520.25735329292</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2347,8 +2312,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="18">
-        <v>44501.39737794043</v>
+      <c r="F57" s="17">
+        <v>39492.74652738343</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2367,8 +2332,8 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="18">
-        <v>44502.54340055366</v>
+      <c r="F58" s="7">
+        <v>39384.04493345062</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2387,8 +2352,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="18">
-        <v>44511.78366081511</v>
+      <c r="F59" s="7">
+        <v>39398.26473614046</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2407,8 +2372,8 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="18">
-        <v>44523.10250314605</v>
+      <c r="F60" s="7">
+        <v>39415.67887205428</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2427,8 +2392,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="18">
-        <v>44522.15273199545</v>
+      <c r="F61" s="7">
+        <v>39413.87504786887</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2447,8 +2412,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="19">
-        <v>44589.8691446212</v>
+      <c r="F62" s="7">
+        <v>39364.46494717309</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2467,8 +2432,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="20">
-        <v>44591.9722686231</v>
+      <c r="F63" s="7">
+        <v>39367.61538122615</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2487,8 +2452,8 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="19">
-        <v>44562.84107027439</v>
+      <c r="F64" s="7">
+        <v>39372.87378875252</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2507,8 +2472,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="19">
-        <v>44565.88285884861</v>
+      <c r="F65" s="7">
+        <v>39377.27034470399</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2527,8 +2492,8 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="21">
-        <v>44763.4423877481</v>
+      <c r="F66" s="7">
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2547,8 +2512,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="21">
-        <v>44763.4423877481</v>
+      <c r="F67" s="7">
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2567,8 +2532,8 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="21">
-        <v>44763.4423877481</v>
+      <c r="F68" s="7">
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2587,8 +2552,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="22">
-        <v>44688.82472181291</v>
+      <c r="F69" s="7">
+        <v>39361.38424431717</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2607,8 +2572,8 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="21">
-        <v>44763.4423877481</v>
+      <c r="F70" s="7">
+        <v>39361.0017113318</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2627,8 +2592,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="22">
-        <v>44748.14366316918</v>
+      <c r="F71" s="7">
+        <v>39361.09719112219</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2647,8 +2612,8 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="22">
-        <v>44748.26338874464</v>
+      <c r="F72" s="7">
+        <v>39361.25640274285</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2667,8 +2632,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="22">
-        <v>44748.88945022325</v>
+      <c r="F73" s="7">
+        <v>39362.08894217529</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2687,8 +2652,8 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="23">
-        <v>41205.88741284297</v>
+      <c r="F74" s="18">
+        <v>43146.44678722509</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2707,8 +2672,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="24">
-        <v>41755.07350619146</v>
+      <c r="F75" s="19">
+        <v>43622.22369968078</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2727,8 +2692,8 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="25">
-        <v>42308.23722474639</v>
+      <c r="F76" s="20">
+        <v>44101.33830404106</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2747,8 +2712,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="26">
-        <v>42984.43720071333</v>
+      <c r="F77" s="21">
+        <v>44694.25431777756</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2767,8 +2732,8 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="27">
-        <v>40454.88963445497</v>
+      <c r="F78" s="22">
+        <v>42474.89976695018</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2787,8 +2752,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="28">
-        <v>40474.54264292348</v>
+      <c r="F79" s="22">
+        <v>42491.41494322303</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2807,8 +2772,8 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="28">
-        <v>40505.48172590999</v>
+      <c r="F80" s="23">
+        <v>42517.43023781699</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2827,8 +2792,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="28">
-        <v>40484.73658867125</v>
+      <c r="F81" s="23">
+        <v>42499.97065624763</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2847,8 +2812,8 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="27">
-        <v>40418.86709466899</v>
+      <c r="F82" s="24">
+        <v>42444.62645274869</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2867,8 +2832,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="27">
-        <v>40424.17426154265</v>
+      <c r="F83" s="24">
+        <v>42449.08106026271</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2887,8 +2852,8 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="27">
-        <v>40433.23602609416</v>
+      <c r="F84" s="24">
+        <v>42456.68806328152</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2907,8 +2872,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="27">
-        <v>40433.96152998762</v>
+      <c r="F85" s="24">
+        <v>42457.29542379191</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2927,8 +2892,8 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="27">
-        <v>40410.66945720912</v>
+      <c r="F86" s="25">
+        <v>42437.74643176376</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2947,8 +2912,8 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="27">
-        <v>40411.66438618426</v>
+      <c r="F87" s="25">
+        <v>42438.58129349154</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2967,8 +2932,8 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="27">
-        <v>40413.37642507819</v>
+      <c r="F88" s="24">
+        <v>42440.01791946426</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2987,8 +2952,8 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="27">
-        <v>40416.50017024858</v>
+      <c r="F89" s="24">
+        <v>42442.6391164571</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3007,8 +2972,8 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="27">
-        <v>40409.09688229517</v>
+      <c r="F90" s="25">
+        <v>42436.42686938351</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3027,8 +2992,8 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="27">
-        <v>40409.09688229517</v>
+      <c r="F91" s="25">
+        <v>42436.42686938351</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3047,8 +3012,8 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="27">
-        <v>40409.09688229517</v>
+      <c r="F92" s="25">
+        <v>42436.42686938351</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3067,8 +3032,8 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="27">
-        <v>40409.57939658233</v>
+      <c r="F93" s="25">
+        <v>42436.83174765316</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3087,8 +3052,8 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="27">
-        <v>40409.18891744009</v>
+      <c r="F94" s="25">
+        <v>42436.50409615304</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3107,8 +3072,8 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="27">
-        <v>40409.32360516979</v>
+      <c r="F95" s="25">
+        <v>42436.61711283931</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3127,8 +3092,8 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="27">
-        <v>40409.49402883493</v>
+      <c r="F96" s="25">
+        <v>42436.76011560534</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3147,8 +3112,8 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="27">
-        <v>40410.38519758793</v>
+      <c r="F97" s="25">
+        <v>42437.50789671054</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3167,8 +3132,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="29">
-        <v>40938.89661601398</v>
+      <c r="F98" s="15">
+        <v>43173.85252207347</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3187,8 +3152,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="30">
-        <v>41320.02067447848</v>
+      <c r="F99" s="19">
+        <v>43613.64092191844</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3207,8 +3172,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="31">
-        <v>41712.42424762417</v>
+      <c r="F100" s="26">
+        <v>44042.42856055006</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3227,8 +3192,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="32">
-        <v>42179.02396933924</v>
+      <c r="F101" s="27">
+        <v>44632.27717070861</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3247,8 +3212,8 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="24">
-        <v>41757.3318743456</v>
+      <c r="F102" s="22">
+        <v>42469.26708071655</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3267,8 +3232,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="24">
-        <v>41776.98675197322</v>
+      <c r="F103" s="22">
+        <v>42485.78225698938</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3287,8 +3252,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="33">
-        <v>41800.34093382565</v>
+      <c r="F104" s="23">
+        <v>42510.66332676358</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3307,8 +3272,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="24">
-        <v>41787.180697721</v>
+      <c r="F105" s="22">
+        <v>42494.33797001398</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3327,8 +3292,8 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="31">
-        <v>41736.31004208286</v>
+      <c r="F106" s="24">
+        <v>42442.66226555162</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3347,8 +3312,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="31">
-        <v>41739.88405484702</v>
+      <c r="F107" s="24">
+        <v>42447.0607861793</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3368,7 +3333,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="24">
-        <v>41747.03642134144</v>
+        <v>42453.71840262994</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3388,7 +3353,7 @@
         <v>17</v>
       </c>
       <c r="F109" s="24">
-        <v>41748.67995586335</v>
+        <v>42454.84662039956</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3407,8 +3372,8 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="31">
-        <v>41734.43213710619</v>
+      <c r="F110" s="25">
+        <v>42437.4278746175</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3427,8 +3392,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="31">
-        <v>41734.90676953557</v>
+      <c r="F111" s="25">
+        <v>42438.13159590631</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3447,8 +3412,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="31">
-        <v>41735.70432949973</v>
+      <c r="F112" s="24">
+        <v>42439.41302877112</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3467,8 +3432,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="31">
-        <v>41738.50833131382</v>
+      <c r="F113" s="24">
+        <v>42441.88711522688</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3487,8 +3452,8 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="31">
-        <v>41734.55789417306</v>
+      <c r="F114" s="25">
+        <v>42436.42686938351</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3507,8 +3472,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="31">
-        <v>41734.55789417306</v>
+      <c r="F115" s="25">
+        <v>42436.42686938351</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3527,8 +3492,8 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="31">
-        <v>41734.55789417306</v>
+      <c r="F116" s="25">
+        <v>42436.42686938351</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3547,8 +3512,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="31">
-        <v>41734.83991836091</v>
+      <c r="F117" s="25">
+        <v>42436.81172682378</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3567,8 +3532,8 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="31">
-        <v>41734.52649550853</v>
+      <c r="F118" s="25">
+        <v>42436.48407532364</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3587,8 +3552,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="31">
-        <v>41734.58412694837</v>
+      <c r="F119" s="25">
+        <v>42436.59709200991</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3607,8 +3572,8 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="31">
-        <v>41734.75455061352</v>
+      <c r="F120" s="25">
+        <v>42436.74009477595</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3627,8 +3592,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="31">
-        <v>41735.64571936651</v>
+      <c r="F121" s="25">
+        <v>42437.48787588116</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3647,8 +3612,8 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="34">
-        <v>41451.4717268387</v>
+      <c r="F122" s="28">
+        <v>43963.91200494404</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3667,8 +3632,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="35">
-        <v>42132.10293156586</v>
+      <c r="F123" s="29">
+        <v>44902.49033914608</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3687,8 +3652,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="36">
-        <v>42740.70150034979</v>
+      <c r="F124" s="30">
+        <v>45673.07389800426</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3707,8 +3672,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="37">
-        <v>43647.49738586253</v>
+      <c r="F125" s="31">
+        <v>47011.92543609238</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3727,8 +3692,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="38">
-        <v>51378.10459256962</v>
+      <c r="F126" s="22">
+        <v>42487.68098417502</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3747,8 +3712,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="38">
-        <v>51392.7203762484</v>
+      <c r="F127" s="23">
+        <v>42508.90833534016</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3767,8 +3732,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="38">
-        <v>51397.80712297671</v>
+      <c r="F128" s="32">
+        <v>42546.12225317424</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3787,8 +3752,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="38">
-        <v>51403.00941325721</v>
+      <c r="F129" s="23">
+        <v>42522.11331042005</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3807,8 +3772,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="38">
-        <v>51392.45077803753</v>
+      <c r="F130" s="24">
+        <v>42447.35271943088</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3827,8 +3792,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="38">
-        <v>51387.47096802077</v>
+      <c r="F131" s="24">
+        <v>42454.11400456544</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3847,8 +3812,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="38">
-        <v>51394.33750112823</v>
+      <c r="F132" s="24">
+        <v>42463.88054764503</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3867,8 +3832,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="38">
-        <v>51395.97041608134</v>
+      <c r="F133" s="24">
+        <v>42464.99695331319</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3887,8 +3852,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="38">
-        <v>51401.79168828301</v>
+      <c r="F134" s="25">
+        <v>42438.09028656677</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3907,8 +3872,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="38">
-        <v>51402.54612283271</v>
+      <c r="F135" s="25">
+        <v>42439.08030470319</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3927,8 +3892,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="38">
-        <v>51400.38741980675</v>
+      <c r="F136" s="24">
+        <v>42441.03987987059</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3947,8 +3912,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="38">
-        <v>51403.0157881853</v>
+      <c r="F137" s="24">
+        <v>42444.07055417753</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3967,8 +3932,8 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="38">
-        <v>51407.76259419625</v>
+      <c r="F138" s="25">
+        <v>42436.42686938351</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3987,8 +3952,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="38">
-        <v>51407.76259419625</v>
+      <c r="F139" s="25">
+        <v>42436.42686938351</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4007,8 +3972,8 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="38">
-        <v>51407.76259419625</v>
+      <c r="F140" s="25">
+        <v>42436.42686938351</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4027,8 +3992,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="38">
-        <v>51407.51914752938</v>
+      <c r="F141" s="25">
+        <v>42436.85444149299</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4047,8 +4012,8 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="38">
-        <v>51407.24365901653</v>
+      <c r="F142" s="25">
+        <v>42436.51316886341</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4067,8 +4032,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="38">
-        <v>51407.33868309935</v>
+      <c r="F143" s="25">
+        <v>42436.63946291021</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4087,8 +4052,8 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="38">
-        <v>51407.45891938597</v>
+      <c r="F144" s="25">
+        <v>42436.78280944516</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4107,8 +4072,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="38">
-        <v>51408.21265598205</v>
+      <c r="F145" s="25">
+        <v>42437.53059055037</v>
       </c>
     </row>
   </sheetData>
@@ -4157,8 +4122,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="39">
-        <v>7762.187402309328</v>
+      <c r="F2" s="33">
+        <v>7968.893580891301</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4177,8 +4142,8 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="40">
-        <v>7818.982924469557</v>
+      <c r="F3" s="34">
+        <v>8025.967170790704</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4197,8 +4162,8 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="41">
-        <v>7877.051800735312</v>
+      <c r="F4" s="35">
+        <v>8084.320349066991</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4217,8 +4182,8 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="42">
-        <v>7890.420003321188</v>
+      <c r="F5" s="35">
+        <v>8097.754001634285</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4237,8 +4202,8 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="43">
-        <v>7690.092865592277</v>
+      <c r="F6" s="36">
+        <v>7895.491423909281</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4257,8 +4222,8 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="43">
-        <v>7699.742115315785</v>
+      <c r="F7" s="36">
+        <v>7905.187915826422</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4277,8 +4242,8 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="44">
-        <v>7711.036277503229</v>
+      <c r="F8" s="36">
+        <v>7916.53737360806</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4297,8 +4262,8 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="43">
-        <v>7702.385584308618</v>
+      <c r="F9" s="36">
+        <v>7907.844327097422</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4317,8 +4282,8 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="43">
-        <v>7676.059647992612</v>
+      <c r="F10" s="36">
+        <v>7881.389493399671</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4337,8 +4302,8 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="43">
-        <v>7679.845331676649</v>
+      <c r="F11" s="36">
+        <v>7885.193711581907</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4357,8 +4322,8 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="43">
-        <v>7684.469342233129</v>
+      <c r="F12" s="36">
+        <v>7889.840361038647</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4377,8 +4342,8 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43">
-        <v>7683.222912477964</v>
+      <c r="F13" s="36">
+        <v>7888.587828832253</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4397,8 +4362,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="43">
-        <v>7671.333045060452</v>
+      <c r="F14" s="36">
+        <v>7876.639761440663</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4417,8 +4382,8 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="43">
-        <v>7672.149534262048</v>
+      <c r="F15" s="36">
+        <v>7877.460244658734</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4437,8 +4402,8 @@
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="43">
-        <v>7673.351379314943</v>
+      <c r="F16" s="36">
+        <v>7878.667964907407</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4457,8 +4422,8 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="43">
-        <v>7674.29229354841</v>
+      <c r="F17" s="36">
+        <v>7879.613494776197</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4477,8 +4442,8 @@
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="43">
-        <v>7670.429926877565</v>
+      <c r="F18" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4497,8 +4462,8 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="43">
-        <v>7670.429926877565</v>
+      <c r="F19" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4517,8 +4482,8 @@
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="43">
-        <v>7670.429926877565</v>
+      <c r="F20" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4537,8 +4502,8 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="43">
-        <v>7670.541781585972</v>
+      <c r="F21" s="36">
+        <v>7875.844619663067</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4557,8 +4522,8 @@
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="43">
-        <v>7670.429926877565</v>
+      <c r="F22" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4577,8 +4542,8 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="43">
-        <v>7670.462657719619</v>
+      <c r="F23" s="36">
+        <v>7875.765114583779</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4597,8 +4562,8 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="43">
-        <v>7670.517235898805</v>
+      <c r="F24" s="36">
+        <v>7875.819959974717</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4617,8 +4582,8 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="43">
-        <v>7670.802632694169</v>
+      <c r="F25" s="36">
+        <v>7876.106754057026</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4637,8 +4602,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="45">
-        <v>7433.461940002579</v>
+      <c r="F26" s="37">
+        <v>7456.752691470507</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4657,8 +4622,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="46">
-        <v>7373.961576532868</v>
+      <c r="F27" s="38">
+        <v>7340.363527925027</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4677,8 +4642,8 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="47">
-        <v>7322.759082200902</v>
+      <c r="F28" s="39">
+        <v>7236.856499750087</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4697,8 +4662,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="48">
-        <v>7220.820891655325</v>
+      <c r="F29" s="40">
+        <v>7079.634327071239</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4717,8 +4682,8 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="49">
-        <v>6836.250717622642</v>
+      <c r="F30" s="41">
+        <v>7841.10370996432</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4737,8 +4702,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="50">
-        <v>6841.622679708142</v>
+      <c r="F31" s="41">
+        <v>7845.686104817176</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4757,8 +4722,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="50">
-        <v>6849.567629135519</v>
+      <c r="F32" s="41">
+        <v>7853.368878159381</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4777,8 +4742,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="50">
-        <v>6839.297331563585</v>
+      <c r="F33" s="41">
+        <v>7842.991738671784</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4797,8 +4762,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="50">
-        <v>6839.98123259299</v>
+      <c r="F34" s="41">
+        <v>7864.228054239116</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4817,8 +4782,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="49">
-        <v>6835.805745999537</v>
+      <c r="F35" s="41">
+        <v>7857.06206947092</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4837,8 +4802,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="49">
-        <v>6830.694957397989</v>
+      <c r="F36" s="41">
+        <v>7849.914048473192</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4857,8 +4822,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="49">
-        <v>6831.270188817896</v>
+      <c r="F37" s="41">
+        <v>7850.835853249575</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4877,8 +4842,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="49">
-        <v>6833.436336776395</v>
+      <c r="F38" s="36">
+        <v>7874.074994029415</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4897,8 +4862,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="49">
-        <v>6832.504572507923</v>
+      <c r="F39" s="36">
+        <v>7872.639029603839</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4917,8 +4882,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="49">
-        <v>6834.778270549823</v>
+      <c r="F40" s="41">
+        <v>7870.314374730126</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4937,8 +4902,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="49">
-        <v>6833.480023333482</v>
+      <c r="F41" s="41">
+        <v>7869.329378068031</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4957,8 +4922,8 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="49">
-        <v>6815.647232455925</v>
+      <c r="F42" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4977,8 +4942,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="49">
-        <v>6815.647232455925</v>
+      <c r="F43" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4997,8 +4962,8 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="49">
-        <v>6815.647232455925</v>
+      <c r="F44" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5017,8 +4982,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="49">
-        <v>6823.502933519252</v>
+      <c r="F45" s="36">
+        <v>7875.535514321778</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -5037,8 +5002,8 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="49">
-        <v>6815.647232455925</v>
+      <c r="F46" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -5057,8 +5022,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="49">
-        <v>6817.271592531938</v>
+      <c r="F47" s="36">
+        <v>7875.682329670084</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5077,8 +5042,8 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="49">
-        <v>6817.216379267512</v>
+      <c r="F48" s="36">
+        <v>7875.599132023623</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -5097,8 +5062,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="49">
-        <v>6816.927661524201</v>
+      <c r="F49" s="36">
+        <v>7875.778691063069</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -5117,8 +5082,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="51">
-        <v>6590.285536755401</v>
+      <c r="F50" s="42">
+        <v>6336.694953854695</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5137,8 +5102,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="52">
-        <v>6189.270993553476</v>
+      <c r="F51" s="43">
+        <v>5775.927610773214</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5157,8 +5122,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="53">
-        <v>5938.315755350531</v>
+      <c r="F52" s="44">
+        <v>5422.260292951916</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5177,8 +5142,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="54">
-        <v>5362.894857524309</v>
+      <c r="F53" s="45">
+        <v>4640.00147534242</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5197,8 +5162,8 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="55">
-        <v>870.6074480942096</v>
+      <c r="F54" s="46">
+        <v>7797.126744323623</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5217,8 +5182,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="56">
-        <v>846.7133753249044</v>
+      <c r="F55" s="47">
+        <v>7760.079802146513</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5237,8 +5202,8 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="56">
-        <v>818.582393762337</v>
+      <c r="F56" s="48">
+        <v>7716.476581641386</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5257,8 +5222,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="56">
-        <v>836.0339829616685</v>
+      <c r="F57" s="47">
+        <v>7743.987407550899</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5277,8 +5242,8 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="56">
-        <v>834.8879603484418</v>
+      <c r="F58" s="41">
+        <v>7852.689001483711</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5297,8 +5262,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="56">
-        <v>825.6477000869809</v>
+      <c r="F59" s="49">
+        <v>7838.46919879387</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5317,8 +5282,8 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="56">
-        <v>814.3288577560461</v>
+      <c r="F60" s="49">
+        <v>7821.055062880047</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5337,8 +5302,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="56">
-        <v>815.2786289066586</v>
+      <c r="F61" s="49">
+        <v>7822.858887065445</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5357,8 +5322,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="57">
-        <v>747.562216280891</v>
+      <c r="F62" s="41">
+        <v>7872.268987761229</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5377,8 +5342,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="57">
-        <v>745.4590922789937</v>
+      <c r="F63" s="41">
+        <v>7869.11855370817</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5397,8 +5362,8 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="58">
-        <v>774.5902906276995</v>
+      <c r="F64" s="41">
+        <v>7863.860146181813</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5417,8 +5382,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="58">
-        <v>771.5485020534869</v>
+      <c r="F65" s="41">
+        <v>7859.463590230336</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5437,8 +5402,8 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="59">
-        <v>573.9889731539864</v>
+      <c r="F66" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5457,8 +5422,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="59">
-        <v>573.9889731539864</v>
+      <c r="F67" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5477,8 +5442,8 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="59">
-        <v>573.9889731539864</v>
+      <c r="F68" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5497,8 +5462,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="59">
-        <v>648.6066390891856</v>
+      <c r="F69" s="36">
+        <v>7875.349690617159</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5517,8 +5482,8 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="59">
-        <v>573.9889731539864</v>
+      <c r="F70" s="36">
+        <v>7875.732223602527</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5537,8 +5502,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="59">
-        <v>589.2876977329224</v>
+      <c r="F71" s="36">
+        <v>7875.636743812134</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5557,8 +5522,8 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="59">
-        <v>589.1679721574563</v>
+      <c r="F72" s="36">
+        <v>7875.477532191465</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5577,8 +5542,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="59">
-        <v>588.5419106788502</v>
+      <c r="F73" s="36">
+        <v>7874.64499275903</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5597,8 +5562,8 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="60">
-        <v>12148.68467526158</v>
+      <c r="F74" s="50">
+        <v>12786.49210572783</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5617,8 +5582,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="61">
-        <v>12205.48019742181</v>
+      <c r="F75" s="51">
+        <v>12843.56569562724</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5637,8 +5602,8 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="62">
-        <v>12263.54907368757</v>
+      <c r="F76" s="52">
+        <v>12901.91887390353</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5657,8 +5622,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="62">
-        <v>12276.91727627344</v>
+      <c r="F77" s="52">
+        <v>12915.35252647082</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5677,8 +5642,8 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="63">
-        <v>12072.00850882874</v>
+      <c r="F78" s="53">
+        <v>12707.68255541112</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5697,8 +5662,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="63">
-        <v>12078.10883270627</v>
+      <c r="F79" s="53">
+        <v>12713.81274613738</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5717,8 +5682,8 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="63">
-        <v>12087.58497974073</v>
+      <c r="F80" s="54">
+        <v>12723.33528777554</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5737,8 +5702,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="63">
-        <v>12081.3578592739</v>
+      <c r="F81" s="53">
+        <v>12717.07767975961</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5757,8 +5722,8 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="63">
-        <v>12060.84452287378</v>
+      <c r="F82" s="53">
+        <v>12696.46391116704</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5777,8 +5742,8 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="63">
-        <v>12062.53334661619</v>
+      <c r="F83" s="53">
+        <v>12698.16100315673</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5797,8 +5762,8 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="63">
-        <v>12065.40940004352</v>
+      <c r="F84" s="53">
+        <v>12701.05113758277</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5817,8 +5782,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="63">
-        <v>12065.65297831319</v>
+      <c r="F85" s="53">
+        <v>12701.2959083982</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5837,8 +5802,8 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="63">
-        <v>12058.23014303757</v>
+      <c r="F86" s="53">
+        <v>12693.83673148399</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5857,8 +5822,8 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="63">
-        <v>12058.54864755312</v>
+      <c r="F87" s="53">
+        <v>12694.15679538006</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5877,8 +5842,8 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="63">
-        <v>12059.09651642851</v>
+      <c r="F88" s="53">
+        <v>12694.70734649645</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5897,8 +5862,8 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="63">
-        <v>12060.09643796792</v>
+      <c r="F89" s="53">
+        <v>12695.71216359649</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5917,8 +5882,8 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="63">
-        <v>12057.72662512459</v>
+      <c r="F90" s="53">
+        <v>12693.33074843906</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5937,8 +5902,8 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="63">
-        <v>12057.72662512459</v>
+      <c r="F91" s="53">
+        <v>12693.33074843906</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5957,8 +5922,8 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="63">
-        <v>12057.72662512459</v>
+      <c r="F92" s="53">
+        <v>12693.33074843906</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5977,8 +5942,8 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="63">
-        <v>12057.88115032625</v>
+      <c r="F93" s="53">
+        <v>12693.48603009967</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5997,8 +5962,8 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="63">
-        <v>12057.75609937997</v>
+      <c r="F94" s="53">
+        <v>12693.3603669736</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -6017,8 +5982,8 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="63">
-        <v>12057.79923312575</v>
+      <c r="F95" s="53">
+        <v>12693.40371189981</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -6037,8 +6002,8 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="63">
-        <v>12057.85381130493</v>
+      <c r="F96" s="53">
+        <v>12693.45855729075</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6057,8 +6022,8 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="63">
-        <v>12058.1392081003</v>
+      <c r="F97" s="53">
+        <v>12693.74535137306</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6077,8 +6042,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="64">
-        <v>11752.39785298662</v>
+      <c r="F98" s="55">
+        <v>12159.2260623708</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6097,8 +6062,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="65">
-        <v>11640.1433753834</v>
+      <c r="F99" s="56">
+        <v>11956.82160731469</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6117,8 +6082,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="66">
-        <v>11559.17384620724</v>
+      <c r="F100" s="57">
+        <v>11802.87793715735</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6137,8 +6102,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="67">
-        <v>11308.27319372128</v>
+      <c r="F101" s="58">
+        <v>11405.82193759633</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6157,8 +6122,8 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="68">
-        <v>10739.36310945461</v>
+      <c r="F102" s="59">
+        <v>12687.54627967227</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6177,8 +6142,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="68">
-        <v>10745.46004298365</v>
+      <c r="F103" s="53">
+        <v>12693.67647039854</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6197,8 +6162,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="68">
-        <v>10752.97763142335</v>
+      <c r="F104" s="53">
+        <v>12695.94150190489</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6217,8 +6182,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="68">
-        <v>10748.70906955127</v>
+      <c r="F105" s="53">
+        <v>12696.94140402076</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6237,8 +6202,8 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="68">
-        <v>10732.82974394128</v>
+      <c r="F106" s="53">
+        <v>12690.37764245722</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6257,8 +6222,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="68">
-        <v>10735.01111208054</v>
+      <c r="F107" s="53">
+        <v>12691.01489751696</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6277,8 +6242,8 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="68">
-        <v>10736.242387483</v>
+      <c r="F108" s="53">
+        <v>12691.62326044362</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6297,8 +6262,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="68">
-        <v>10737.19714358523</v>
+      <c r="F109" s="53">
+        <v>12692.8856735154</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -6317,8 +6282,8 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="68">
-        <v>10732.65959946059</v>
+      <c r="F110" s="53">
+        <v>12692.99490603469</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6337,8 +6302,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="68">
-        <v>10732.47981876086</v>
+      <c r="F111" s="53">
+        <v>12692.9712194338</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6357,8 +6322,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="68">
-        <v>10732.94817607782</v>
+      <c r="F112" s="53">
+        <v>12693.00766888655</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -6377,8 +6342,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="68">
-        <v>10733.64378940349</v>
+      <c r="F113" s="53">
+        <v>12693.61085678624</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -6397,8 +6362,8 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="68">
-        <v>10732.2656132467</v>
+      <c r="F114" s="53">
+        <v>12693.33074843906</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6417,8 +6382,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="68">
-        <v>10732.2656132467</v>
+      <c r="F115" s="53">
+        <v>12693.33074843906</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -6437,8 +6402,8 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="68">
-        <v>10732.2656132467</v>
+      <c r="F116" s="53">
+        <v>12693.33074843906</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6457,8 +6422,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="68">
-        <v>10732.35593149356</v>
+      <c r="F117" s="53">
+        <v>12693.4425760463</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6477,8 +6442,8 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="68">
-        <v>10732.29701191123</v>
+      <c r="F118" s="53">
+        <v>12693.31691292023</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -6497,8 +6462,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="68">
-        <v>10732.27401429305</v>
+      <c r="F119" s="53">
+        <v>12693.36025784643</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -6517,8 +6482,8 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="68">
-        <v>10732.32859247224</v>
+      <c r="F120" s="53">
+        <v>12693.41510323737</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6537,8 +6502,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="68">
-        <v>10732.61398926761</v>
+      <c r="F121" s="53">
+        <v>12693.70189731968</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6557,8 +6522,8 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="69">
-        <v>11015.35178058107</v>
+      <c r="F122" s="60">
+        <v>11166.02884273752</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6577,8 +6542,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="70">
-        <v>10380.69420387899</v>
+      <c r="F123" s="61">
+        <v>10271.55740924793</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6597,8 +6562,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="71">
-        <v>9946.187506781527</v>
+      <c r="F124" s="62">
+        <v>9655.380929533605</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6617,8 +6582,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="72">
-        <v>8903.250902653697</v>
+      <c r="F125" s="63">
+        <v>8197.857538456337</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6637,8 +6602,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="73">
-        <v>1088.718914850149</v>
+      <c r="F126" s="64">
+        <v>12642.25986197817</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6657,8 +6622,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="73">
-        <v>1074.103131171371</v>
+      <c r="F127" s="65">
+        <v>12621.18887242554</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6677,8 +6642,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="73">
-        <v>1083.566746473921</v>
+      <c r="F128" s="65">
+        <v>12597.46212244401</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6697,8 +6662,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="73">
-        <v>1064.83516248994</v>
+      <c r="F129" s="65">
+        <v>12609.95133214815</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6717,8 +6682,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="73">
-        <v>1074.372729382242</v>
+      <c r="F130" s="59">
+        <v>12682.58795508602</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6737,8 +6702,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="73">
-        <v>1079.352539398994</v>
+      <c r="F131" s="59">
+        <v>12675.98303156397</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6757,8 +6722,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="73">
-        <v>1072.486006291548</v>
+      <c r="F132" s="59">
+        <v>12666.41433664132</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6777,8 +6742,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="73">
-        <v>1071.873964473336</v>
+      <c r="F133" s="59">
+        <v>12667.01795943643</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6797,8 +6762,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="73">
-        <v>1065.031819136754</v>
+      <c r="F134" s="53">
+        <v>12691.83696756773</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6817,8 +6782,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="73">
-        <v>1064.277384587059</v>
+      <c r="F135" s="53">
+        <v>12691.0033110438</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6837,8 +6802,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="73">
-        <v>1066.436087613017</v>
+      <c r="F136" s="53">
+        <v>12689.24158403336</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6857,8 +6822,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="73">
-        <v>1064.813330109125</v>
+      <c r="F137" s="59">
+        <v>12687.65989825167</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6877,8 +6842,8 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="73">
-        <v>1059.060913223509</v>
+      <c r="F138" s="53">
+        <v>12693.33074843906</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6897,8 +6862,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="73">
-        <v>1059.060913223509</v>
+      <c r="F139" s="53">
+        <v>12693.33074843906</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6917,8 +6882,8 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="73">
-        <v>1059.060913223509</v>
+      <c r="F140" s="53">
+        <v>12693.33074843906</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6937,8 +6902,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="73">
-        <v>1059.304359890403</v>
+      <c r="F141" s="53">
+        <v>12693.16436100877</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6957,8 +6922,8 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="73">
-        <v>1059.57984840324</v>
+      <c r="F142" s="53">
+        <v>12693.24444895917</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6977,8 +6942,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="73">
-        <v>1059.484824320415</v>
+      <c r="F143" s="53">
+        <v>12693.11815491235</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6997,8 +6962,8 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="73">
-        <v>1059.364588033805</v>
+      <c r="F144" s="53">
+        <v>12693.13688819984</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -7017,8 +6982,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="73">
-        <v>1059.205045511529</v>
+      <c r="F145" s="53">
+        <v>12693.42368228215</v>
       </c>
     </row>
   </sheetData>
@@ -7067,7 +7032,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7087,7 +7052,7 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7107,7 +7072,7 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7127,7 +7092,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="59">
+      <c r="F5" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7147,7 +7112,7 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="59">
+      <c r="F6" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7167,7 +7132,7 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="59">
+      <c r="F7" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7187,7 +7152,7 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7207,7 +7172,7 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7227,7 +7192,7 @@
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="59">
+      <c r="F10" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7247,7 +7212,7 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="59">
+      <c r="F11" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7267,7 +7232,7 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="59">
+      <c r="F12" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7287,7 +7252,7 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7307,7 +7272,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7327,7 +7292,7 @@
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7347,7 +7312,7 @@
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7367,7 +7332,7 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7387,7 +7352,7 @@
       <c r="E18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7407,7 +7372,7 @@
       <c r="E19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7427,7 +7392,7 @@
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7447,7 +7412,7 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="59">
+      <c r="F21" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7467,7 +7432,7 @@
       <c r="E22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7487,7 +7452,7 @@
       <c r="E23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="59">
+      <c r="F23" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7507,7 +7472,7 @@
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7527,7 +7492,7 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="59">
+      <c r="F25" s="45">
         <v>0</v>
       </c>
     </row>
@@ -7547,8 +7512,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="74">
-        <v>1190.152650121769</v>
+      <c r="F26" s="66">
+        <v>1668.973457460142</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7567,8 +7532,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="75">
-        <v>1628.371702917464</v>
+      <c r="F27" s="67">
+        <v>2269.040602154245</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7587,8 +7552,8 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="76">
-        <v>2040.226496212629</v>
+      <c r="F28" s="68">
+        <v>2831.001388278233</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7607,8 +7572,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="77">
-        <v>2480.564110501467</v>
+      <c r="F29" s="69">
+        <v>3424.761321460551</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7627,8 +7592,8 @@
       <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="78">
-        <v>3254.461085421613</v>
+      <c r="F30" s="70">
+        <v>127.1042353584724</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7647,8 +7612,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="78">
-        <v>3265.813961480916</v>
+      <c r="F31" s="70">
+        <v>140.1982675719481</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7667,8 +7632,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="78">
-        <v>3275.250768263941</v>
+      <c r="F32" s="71">
+        <v>150.1860160923909</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7687,8 +7652,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="78">
-        <v>3281.045943475146</v>
+      <c r="F33" s="71">
+        <v>155.579607207444</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7707,8 +7672,8 @@
       <c r="E34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="79">
-        <v>3231.292671829926</v>
+      <c r="F34" s="45">
+        <v>40.83328622486204</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7727,8 +7692,8 @@
       <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="78">
-        <v>3249.93139956722</v>
+      <c r="F35" s="45">
+        <v>66.02741025992842</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7747,8 +7712,8 @@
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="78">
-        <v>3272.745171120578</v>
+      <c r="F36" s="72">
+        <v>92.72423965079102</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7767,8 +7732,8 @@
       <c r="E37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="78">
-        <v>3270.177426839373</v>
+      <c r="F37" s="72">
+        <v>89.54629586435703</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7787,8 +7752,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="78">
-        <v>3260.508076661006</v>
+      <c r="F38" s="45">
+        <v>6.289629877403487</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7807,8 +7772,8 @@
       <c r="E39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="78">
-        <v>3264.667328553383</v>
+      <c r="F39" s="45">
+        <v>11.66249732569493</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7827,8 +7792,8 @@
       <c r="E40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="78">
-        <v>3254.517891401251</v>
+      <c r="F40" s="45">
+        <v>20.254945296532</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7847,8 +7812,8 @@
       <c r="E41" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="78">
-        <v>3260.313066612457</v>
+      <c r="F41" s="45">
+        <v>25.08184147911812</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7867,8 +7832,8 @@
       <c r="E42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="80">
-        <v>3339.915892899608</v>
+      <c r="F42" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7887,8 +7852,8 @@
       <c r="E43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="80">
-        <v>3339.915892899608</v>
+      <c r="F43" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7907,8 +7872,8 @@
       <c r="E44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="80">
-        <v>3339.915892899608</v>
+      <c r="F44" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7927,8 +7892,8 @@
       <c r="E45" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="78">
-        <v>3304.849255747775</v>
+      <c r="F45" s="45">
+        <v>0.7237570689445649</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7947,8 +7912,8 @@
       <c r="E46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="80">
-        <v>3339.915892899608</v>
+      <c r="F46" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7967,8 +7932,8 @@
       <c r="E47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="80">
-        <v>3332.665000212848</v>
+      <c r="F47" s="45">
+        <v>0.2041136405398802</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7987,8 +7952,8 @@
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="80">
-        <v>3332.91146370401</v>
+      <c r="F48" s="45">
+        <v>0.5444711484135116</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8007,8 +7972,8 @@
       <c r="E49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="80">
-        <v>3334.200255151443</v>
+      <c r="F49" s="45">
+        <v>0.7897090082213446</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8027,8 +7992,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="77">
-        <v>2477.634212148951</v>
+      <c r="F50" s="73">
+        <v>3235.959995265228</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8047,8 +8012,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="81">
-        <v>3438.011684338143</v>
+      <c r="F51" s="74">
+        <v>4482.578837289457</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8067,8 +8032,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="82">
-        <v>4082.462840033129</v>
+      <c r="F52" s="75">
+        <v>5325.075225897164</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8087,8 +8052,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="83">
-        <v>5336.833293919843</v>
+      <c r="F53" s="76">
+        <v>6968.819893844475</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8107,8 +8072,8 @@
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="43">
-        <v>14336.39511655654</v>
+      <c r="F54" s="71">
+        <v>169.0097176546749</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8127,8 +8092,8 @@
       <c r="E55" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="43">
-        <v>14396.57999549782</v>
+      <c r="F55" s="77">
+        <v>248.5640314159436</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8147,8 +8112,8 @@
       <c r="E56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F56" s="44">
-        <v>14467.42922509952</v>
+      <c r="F56" s="78">
+        <v>342.214944445562</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8167,8 +8132,8 @@
       <c r="E57" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="44">
-        <v>14423.30369098736</v>
+      <c r="F57" s="79">
+        <v>283.9604365132791</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8187,8 +8152,8 @@
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="44">
-        <v>14426.61552909569</v>
+      <c r="F58" s="45">
+        <v>49.95312774439526</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8207,8 +8172,8 @@
       <c r="E59" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="44">
-        <v>14449.81556885234</v>
+      <c r="F59" s="72">
+        <v>80.61654499403633</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8227,8 +8192,8 @@
       <c r="E60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="44">
-        <v>14478.23214964439</v>
+      <c r="F60" s="70">
+        <v>118.1752552613818</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8247,8 +8212,8 @@
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="44">
-        <v>14475.75451454536</v>
+      <c r="F61" s="70">
+        <v>114.9776109307787</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8267,8 +8232,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="40">
-        <v>14646.20348020904</v>
+      <c r="F62" s="45">
+        <v>7.867046591245944</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8287,8 +8252,8 @@
       <c r="E63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="40">
-        <v>14651.44536432575</v>
+      <c r="F63" s="45">
+        <v>14.81069466583748</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8307,8 +8272,8 @@
       <c r="E64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="39">
-        <v>14578.46822815151</v>
+      <c r="F64" s="45">
+        <v>26.3200217962426</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8327,8 +8292,8 @@
       <c r="E65" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="39">
-        <v>14586.04924498442</v>
+      <c r="F65" s="45">
+        <v>36.41227356846219</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8347,8 +8312,8 @@
       <c r="E66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="84">
-        <v>15078.75286938478</v>
+      <c r="F66" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8367,8 +8332,8 @@
       <c r="E67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="84">
-        <v>15078.75286938478</v>
+      <c r="F67" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8387,8 +8352,8 @@
       <c r="E68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="84">
-        <v>15078.75286938478</v>
+      <c r="F68" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8407,8 +8372,8 @@
       <c r="E69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="85">
-        <v>14892.88670034486</v>
+      <c r="F69" s="45">
+        <v>0.844795247981899</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8427,8 +8392,8 @@
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="84">
-        <v>15078.75286938478</v>
+      <c r="F70" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8447,8 +8412,8 @@
       <c r="E71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="86">
-        <v>15040.53867316529</v>
+      <c r="F71" s="45">
+        <v>0.2398131335522306</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8467,8 +8432,8 @@
       <c r="E72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="86">
-        <v>15040.83773186197</v>
+      <c r="F72" s="45">
+        <v>0.6396991983704023</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8487,8 +8452,8 @@
       <c r="E73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="86">
-        <v>15042.40155086305</v>
+      <c r="F73" s="45">
+        <v>2.730758356280953</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8507,7 +8472,7 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="59">
+      <c r="F74" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8527,7 +8492,7 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="59">
+      <c r="F75" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8547,7 +8512,7 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="59">
+      <c r="F76" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8567,7 +8532,7 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="59">
+      <c r="F77" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8587,7 +8552,7 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="59">
+      <c r="F78" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8607,7 +8572,7 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="59">
+      <c r="F79" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8627,7 +8592,7 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="59">
+      <c r="F80" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8647,7 +8612,7 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="59">
+      <c r="F81" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8667,7 +8632,7 @@
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="59">
+      <c r="F82" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8687,7 +8652,7 @@
       <c r="E83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="59">
+      <c r="F83" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8707,7 +8672,7 @@
       <c r="E84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="59">
+      <c r="F84" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8727,7 +8692,7 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="59">
+      <c r="F85" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8747,7 +8712,7 @@
       <c r="E86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F86" s="59">
+      <c r="F86" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8767,7 +8732,7 @@
       <c r="E87" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="59">
+      <c r="F87" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8787,7 +8752,7 @@
       <c r="E88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="59">
+      <c r="F88" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8807,7 +8772,7 @@
       <c r="E89" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F89" s="59">
+      <c r="F89" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8827,7 +8792,7 @@
       <c r="E90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="59">
+      <c r="F90" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8847,7 +8812,7 @@
       <c r="E91" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="59">
+      <c r="F91" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8867,7 +8832,7 @@
       <c r="E92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F92" s="59">
+      <c r="F92" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8887,7 +8852,7 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="59">
+      <c r="F93" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8907,7 +8872,7 @@
       <c r="E94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F94" s="59">
+      <c r="F94" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8927,7 +8892,7 @@
       <c r="E95" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="59">
+      <c r="F95" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8947,7 +8912,7 @@
       <c r="E96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="59">
+      <c r="F96" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8967,7 +8932,7 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="59">
+      <c r="F97" s="45">
         <v>0</v>
       </c>
     </row>
@@ -8987,8 +8952,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="87">
-        <v>1435.710155762264</v>
+      <c r="F98" s="80">
+        <v>2033.751856957442</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9007,8 +8972,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="76">
-        <v>2071.087232439284</v>
+      <c r="F99" s="81">
+        <v>2906.491112016153</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9027,8 +8992,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="88">
-        <v>2596.654884509274</v>
+      <c r="F100" s="49">
+        <v>3628.051858371765</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9047,8 +9012,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="89">
-        <v>3613.528657774847</v>
+      <c r="F101" s="82">
+        <v>5018.837840869973</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9067,8 +9032,8 @@
       <c r="E102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="90">
-        <v>5254.658944806094</v>
+      <c r="F102" s="45">
+        <v>47.97773077103662</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9087,8 +9052,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="90">
-        <v>5254.672326360524</v>
+      <c r="F103" s="45">
+        <v>47.97773077103662</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9107,8 +9072,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="90">
-        <v>5253.771766873075</v>
+      <c r="F104" s="45">
+        <v>66.25109269736566</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -9127,8 +9092,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="90">
-        <v>5254.672326360524</v>
+      <c r="F105" s="45">
+        <v>47.97773077103662</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -9147,8 +9112,8 @@
       <c r="E106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="90">
-        <v>5254.658058053052</v>
+      <c r="F106" s="45">
+        <v>14.47332241849528</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -9167,8 +9132,8 @@
       <c r="E107" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F107" s="90">
-        <v>5251.1316946841</v>
+      <c r="F107" s="45">
+        <v>17.21579178786399</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -9187,8 +9152,8 @@
       <c r="E108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="90">
-        <v>5254.672326360524</v>
+      <c r="F108" s="45">
+        <v>22.29660733195994</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -9207,8 +9172,8 @@
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="90">
-        <v>5253.240274023266</v>
+      <c r="F109" s="45">
+        <v>20.12766650670438</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -9227,8 +9192,8 @@
       <c r="E110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F110" s="90">
-        <v>5253.204067140179</v>
+      <c r="F110" s="45">
+        <v>2.044922921785105</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -9247,8 +9212,8 @@
       <c r="E111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="90">
-        <v>5254.325830229775</v>
+      <c r="F111" s="45">
+        <v>2.861873040476543</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -9267,8 +9232,8 @@
       <c r="E112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="90">
-        <v>5253.605593798564</v>
+      <c r="F112" s="45">
+        <v>4.107537642642748</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -9287,8 +9252,8 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="90">
-        <v>5254.289170100219</v>
+      <c r="F113" s="45">
+        <v>5.051532736502802</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -9307,8 +9272,8 @@
       <c r="E114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F114" s="90">
-        <v>5254.672326360524</v>
+      <c r="F114" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -9327,8 +9292,8 @@
       <c r="E115" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F115" s="90">
-        <v>5254.672326360524</v>
+      <c r="F115" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -9347,8 +9312,8 @@
       <c r="E116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F116" s="90">
-        <v>5254.672326360524</v>
+      <c r="F116" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -9367,8 +9332,8 @@
       <c r="E117" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F117" s="90">
-        <v>5254.672326360524</v>
+      <c r="F117" s="45">
+        <v>0.1029112715097864</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -9387,8 +9352,8 @@
       <c r="E118" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F118" s="90">
-        <v>5254.532167567908</v>
+      <c r="F118" s="45">
+        <v>0.1029112715097864</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -9407,8 +9372,8 @@
       <c r="E119" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F119" s="90">
-        <v>5254.672326360524</v>
+      <c r="F119" s="45">
+        <v>0.1029112715097864</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -9427,8 +9392,8 @@
       <c r="E120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F120" s="90">
-        <v>5254.672326360524</v>
+      <c r="F120" s="45">
+        <v>0.1029112715097864</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -9447,8 +9412,8 @@
       <c r="E121" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F121" s="90">
-        <v>5254.672326360524</v>
+      <c r="F121" s="45">
+        <v>0.1029112715097864</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -9467,8 +9432,8 @@
       <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="91">
-        <v>2376.942667200044</v>
+      <c r="F122" s="37">
+        <v>3209.19903555378</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -9487,8 +9452,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="92">
-        <v>3828.470016198345</v>
+      <c r="F123" s="83">
+        <v>5100.050663706523</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -9507,8 +9472,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="93">
-        <v>4862.252861316723</v>
+      <c r="F124" s="84">
+        <v>6452.568195389811</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -9527,8 +9492,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="94">
-        <v>7115.980371353848</v>
+      <c r="F125" s="52">
+        <v>9411.300625594182</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -9547,8 +9512,8 @@
       <c r="E126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="62">
-        <v>23578.88444452253</v>
+      <c r="F126" s="70">
+        <v>116.2414386851946</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -9567,8 +9532,8 @@
       <c r="E127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="62">
-        <v>23615.6738634892</v>
+      <c r="F127" s="71">
+        <v>164.1350779162426</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -9587,8 +9552,8 @@
       <c r="E128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F128" s="62">
-        <v>23600.81358492681</v>
+      <c r="F128" s="77">
+        <v>225.7634692847763</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9607,8 +9572,8 @@
       <c r="E129" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F129" s="62">
-        <v>23639.60752562124</v>
+      <c r="F129" s="85">
+        <v>191.1834700323631</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -9627,8 +9592,8 @@
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F130" s="62">
-        <v>23614.97399550261</v>
+      <c r="F130" s="45">
+        <v>24.98212038811571</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -9647,8 +9612,8 @@
       <c r="E131" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F131" s="62">
-        <v>23602.35161186323</v>
+      <c r="F131" s="45">
+        <v>40.24436130291241</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -9667,8 +9632,8 @@
       <c r="E132" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="62">
-        <v>23619.66351305681</v>
+      <c r="F132" s="45">
+        <v>62.3125257697163</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -9687,8 +9652,8 @@
       <c r="E133" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F133" s="62">
-        <v>23621.78168228667</v>
+      <c r="F133" s="45">
+        <v>62.13550110634553</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -9707,8 +9672,8 @@
       <c r="E134" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F134" s="62">
-        <v>23638.56454010699</v>
+      <c r="F134" s="45">
+        <v>3.708749354417152</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -9727,8 +9692,8 @@
       <c r="E135" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F135" s="62">
-        <v>23640.44757258202</v>
+      <c r="F135" s="45">
+        <v>5.784413442880394</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -9747,8 +9712,8 @@
       <c r="E136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F136" s="62">
-        <v>23635.0059516591</v>
+      <c r="F136" s="45">
+        <v>10.03758587571623</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -9767,8 +9732,8 @@
       <c r="E137" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F137" s="62">
-        <v>23639.67059871925</v>
+      <c r="F137" s="45">
+        <v>14.69562457907105</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -9787,8 +9752,8 @@
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F138" s="62">
-        <v>23653.46811738121</v>
+      <c r="F138" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -9807,8 +9772,8 @@
       <c r="E139" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F139" s="62">
-        <v>23653.46811738121</v>
+      <c r="F139" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -9827,8 +9792,8 @@
       <c r="E140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="62">
-        <v>23653.46811738121</v>
+      <c r="F140" s="45">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -9847,8 +9812,8 @@
       <c r="E141" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F141" s="62">
-        <v>23652.86218633332</v>
+      <c r="F141" s="45">
+        <v>0.5934850499435572</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -9867,8 +9832,8 @@
       <c r="E142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F142" s="62">
-        <v>23652.17650414513</v>
+      <c r="F142" s="45">
+        <v>0.2144871441683855</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -9887,8 +9852,8 @@
       <c r="E143" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="62">
-        <v>23652.41301607941</v>
+      <c r="F143" s="45">
+        <v>0.5283760512467158</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -9907,8 +9872,8 @@
       <c r="E144" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F144" s="62">
-        <v>23652.71228039084</v>
+      <c r="F144" s="45">
+        <v>0.5934850499435572</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -9927,8 +9892,8 @@
       <c r="E145" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F145" s="62">
-        <v>23653.46811738121</v>
+      <c r="F145" s="45">
+        <v>0.5934850499435572</v>
       </c>
     </row>
   </sheetData>
@@ -9977,8 +9942,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="95">
-        <v>890.0308285183272</v>
+      <c r="F2" s="86">
+        <v>803.1812751303617</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9997,8 +9962,8 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="96">
-        <v>1496.012444027054</v>
+      <c r="F3" s="87">
+        <v>1336.031777485449</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10017,8 +9982,8 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="97">
-        <v>2107.245038847735</v>
+      <c r="F4" s="88">
+        <v>1873.499560122021</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10037,8 +10002,8 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="38">
-        <v>2796.81321740055</v>
+      <c r="F5" s="31">
+        <v>2479.849226425816</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10057,8 +10022,8 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="98">
-        <v>83.61744168785674</v>
+      <c r="F6" s="89">
+        <v>73.52628896353264</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10077,8 +10042,8 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9">
-        <v>125.0486758161432</v>
+      <c r="F7" s="90">
+        <v>109.9575161714986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10097,8 +10062,8 @@
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11">
-        <v>173.4952551084668</v>
+      <c r="F8" s="91">
+        <v>152.5574621973007</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10117,8 +10082,8 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="99">
-        <v>135.8165084996937</v>
+      <c r="F9" s="92">
+        <v>119.4258645633695</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -10138,7 +10103,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="8">
-        <v>23.36142772050749</v>
+        <v>20.54207044845885</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -10157,8 +10122,8 @@
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="100">
-        <v>39.17441608379789</v>
+      <c r="F11" s="9">
+        <v>34.44671471071221</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -10177,8 +10142,8 @@
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="101">
-        <v>58.48596946715987</v>
+      <c r="F12" s="16">
+        <v>51.42770993932626</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -10197,8 +10162,8 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="102">
-        <v>53.16947131339276</v>
+      <c r="F13" s="17">
+        <v>46.75281776520237</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -10218,7 +10183,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="7">
-        <v>3.725005432296051</v>
+        <v>3.27545699877504</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -10238,7 +10203,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="7">
-        <v>7.096133090591663</v>
+        <v>6.239737454153937</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -10258,7 +10223,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7">
-        <v>12.06095479092581</v>
+        <v>10.60536165127965</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -10278,7 +10243,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7">
-        <v>15.93904638038621</v>
+        <v>14.01546970107001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -10358,7 +10323,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="7">
-        <v>0.4616302094927468</v>
+        <v>0.4058970372856894</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -10398,7 +10363,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="7">
-        <v>0.1349348757747489</v>
+        <v>0.1186502623208978</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -10418,7 +10383,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="7">
-        <v>0.3599367201058793</v>
+        <v>0.3164984192852198</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -10438,7 +10403,7 @@
         <v>17</v>
       </c>
       <c r="F25" s="7">
-        <v>1.536502268468528</v>
+        <v>1.351073606805406</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -10457,8 +10422,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="103">
-        <v>316.0915251485631</v>
+      <c r="F26" s="93">
+        <v>282.5680492139797</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -10477,8 +10442,8 @@
       <c r="E27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="29">
-        <v>653.9542425013495</v>
+      <c r="F27" s="94">
+        <v>580.794932146989</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -10497,8 +10462,8 @@
       <c r="E28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="104">
-        <v>1005.87961023689</v>
+      <c r="F28" s="95">
+        <v>891.8550487206317</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -10517,8 +10482,8 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="22">
-        <v>1441.670002341504</v>
+      <c r="F29" s="96">
+        <v>1278.51315826898</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -10538,7 +10503,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="7">
-        <v>6.290866738551616</v>
+        <v>7.490339110399511</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -10557,8 +10522,8 @@
       <c r="E31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="100">
-        <v>40.64648060802619</v>
+      <c r="F31" s="17">
+        <v>38.86546159728617</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -10577,8 +10542,8 @@
       <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="98">
-        <v>84.10917964739554</v>
+      <c r="F32" s="97">
+        <v>78.34795040193163</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -10597,8 +10562,8 @@
       <c r="E33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="102">
-        <v>45.18877600115736</v>
+      <c r="F33" s="17">
+        <v>44.37270554155646</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -10638,7 +10603,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="7">
-        <v>0</v>
+        <v>0.1512404117173753</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -10658,7 +10623,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="7">
-        <v>0</v>
+        <v>1.884439371800327</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -10678,7 +10643,7 @@
         <v>17</v>
       </c>
       <c r="F37" s="7">
-        <v>0</v>
+        <v>1.383663756201884</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -10718,7 +10683,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="7">
-        <v>0</v>
+        <v>0.132651640073736</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -10738,7 +10703,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="7">
-        <v>0</v>
+        <v>0.3304997970380581</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -10758,7 +10723,7 @@
         <v>17</v>
       </c>
       <c r="F41" s="7">
-        <v>0</v>
+        <v>1.365074984558244</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -10918,7 +10883,7 @@
         <v>17</v>
       </c>
       <c r="F49" s="7">
-        <v>0</v>
+        <v>0.863987148889791</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -10957,8 +10922,8 @@
       <c r="E51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="10">
-        <v>194.7112420316693</v>
+      <c r="F51" s="98">
+        <v>174.4929232998252</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -10977,8 +10942,8 @@
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="105">
-        <v>488.9257397876959</v>
+      <c r="F52" s="99">
+        <v>434.1224557693292</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -10997,8 +10962,8 @@
       <c r="E53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="29">
-        <v>662.2544729695388</v>
+      <c r="F53" s="94">
+        <v>587.6979022728492</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -11417,8 +11382,8 @@
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F74" s="95">
-        <v>887.748580684791</v>
+      <c r="F74" s="86">
+        <v>803.1812751303617</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -11437,8 +11402,8 @@
       <c r="E75" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="96">
-        <v>1493.730196193518</v>
+      <c r="F75" s="87">
+        <v>1336.031777485449</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -11457,8 +11422,8 @@
       <c r="E76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F76" s="97">
-        <v>2104.962791014199</v>
+      <c r="F76" s="88">
+        <v>1873.499560122021</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -11477,8 +11442,8 @@
       <c r="E77" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="38">
-        <v>2794.530969567015</v>
+      <c r="F77" s="31">
+        <v>2479.849226425816</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -11497,8 +11462,8 @@
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="101">
-        <v>60.07463586395637</v>
+      <c r="F78" s="16">
+        <v>52.82470453873535</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -11517,8 +11482,8 @@
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="98">
-        <v>85.82796820999462</v>
+      <c r="F79" s="89">
+        <v>75.47007153783757</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -11537,8 +11502,8 @@
       <c r="E80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="9">
-        <v>126.2431982309678</v>
+      <c r="F80" s="90">
+        <v>111.0079077699572</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -11557,8 +11522,8 @@
       <c r="E81" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="106">
-        <v>99.27094052539503</v>
+      <c r="F81" s="100">
+        <v>87.29071818467219</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -11578,7 +11543,7 @@
         <v>11</v>
       </c>
       <c r="F82" s="7">
-        <v>12.88811012301628</v>
+        <v>11.33274609316134</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -11598,7 +11563,7 @@
         <v>16</v>
       </c>
       <c r="F83" s="7">
-        <v>19.88410073908514</v>
+        <v>17.48444559687282</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -11618,7 +11583,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="8">
-        <v>31.82191871792756</v>
+        <v>27.98158304172683</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -11637,8 +11602,8 @@
       <c r="E85" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F85" s="100">
-        <v>32.79100088105308</v>
+      <c r="F85" s="8">
+        <v>28.83371436754484</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -11658,7 +11623,7 @@
         <v>11</v>
       </c>
       <c r="F86" s="7">
-        <v>2.076092826937894</v>
+        <v>1.825545425191167</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -11678,7 +11643,7 @@
         <v>16</v>
       </c>
       <c r="F87" s="7">
-        <v>3.389526317628182</v>
+        <v>2.980471049026758</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -11698,7 +11663,7 @@
         <v>13</v>
       </c>
       <c r="F88" s="7">
-        <v>5.649434086945375</v>
+        <v>4.967648138147475</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -11718,7 +11683,7 @@
         <v>17</v>
       </c>
       <c r="F89" s="7">
-        <v>9.77310079674208</v>
+        <v>8.593662231026308</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -11798,7 +11763,7 @@
         <v>17</v>
       </c>
       <c r="F93" s="7">
-        <v>0.6370394888254576</v>
+        <v>0.5601599302728514</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -11818,7 +11783,7 @@
         <v>11</v>
       </c>
       <c r="F94" s="7">
-        <v>0.1215094003009042</v>
+        <v>0.1068453040674744</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -11838,7 +11803,7 @@
         <v>16</v>
       </c>
       <c r="F95" s="7">
-        <v>0.2993308757812854</v>
+        <v>0.2632069165558312</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -11858,7 +11823,7 @@
         <v>13</v>
       </c>
       <c r="F96" s="7">
-        <v>0.5243327201124158</v>
+        <v>0.4610550735201531</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -11878,7 +11843,7 @@
         <v>17</v>
       </c>
       <c r="F97" s="7">
-        <v>1.700898268475065</v>
+        <v>1.495630261040339</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -11897,8 +11862,8 @@
       <c r="E98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="13">
-        <v>224.4709615808381</v>
+      <c r="F98" s="101">
+        <v>203.3209666216952</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -11917,8 +11882,8 @@
       <c r="E99" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F99" s="107">
-        <v>493.3405424421207</v>
+      <c r="F99" s="102">
+        <v>440.7049114105608</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -11937,8 +11902,8 @@
       <c r="E100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="108">
-        <v>804.7745864116532</v>
+      <c r="F100" s="103">
+        <v>715.5488798848437</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -11957,8 +11922,8 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="109">
-        <v>1020.473655640766</v>
+      <c r="F101" s="104">
+        <v>908.3414904823828</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -11978,7 +11943,7 @@
         <v>11</v>
       </c>
       <c r="F102" s="8">
-        <v>29.8714763804514</v>
+        <v>27.05574256624677</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -11997,8 +11962,8 @@
       <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="101">
-        <v>55.62328753710755</v>
+      <c r="F103" s="16">
+        <v>49.70110956534902</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -12017,8 +11982,8 @@
       <c r="E104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="98">
-        <v>86.49505782924437</v>
+      <c r="F104" s="89">
+        <v>76.84721084590687</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -12037,8 +12002,8 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="110">
-        <v>69.06625985250801</v>
+      <c r="F105" s="105">
+        <v>61.52175621218365</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -12058,7 +12023,7 @@
         <v>11</v>
       </c>
       <c r="F106" s="7">
-        <v>2.316278604380043</v>
+        <v>3.282290186279559</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -12078,7 +12043,7 @@
         <v>16</v>
       </c>
       <c r="F107" s="7">
-        <v>8.071659507795037</v>
+        <v>8.318065873691957</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -12098,7 +12063,7 @@
         <v>13</v>
       </c>
       <c r="F108" s="7">
-        <v>16.45530140468269</v>
+        <v>15.58404525100608</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -12118,7 +12083,7 @@
         <v>17</v>
       </c>
       <c r="F109" s="7">
-        <v>19.05359202882384</v>
+        <v>17.97467609238199</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -12138,7 +12103,7 @@
         <v>11</v>
       </c>
       <c r="F110" s="7">
-        <v>0.2682291470282672</v>
+        <v>0.6651628296252443</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -12158,7 +12123,7 @@
         <v>16</v>
       </c>
       <c r="F111" s="7">
-        <v>0.563080876667762</v>
+        <v>1.345197517537025</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -12178,7 +12143,7 @@
         <v>13</v>
       </c>
       <c r="F112" s="7">
-        <v>1.828998157790998</v>
+        <v>2.663079835109937</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -12198,7 +12163,7 @@
         <v>17</v>
       </c>
       <c r="F113" s="7">
-        <v>5.328613297563545</v>
+        <v>5.740354190556808</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -12278,7 +12243,7 @@
         <v>17</v>
       </c>
       <c r="F117" s="7">
-        <v>0.372342434712183</v>
+        <v>0.496685047502812</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -12298,7 +12263,7 @@
         <v>11</v>
       </c>
       <c r="F118" s="7">
-        <v>0</v>
+        <v>0.04337042129743493</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -12318,7 +12283,7 @@
         <v>16</v>
       </c>
       <c r="F119" s="7">
-        <v>0.03463382166801091</v>
+        <v>0.1997320337857917</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -12338,7 +12303,7 @@
         <v>13</v>
       </c>
       <c r="F120" s="7">
-        <v>0.2596356659991413</v>
+        <v>0.3975801907501137</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -12358,7 +12323,7 @@
         <v>17</v>
       </c>
       <c r="F121" s="7">
-        <v>1.43620121436179</v>
+        <v>1.4321553782703</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -12378,7 +12343,7 @@
         <v>11</v>
       </c>
       <c r="F122" s="7">
-        <v>0</v>
+        <v>0.1832298589932241</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -12397,8 +12362,8 @@
       <c r="E123" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="102">
-        <v>45.97362802507425</v>
+      <c r="F123" s="17">
+        <v>44.2901305714438</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -12417,8 +12382,8 @@
       <c r="E124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F124" s="13">
-        <v>220.0654997115531</v>
+      <c r="F124" s="101">
+        <v>198.6972097152918</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -12437,8 +12402,8 @@
       <c r="E125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F125" s="98">
-        <v>83.924781096443</v>
+      <c r="F125" s="97">
+        <v>80.02535672615343</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -12458,7 +12423,7 @@
         <v>11</v>
       </c>
       <c r="F126" s="7">
-        <v>0</v>
+        <v>0.1832283306328507</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -12478,7 +12443,7 @@
         <v>16</v>
       </c>
       <c r="F127" s="7">
-        <v>0</v>
+        <v>0.3395899431212074</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -12498,7 +12463,7 @@
         <v>13</v>
       </c>
       <c r="F128" s="7">
-        <v>14.55036203084586</v>
+        <v>13.82675779569975</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -12518,7 +12483,7 @@
         <v>17</v>
       </c>
       <c r="F129" s="7">
-        <v>1.021068327386032</v>
+        <v>2.3070247456253</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -12538,7 +12503,7 @@
         <v>11</v>
       </c>
       <c r="F130" s="7">
-        <v>0</v>
+        <v>0.183056694350215</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -12558,7 +12523,7 @@
         <v>16</v>
       </c>
       <c r="F131" s="7">
-        <v>0</v>
+        <v>0.3394183068385718</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -12578,7 +12543,7 @@
         <v>13</v>
       </c>
       <c r="F132" s="7">
-        <v>0</v>
+        <v>0.5372664638028937</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -12598,7 +12563,7 @@
         <v>17</v>
       </c>
       <c r="F133" s="7">
-        <v>1.020873134914199</v>
+        <v>2.257294927043349</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -12618,7 +12583,7 @@
         <v>11</v>
       </c>
       <c r="F134" s="7">
-        <v>0</v>
+        <v>0.1696363119395397</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -12638,7 +12603,7 @@
         <v>16</v>
       </c>
       <c r="F135" s="7">
-        <v>0</v>
+        <v>0.3259979244278965</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -12658,7 +12623,7 @@
         <v>13</v>
       </c>
       <c r="F136" s="7">
-        <v>0</v>
+        <v>0.5238460813922186</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -12678,7 +12643,7 @@
         <v>17</v>
       </c>
       <c r="F137" s="7">
-        <v>1.005610874654017</v>
+        <v>1.972834606638496</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -12758,7 +12723,7 @@
         <v>17</v>
       </c>
       <c r="F141" s="7">
-        <v>0</v>
+        <v>0.2611846791942193</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -12818,7 +12783,7 @@
         <v>13</v>
       </c>
       <c r="F144" s="7">
-        <v>0</v>
+        <v>0.162079822441521</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -12838,7 +12803,7 @@
         <v>17</v>
       </c>
       <c r="F145" s="7">
-        <v>0.5941940738133797</v>
+        <v>1.196655009961707</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="81">
+  <fills count="122">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,13 +120,625 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4DFDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C7C7"/>
+        <fgColor rgb="FFF4E0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C8C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B9B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E4E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3ECEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CBCB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5BEBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6AAAA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF89090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E9E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA6060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4848"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3939"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF96F6F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA6868"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97171"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4949"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3B3B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA6969"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA5F5F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97272"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4C4C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2121"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF96E6E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA6262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FC68F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CC58C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BC48B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8DC58D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90C790"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BCC9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2CFA2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6D2A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF91C791"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95C995"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8DAB8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1E6D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF3EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98CA98"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0CEA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCDCBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97CA97"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF038103"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF058205"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF068306"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF138913"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1D8E1D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF289328"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF128912"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E972E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF56AA56"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CBD7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF098509"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF148A14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF319831"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF088408"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF078407"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2DFC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA3D0A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92C892"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3E7D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F1E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ECE9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69B369"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF349A34"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDECDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9E2C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCECDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFEDDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6DB66D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBDCBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF2EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4AA44A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCBE4CB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F0E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A3A3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3A3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6ABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88B8B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DEDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79B9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97777"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,49 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5CACA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5BDBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5CBCB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6A9A9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF88F8F"/>
+        <fgColor rgb="FFF6ACAC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,355 +762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFA6060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4848"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3939"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97070"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF96F6F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97171"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97272"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA5F5F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4949"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3A3A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4B4B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD2121"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FC68F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8CC58C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8BC48B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90C790"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF91C791"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BCC9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2CFA2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6D2A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8DAB8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1E6D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF3EB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94C994"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF038103"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF058205"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF068306"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF138913"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1D8E1D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF289328"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2E972E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF56AA56"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CBD7C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF088408"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF078407"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2DFC2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA3D0A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92C892"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF2EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ECE9E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF69B369"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF349A34"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7F1E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F0E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6DB66D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4AA44A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6F1E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7A3A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E9E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E2E2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D5D5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79B9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97777"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E8E8"/>
+        <fgColor rgb="FFF3E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E5E5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,13 +792,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3EBEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E8E7"/>
+        <fgColor rgb="FFF4D6D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E3E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79F9F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,13 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6ABAB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF79898"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D0D0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -638,12 +884,12 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -651,51 +897,51 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -705,6 +951,47 @@
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6">
-        <v>37383.15159403763</v>
+        <v>37490.49492452692</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1119,7 +1406,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="7">
-        <v>37441.13681757262</v>
+        <v>37887.56661130874</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1138,8 +1425,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7">
-        <v>37416.69826644933</v>
+      <c r="F7" s="8">
+        <v>38212.80964096187</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1158,8 +1445,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8">
-        <v>37334.97167483041</v>
+      <c r="F8" s="9">
+        <v>37385.76194420527</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1178,8 +1465,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8">
-        <v>37339.27911170072</v>
+      <c r="F9" s="10">
+        <v>37545.99352427768</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1198,8 +1485,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="8">
-        <v>37342.05625162341</v>
+      <c r="F10" s="11">
+        <v>37453.02879417115</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1218,8 +1505,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8">
-        <v>37332.79195938796</v>
+      <c r="F11" s="9">
+        <v>37395.54083966072</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1238,8 +1525,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="8">
-        <v>37332.79195938796</v>
+      <c r="F12" s="10">
+        <v>37559.4511818316</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1258,8 +1545,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="8">
-        <v>37333.32604654493</v>
+      <c r="F13" s="6">
+        <v>37472.21420633512</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1298,7 +1585,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="12">
         <v>38862.37038121407</v>
       </c>
     </row>
@@ -1318,7 +1605,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="13">
         <v>39409.03516301885</v>
       </c>
     </row>
@@ -1339,7 +1626,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6">
-        <v>37377.18358916603</v>
+        <v>37483.88802480543</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1359,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="7">
-        <v>37435.16881270102</v>
+        <v>37872.04289509112</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1378,8 +1665,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="7">
-        <v>37410.73026157772</v>
+      <c r="F19" s="14">
+        <v>38189.8711056198</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1398,8 +1685,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="8">
-        <v>37334.33002438084</v>
+      <c r="F20" s="9">
+        <v>37379.58649703812</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1418,8 +1705,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="8">
-        <v>37337.85352696716</v>
+      <c r="F21" s="10">
+        <v>37537.94697893425</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1438,8 +1725,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="8">
-        <v>37340.57635823706</v>
+      <c r="F22" s="11">
+        <v>37448.19082480113</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1458,8 +1745,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="8">
-        <v>37332.79195938796</v>
+      <c r="F23" s="9">
+        <v>37389.50869071848</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1478,8 +1765,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="8">
-        <v>37332.79195938796</v>
+      <c r="F24" s="10">
+        <v>37552.30761756487</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1498,8 +1785,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="8">
-        <v>37333.29334855909</v>
+      <c r="F25" s="6">
+        <v>37463.17788648279</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1518,7 +1805,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="15">
         <v>38820.09493073855</v>
       </c>
     </row>
@@ -1538,7 +1825,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="16">
         <v>40176.08684177568</v>
       </c>
     </row>
@@ -1558,7 +1845,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="17">
         <v>41241.89777610592</v>
       </c>
     </row>
@@ -1578,8 +1865,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="6">
-        <v>37404.04639626412</v>
+      <c r="F29" s="18">
+        <v>37603.96999706588</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1599,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="14">
-        <v>37474.5840367792</v>
+        <v>38186.62819753488</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1618,8 +1905,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="14">
-        <v>37451.94694363237</v>
+      <c r="F31" s="19">
+        <v>39170.48945010785</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1638,8 +1925,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="8">
-        <v>37335.78573278843</v>
+      <c r="F32" s="9">
+        <v>37411.42027899526</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1658,8 +1945,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="8">
-        <v>37341.6846714218</v>
+      <c r="F33" s="20">
+        <v>37648.1056894984</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1678,8 +1965,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="8">
-        <v>37345.30556767998</v>
+      <c r="F34" s="10">
+        <v>37564.1745709563</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1698,8 +1985,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="8">
-        <v>37332.79195938796</v>
+      <c r="F35" s="11">
+        <v>37427.75303016329</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1718,8 +2005,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="8">
-        <v>37332.79195938796</v>
+      <c r="F36" s="20">
+        <v>37658.53375115538</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1738,8 +2025,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="8">
-        <v>37333.36451097934</v>
+      <c r="F37" s="10">
+        <v>37561.84975887099</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1758,7 +2045,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F38" s="21">
         <v>43146.87751981514</v>
       </c>
     </row>
@@ -1778,7 +2065,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="22">
         <v>44101.76903663111</v>
       </c>
     </row>
@@ -1798,7 +2085,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="23">
         <v>44694.68505036762</v>
       </c>
     </row>
@@ -1818,8 +2105,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="18">
-        <v>42475.32805651157</v>
+      <c r="F41" s="24">
+        <v>42541.9678382339</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1838,8 +2125,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="19">
-        <v>42517.8453471593</v>
+      <c r="F42" s="25">
+        <v>42821.7152006235</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1858,8 +2145,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="18">
-        <v>42500.39894580901</v>
+      <c r="F43" s="21">
+        <v>43155.50989436005</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1878,8 +2165,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="20">
-        <v>42438.17707060384</v>
+      <c r="F44" s="26">
+        <v>42460.78688361657</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1898,8 +2185,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="20">
-        <v>42440.44808599587</v>
+      <c r="F45" s="27">
+        <v>42511.77039385081</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1918,8 +2205,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="20">
-        <v>42443.06928298871</v>
+      <c r="F46" s="26">
+        <v>42486.90840482202</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1938,8 +2225,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="21">
-        <v>42436.85760197356</v>
+      <c r="F47" s="26">
+        <v>42463.42532364777</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1958,8 +2245,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="21">
-        <v>42436.85760197356</v>
+      <c r="F48" s="24">
+        <v>42535.51332075584</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1978,8 +2265,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="21">
-        <v>42437.26270577266</v>
+      <c r="F49" s="26">
+        <v>42496.8518929108</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1998,7 +2285,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F50" s="21">
         <v>43174.29827220868</v>
       </c>
     </row>
@@ -2018,7 +2305,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="28">
         <v>44042.88994517744</v>
       </c>
     </row>
@@ -2038,7 +2325,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="29">
         <v>44632.76660394678</v>
       </c>
     </row>
@@ -2058,8 +2345,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="20">
-        <v>42469.6983827214</v>
+      <c r="F53" s="27">
+        <v>42529.41815279475</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2078,8 +2365,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="18">
-        <v>42511.08602923178</v>
+      <c r="F54" s="30">
+        <v>42792.54578025143</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2098,8 +2385,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="18">
-        <v>42494.76927201885</v>
+      <c r="F55" s="31">
+        <v>43207.54276501382</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2118,8 +2405,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="20">
-        <v>42437.85878947384</v>
+      <c r="F56" s="32">
+        <v>42456.26732785177</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2138,8 +2425,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="20">
-        <v>42439.84392065355</v>
+      <c r="F57" s="27">
+        <v>42505.64278778723</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2158,8 +2445,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="20">
-        <v>42442.3180540411</v>
+      <c r="F58" s="26">
+        <v>42481.97457043862</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2178,8 +2465,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="21">
-        <v>42436.85760197356</v>
+      <c r="F59" s="32">
+        <v>42458.78580147695</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2198,8 +2485,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="21">
-        <v>42436.85760197356</v>
+      <c r="F60" s="27">
+        <v>42525.5570406761</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2218,8 +2505,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="21">
-        <v>42437.24270872962</v>
+      <c r="F61" s="26">
+        <v>42489.3349762876</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2238,7 +2525,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="33">
         <v>43964.38010005821</v>
       </c>
     </row>
@@ -2258,7 +2545,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="34">
         <v>45673.59602566905</v>
       </c>
     </row>
@@ -2278,7 +2565,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="27">
+      <c r="F64" s="35">
         <v>47012.52701914091</v>
       </c>
     </row>
@@ -2298,8 +2585,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="18">
-        <v>42488.11400787481</v>
+      <c r="F65" s="36">
+        <v>42585.87510575628</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2318,8 +2605,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="19">
-        <v>42546.53978523452</v>
+      <c r="F66" s="37">
+        <v>43080.9108578156</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2338,8 +2625,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="19">
-        <v>42522.54561892624</v>
+      <c r="F67" s="28">
+        <v>44073.93921209701</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2358,8 +2645,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="20">
-        <v>42438.52127402808</v>
+      <c r="F68" s="26">
+        <v>42470.65558151645</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2378,8 +2665,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="20">
-        <v>42441.47084454677</v>
+      <c r="F69" s="24">
+        <v>42548.68478832724</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2398,8 +2685,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="20">
-        <v>42444.50156695934</v>
+      <c r="F70" s="27">
+        <v>42511.98215560726</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2418,8 +2705,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="21">
-        <v>42436.85760197356</v>
+      <c r="F71" s="26">
+        <v>42476.01538714891</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2438,8 +2725,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="21">
-        <v>42436.85760197356</v>
+      <c r="F72" s="36">
+        <v>42576.14125782856</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2458,8 +2745,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="21">
-        <v>42437.2854784107</v>
+      <c r="F73" s="27">
+        <v>42524.91536581161</v>
       </c>
     </row>
   </sheetData>
@@ -2508,7 +2795,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="38">
         <v>7526.317007325268</v>
       </c>
     </row>
@@ -2528,7 +2815,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="39">
         <v>7641.74377550096</v>
       </c>
     </row>
@@ -2548,7 +2835,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="40">
         <v>7655.177428068251</v>
       </c>
     </row>
@@ -2568,8 +2855,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="31">
-        <v>7451.716828000943</v>
+      <c r="F5" s="38">
+        <v>7484.587833051628</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2588,8 +2875,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="28">
-        <v>7472.76277769972</v>
+      <c r="F6" s="41">
+        <v>7585.895685811509</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2608,8 +2895,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="31">
-        <v>7464.069731189082</v>
+      <c r="F7" s="41">
+        <v>7592.270696098678</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2628,8 +2915,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="32">
-        <v>7433.99114782884</v>
+      <c r="F8" s="42">
+        <v>7452.407487892349</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2648,8 +2935,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="31">
-        <v>7435.640122759289</v>
+      <c r="F9" s="38">
+        <v>7504.132681232119</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2668,8 +2955,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="31">
-        <v>7436.704502746343</v>
+      <c r="F10" s="38">
+        <v>7475.121380337516</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2688,8 +2975,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="32">
-        <v>7433.155650036493</v>
+      <c r="F11" s="42">
+        <v>7455.714864070796</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2708,8 +2995,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="32">
-        <v>7433.155650036493</v>
+      <c r="F12" s="38">
+        <v>7508.886192690064</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2728,8 +3015,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="32">
-        <v>7433.360486766105</v>
+      <c r="F13" s="38">
+        <v>7481.233153766711</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2748,7 +3035,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="43">
         <v>7024.441944697281</v>
       </c>
     </row>
@@ -2768,7 +3055,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="44">
         <v>6783.149043639318</v>
       </c>
     </row>
@@ -2788,7 +3075,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="45">
         <v>6608.194684521932</v>
       </c>
     </row>
@@ -2808,8 +3095,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="32">
-        <v>7424.126568428437</v>
+      <c r="F17" s="46">
+        <v>7414.14403284752</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2828,8 +3115,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="31">
-        <v>7445.172518127214</v>
+      <c r="F18" s="42">
+        <v>7466.051404946031</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2848,8 +3135,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="31">
-        <v>7436.479471616576</v>
+      <c r="F19" s="47">
+        <v>7281.461323232128</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2868,8 +3155,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="32">
-        <v>7432.088028617432</v>
+      <c r="F20" s="46">
+        <v>7417.942739344348</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2888,8 +3175,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="32">
-        <v>7431.157890070519</v>
+      <c r="F21" s="42">
+        <v>7441.081573799078</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2908,8 +3195,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="32">
-        <v>7432.061072893499</v>
+      <c r="F22" s="46">
+        <v>7419.020354366328</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2928,8 +3215,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="32">
-        <v>7433.155650036493</v>
+      <c r="F23" s="46">
+        <v>7419.599452745066</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2948,8 +3235,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="32">
-        <v>7433.155650036493</v>
+      <c r="F24" s="42">
+        <v>7452.515101813799</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2968,8 +3255,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="32">
-        <v>7433.290842887682</v>
+      <c r="F25" s="46">
+        <v>7426.75481847604</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2988,7 +3275,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="48">
         <v>5972.38224728867</v>
       </c>
     </row>
@@ -3008,7 +3295,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="49">
         <v>5037.127154289265</v>
       </c>
     </row>
@@ -3028,7 +3315,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="50">
         <v>4035.335950068962</v>
       </c>
     </row>
@@ -3048,8 +3335,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="39">
-        <v>7361.901213160338</v>
+      <c r="F29" s="51">
+        <v>7165.596640501826</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3068,8 +3355,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="40">
-        <v>7326.551254751211</v>
+      <c r="F30" s="52">
+        <v>6853.464875756896</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3088,8 +3375,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="40">
-        <v>7321.544209534009</v>
+      <c r="F31" s="53">
+        <v>5805.453599291333</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3108,8 +3395,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="32">
-        <v>7430.161876636023</v>
+      <c r="F32" s="54">
+        <v>7354.527330429212</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3128,8 +3415,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="32">
-        <v>7424.58235250596</v>
+      <c r="F33" s="51">
+        <v>7175.401097826402</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3148,8 +3435,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="32">
-        <v>7421.996031435281</v>
+      <c r="F34" s="55">
+        <v>7203.138391749419</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3168,8 +3455,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="32">
-        <v>7433.155650036493</v>
+      <c r="F35" s="54">
+        <v>7338.194579261172</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3188,8 +3475,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="32">
-        <v>7433.155650036493</v>
+      <c r="F36" s="51">
+        <v>7187.485295646615</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3208,8 +3495,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="32">
-        <v>7432.816761687757</v>
+      <c r="F37" s="55">
+        <v>7209.490293436837</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3228,7 +3515,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="56">
         <v>12788.24710269182</v>
       </c>
     </row>
@@ -3248,7 +3535,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="57">
         <v>12903.67387086751</v>
       </c>
     </row>
@@ -3268,7 +3555,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="57">
         <v>12917.1075234348</v>
       </c>
     </row>
@@ -3288,8 +3575,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="43">
-        <v>12709.4366631453</v>
+      <c r="F41" s="58">
+        <v>12731.7596156854</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3308,8 +3595,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="43">
-        <v>12725.0847960323</v>
+      <c r="F42" s="56">
+        <v>12810.89635625786</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3328,8 +3615,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="43">
-        <v>12718.83178749379</v>
+      <c r="F43" s="56">
+        <v>12811.32360872874</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3348,8 +3635,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="44">
-        <v>12695.59169252209</v>
+      <c r="F44" s="59">
+        <v>12704.08076427906</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3368,8 +3655,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="44">
-        <v>12696.46212672706</v>
+      <c r="F45" s="58">
+        <v>12722.67516056393</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3388,8 +3675,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="44">
-        <v>12697.4669438271</v>
+      <c r="F46" s="58">
+        <v>12713.84252576112</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3408,8 +3695,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="44">
-        <v>12695.08574540304</v>
+      <c r="F47" s="59">
+        <v>12705.02792222194</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3428,8 +3715,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="44">
-        <v>12695.08574540304</v>
+      <c r="F48" s="58">
+        <v>12730.72059778032</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3448,8 +3735,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="44">
-        <v>12695.24111356024</v>
+      <c r="F49" s="58">
+        <v>12717.33891322959</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3468,7 +3755,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="60">
         <v>12160.95364948288</v>
       </c>
     </row>
@@ -3488,7 +3775,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="61">
         <v>11804.55485389116</v>
       </c>
     </row>
@@ -3508,7 +3795,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="47">
+      <c r="F52" s="62">
         <v>11407.37915216324</v>
       </c>
     </row>
@@ -3528,8 +3815,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="44">
-        <v>12689.30584990843</v>
+      <c r="F53" s="59">
+        <v>12679.70016894025</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3548,8 +3835,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="44">
-        <v>12697.70967167771</v>
+      <c r="F54" s="59">
+        <v>12672.15439138942</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3568,8 +3855,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="44">
-        <v>12698.70097425691</v>
+      <c r="F55" s="63">
+        <v>12201.70218765849</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3588,8 +3875,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="44">
-        <v>12694.75005632926</v>
+      <c r="F56" s="59">
+        <v>12686.19667243494</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3608,8 +3895,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="44">
-        <v>12694.76349296113</v>
+      <c r="F57" s="59">
+        <v>12692.50046340397</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3628,8 +3915,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="44">
-        <v>12695.36663392901</v>
+      <c r="F58" s="59">
+        <v>12691.5986040759</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3648,8 +3935,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="44">
-        <v>12695.08574540304</v>
+      <c r="F59" s="59">
+        <v>12683.90695736571</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3668,8 +3955,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="44">
-        <v>12695.08574540304</v>
+      <c r="F60" s="59">
+        <v>12691.98577033498</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3688,8 +3975,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="44">
-        <v>12695.19768260522</v>
+      <c r="F61" s="59">
+        <v>12689.11655282692</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3708,7 +3995,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="48">
+      <c r="F62" s="64">
         <v>11167.74671002897</v>
       </c>
     </row>
@@ -3728,7 +4015,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="49">
+      <c r="F63" s="65">
         <v>9657.024318165388</v>
       </c>
     </row>
@@ -3748,7 +4035,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="50">
+      <c r="F64" s="66">
         <v>8199.379735498071</v>
       </c>
     </row>
@@ -3768,8 +4055,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="44">
-        <v>12644.01280068436</v>
+      <c r="F65" s="67">
+        <v>12546.25170428193</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3788,8 +4075,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="51">
-        <v>12599.25009329226</v>
+      <c r="F66" s="68">
+        <v>12132.32622636768</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3808,8 +4095,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="52">
-        <v>12611.71872792113</v>
+      <c r="F67" s="69">
+        <v>11071.31079476583</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3828,8 +4115,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="44">
-        <v>12693.5919457478</v>
+      <c r="F68" s="59">
+        <v>12661.47079313621</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3848,8 +4135,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="44">
-        <v>12690.99658499857</v>
+      <c r="F69" s="70">
+        <v>12583.79579609485</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3868,8 +4155,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="44">
-        <v>12689.41610883089</v>
+      <c r="F70" s="71">
+        <v>12622.21903611022</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3888,8 +4175,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="44">
-        <v>12695.08574540304</v>
+      <c r="F71" s="59">
+        <v>12656.0694338469</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3908,8 +4195,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="44">
-        <v>12695.08574540304</v>
+      <c r="F72" s="67">
+        <v>12556.2977729367</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3928,8 +4215,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="44">
-        <v>12694.91959852269</v>
+      <c r="F73" s="71">
+        <v>12609.00118558295</v>
       </c>
     </row>
   </sheetData>
@@ -3978,7 +4265,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="50">
         <v>0</v>
       </c>
     </row>
@@ -3998,7 +4285,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4018,7 +4305,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4038,7 +4325,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4058,7 +4345,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4078,7 +4365,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4098,7 +4385,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4118,7 +4405,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4138,7 +4425,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4158,7 +4445,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4178,7 +4465,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4198,7 +4485,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4218,7 +4505,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="72">
         <v>1650.829858861342</v>
       </c>
     </row>
@@ -4238,7 +4525,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="73">
         <v>2881.854852240659</v>
       </c>
     </row>
@@ -4258,7 +4545,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="74">
         <v>3533.499652148049</v>
       </c>
     </row>
@@ -4278,8 +4565,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="56">
-        <v>66.26411867391265</v>
+      <c r="F17" s="75">
+        <v>183.827075772615</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4298,8 +4585,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="56">
-        <v>66.26411867391265</v>
+      <c r="F18" s="76">
+        <v>330.513716496191</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4318,8 +4605,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="56">
-        <v>66.26411867391265</v>
+      <c r="F19" s="77">
+        <v>976.3257276115362</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4338,8 +4625,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="38">
-        <v>4.610719237216883</v>
+      <c r="F20" s="78">
+        <v>84.24558607264686</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4358,8 +4645,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="38">
-        <v>10.6908626451255</v>
+      <c r="F21" s="79">
+        <v>161.7408486386202</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4378,8 +4665,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="38">
-        <v>11.06159656496076</v>
+      <c r="F22" s="80">
+        <v>144.3323292190903</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4398,8 +4685,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="38">
-        <v>0</v>
+      <c r="F23" s="78">
+        <v>88.73523092029185</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4418,8 +4705,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="38">
-        <v>0</v>
+      <c r="F24" s="80">
+        <v>143.2901716681866</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4438,8 +4725,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="38">
-        <v>0.1659259682065054</v>
+      <c r="F25" s="80">
+        <v>136.6083246091488</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4458,7 +4745,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="81">
         <v>3084.46527939775</v>
       </c>
     </row>
@@ -4478,7 +4765,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="58">
+      <c r="F27" s="82">
         <v>5218.548969676591</v>
       </c>
     </row>
@@ -4498,7 +4785,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="83">
         <v>7290.550607051456</v>
       </c>
     </row>
@@ -4518,8 +4805,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="60">
-        <v>157.9963648259174</v>
+      <c r="F29" s="84">
+        <v>582.134007671943</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4538,8 +4825,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="61">
-        <v>256.8775813585121</v>
+      <c r="F30" s="85">
+        <v>1375.553123106679</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4558,8 +4845,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="61">
-        <v>252.201973337168</v>
+      <c r="F31" s="54">
+        <v>3520.186422001009</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4578,8 +4865,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="38">
-        <v>7.004915824869674</v>
+      <c r="F32" s="79">
+        <v>173.7885881067872</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4598,8 +4885,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="38">
-        <v>19.88245120826813</v>
+      <c r="F33" s="86">
+        <v>593.5547460227471</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4618,8 +4905,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="38">
-        <v>26.52512966797964</v>
+      <c r="F34" s="87">
+        <v>503.0739806847629</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4638,8 +4925,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="38">
-        <v>0</v>
+      <c r="F35" s="75">
+        <v>209.2314853448774</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4658,8 +4945,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="38">
-        <v>0</v>
+      <c r="F36" s="84">
+        <v>579.5182342238497</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4678,8 +4965,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="38">
-        <v>1.00639298265476</v>
+      <c r="F37" s="87">
+        <v>492.521388025198</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4698,7 +4985,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4718,7 +5005,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4738,7 +5025,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4758,7 +5045,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4778,7 +5065,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4798,7 +5085,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4818,7 +5105,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4838,7 +5125,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4858,7 +5145,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4878,7 +5165,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4898,7 +5185,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4918,7 +5205,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4938,7 +5225,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="48">
         <v>2033.809028558813</v>
       </c>
     </row>
@@ -4958,7 +5245,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="42">
         <v>3628.26835827906</v>
       </c>
     </row>
@@ -4978,7 +5265,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="88">
         <v>5019.446721344348</v>
       </c>
     </row>
@@ -4998,8 +5285,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="56">
-        <v>47.96078359189266</v>
+      <c r="F53" s="80">
+        <v>128.5209299243098</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5018,8 +5305,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="56">
-        <v>66.20198877681104</v>
+      <c r="F54" s="89">
+        <v>373.2152226738353</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5038,8 +5325,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="56">
-        <v>47.96078359189266</v>
+      <c r="F55" s="90">
+        <v>1947.404849211568</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5058,8 +5345,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="38">
-        <v>2.044086645936808</v>
+      <c r="F56" s="91">
+        <v>43.08939876556691</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5078,8 +5365,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="38">
-        <v>4.104392192549324</v>
+      <c r="F57" s="78">
+        <v>74.26416509381531</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5098,8 +5385,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="38">
-        <v>5.048387286409375</v>
+      <c r="F58" s="91">
+        <v>54.23442527248671</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5118,8 +5405,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="38">
-        <v>0</v>
+      <c r="F59" s="91">
+        <v>51.51758776998382</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5138,8 +5425,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="38">
-        <v>0</v>
+      <c r="F60" s="78">
+        <v>93.97536146749252</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5158,8 +5445,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="38">
-        <v>0.1028352577304621</v>
+      <c r="F61" s="91">
+        <v>67.75408785841486</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5178,7 +5465,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F62" s="43">
         <v>3209.189600955568</v>
       </c>
     </row>
@@ -5198,7 +5485,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="63">
+      <c r="F63" s="92">
         <v>6452.649325876972</v>
       </c>
     </row>
@@ -5218,7 +5505,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F64" s="57">
         <v>9411.587846975366</v>
       </c>
     </row>
@@ -5238,8 +5525,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="64">
-        <v>116.2330709838142</v>
+      <c r="F65" s="93">
+        <v>332.5187650247582</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5258,8 +5545,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="61">
-        <v>225.6768717574853</v>
+      <c r="F66" s="94">
+        <v>1272.319450561094</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5278,8 +5565,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="65">
-        <v>191.1415546556391</v>
+      <c r="F67" s="47">
+        <v>3432.60832080301</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5298,8 +5585,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="38">
-        <v>3.707858343653531</v>
+      <c r="F68" s="78">
+        <v>76.79899375583491</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5318,8 +5605,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="38">
-        <v>10.0352927215377</v>
+      <c r="F69" s="95">
+        <v>251.7820081772457</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5338,8 +5625,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="38">
-        <v>14.69020959038416</v>
+      <c r="F70" s="79">
+        <v>167.1821157144428</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5358,8 +5645,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="38">
-        <v>0</v>
+      <c r="F71" s="78">
+        <v>88.79171050021246</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5378,8 +5665,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="38">
-        <v>0</v>
+      <c r="F72" s="76">
+        <v>312.6598816286617</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5398,8 +5685,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="38">
-        <v>0.5930210644548625</v>
+      <c r="F73" s="75">
+        <v>196.4518348469257</v>
       </c>
     </row>
   </sheetData>
@@ -5448,7 +5735,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="66">
+      <c r="F2" s="96">
         <v>803.1812751303619</v>
       </c>
     </row>
@@ -5468,7 +5755,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="97">
         <v>1873.499560122021</v>
       </c>
     </row>
@@ -5488,7 +5775,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="35">
         <v>2479.849226425816</v>
       </c>
     </row>
@@ -5508,8 +5795,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="67">
-        <v>68.92081261411315</v>
+      <c r="F5" s="14">
+        <v>209.1351481540951</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5528,8 +5815,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="68">
-        <v>147.9519858478812</v>
+      <c r="F6" s="98">
+        <v>707.5146876957986</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5548,8 +5835,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="69">
-        <v>114.82038821395</v>
+      <c r="F7" s="99">
+        <v>1039.132727636089</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5568,8 +5855,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8">
-        <v>3.015213234798099</v>
+      <c r="F8" s="20">
+        <v>72.22182267315955</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5588,8 +5875,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8">
-        <v>8.971625035552561</v>
+      <c r="F9" s="100">
+        <v>284.1785960853406</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5608,8 +5895,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6">
-        <v>12.81314494530556</v>
+      <c r="F10" s="101">
+        <v>162.2025650842136</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5628,8 +5915,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="8">
-        <v>0</v>
+      <c r="F11" s="102">
+        <v>85.30809430705875</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5648,8 +5935,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="8">
-        <v>0</v>
+      <c r="F12" s="103">
+        <v>302.3897650972152</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5668,8 +5955,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="8">
-        <v>0.7389238865849204</v>
+      <c r="F13" s="104">
+        <v>187.4997506773731</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5688,7 +5975,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="100">
         <v>286.1479461511316</v>
       </c>
     </row>
@@ -5708,7 +5995,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="105">
         <v>879.5718154289259</v>
       </c>
     </row>
@@ -5728,7 +6015,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="106">
         <v>1251.282238116325</v>
       </c>
     </row>
@@ -5748,8 +6035,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="14">
-        <v>35.36254817001071</v>
+      <c r="F17" s="7">
+        <v>132.0844482284949</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5768,8 +6055,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="69">
-        <v>114.3937214037788</v>
+      <c r="F18" s="107">
+        <v>572.1466906127038</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5788,8 +6075,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="73">
-        <v>81.26212376984761</v>
+      <c r="F19" s="108">
+        <v>705.3848194274708</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5808,8 +6095,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="8">
-        <v>0.4704435738192609</v>
+      <c r="F20" s="109">
+        <v>31.58162695801087</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5828,8 +6115,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="8">
-        <v>3.063807613227472</v>
+      <c r="F21" s="14">
+        <v>213.0809433088728</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5848,8 +6135,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="8">
-        <v>6.689821706106303</v>
+      <c r="F22" s="110">
+        <v>101.2635697430059</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5868,8 +6155,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="8">
-        <v>0</v>
+      <c r="F23" s="10">
+        <v>43.16053403909244</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5888,8 +6175,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="8">
-        <v>0</v>
+      <c r="F24" s="111">
+        <v>238.8751099542148</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5908,8 +6195,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="8">
-        <v>0.6365820223177816</v>
+      <c r="F25" s="112">
+        <v>123.9850955343727</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5928,7 +6215,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>26.52956860275165</v>
       </c>
     </row>
@@ -5948,7 +6235,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="74">
+      <c r="F27" s="113">
         <v>447.2663866404827</v>
       </c>
     </row>
@@ -5968,7 +6255,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="75">
+      <c r="F28" s="114">
         <v>511.2861167504222</v>
       </c>
     </row>
@@ -5988,8 +6275,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="8">
-        <v>0</v>
+      <c r="F29" s="9">
+        <v>3.619028143245705</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6008,8 +6295,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="14">
-        <v>35.1876821059455</v>
+      <c r="F30" s="115">
+        <v>274.1454638673107</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6028,8 +6315,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="8">
-        <v>7.543543741909964</v>
+      <c r="F31" s="14">
+        <v>209.9954399747213</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6048,7 +6335,7 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6068,8 +6355,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="8">
-        <v>0.3194145032892469</v>
+      <c r="F33" s="18">
+        <v>57.55917790033037</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6088,8 +6375,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="8">
-        <v>1.353989690809433</v>
+      <c r="F34" s="9">
+        <v>1.365353281267226</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6108,7 +6395,7 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <v>0</v>
       </c>
     </row>
@@ -6128,8 +6415,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="8">
-        <v>0</v>
+      <c r="F36" s="102">
+        <v>80.07143737752703</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6148,8 +6435,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="8">
-        <v>0.2336632426461925</v>
+      <c r="F37" s="9">
+        <v>5.392442883357991</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6168,7 +6455,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="96">
         <v>803.1812751303619</v>
       </c>
     </row>
@@ -6188,7 +6475,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="97">
         <v>1873.499560122021</v>
       </c>
     </row>
@@ -6208,7 +6495,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="35">
         <v>2479.849226425816</v>
       </c>
     </row>
@@ -6228,8 +6515,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="76">
-        <v>52.82137228026796</v>
+      <c r="F41" s="116">
+        <v>141.7841065426883</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6248,8 +6535,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="69">
-        <v>110.9867958149954</v>
+      <c r="F42" s="117">
+        <v>500.6682095047611</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6268,8 +6555,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="77">
-        <v>87.28738592620482</v>
+      <c r="F43" s="118">
+        <v>834.8901557121877</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6288,8 +6575,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="8">
-        <v>1.825415749332406</v>
+      <c r="F44" s="109">
+        <v>32.9243005190282</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6308,8 +6595,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="8">
-        <v>4.96686534632999</v>
+      <c r="F45" s="110">
+        <v>102.5022070381353</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6328,8 +6615,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="8">
-        <v>8.592879439208822</v>
+      <c r="F46" s="20">
+        <v>68.80758320653729</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6348,8 +6635,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="8">
-        <v>0</v>
+      <c r="F47" s="109">
+        <v>36.50989849310458</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6368,8 +6655,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="8">
-        <v>0</v>
+      <c r="F48" s="7">
+        <v>134.2905711595562</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6388,8 +6675,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="8">
-        <v>0.5604719562918691</v>
+      <c r="F49" s="102">
+        <v>82.24745876379453</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6408,7 +6695,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="78">
+      <c r="F50" s="119">
         <v>203.3085743149552</v>
       </c>
     </row>
@@ -6428,7 +6715,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="79">
+      <c r="F51" s="98">
         <v>715.5014516919969</v>
       </c>
     </row>
@@ -6448,7 +6735,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="80">
+      <c r="F52" s="120">
         <v>908.2024087334084</v>
       </c>
     </row>
@@ -6468,8 +6755,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="7">
-        <v>27.06088525322274</v>
+      <c r="F53" s="20">
+        <v>77.17497435839286</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6488,8 +6775,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="67">
-        <v>76.85235353288284</v>
+      <c r="F54" s="121">
+        <v>332.7568242642446</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6508,8 +6795,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="81">
-        <v>61.52689889915959</v>
+      <c r="F55" s="115">
+        <v>277.3016052957108</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6528,8 +6815,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="8">
-        <v>0.6654984264945758</v>
+      <c r="F56" s="11">
+        <v>10.52065291011232</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6548,8 +6835,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="8">
-        <v>2.66406623806721</v>
+      <c r="F57" s="122">
+        <v>66.19990381458774</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6568,8 +6855,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="8">
-        <v>5.74134059351408</v>
+      <c r="F58" s="10">
+        <v>41.62982713791985</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6588,8 +6875,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="8">
-        <v>0</v>
+      <c r="F59" s="11">
+        <v>10.74941146605935</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6608,8 +6895,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="8">
-        <v>0</v>
+      <c r="F60" s="102">
+        <v>85.59946363447793</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6628,8 +6915,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="8">
-        <v>0.4970439582377673</v>
+      <c r="F61" s="10">
+        <v>46.50818173791374</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6648,7 +6935,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="9">
         <v>0.1834627105676357</v>
       </c>
     </row>
@@ -6668,7 +6955,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="78">
+      <c r="F63" s="119">
         <v>198.6769964578388</v>
       </c>
     </row>
@@ -6688,7 +6975,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="73">
+      <c r="F64" s="102">
         <v>79.96340726237918</v>
       </c>
     </row>
@@ -6708,8 +6995,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="8">
-        <v>0.1834611825710685</v>
+      <c r="F65" s="9">
+        <v>0.1834626616105195</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6728,8 +7015,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="6">
-        <v>13.84653115016949</v>
+      <c r="F66" s="102">
+        <v>81.29373680669678</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6748,8 +7035,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="8">
-        <v>2.320999470766093</v>
+      <c r="F67" s="11">
+        <v>13.30665948623112</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -6768,8 +7055,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="8">
-        <v>0.1698723992805488</v>
+      <c r="F68" s="9">
+        <v>0.1830272760493846</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -6788,8 +7075,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="8">
-        <v>0.5240821687332275</v>
+      <c r="F69" s="9">
+        <v>0.5372370455020633</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -6808,8 +7095,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="8">
-        <v>1.974328413627587</v>
+      <c r="F70" s="9">
+        <v>2.257844340878407</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -6828,8 +7115,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="8">
-        <v>0</v>
+      <c r="F71" s="9">
+        <v>0.1414736192097876</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -6848,8 +7135,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="8">
-        <v>0</v>
+      <c r="F72" s="9">
+        <v>0.4956833886624665</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -6868,8 +7155,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="8">
-        <v>0.2617295567876485</v>
+      <c r="F73" s="9">
+        <v>1.973204017953146</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="122">
+  <fills count="130">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,7 +126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5C8C7"/>
+        <fgColor rgb="FFF5C8C8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,36 +162,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3EAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3ECEC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4E1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CBCB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5BEBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3EFEF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5CBCB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5BEBE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF5CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -210,18 +234,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3EBEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF5C4C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF3E8E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF3E9E9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -246,31 +270,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF97070"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA6868"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97171"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF96F6F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFA6868"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97171"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97070"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4949"/>
+        <fgColor rgb="FFF97272"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4A4A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,19 +312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFA6969"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA5F5F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97272"/>
+        <fgColor rgb="FFFA5E5E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,13 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF96E6E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA6262"/>
+        <fgColor rgb="FFF96D6D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,30 +420,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF99CB99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1CFA1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCDCBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94C994"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACB9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF98CA98"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA0CEA0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCDCBC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF97CA97"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -456,6 +486,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF028102"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF068306"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,13 +546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF148A14"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF319831"/>
+        <fgColor rgb="FF178B17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339933"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0A850A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,126 +600,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E8D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F1E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ECE9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF69B369"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF349A34"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCECDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8E2C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F0E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEBDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8EAD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDECDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFEDDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6DB66D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBDCBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF2EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4AA44A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4F0E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7E1C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE3EFE3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3E7D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9F2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7F1E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ECE9E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF69B369"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF349A34"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDECDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9E2C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCECDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFEDDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6DB66D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EEE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBDCBB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF2EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4AA44A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCBE4CB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F0E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF7A3A3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -690,151 +756,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF88989"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D7D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DEDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79B9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97777"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DFDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C5C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5BFBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79D9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF6ABAB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF88B8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D5D5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E1E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E8E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DEDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79B9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97777"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B8B8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6ACAC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E7E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E5E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5BFBF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D6D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E3E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79F9F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DDDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF79898"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4D0D0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EAEA"/>
+        <fgColor rgb="FFF4CFCF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -890,10 +938,10 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -907,8 +955,8 @@
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -925,60 +973,60 @@
     <xf numFmtId="0" fontId="2" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="54" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="55" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="56" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="66" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="67" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -986,12 +1034,20 @@
     <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,7 +1442,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6">
-        <v>37490.49492452692</v>
+        <v>37498.43080197114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1406,7 +1462,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="7">
-        <v>37887.56661130874</v>
+        <v>37902.63267189218</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1426,7 +1482,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8">
-        <v>38212.80964096187</v>
+        <v>38231.43766327716</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1446,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="9">
-        <v>37385.76194420527</v>
+        <v>37410.71985159518</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1466,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="10">
-        <v>37545.99352427768</v>
+        <v>37621.04873812848</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1486,7 +1542,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="11">
-        <v>37453.02879417115</v>
+        <v>37537.15574481436</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1506,7 +1562,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="9">
-        <v>37395.54083966072</v>
+        <v>37395.5408395745</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1525,8 +1581,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="10">
-        <v>37559.4511818316</v>
+      <c r="F12" s="12">
+        <v>37559.45118173854</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1546,7 +1602,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>37472.21420633512</v>
+        <v>37472.21420624205</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1565,7 +1621,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="13">
         <v>38027.6536108783</v>
       </c>
     </row>
@@ -1585,7 +1641,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="14">
         <v>38862.37038121407</v>
       </c>
     </row>
@@ -1605,7 +1661,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="15">
         <v>39409.03516301885</v>
       </c>
     </row>
@@ -1626,7 +1682,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="6">
-        <v>37483.88802480543</v>
+        <v>37489.88472757782</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1646,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="7">
-        <v>37872.04289509112</v>
+        <v>37887.37253452981</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1665,8 +1721,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="14">
-        <v>38189.8711056198</v>
+      <c r="F19" s="16">
+        <v>38200.3933659232</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1686,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="9">
-        <v>37379.58649703812</v>
+        <v>37402.82638715756</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1705,8 +1761,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="10">
-        <v>37537.94697893425</v>
+      <c r="F21" s="17">
+        <v>37610.51451471172</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1726,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="F22" s="11">
-        <v>37448.19082480113</v>
+        <v>37527.02778757971</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1746,7 +1802,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="9">
-        <v>37389.50869071848</v>
+        <v>37389.50869061065</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1765,8 +1821,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="10">
-        <v>37552.30761756487</v>
+      <c r="F24" s="12">
+        <v>37552.30761752666</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1785,8 +1841,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="6">
-        <v>37463.17788648279</v>
+      <c r="F25" s="18">
+        <v>37463.17788638971</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1805,7 +1861,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="19">
         <v>38820.09493073855</v>
       </c>
     </row>
@@ -1825,7 +1881,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="20">
         <v>40176.08684177568</v>
       </c>
     </row>
@@ -1845,7 +1901,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="21">
         <v>41241.89777610592</v>
       </c>
     </row>
@@ -1865,8 +1921,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="18">
-        <v>37603.96999706588</v>
+      <c r="F29" s="17">
+        <v>37612.86830548158</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1885,8 +1941,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="14">
-        <v>38186.62819753488</v>
+      <c r="F30" s="16">
+        <v>38209.37177112736</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1905,8 +1961,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="19">
-        <v>39170.48945010785</v>
+      <c r="F31" s="22">
+        <v>39179.1577698071</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1925,8 +1981,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="9">
-        <v>37411.42027899526</v>
+      <c r="F32" s="18">
+        <v>37448.38755813866</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1945,8 +2001,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="20">
-        <v>37648.1056894984</v>
+      <c r="F33" s="23">
+        <v>37740.03366767087</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1965,8 +2021,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="10">
-        <v>37564.1745709563</v>
+      <c r="F34" s="24">
+        <v>37686.53228787622</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1985,8 +2041,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="11">
-        <v>37427.75303016329</v>
+      <c r="F35" s="18">
+        <v>37427.7530300599</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2005,8 +2061,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="20">
-        <v>37658.53375115538</v>
+      <c r="F36" s="24">
+        <v>37658.53375119837</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2025,8 +2081,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="10">
-        <v>37561.84975887099</v>
+      <c r="F37" s="12">
+        <v>37561.84975889421</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2045,7 +2101,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="25">
         <v>43146.87751981514</v>
       </c>
     </row>
@@ -2065,7 +2121,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="26">
         <v>44101.76903663111</v>
       </c>
     </row>
@@ -2085,7 +2141,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="23">
+      <c r="F40" s="27">
         <v>44694.68505036762</v>
       </c>
     </row>
@@ -2105,8 +2161,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="24">
-        <v>42541.9678382339</v>
+      <c r="F41" s="28">
+        <v>42520.59871654321</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2125,8 +2181,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="25">
-        <v>42821.7152006235</v>
+      <c r="F42" s="29">
+        <v>42840.58392931787</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2145,8 +2201,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="21">
-        <v>43155.50989436005</v>
+      <c r="F43" s="25">
+        <v>43175.26330096238</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2165,8 +2221,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="26">
-        <v>42460.78688361657</v>
+      <c r="F44" s="30">
+        <v>42470.88661173557</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2185,8 +2241,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="27">
-        <v>42511.77039385081</v>
+      <c r="F45" s="31">
+        <v>42565.16501139421</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2205,8 +2261,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="26">
-        <v>42486.90840482202</v>
+      <c r="F46" s="28">
+        <v>42509.63678944725</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2225,8 +2281,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="26">
-        <v>42463.42532364777</v>
+      <c r="F47" s="32">
+        <v>42463.42532364507</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2245,8 +2301,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="24">
-        <v>42535.51332075584</v>
+      <c r="F48" s="28">
+        <v>42535.51332053153</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2265,8 +2321,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="26">
-        <v>42496.8518929108</v>
+      <c r="F49" s="30">
+        <v>42496.8518928113</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2285,7 +2341,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="25">
         <v>43174.29827220868</v>
       </c>
     </row>
@@ -2305,7 +2361,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="33">
         <v>44042.88994517744</v>
       </c>
     </row>
@@ -2325,7 +2381,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="34">
         <v>44632.76660394678</v>
       </c>
     </row>
@@ -2345,8 +2401,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="27">
-        <v>42529.41815279475</v>
+      <c r="F53" s="28">
+        <v>42508.61373339163</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2365,8 +2421,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="30">
-        <v>42792.54578025143</v>
+      <c r="F54" s="29">
+        <v>42810.90772176443</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2385,8 +2441,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="31">
-        <v>43207.54276501382</v>
+      <c r="F55" s="35">
+        <v>43223.79136664226</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2405,8 +2461,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="32">
-        <v>42456.26732785177</v>
+      <c r="F56" s="30">
+        <v>42464.8913964779</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2425,8 +2481,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="27">
-        <v>42505.64278778723</v>
+      <c r="F57" s="31">
+        <v>42552.94645746489</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2445,8 +2501,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="26">
-        <v>42481.97457043862</v>
+      <c r="F58" s="28">
+        <v>42501.77369760885</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2466,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="32">
-        <v>42458.78580147695</v>
+        <v>42458.78580141172</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2485,8 +2541,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="27">
-        <v>42525.5570406761</v>
+      <c r="F60" s="28">
+        <v>42525.5570404518</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2505,8 +2561,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="26">
-        <v>42489.3349762876</v>
+      <c r="F61" s="30">
+        <v>42489.33497618809</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2525,7 +2581,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F62" s="36">
         <v>43964.38010005821</v>
       </c>
     </row>
@@ -2545,7 +2601,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="34">
+      <c r="F63" s="37">
         <v>45673.59602566905</v>
       </c>
     </row>
@@ -2565,7 +2621,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="35">
+      <c r="F64" s="38">
         <v>47012.52701914091</v>
       </c>
     </row>
@@ -2585,8 +2641,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="36">
-        <v>42585.87510575628</v>
+      <c r="F65" s="31">
+        <v>42566.92361934109</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2605,8 +2661,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="37">
-        <v>43080.9108578156</v>
+      <c r="F66" s="25">
+        <v>43145.31036802677</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2625,8 +2681,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="28">
-        <v>44073.93921209701</v>
+      <c r="F67" s="26">
+        <v>44138.37101440705</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2645,8 +2701,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="26">
-        <v>42470.65558151645</v>
+      <c r="F68" s="30">
+        <v>42485.48141090687</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2665,8 +2721,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="24">
-        <v>42548.68478832724</v>
+      <c r="F69" s="39">
+        <v>42621.29943980042</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2685,8 +2741,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="27">
-        <v>42511.98215560726</v>
+      <c r="F70" s="31">
+        <v>42545.97011032965</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2705,8 +2761,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="26">
-        <v>42476.01538714891</v>
+      <c r="F71" s="30">
+        <v>42476.0153870825</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2725,8 +2781,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="36">
-        <v>42576.14125782856</v>
+      <c r="F72" s="31">
+        <v>42576.14125754007</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2745,8 +2801,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="27">
-        <v>42524.91536581161</v>
+      <c r="F73" s="28">
+        <v>42524.91536559458</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +2851,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="40">
         <v>7526.317007325268</v>
       </c>
     </row>
@@ -2815,7 +2871,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="41">
         <v>7641.74377550096</v>
       </c>
     </row>
@@ -2835,7 +2891,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="42">
         <v>7655.177428068251</v>
       </c>
     </row>
@@ -2855,8 +2911,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="38">
-        <v>7484.587833051628</v>
+      <c r="F5" s="40">
+        <v>7485.283081260031</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,8 +2931,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="41">
-        <v>7585.895685811509</v>
+      <c r="F6" s="43">
+        <v>7587.658791039436</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2895,8 +2951,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="41">
-        <v>7592.270696098678</v>
+      <c r="F7" s="43">
+        <v>7594.339770659917</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2915,8 +2971,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="42">
-        <v>7452.407487892349</v>
+      <c r="F8" s="44">
+        <v>7460.618440913315</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2935,8 +2991,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="38">
-        <v>7504.132681232119</v>
+      <c r="F9" s="40">
+        <v>7525.584462536903</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2955,8 +3011,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="38">
-        <v>7475.121380337516</v>
+      <c r="F10" s="40">
+        <v>7498.378400995356</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2975,8 +3031,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="42">
-        <v>7455.714864070796</v>
+      <c r="F11" s="44">
+        <v>7455.714864042428</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2995,8 +3051,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="38">
-        <v>7508.886192690064</v>
+      <c r="F12" s="40">
+        <v>7508.886192658765</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3015,8 +3071,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="38">
-        <v>7481.233153766711</v>
+      <c r="F13" s="40">
+        <v>7481.233153735411</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3035,7 +3091,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="45">
         <v>7024.441944697281</v>
       </c>
     </row>
@@ -3055,7 +3111,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="46">
         <v>6783.149043639318</v>
       </c>
     </row>
@@ -3075,7 +3131,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="47">
         <v>6608.194684521932</v>
       </c>
     </row>
@@ -3095,8 +3151,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="46">
-        <v>7414.14403284752</v>
+      <c r="F17" s="48">
+        <v>7410.456130585966</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3115,8 +3171,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="42">
-        <v>7466.051404946031</v>
+      <c r="F18" s="44">
+        <v>7465.797623001579</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3135,8 +3191,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="47">
-        <v>7281.461323232128</v>
+      <c r="F19" s="49">
+        <v>7291.101151940789</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3155,8 +3211,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="46">
-        <v>7417.942739344348</v>
+      <c r="F20" s="48">
+        <v>7416.477715263414</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3175,8 +3231,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="42">
-        <v>7441.081573799078</v>
+      <c r="F21" s="44">
+        <v>7459.067986028058</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3195,8 +3251,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="46">
-        <v>7419.020354366328</v>
+      <c r="F22" s="48">
+        <v>7420.578682158948</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3215,8 +3271,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="46">
-        <v>7419.599452745066</v>
+      <c r="F23" s="48">
+        <v>7419.599452738314</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3235,8 +3291,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="42">
-        <v>7452.515101813799</v>
+      <c r="F24" s="44">
+        <v>7452.515101727635</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3255,8 +3311,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="46">
-        <v>7426.75481847604</v>
+      <c r="F25" s="48">
+        <v>7426.754818444741</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3275,7 +3331,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="50">
         <v>5972.38224728867</v>
       </c>
     </row>
@@ -3295,7 +3351,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="49">
+      <c r="F27" s="51">
         <v>5037.127154289265</v>
       </c>
     </row>
@@ -3315,7 +3371,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="52">
         <v>4035.335950068962</v>
       </c>
     </row>
@@ -3335,8 +3391,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="51">
-        <v>7165.596640501826</v>
+      <c r="F29" s="53">
+        <v>7153.079303942879</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3355,8 +3411,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="52">
-        <v>6853.464875756896</v>
+      <c r="F30" s="54">
+        <v>6839.923419658385</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3375,8 +3431,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="53">
-        <v>5805.453599291333</v>
+      <c r="F31" s="55">
+        <v>5813.728243882939</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3395,8 +3451,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="54">
-        <v>7354.527330429212</v>
+      <c r="F32" s="56">
+        <v>7317.560051285805</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3415,8 +3471,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="51">
-        <v>7175.401097826402</v>
+      <c r="F33" s="53">
+        <v>7142.294514734924</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3435,8 +3491,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="55">
-        <v>7203.138391749419</v>
+      <c r="F34" s="57">
+        <v>7093.57160599095</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3455,8 +3511,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="54">
-        <v>7338.194579261172</v>
+      <c r="F35" s="58">
+        <v>7338.19457936457</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3475,8 +3531,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="51">
-        <v>7187.485295646615</v>
+      <c r="F36" s="59">
+        <v>7187.485295435928</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3495,8 +3551,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="55">
-        <v>7209.490293436837</v>
+      <c r="F37" s="60">
+        <v>7209.490293347926</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3515,7 +3571,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="61">
         <v>12788.24710269182</v>
       </c>
     </row>
@@ -3535,7 +3591,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="57">
+      <c r="F39" s="62">
         <v>12903.67387086751</v>
       </c>
     </row>
@@ -3555,7 +3611,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="62">
         <v>12917.1075234348</v>
       </c>
     </row>
@@ -3575,8 +3631,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="58">
-        <v>12731.7596156854</v>
+      <c r="F41" s="63">
+        <v>12723.94673328884</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3595,8 +3651,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="56">
-        <v>12810.89635625786</v>
+      <c r="F42" s="61">
+        <v>12812.05655727977</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3615,8 +3671,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="56">
-        <v>12811.32360872874</v>
+      <c r="F43" s="64">
+        <v>12813.56055257101</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3635,8 +3691,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="59">
-        <v>12704.08076427906</v>
+      <c r="F44" s="65">
+        <v>12707.70495710543</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3655,8 +3711,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="58">
-        <v>12722.67516056393</v>
+      <c r="F45" s="63">
+        <v>12740.41452118682</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3675,8 +3731,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="58">
-        <v>12713.84252576112</v>
+      <c r="F46" s="63">
+        <v>12721.77322022874</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3695,8 +3751,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="59">
-        <v>12705.02792222194</v>
+      <c r="F47" s="65">
+        <v>12705.02792222202</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3715,8 +3771,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="58">
-        <v>12730.72059778032</v>
+      <c r="F48" s="63">
+        <v>12730.72059770548</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3735,8 +3791,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="58">
-        <v>12717.33891322959</v>
+      <c r="F49" s="63">
+        <v>12717.33891319589</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3755,7 +3811,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="60">
+      <c r="F50" s="66">
         <v>12160.95364948288</v>
       </c>
     </row>
@@ -3775,7 +3831,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="61">
+      <c r="F51" s="67">
         <v>11804.55485389116</v>
       </c>
     </row>
@@ -3795,7 +3851,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="68">
         <v>11407.37915216324</v>
       </c>
     </row>
@@ -3815,8 +3871,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="59">
-        <v>12679.70016894025</v>
+      <c r="F53" s="65">
+        <v>12664.7364139125</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3835,8 +3891,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="59">
-        <v>12672.15439138942</v>
+      <c r="F54" s="65">
+        <v>12666.03761672571</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3855,8 +3911,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="63">
-        <v>12201.70218765849</v>
+      <c r="F55" s="69">
+        <v>12210.66838903153</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3875,8 +3931,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="59">
-        <v>12686.19667243494</v>
+      <c r="F56" s="65">
+        <v>12682.47762842492</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3895,8 +3951,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="59">
-        <v>12692.50046340397</v>
+      <c r="F57" s="65">
+        <v>12688.55622056666</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3915,8 +3971,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="59">
-        <v>12691.5986040759</v>
+      <c r="F58" s="65">
+        <v>12686.97816980611</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3935,8 +3991,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="59">
-        <v>12683.90695736571</v>
+      <c r="F59" s="65">
+        <v>12683.90695742833</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3955,8 +4011,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="59">
-        <v>12691.98577033498</v>
+      <c r="F60" s="65">
+        <v>12691.98577026014</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3975,8 +4031,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="59">
-        <v>12689.11655282692</v>
+      <c r="F61" s="65">
+        <v>12689.11655279322</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3995,7 +4051,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="64">
+      <c r="F62" s="70">
         <v>11167.74671002897</v>
       </c>
     </row>
@@ -4015,7 +4071,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="65">
+      <c r="F63" s="71">
         <v>9657.024318165388</v>
       </c>
     </row>
@@ -4035,7 +4091,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="66">
+      <c r="F64" s="72">
         <v>8199.379735498071</v>
       </c>
     </row>
@@ -4055,8 +4111,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="67">
-        <v>12546.25170428193</v>
+      <c r="F65" s="73">
+        <v>12565.20179025661</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4075,8 +4131,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="68">
-        <v>12132.32622636768</v>
+      <c r="F66" s="74">
+        <v>12032.90436236553</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4095,8 +4151,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="69">
-        <v>11071.31079476583</v>
+      <c r="F67" s="75">
+        <v>10995.81925105556</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4115,8 +4171,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="59">
-        <v>12661.47079313621</v>
+      <c r="F68" s="65">
+        <v>12646.64448946467</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4135,8 +4191,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="70">
-        <v>12583.79579609485</v>
+      <c r="F69" s="76">
+        <v>12513.81629815426</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4155,8 +4211,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="71">
-        <v>12622.21903611022</v>
+      <c r="F70" s="77">
+        <v>12588.2210465781</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4175,8 +4231,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="59">
-        <v>12656.0694338469</v>
+      <c r="F71" s="65">
+        <v>12656.06943391686</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4195,8 +4251,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="67">
-        <v>12556.2977729367</v>
+      <c r="F72" s="73">
+        <v>12556.29777322873</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4215,8 +4271,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="71">
-        <v>12609.00118558295</v>
+      <c r="F73" s="78">
+        <v>12609.0011858149</v>
       </c>
     </row>
   </sheetData>
@@ -4265,7 +4321,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4285,7 +4341,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4305,7 +4361,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4325,7 +4381,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4345,7 +4401,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4365,7 +4421,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4385,7 +4441,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4405,7 +4461,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4425,7 +4481,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4445,7 +4501,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4465,7 +4521,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4485,7 +4541,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="52">
         <v>0</v>
       </c>
     </row>
@@ -4505,7 +4561,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="79">
         <v>1650.829858861342</v>
       </c>
     </row>
@@ -4525,7 +4581,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="80">
         <v>2881.854852240659</v>
       </c>
     </row>
@@ -4545,7 +4601,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="81">
         <v>3533.499652148049</v>
       </c>
     </row>
@@ -4565,8 +4621,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="75">
-        <v>183.827075772615</v>
+      <c r="F17" s="82">
+        <v>195.6104432047388</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4585,8 +4641,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="76">
-        <v>330.513716496191</v>
+      <c r="F18" s="83">
+        <v>336.9535906915762</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4605,8 +4661,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="77">
-        <v>976.3257276115362</v>
+      <c r="F19" s="84">
+        <v>949.6895523472003</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4625,8 +4681,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="78">
-        <v>84.24558607264686</v>
+      <c r="F20" s="85">
+        <v>108.8522090549048</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4645,8 +4701,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="79">
-        <v>161.7408486386202</v>
+      <c r="F21" s="86">
+        <v>169.9460619159358</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4665,8 +4721,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="80">
-        <v>144.3323292190903</v>
+      <c r="F22" s="82">
+        <v>203.4457937514989</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4685,8 +4741,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="78">
-        <v>88.73523092029185</v>
+      <c r="F23" s="85">
+        <v>88.73523084425588</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4705,8 +4761,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="80">
-        <v>143.2901716681866</v>
+      <c r="F24" s="87">
+        <v>143.290171861868</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4725,7 +4781,7 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="80">
+      <c r="F25" s="87">
         <v>136.6083246091488</v>
       </c>
     </row>
@@ -4745,7 +4801,7 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="88">
         <v>3084.46527939775</v>
       </c>
     </row>
@@ -4765,7 +4821,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="82">
+      <c r="F27" s="89">
         <v>5218.548969676591</v>
       </c>
     </row>
@@ -4785,7 +4841,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="83">
+      <c r="F28" s="90">
         <v>7290.550607051456</v>
       </c>
     </row>
@@ -4805,8 +4861,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="84">
-        <v>582.134007671943</v>
+      <c r="F29" s="91">
+        <v>606.084637217702</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4825,8 +4881,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="85">
-        <v>1375.553123106679</v>
+      <c r="F30" s="92">
+        <v>1405.663904701903</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4845,8 +4901,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="54">
-        <v>3520.186422001009</v>
+      <c r="F31" s="58">
+        <v>3506.802908930157</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4865,8 +4921,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="79">
-        <v>173.7885881067872</v>
+      <c r="F32" s="93">
+        <v>254.0593554738107</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4885,8 +4941,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="86">
-        <v>593.5547460227471</v>
+      <c r="F33" s="94">
+        <v>693.7358982401573</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4905,8 +4961,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="87">
-        <v>503.0739806847629</v>
+      <c r="F34" s="95">
+        <v>744.1541077626994</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4925,8 +4981,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="75">
-        <v>209.2314853448774</v>
+      <c r="F35" s="82">
+        <v>209.2314851255441</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4945,8 +5001,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="84">
-        <v>579.5182342238497</v>
+      <c r="F36" s="96">
+        <v>579.5182345907845</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4965,8 +5021,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="87">
-        <v>492.521388025198</v>
+      <c r="F37" s="97">
+        <v>492.5213881821418</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4985,7 +5041,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="50">
+      <c r="F38" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5005,7 +5061,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="50">
+      <c r="F39" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5025,7 +5081,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="50">
+      <c r="F40" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5045,7 +5101,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="50">
+      <c r="F41" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5065,7 +5121,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="50">
+      <c r="F42" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5085,7 +5141,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="50">
+      <c r="F43" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5105,7 +5161,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="50">
+      <c r="F44" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5125,7 +5181,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="50">
+      <c r="F45" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5145,7 +5201,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="50">
+      <c r="F46" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5165,7 +5221,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="50">
+      <c r="F47" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5185,7 +5241,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="50">
+      <c r="F48" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5205,7 +5261,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="50">
+      <c r="F49" s="52">
         <v>0</v>
       </c>
     </row>
@@ -5225,7 +5281,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="48">
+      <c r="F50" s="50">
         <v>2033.809028558813</v>
       </c>
     </row>
@@ -5245,7 +5301,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="44">
         <v>3628.26835827906</v>
       </c>
     </row>
@@ -5265,7 +5321,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="88">
+      <c r="F52" s="98">
         <v>5019.446721344348</v>
       </c>
     </row>
@@ -5285,8 +5341,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="80">
-        <v>128.5209299243098</v>
+      <c r="F53" s="86">
+        <v>149.1270711280139</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5305,8 +5361,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="89">
-        <v>373.2152226738353</v>
+      <c r="F54" s="99">
+        <v>395.269390458085</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5325,8 +5381,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="90">
-        <v>1947.404849211568</v>
+      <c r="F55" s="100">
+        <v>1922.706280258855</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5345,8 +5401,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="91">
-        <v>43.08939876556691</v>
+      <c r="F56" s="101">
+        <v>61.19266001313503</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5365,8 +5421,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="78">
-        <v>74.26416509381531</v>
+      <c r="F57" s="87">
+        <v>128.2441842873131</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5385,8 +5441,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="91">
-        <v>54.23442527248671</v>
+      <c r="F58" s="85">
+        <v>85.19809325586476</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5405,8 +5461,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="91">
-        <v>51.51758776998382</v>
+      <c r="F59" s="101">
+        <v>51.51758754533567</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5425,7 +5481,7 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="78">
+      <c r="F60" s="85">
         <v>93.97536146749252</v>
       </c>
     </row>
@@ -5445,7 +5501,7 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="91">
+      <c r="F61" s="101">
         <v>67.75408785841486</v>
       </c>
     </row>
@@ -5465,7 +5521,7 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="43">
+      <c r="F62" s="45">
         <v>3209.189600955568</v>
       </c>
     </row>
@@ -5485,7 +5541,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="92">
+      <c r="F63" s="102">
         <v>6452.649325876972</v>
       </c>
     </row>
@@ -5505,7 +5561,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="57">
+      <c r="F64" s="62">
         <v>9411.587846975366</v>
       </c>
     </row>
@@ -5525,8 +5581,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="93">
-        <v>332.5187650247582</v>
+      <c r="F65" s="103">
+        <v>289.4256474956678</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5545,8 +5601,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="94">
-        <v>1272.319450561094</v>
+      <c r="F66" s="104">
+        <v>1464.817806165867</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5565,8 +5621,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="47">
-        <v>3432.60832080301</v>
+      <c r="F67" s="48">
+        <v>3583.372124797327</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5585,8 +5641,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="78">
-        <v>76.79899375583491</v>
+      <c r="F68" s="85">
+        <v>110.0044816763576</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5605,8 +5661,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="95">
-        <v>251.7820081772457</v>
+      <c r="F69" s="105">
+        <v>407.8904046906079</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5625,8 +5681,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="79">
-        <v>167.1821157144428</v>
+      <c r="F70" s="93">
+        <v>242.8329589295964</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5645,8 +5701,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="78">
-        <v>88.79171050021246</v>
+      <c r="F71" s="85">
+        <v>88.79171035304222</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5665,8 +5721,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="76">
-        <v>312.6598816286617</v>
+      <c r="F72" s="106">
+        <v>312.6598809927535</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5685,8 +5741,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="75">
-        <v>196.4518348469257</v>
+      <c r="F73" s="82">
+        <v>196.4518343454459</v>
       </c>
     </row>
   </sheetData>
@@ -5735,7 +5791,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="96">
+      <c r="F2" s="107">
         <v>803.1812751303619</v>
       </c>
     </row>
@@ -5755,7 +5811,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="97">
+      <c r="F3" s="108">
         <v>1873.499560122021</v>
       </c>
     </row>
@@ -5775,7 +5831,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="38">
         <v>2479.849226425816</v>
       </c>
     </row>
@@ -5795,8 +5851,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="14">
-        <v>209.1351481540951</v>
+      <c r="F5" s="8">
+        <v>217.7662738067129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5815,8 +5871,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="98">
-        <v>707.5146876957986</v>
+      <c r="F6" s="20">
+        <v>724.343853507159</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5835,8 +5891,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="99">
-        <v>1039.132727636089</v>
+      <c r="F7" s="109">
+        <v>1059.829824512622</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5855,8 +5911,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="20">
-        <v>72.22182267315955</v>
+      <c r="F8" s="110">
+        <v>105.3906830840426</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5875,8 +5931,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="100">
-        <v>284.1785960853406</v>
+      <c r="F9" s="14">
+        <v>380.6855912409278</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5895,8 +5951,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="101">
-        <v>162.2025650842136</v>
+      <c r="F10" s="111">
+        <v>269.5865363852637</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5915,8 +5971,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="102">
-        <v>85.30809430705875</v>
+      <c r="F11" s="112">
+        <v>85.30809419247382</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5935,8 +5991,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="103">
-        <v>302.3897650972152</v>
+      <c r="F12" s="113">
+        <v>302.3897649728449</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5955,8 +6011,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="104">
-        <v>187.4997506773731</v>
+      <c r="F13" s="114">
+        <v>187.4997505530028</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5975,7 +6031,7 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="100">
+      <c r="F14" s="115">
         <v>286.1479461511316</v>
       </c>
     </row>
@@ -5995,7 +6051,7 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="116">
         <v>879.5718154289259</v>
       </c>
     </row>
@@ -6015,7 +6071,7 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="106">
+      <c r="F16" s="117">
         <v>1251.282238116325</v>
       </c>
     </row>
@@ -6036,7 +6092,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="7">
-        <v>132.0844482284949</v>
+        <v>134.3932487393278</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6055,8 +6111,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="107">
-        <v>572.1466906127038</v>
+      <c r="F18" s="118">
+        <v>587.222548106937</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6075,8 +6131,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="108">
-        <v>705.3848194274708</v>
+      <c r="F19" s="20">
+        <v>725.5469084395307</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6095,8 +6151,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="109">
-        <v>31.58162695801087</v>
+      <c r="F20" s="17">
+        <v>53.3564929965241</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6115,8 +6171,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="14">
-        <v>213.0809433088728</v>
+      <c r="F21" s="113">
+        <v>303.6348913153278</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6135,8 +6191,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="110">
-        <v>101.2635697430059</v>
+      <c r="F22" s="119">
+        <v>181.6588603142008</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6155,8 +6211,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="10">
-        <v>43.16053403909244</v>
+      <c r="F23" s="12">
+        <v>43.16053392450752</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6175,8 +6231,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="111">
-        <v>238.8751099542148</v>
+      <c r="F24" s="120">
+        <v>238.8751098298445</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6195,8 +6251,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="112">
-        <v>123.9850955343727</v>
+      <c r="F25" s="121">
+        <v>123.9850954100024</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6235,7 +6291,7 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="122">
         <v>447.2663866404827</v>
       </c>
     </row>
@@ -6255,7 +6311,7 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="114">
+      <c r="F28" s="123">
         <v>511.2861167504222</v>
       </c>
     </row>
@@ -6276,7 +6332,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="9">
-        <v>3.619028143245705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6296,7 +6352,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="115">
-        <v>274.1454638673107</v>
+        <v>283.3475813612906</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6315,8 +6371,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="14">
-        <v>209.9954399747213</v>
+      <c r="F31" s="124">
+        <v>226.9384042655693</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6355,8 +6411,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="18">
-        <v>57.55917790033037</v>
+      <c r="F33" s="121">
+        <v>116.3805729813275</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6375,8 +6431,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="9">
-        <v>1.365353281267226</v>
+      <c r="F34" s="18">
+        <v>14.15628444271354</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6415,8 +6471,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="102">
-        <v>80.07143737752703</v>
+      <c r="F36" s="112">
+        <v>80.07143720982413</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6436,7 +6492,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="9">
-        <v>5.392442883357991</v>
+        <v>5.392442817685369</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6455,7 +6511,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="96">
+      <c r="F38" s="107">
         <v>803.1812751303619</v>
       </c>
     </row>
@@ -6475,7 +6531,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="97">
+      <c r="F39" s="108">
         <v>1873.499560122021</v>
       </c>
     </row>
@@ -6495,7 +6551,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="38">
         <v>2479.849226425816</v>
       </c>
     </row>
@@ -6515,8 +6571,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="116">
-        <v>141.7841065426883</v>
+      <c r="F41" s="125">
+        <v>112.6021024554471</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6535,8 +6591,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="117">
-        <v>500.6682095047611</v>
+      <c r="F42" s="15">
+        <v>520.6971392210378</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6555,8 +6611,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="118">
-        <v>834.8901557121877</v>
+      <c r="F43" s="126">
+        <v>856.8805061567789</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6575,8 +6631,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="109">
-        <v>32.9243005190282</v>
+      <c r="F44" s="12">
+        <v>46.64822146439845</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6595,8 +6651,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="110">
-        <v>102.5022070381353</v>
+      <c r="F45" s="3">
+        <v>173.6361852044211</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6615,8 +6671,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="20">
-        <v>68.80758320653729</v>
+      <c r="F46" s="110">
+        <v>99.46666229937964</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6635,8 +6691,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="109">
-        <v>36.50989849310458</v>
+      <c r="F47" s="11">
+        <v>36.5098984904831</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6656,7 +6712,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="7">
-        <v>134.2905711595562</v>
+        <v>134.2905708604081</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6675,8 +6731,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="102">
-        <v>82.24745876379453</v>
+      <c r="F49" s="112">
+        <v>82.24745863058621</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6695,7 +6751,7 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="119">
+      <c r="F50" s="127">
         <v>203.3085743149552</v>
       </c>
     </row>
@@ -6715,7 +6771,7 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="98">
+      <c r="F51" s="128">
         <v>715.5014516919969</v>
       </c>
     </row>
@@ -6735,7 +6791,7 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="120">
+      <c r="F52" s="129">
         <v>908.2024087334084</v>
       </c>
     </row>
@@ -6755,8 +6811,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="20">
-        <v>77.17497435839286</v>
+      <c r="F53" s="12">
+        <v>41.40679992751784</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6775,8 +6831,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="121">
-        <v>332.7568242642446</v>
+      <c r="F54" s="130">
+        <v>345.00199111353</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6795,8 +6851,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="115">
-        <v>277.3016052957108</v>
+      <c r="F55" s="113">
+        <v>302.5164082971891</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6815,8 +6871,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="11">
-        <v>10.52065291011232</v>
+      <c r="F56" s="18">
+        <v>15.42567752621673</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6835,8 +6891,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="122">
-        <v>66.19990381458774</v>
+      <c r="F57" s="125">
+        <v>109.559330654955</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6855,8 +6911,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="10">
-        <v>41.62982713791985</v>
+      <c r="F58" s="17">
+        <v>56.80852003835454</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6875,8 +6931,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="11">
-        <v>10.74941146605935</v>
+      <c r="F59" s="18">
+        <v>10.74941146343787</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6895,8 +6951,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="102">
-        <v>85.59946363447793</v>
+      <c r="F60" s="112">
+        <v>85.5994633353298</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6915,8 +6971,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="10">
-        <v>46.50818173791374</v>
+      <c r="F61" s="12">
+        <v>46.5081816047054</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6955,7 +7011,7 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="119">
+      <c r="F63" s="127">
         <v>198.6769964578388</v>
       </c>
     </row>
@@ -6975,7 +7031,7 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="102">
+      <c r="F64" s="112">
         <v>79.96340726237918</v>
       </c>
     </row>
@@ -6996,7 +7052,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="9">
-        <v>0.1834626616105195</v>
+        <v>0.1820622210973538</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7015,8 +7071,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="102">
-        <v>81.29373680669678</v>
+      <c r="F66" s="12">
+        <v>46.27138301571736</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7035,8 +7091,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="11">
-        <v>13.30665948623112</v>
+      <c r="F67" s="9">
+        <v>2.246918086020362</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7056,7 +7112,7 @@
         <v>11</v>
       </c>
       <c r="F68" s="9">
-        <v>0.1830272760493846</v>
+        <v>0.182552994935995</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7076,7 +7132,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="9">
-        <v>0.5372370455020633</v>
+        <v>3.172390578078132</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7096,7 +7152,7 @@
         <v>15</v>
       </c>
       <c r="F70" s="9">
-        <v>2.257844340878407</v>
+        <v>2.247809531160659</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7116,7 +7172,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="9">
-        <v>0.1414736192097876</v>
+        <v>0.1414736227542157</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7136,7 +7192,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="9">
-        <v>0.4956833886624665</v>
+        <v>0.4956833922068945</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7156,7 +7212,7 @@
         <v>15</v>
       </c>
       <c r="F73" s="9">
-        <v>1.973204017953146</v>
+        <v>1.973204032884826</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="130">
+  <fills count="137">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,25 +120,631 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4DCDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6ADAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CFCF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E2E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CBCB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B9B9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E8E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C8C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4E0E0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5C8C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B9B9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEEE"/>
+        <fgColor rgb="FFF4D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E9E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2F2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE1313"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD3131"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2828"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3D3D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3F3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4141"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3636"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD1E1E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE0F0F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3434"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2E2E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3E3E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4242"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE1B1B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE0B0B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4444"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0DEC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDDCBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1DFC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDDDBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2DFC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEDDBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFDEBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8E2C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAE3CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDE5CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3E7D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEDDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF3EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3E0C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF048204"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF058205"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF028102"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF068306"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C860C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF108810"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158A15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF188C18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF289328"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D9E3D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF038103"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF128912"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD5AD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4D0A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F0E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFEDDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF2EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9CCD9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73B873"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF45A245"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD6AF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4F0E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCDCBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83C083"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E8D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EC58E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF51A851"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1E6D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81BF81"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F1E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D6D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79797"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97373"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,25 +756,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4DBDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EAEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDED"/>
+        <fgColor rgb="FFF5BCBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C6C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D4D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C7C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97C7C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79D9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88181"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D8D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D7D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79696"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97575"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E3E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79F9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CACA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,577 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4E1E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5CBCB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5BEBE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DCDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EBEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5CCCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6AAAA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF89090"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C4C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E8E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E9E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA6060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4848"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3939"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97070"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA6868"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97171"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF96F6F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97272"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4A4A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3B3B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA5E5E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4C4C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD2121"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF96D6D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FC68F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8CC58C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8BC48B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8DC58D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90C790"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9BCC9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA2CFA2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6D2A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF91C791"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF95C995"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB8DAB8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1E6D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF3EB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CB99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA1CFA1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCDCBC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF94C994"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACB9A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF98CA98"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF97CA97"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF038103"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF058205"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF028102"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF068306"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF138913"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1D8E1D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF289328"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF128912"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2E972E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF56AA56"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7CBD7C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF098509"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF178B17"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF339933"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0A850A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF088408"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF078407"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2DFC2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA3D0A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92C892"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6F1E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E8D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9F2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7F1E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ECE9E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF69B369"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF349A34"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCECDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC8E2C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F0E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDAEBDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8EAD8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDECDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFEDDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6DB66D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EEE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBDCBB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF2EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4AA44A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4F0E4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7E1C7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EEE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE3EFE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7A3A3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3A3A"/>
+        <fgColor rgb="FFF4D2D2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6A8A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,127 +882,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3E7E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D7D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E8E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DEDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D5D5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79B9B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97777"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B8B7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DFDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E5E5"/>
+        <fgColor rgb="FFF4DDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88585"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA5959"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B3B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A4A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79898"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5C5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5BFBF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DADA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79D9D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DDDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6ABAB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79898"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CFCF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -942,10 +984,10 @@
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -957,16 +999,16 @@
     <xf numFmtId="0" fontId="3" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -978,9 +1020,9 @@
     <xf numFmtId="0" fontId="2" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -989,13 +1031,13 @@
     <xf numFmtId="0" fontId="3" fillId="68" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="69" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="70" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="71" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1004,10 +1046,10 @@
     <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1019,35 +1061,42 @@
     <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1382,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>38042.81187722955</v>
+        <v>31308.50288468429</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1402,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4">
-        <v>38997.70339404551</v>
+        <v>32116.77185932662</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1422,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5">
-        <v>39590.61940778202</v>
+        <v>32652.77289356306</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1442,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6">
-        <v>37498.43080197114</v>
+        <v>30913.20617542131</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1462,7 +1511,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="7">
-        <v>37902.63267189218</v>
+        <v>31386.85172422463</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1482,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8">
-        <v>38231.43766327716</v>
+        <v>31692.99736956487</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1502,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="9">
-        <v>37410.71985159518</v>
+        <v>30806.71551505055</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1522,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="10">
-        <v>37621.04873812848</v>
+        <v>31092.20905234555</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1542,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="11">
-        <v>37537.15574481436</v>
+        <v>31045.04873313245</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1561,8 +1610,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="9">
-        <v>37395.5408395745</v>
+      <c r="F11" s="12">
+        <v>30789.84472166983</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1581,8 +1630,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="12">
-        <v>37559.45118173854</v>
+      <c r="F12" s="13">
+        <v>31019.23683556635</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1602,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>37472.21420624205</v>
+        <v>30922.13638687821</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1621,8 +1670,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="13">
-        <v>38027.6536108783</v>
+      <c r="F14" s="14">
+        <v>31146.64635002538</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1641,8 +1690,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="14">
-        <v>38862.37038121407</v>
+      <c r="F15" s="15">
+        <v>31815.96380544874</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1661,8 +1710,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="15">
-        <v>39409.03516301885</v>
+      <c r="F16" s="16">
+        <v>32316.02656635926</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1681,8 +1730,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="6">
-        <v>37489.88472757782</v>
+      <c r="F17" s="17">
+        <v>30884.54208234422</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1701,8 +1750,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="7">
-        <v>37887.37253452981</v>
+      <c r="F18" s="18">
+        <v>31336.20746375139</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1721,8 +1770,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="16">
-        <v>38200.3933659232</v>
+      <c r="F19" s="19">
+        <v>31585.36554283437</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1741,8 +1790,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="9">
-        <v>37402.82638715756</v>
+      <c r="F20" s="12">
+        <v>30790.92900117916</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1761,8 +1810,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="17">
-        <v>37610.51451471172</v>
+      <c r="F21" s="11">
+        <v>31063.53761786732</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1781,8 +1830,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="11">
-        <v>37527.02778757971</v>
+      <c r="F22" s="20">
+        <v>31003.25397522288</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1801,8 +1850,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="9">
-        <v>37389.50869061065</v>
+      <c r="F23" s="12">
+        <v>30776.37656152951</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1821,8 +1870,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="12">
-        <v>37552.30761752666</v>
+      <c r="F24" s="20">
+        <v>30996.60895870821</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1841,8 +1890,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="18">
-        <v>37463.17788638971</v>
+      <c r="F25" s="17">
+        <v>30893.46495239998</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1861,8 +1910,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="19">
-        <v>38820.09493073855</v>
+      <c r="F26" s="21">
+        <v>31180.57531405703</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1881,8 +1930,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="20">
-        <v>40176.08684177568</v>
+      <c r="F27" s="22">
+        <v>31911.46094542385</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1901,8 +1950,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="21">
-        <v>41241.89777610592</v>
+      <c r="F28" s="23">
+        <v>32392.8249820646</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1921,8 +1970,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="17">
-        <v>37612.86830548158</v>
+      <c r="F29" s="9">
+        <v>30816.77261055443</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1941,8 +1990,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="16">
-        <v>38209.37177112736</v>
+      <c r="F30" s="24">
+        <v>31212.17635286283</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1961,8 +2010,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="22">
-        <v>39179.1577698071</v>
+      <c r="F31" s="25">
+        <v>31401.05439593284</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1981,8 +2030,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="18">
-        <v>37448.38755813866</v>
+      <c r="F32" s="26">
+        <v>30756.35708700759</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2001,8 +2050,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="23">
-        <v>37740.03366767087</v>
+      <c r="F33" s="20">
+        <v>30992.39626055396</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2021,8 +2070,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="24">
-        <v>37686.53228787622</v>
+      <c r="F34" s="6">
+        <v>30905.80716637464</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2041,8 +2090,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="18">
-        <v>37427.7530300599</v>
+      <c r="F35" s="26">
+        <v>30744.80091826475</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2061,8 +2110,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="24">
-        <v>37658.53375119837</v>
+      <c r="F36" s="27">
+        <v>30937.16462655976</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2081,8 +2130,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="12">
-        <v>37561.84975889421</v>
+      <c r="F37" s="28">
+        <v>30833.47822897095</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2101,8 +2150,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="25">
-        <v>43146.87751981514</v>
+      <c r="F38" s="29">
+        <v>36256.53938489911</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2121,8 +2170,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="26">
-        <v>44101.76903663111</v>
+      <c r="F39" s="30">
+        <v>37064.80835954143</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2141,8 +2190,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="27">
-        <v>44694.68505036762</v>
+      <c r="F40" s="31">
+        <v>37600.80939377788</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2161,8 +2210,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="28">
-        <v>42520.59871654321</v>
+      <c r="F41" s="32">
+        <v>35774.42325736617</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2181,8 +2230,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="29">
-        <v>42840.58392931787</v>
+      <c r="F42" s="33">
+        <v>36195.04654896527</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2201,8 +2250,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="25">
-        <v>43175.26330096238</v>
+      <c r="F43" s="34">
+        <v>36465.35890463279</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2221,8 +2270,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="30">
-        <v>42470.88661173557</v>
+      <c r="F44" s="35">
+        <v>35698.26219215386</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2241,8 +2290,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="31">
-        <v>42565.16501139421</v>
+      <c r="F45" s="36">
+        <v>35842.4653293194</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2261,8 +2310,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="28">
-        <v>42509.63678944725</v>
+      <c r="F46" s="32">
+        <v>35754.67382064828</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2281,8 +2330,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="32">
-        <v>42463.42532364507</v>
+      <c r="F47" s="35">
+        <v>35690.26741098692</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2301,8 +2350,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="28">
-        <v>42535.51332053153</v>
+      <c r="F48" s="37">
+        <v>35795.29729106486</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2321,8 +2370,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="30">
-        <v>42496.8518928113</v>
+      <c r="F49" s="38">
+        <v>35732.95856953711</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2341,8 +2390,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="25">
-        <v>43174.29827220868</v>
+      <c r="F50" s="39">
+        <v>36073.00908997656</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2361,8 +2410,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="33">
-        <v>44042.88994517744</v>
+      <c r="F51" s="40">
+        <v>36723.10399304463</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2381,8 +2430,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="34">
-        <v>44632.76660394678</v>
+      <c r="F52" s="41">
+        <v>37167.17222309698</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2401,8 +2450,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="28">
-        <v>42508.61373339163</v>
+      <c r="F53" s="38">
+        <v>35748.64622170095</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2421,8 +2470,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="29">
-        <v>42810.90772176443</v>
+      <c r="F54" s="42">
+        <v>36121.54746040817</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2441,8 +2490,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="35">
-        <v>43223.79136664226</v>
+      <c r="F55" s="43">
+        <v>36273.04811355958</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2461,8 +2510,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="30">
-        <v>42464.8913964779</v>
+      <c r="F56" s="35">
+        <v>35689.30527738567</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2481,8 +2530,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="31">
-        <v>42552.94645746489</v>
+      <c r="F57" s="44">
+        <v>35821.50441018996</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2501,8 +2550,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="28">
-        <v>42501.77369760885</v>
+      <c r="F58" s="38">
+        <v>35739.77251162053</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2521,8 +2570,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="32">
-        <v>42458.78580141172</v>
+      <c r="F59" s="35">
+        <v>35683.08917375551</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2541,8 +2590,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="28">
-        <v>42525.5570404518</v>
+      <c r="F60" s="37">
+        <v>35780.39598203712</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2561,8 +2610,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="30">
-        <v>42489.33497618809</v>
+      <c r="F61" s="45">
+        <v>35722.52643684297</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2581,8 +2630,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="36">
-        <v>43964.38010005821</v>
+      <c r="F62" s="42">
+        <v>36109.24617364286</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2601,8 +2650,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="37">
-        <v>45673.59602566905</v>
+      <c r="F63" s="46">
+        <v>36820.49428274581</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2621,8 +2670,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="38">
-        <v>47012.52701914091</v>
+      <c r="F64" s="47">
+        <v>37264.94123621205</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2641,8 +2690,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="31">
-        <v>42566.92361934109</v>
+      <c r="F65" s="45">
+        <v>35699.56192846098</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2661,8 +2710,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="25">
-        <v>43145.31036802677</v>
+      <c r="F66" s="48">
+        <v>35982.27288317835</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2681,8 +2730,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="26">
-        <v>44138.37101440705</v>
+      <c r="F67" s="33">
+        <v>36184.5958639324</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2701,8 +2750,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="30">
-        <v>42485.48141090687</v>
+      <c r="F68" s="49">
+        <v>35670.85707168161</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2721,8 +2770,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="39">
-        <v>42621.29943980042</v>
+      <c r="F69" s="32">
+        <v>35774.94540698842</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2741,8 +2790,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="31">
-        <v>42545.97011032965</v>
+      <c r="F70" s="45">
+        <v>35710.42293570488</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2761,8 +2810,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="30">
-        <v>42476.0153870825</v>
+      <c r="F71" s="49">
+        <v>35666.91057440764</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2781,8 +2830,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="31">
-        <v>42576.14125754007</v>
+      <c r="F72" s="38">
+        <v>35743.6253293506</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2801,8 +2850,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="28">
-        <v>42524.91536559458</v>
+      <c r="F73" s="45">
+        <v>35699.69372485037</v>
       </c>
     </row>
   </sheetData>
@@ -2851,8 +2900,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="40">
-        <v>7526.317007325268</v>
+      <c r="F2" s="50">
+        <v>3484.710325762061</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2871,8 +2920,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="41">
-        <v>7641.74377550096</v>
+      <c r="F3" s="51">
+        <v>3543.90197031129</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2891,8 +2940,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="42">
-        <v>7655.177428068251</v>
+      <c r="F4" s="51">
+        <v>3535.506478756357</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2911,8 +2960,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="40">
-        <v>7485.283081260031</v>
+      <c r="F5" s="52">
+        <v>3470.743020189666</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2931,8 +2980,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="43">
-        <v>7587.658791039436</v>
+      <c r="F6" s="53">
+        <v>3528.214422379022</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2951,8 +3000,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="43">
-        <v>7594.339770659917</v>
+      <c r="F7" s="53">
+        <v>3519.123734929587</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2971,8 +3020,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="44">
-        <v>7460.618440913315</v>
+      <c r="F8" s="54">
+        <v>3457.144395896106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2991,8 +3040,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="40">
-        <v>7525.584462536903</v>
+      <c r="F9" s="55">
+        <v>3504.303417556111</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3011,8 +3060,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="40">
-        <v>7498.378400995356</v>
+      <c r="F10" s="56">
+        <v>3488.598575254351</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3031,8 +3080,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="44">
-        <v>7455.714864042428</v>
+      <c r="F11" s="54">
+        <v>3454.085857509751</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3051,8 +3100,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="40">
-        <v>7508.886192658765</v>
+      <c r="F12" s="56">
+        <v>3496.048014208128</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3071,8 +3120,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="40">
-        <v>7481.233153735411</v>
+      <c r="F13" s="50">
+        <v>3477.805261532034</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3091,8 +3140,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="45">
-        <v>7024.441944697281</v>
+      <c r="F14" s="57">
+        <v>3365.525376545845</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3111,8 +3160,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="46">
-        <v>6783.149043639318</v>
+      <c r="F15" s="58">
+        <v>3319.822853242871</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3131,8 +3180,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="47">
-        <v>6608.194684521932</v>
+      <c r="F16" s="59">
+        <v>3283.023171932641</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3151,8 +3200,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="48">
-        <v>7410.456130585966</v>
+      <c r="F17" s="52">
+        <v>3465.95139037666</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3171,8 +3220,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="44">
-        <v>7465.797623001579</v>
+      <c r="F18" s="53">
+        <v>3522.615692441332</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3191,8 +3240,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="49">
-        <v>7291.101151940789</v>
+      <c r="F19" s="55">
+        <v>3509.680023834399</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3211,8 +3260,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="48">
-        <v>7416.477715263414</v>
+      <c r="F20" s="54">
+        <v>3453.5168879982</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3231,8 +3280,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="44">
-        <v>7459.067986028058</v>
+      <c r="F21" s="56">
+        <v>3499.519129144252</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3251,8 +3300,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="48">
-        <v>7420.578682158948</v>
+      <c r="F22" s="50">
+        <v>3483.239929932843</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3271,8 +3320,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="48">
-        <v>7419.599452738314</v>
+      <c r="F23" s="54">
+        <v>3450.762577828581</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3291,8 +3340,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="44">
-        <v>7452.515101727635</v>
+      <c r="F24" s="56">
+        <v>3491.695574065511</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3311,8 +3360,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="48">
-        <v>7426.754818444741</v>
+      <c r="F25" s="52">
+        <v>3473.020973120175</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3331,8 +3380,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="50">
-        <v>5972.38224728867</v>
+      <c r="F26" s="60">
+        <v>3192.24895844635</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3351,8 +3400,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="51">
-        <v>5037.127154289265</v>
+      <c r="F27" s="61">
+        <v>3010.769844526417</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3371,8 +3420,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="52">
-        <v>4035.335950068962</v>
+      <c r="F28" s="62">
+        <v>2804.962583936494</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3391,8 +3440,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="53">
-        <v>7153.079303942879</v>
+      <c r="F29" s="54">
+        <v>3453.450055161019</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3411,8 +3460,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="54">
-        <v>6839.923419658385</v>
+      <c r="F30" s="55">
+        <v>3507.149292616679</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3431,8 +3480,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="55">
-        <v>5813.728243882939</v>
+      <c r="F31" s="63">
+        <v>3444.107039405113</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3451,8 +3500,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="56">
-        <v>7317.560051285805</v>
+      <c r="F32" s="63">
+        <v>3444.638195980279</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3471,8 +3520,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="53">
-        <v>7142.294514734924</v>
+      <c r="F33" s="50">
+        <v>3486.846415053501</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3491,8 +3540,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="57">
-        <v>7093.57160599095</v>
+      <c r="F34" s="52">
+        <v>3468.919505351642</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3511,8 +3560,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="58">
-        <v>7338.19457936457</v>
+      <c r="F35" s="63">
+        <v>3442.428006329992</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3531,8 +3580,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="59">
-        <v>7187.485295435928</v>
+      <c r="F36" s="50">
+        <v>3479.940186402973</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3551,8 +3600,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="60">
-        <v>7209.490293347926</v>
+      <c r="F37" s="52">
+        <v>3461.139993137626</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3571,8 +3620,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="61">
-        <v>12788.24710269182</v>
+      <c r="F38" s="64">
+        <v>6468.944523086681</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3591,8 +3640,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="62">
-        <v>12903.67387086751</v>
+      <c r="F39" s="65">
+        <v>6528.136167635911</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3611,8 +3660,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="62">
-        <v>12917.1075234348</v>
+      <c r="F40" s="65">
+        <v>6519.740676080978</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3631,8 +3680,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="63">
-        <v>12723.94673328884</v>
+      <c r="F41" s="66">
+        <v>6443.368727644604</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3651,8 +3700,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="61">
-        <v>12812.05655727977</v>
+      <c r="F42" s="67">
+        <v>6498.121172315093</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3671,8 +3720,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="64">
-        <v>12813.56055257101</v>
+      <c r="F43" s="67">
+        <v>6488.452412941041</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3691,8 +3740,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="65">
-        <v>12707.70495710543</v>
+      <c r="F44" s="68">
+        <v>6429.926877809849</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3711,8 +3760,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="63">
-        <v>12740.41452118682</v>
+      <c r="F45" s="64">
+        <v>6461.432730005864</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3731,8 +3780,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="63">
-        <v>12721.77322022874</v>
+      <c r="F46" s="66">
+        <v>6444.537014765306</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3751,8 +3800,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="65">
-        <v>12705.02792222202</v>
+      <c r="F47" s="68">
+        <v>6427.909163473668</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3771,8 +3820,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="63">
-        <v>12730.72059770548</v>
+      <c r="F48" s="66">
+        <v>6453.33368453079</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3791,8 +3840,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="63">
-        <v>12717.33891319589</v>
+      <c r="F49" s="68">
+        <v>6440.049589534577</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3811,8 +3860,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="66">
-        <v>12160.95364948288</v>
+      <c r="F50" s="69">
+        <v>6333.98025305154</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3831,8 +3880,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="67">
-        <v>11804.55485389116</v>
+      <c r="F51" s="70">
+        <v>6273.178672176423</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3851,8 +3900,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="68">
-        <v>11407.37915216324</v>
+      <c r="F52" s="71">
+        <v>6192.049555804933</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3871,8 +3920,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="65">
-        <v>12664.7364139125</v>
+      <c r="F53" s="68">
+        <v>6438.605884320655</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3891,8 +3940,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="65">
-        <v>12666.03761672571</v>
+      <c r="F54" s="67">
+        <v>6486.997967098915</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3911,8 +3960,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="69">
-        <v>12210.66838903153</v>
+      <c r="F55" s="64">
+        <v>6460.933937693825</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3931,8 +3980,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="65">
-        <v>12682.47762842492</v>
+      <c r="F56" s="68">
+        <v>6427.458397286663</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3951,8 +4000,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="65">
-        <v>12688.55622056666</v>
+      <c r="F57" s="64">
+        <v>6457.144149006678</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3971,8 +4020,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="65">
-        <v>12686.97816980611</v>
+      <c r="F58" s="66">
+        <v>6441.031911473267</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3991,8 +4040,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="65">
-        <v>12683.90695742833</v>
+      <c r="F59" s="68">
+        <v>6425.804576072384</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4011,8 +4060,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="65">
-        <v>12691.98577026014</v>
+      <c r="F60" s="66">
+        <v>6449.828581238752</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4031,8 +4080,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="65">
-        <v>12689.11655279322</v>
+      <c r="F61" s="68">
+        <v>6437.282860121452</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4051,8 +4100,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="70">
-        <v>11167.74671002897</v>
+      <c r="F62" s="72">
+        <v>6137.77604724048</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4071,8 +4120,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="71">
-        <v>9657.024318165388</v>
+      <c r="F63" s="73">
+        <v>5899.647333218948</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4091,8 +4140,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="72">
-        <v>8199.379735498071</v>
+      <c r="F64" s="74">
+        <v>5567.108640947386</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4111,8 +4160,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="73">
-        <v>12565.20179025661</v>
+      <c r="F65" s="68">
+        <v>6427.776289282663</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4131,8 +4180,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="74">
-        <v>12032.90436236553</v>
+      <c r="F66" s="75">
+        <v>6471.164703497296</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4151,8 +4200,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="75">
-        <v>10995.81925105556</v>
+      <c r="F67" s="76">
+        <v>6229.161799775409</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4171,8 +4220,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="65">
-        <v>12646.64448946467</v>
+      <c r="F68" s="68">
+        <v>6421.891384087424</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4191,8 +4240,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="76">
-        <v>12513.81629815426</v>
+      <c r="F69" s="66">
+        <v>6446.719761147539</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4211,8 +4260,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="77">
-        <v>12588.2210465781</v>
+      <c r="F70" s="68">
+        <v>6433.268314398474</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4231,8 +4280,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="65">
-        <v>12656.06943391686</v>
+      <c r="F71" s="68">
+        <v>6420.816498931807</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4251,8 +4300,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="73">
-        <v>12556.29777322873</v>
+      <c r="F72" s="68">
+        <v>6440.825226581551</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4271,8 +4320,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="78">
-        <v>12609.0011858149</v>
+      <c r="F73" s="68">
+        <v>6430.809294465103</v>
       </c>
     </row>
   </sheetData>
@@ -4321,7 +4370,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4341,7 +4390,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4361,7 +4410,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4381,7 +4430,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="52">
+      <c r="F5" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4401,7 +4450,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="52">
+      <c r="F6" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4421,7 +4470,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4441,7 +4490,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4461,7 +4510,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F9" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4481,7 +4530,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4501,7 +4550,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F11" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4521,7 +4570,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F12" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4541,7 +4590,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F13" s="62">
         <v>0</v>
       </c>
     </row>
@@ -4561,8 +4610,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="79">
-        <v>1650.829858861342</v>
+      <c r="F14" s="77">
+        <v>776.947283782711</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4581,8 +4630,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="80">
-        <v>2881.854852240659</v>
+      <c r="F15" s="78">
+        <v>1269.268698901808</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4601,8 +4650,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="81">
-        <v>3533.499652148049</v>
+      <c r="F16" s="79">
+        <v>1453.322957496987</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4621,8 +4670,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="82">
-        <v>195.6104432047388</v>
+      <c r="F17" s="80">
+        <v>65.64504150066757</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4641,8 +4690,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="83">
-        <v>336.9535906915762</v>
+      <c r="F18" s="81">
+        <v>115.7436736172667</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4661,8 +4710,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="84">
-        <v>949.6895523472003</v>
+      <c r="F19" s="82">
+        <v>252.5413318475803</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4681,8 +4730,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="85">
-        <v>108.8522090549048</v>
+      <c r="F20" s="83">
+        <v>35.14205846374063</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4701,8 +4750,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="86">
-        <v>169.9460619159358</v>
+      <c r="F21" s="80">
+        <v>61.74191367827886</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4721,8 +4770,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="82">
-        <v>203.4457937514989</v>
+      <c r="F22" s="84">
+        <v>94.32298192994938</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4741,8 +4790,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="85">
-        <v>88.73523084425588</v>
+      <c r="F23" s="83">
+        <v>28.50547413855713</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4761,8 +4810,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="87">
-        <v>143.290171861868</v>
+      <c r="F24" s="85">
+        <v>48.43026831801955</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4781,8 +4830,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="87">
-        <v>136.6083246091488</v>
+      <c r="F25" s="80">
+        <v>61.74191367827886</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4801,8 +4850,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="88">
-        <v>3084.46527939775</v>
+      <c r="F26" s="86">
+        <v>1592.826201500888</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4821,8 +4870,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="89">
-        <v>5218.548969676591</v>
+      <c r="F27" s="87">
+        <v>2447.834162260545</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4841,8 +4890,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="90">
-        <v>7290.550607051456</v>
+      <c r="F28" s="88">
+        <v>3373.704118274395</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4861,8 +4910,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="91">
-        <v>606.084637217702</v>
+      <c r="F29" s="61">
+        <v>274.6957403372998</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4881,8 +4930,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="92">
-        <v>1405.663904701903</v>
+      <c r="F30" s="60">
+        <v>487.4769334659765</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4901,8 +4950,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="58">
-        <v>3506.802908930157</v>
+      <c r="F31" s="89">
+        <v>1222.353167712925</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4921,8 +4970,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="93">
-        <v>254.0593554738107</v>
+      <c r="F32" s="90">
+        <v>139.6147085749215</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4941,8 +4990,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="94">
-        <v>693.7358982401573</v>
+      <c r="F33" s="82">
+        <v>255.8723450537753</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4961,8 +5010,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="95">
-        <v>744.1541077626994</v>
+      <c r="F34" s="91">
+        <v>373.0471275236956</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4981,8 +5030,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="82">
-        <v>209.2314851255441</v>
+      <c r="F35" s="81">
+        <v>118.0672363215096</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5001,8 +5050,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="96">
-        <v>579.5182345907845</v>
+      <c r="F36" s="92">
+        <v>207.3667693909634</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5021,8 +5070,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="97">
-        <v>492.5213881821418</v>
+      <c r="F37" s="93">
+        <v>242.5134724461028</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5041,7 +5090,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="52">
+      <c r="F38" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5061,7 +5110,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5081,7 +5130,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5101,7 +5150,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F41" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5121,7 +5170,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F42" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5141,7 +5190,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F43" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5161,7 +5210,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="52">
+      <c r="F44" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5181,7 +5230,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="52">
+      <c r="F45" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5201,7 +5250,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="52">
+      <c r="F46" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5221,7 +5270,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5241,7 +5290,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F48" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5261,7 +5310,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F49" s="62">
         <v>0</v>
       </c>
     </row>
@@ -5281,8 +5330,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="50">
-        <v>2033.809028558813</v>
+      <c r="F50" s="94">
+        <v>957.4485125771901</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5301,8 +5350,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="44">
-        <v>3628.26835827906</v>
+      <c r="F51" s="86">
+        <v>1593.743821344552</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5321,8 +5370,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="98">
-        <v>5019.446721344348</v>
+      <c r="F52" s="95">
+        <v>2130.826243049877</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5341,8 +5390,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="86">
-        <v>149.1270711280139</v>
+      <c r="F53" s="85">
+        <v>53.19532017783293</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5361,8 +5410,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="99">
-        <v>395.269390458085</v>
+      <c r="F54" s="90">
+        <v>144.9819274179409</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5381,8 +5430,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="100">
-        <v>1922.706280258855</v>
+      <c r="F55" s="96">
+        <v>475.2447748072078</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5401,8 +5450,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="101">
-        <v>61.19266001313503</v>
+      <c r="F56" s="83">
+        <v>18.91098768620373</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5421,8 +5470,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="87">
-        <v>128.2441842873131</v>
+      <c r="F57" s="85">
+        <v>41.61902234569372</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5441,8 +5490,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="85">
-        <v>85.19809325586476</v>
+      <c r="F58" s="83">
+        <v>29.80130598904827</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5461,8 +5510,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="101">
-        <v>51.51758754533567</v>
+      <c r="F59" s="62">
+        <v>14.50186217095843</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5481,8 +5530,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="85">
-        <v>93.97536146749252</v>
+      <c r="F60" s="83">
+        <v>29.80130598904827</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5501,8 +5550,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="101">
-        <v>67.75408785841486</v>
+      <c r="F61" s="83">
+        <v>20.98905050705926</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5521,8 +5570,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="45">
-        <v>3209.189600955568</v>
+      <c r="F62" s="97">
+        <v>1902.008445514517</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5541,8 +5590,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="102">
-        <v>6452.649325876972</v>
+      <c r="F63" s="98">
+        <v>3137.568933481597</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5561,8 +5610,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="62">
-        <v>9411.587846975366</v>
+      <c r="F64" s="65">
+        <v>4794.007511144423</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5581,8 +5630,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="103">
-        <v>289.4256474956678</v>
+      <c r="F65" s="99">
+        <v>194.037687052477</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5601,8 +5650,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="104">
-        <v>1464.817806165867</v>
+      <c r="F66" s="100">
+        <v>526.34686842519</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5621,8 +5670,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="48">
-        <v>3583.372124797327</v>
+      <c r="F67" s="101">
+        <v>2172.225846674564</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5641,8 +5690,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="85">
-        <v>110.0044816763576</v>
+      <c r="F68" s="80">
+        <v>71.38856286543295</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5661,8 +5710,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="105">
-        <v>407.8904046906079</v>
+      <c r="F69" s="102">
+        <v>161.4407194325501</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5681,8 +5730,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="93">
-        <v>242.8329589295964</v>
+      <c r="F70" s="84">
+        <v>109.9446947539117</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5701,8 +5750,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="85">
-        <v>88.79171035304222</v>
+      <c r="F71" s="80">
+        <v>57.88515169447861</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5721,8 +5770,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="106">
-        <v>312.6598809927535</v>
+      <c r="F72" s="81">
+        <v>122.7558413406463</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5741,8 +5790,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="82">
-        <v>196.4518343454459</v>
+      <c r="F73" s="103">
+        <v>81.9630919655703</v>
       </c>
     </row>
   </sheetData>
@@ -5791,8 +5840,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="107">
-        <v>803.1812751303619</v>
+      <c r="F2" s="104">
+        <v>657.338309439164</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5811,8 +5860,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="108">
-        <v>1873.499560122021</v>
+      <c r="F3" s="44">
+        <v>1524.798928630718</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5831,8 +5880,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="38">
-        <v>2479.849226425816</v>
+      <c r="F4" s="31">
+        <v>2052.404471312229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5851,8 +5900,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8">
-        <v>217.7662738067129</v>
+      <c r="F5" s="105">
+        <v>248.0742946037855</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5871,8 +5920,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="20">
-        <v>724.343853507159</v>
+      <c r="F6" s="106">
+        <v>779.1912455964575</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5891,8 +5940,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="109">
-        <v>1059.829824512622</v>
+      <c r="F7" s="107">
+        <v>1076.246203487269</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5911,8 +5960,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="110">
-        <v>105.3906830840426</v>
+      <c r="F8" s="108">
+        <v>127.9850099394693</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5931,8 +5980,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="14">
-        <v>380.6855912409278</v>
+      <c r="F9" s="109">
+        <v>460.6375688944728</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5951,8 +6000,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="111">
-        <v>269.5865363852637</v>
+      <c r="F10" s="110">
+        <v>397.7724073796143</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5971,8 +6020,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="112">
-        <v>85.30809419247382</v>
+      <c r="F11" s="11">
+        <v>108.0556781723916</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5991,8 +6040,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="113">
-        <v>302.3897649728449</v>
+      <c r="F12" s="111">
+        <v>379.4099487672818</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6011,8 +6060,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="114">
-        <v>187.4997505530028</v>
+      <c r="F13" s="112">
+        <v>264.0667474030532</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6031,8 +6080,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="115">
-        <v>286.1479461511316</v>
+      <c r="F14" s="113">
+        <v>376.2968255640352</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6051,8 +6100,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="116">
-        <v>879.5718154289259</v>
+      <c r="F15" s="114">
+        <v>999.9117576844228</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6071,8 +6120,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="117">
-        <v>1251.282238116325</v>
+      <c r="F16" s="115">
+        <v>1463.174837284711</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6091,8 +6140,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="7">
-        <v>134.3932487393278</v>
+      <c r="F17" s="25">
+        <v>214.6185717136902</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6111,8 +6160,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="118">
-        <v>587.222548106937</v>
+      <c r="F18" s="116">
+        <v>722.9482551855326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6131,8 +6180,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="20">
-        <v>725.5469084395307</v>
+      <c r="F19" s="117">
+        <v>959.1706656615809</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6151,8 +6200,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="17">
-        <v>53.3564929965241</v>
+      <c r="F20" s="11">
+        <v>108.5709881701646</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6171,8 +6220,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="113">
-        <v>303.6348913153278</v>
+      <c r="F21" s="4">
+        <v>427.1818460043776</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6191,8 +6240,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="119">
-        <v>181.6588603142008</v>
+      <c r="F22" s="118">
+        <v>350.6190041485276</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6211,8 +6260,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="12">
-        <v>43.16053392450752</v>
+      <c r="F23" s="20">
+        <v>91.26423835089506</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6231,8 +6280,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="120">
-        <v>238.8751098298445</v>
+      <c r="F24" s="118">
+        <v>352.4296317665307</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6251,8 +6300,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="121">
-        <v>123.9850954100024</v>
+      <c r="F25" s="119">
+        <v>230.6110245129578</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6271,8 +6320,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="6">
-        <v>26.52956860275165</v>
+      <c r="F26" s="120">
+        <v>236.9493714961847</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6291,8 +6340,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="122">
-        <v>447.2663866404827</v>
+      <c r="F27" s="121">
+        <v>786.3558889430577</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6311,8 +6360,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="123">
-        <v>511.2861167504222</v>
+      <c r="F28" s="122">
+        <v>1061.912664993885</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6331,8 +6380,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="9">
-        <v>0</v>
+      <c r="F29" s="123">
+        <v>134.3477647082477</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6351,8 +6400,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="115">
-        <v>283.3475813612906</v>
+      <c r="F30" s="5">
+        <v>583.4507444723068</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6372,7 +6421,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="124">
-        <v>226.9384042655693</v>
+        <v>709.2865343307651</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6391,8 +6440,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="9">
-        <v>0</v>
+      <c r="F32" s="17">
+        <v>65.12038198066942</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6411,8 +6460,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="121">
-        <v>116.3805729813275</v>
+      <c r="F33" s="125">
+        <v>343.3677746002728</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6431,8 +6480,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="18">
-        <v>14.15628444271354</v>
+      <c r="F34" s="120">
+        <v>238.8517707190812</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6451,8 +6500,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="9">
-        <v>0</v>
+      <c r="F35" s="126">
+        <v>51.3540235875361</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6471,8 +6520,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="112">
-        <v>80.07143720982413</v>
+      <c r="F36" s="127">
+        <v>281.2299119555381</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6491,8 +6540,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="9">
-        <v>5.392442817685369</v>
+      <c r="F37" s="24">
+        <v>158.7433211013739</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6511,8 +6560,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="107">
-        <v>803.1812751303619</v>
+      <c r="F38" s="104">
+        <v>657.338309439164</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6531,8 +6580,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="108">
-        <v>1873.499560122021</v>
+      <c r="F39" s="44">
+        <v>1524.798928630718</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6551,8 +6600,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="38">
-        <v>2479.849226425816</v>
+      <c r="F40" s="31">
+        <v>2052.404471312229</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6571,8 +6620,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="125">
-        <v>112.6021024554471</v>
+      <c r="F41" s="21">
+        <v>149.6463864641597</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6591,8 +6640,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="15">
-        <v>520.6971392210378</v>
+      <c r="F42" s="128">
+        <v>625.0221227337416</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6611,8 +6660,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="126">
-        <v>856.8805061567789</v>
+      <c r="F43" s="129">
+        <v>885.6657190272073</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6631,8 +6680,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="12">
-        <v>46.64822146439845</v>
+      <c r="F44" s="17">
+        <v>60.04347141709579</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6651,8 +6700,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="3">
-        <v>173.6361852044211</v>
+      <c r="F45" s="120">
+        <v>235.7524607786467</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6671,8 +6720,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="110">
-        <v>99.46666229937964</v>
+      <c r="F46" s="123">
+        <v>131.0652368669674</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6691,8 +6740,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="11">
-        <v>36.5098984904831</v>
+      <c r="F47" s="28">
+        <v>50.03097591396831</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6711,8 +6760,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="7">
-        <v>134.2905708604081</v>
+      <c r="F48" s="130">
+        <v>180.4853770490379</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6731,8 +6780,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="112">
-        <v>82.24745863058621</v>
+      <c r="F49" s="13">
+        <v>104.8625605250693</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6751,8 +6800,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="127">
-        <v>203.3085743149552</v>
+      <c r="F50" s="125">
+        <v>338.8437444814808</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6771,8 +6820,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="128">
-        <v>715.5014516919969</v>
+      <c r="F51" s="131">
+        <v>928.1370666744319</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6791,8 +6840,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="129">
-        <v>908.2024087334084</v>
+      <c r="F52" s="132">
+        <v>1291.076180355287</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6811,8 +6860,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="12">
-        <v>41.40679992751784</v>
+      <c r="F53" s="10">
+        <v>119.1065074749921</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6831,8 +6880,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="130">
-        <v>345.00199111353</v>
+      <c r="F54" s="133">
+        <v>540.3998289604566</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6851,8 +6900,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="113">
-        <v>302.5164082971891</v>
+      <c r="F55" s="134">
+        <v>665.8364527067786</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6871,8 +6920,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="18">
-        <v>15.42567752621673</v>
+      <c r="F56" s="28">
+        <v>48.61807612571168</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6891,8 +6940,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="125">
-        <v>109.559330654955</v>
+      <c r="F57" s="25">
+        <v>210.5029606500208</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6911,8 +6960,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="17">
-        <v>56.80852003835454</v>
+      <c r="F58" s="11">
+        <v>112.6588245471884</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6931,8 +6980,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="18">
-        <v>10.74941146343787</v>
+      <c r="F59" s="9">
+        <v>40.74815128127878</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6951,8 +7000,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="112">
-        <v>85.5994633353298</v>
+      <c r="F60" s="24">
+        <v>162.0789647292588</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -6971,8 +7020,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="12">
-        <v>46.5081816047054</v>
+      <c r="F61" s="20">
+        <v>91.66369841781029</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -6991,8 +7040,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="9">
-        <v>0.1834627105676357</v>
+      <c r="F62" s="130">
+        <v>178.8766223367151</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7011,8 +7060,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="127">
-        <v>198.6769964578388</v>
+      <c r="F63" s="135">
+        <v>651.9960174181306</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7031,8 +7080,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="112">
-        <v>79.96340726237918</v>
+      <c r="F64" s="136">
+        <v>763.9042786128099</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7051,8 +7100,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="9">
-        <v>0.1820622210973538</v>
+      <c r="F65" s="126">
+        <v>59.1926191970166</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7071,8 +7120,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="12">
-        <v>46.27138301571736</v>
+      <c r="F66" s="137">
+        <v>385.2919881290142</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7091,8 +7140,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="9">
-        <v>2.246918086020362</v>
+      <c r="F67" s="118">
+        <v>345.6120651611868</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7111,8 +7160,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="9">
-        <v>0.182552994935995</v>
+      <c r="F68" s="26">
+        <v>24.60285722240639</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7131,8 +7180,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="9">
-        <v>3.172390578078132</v>
+      <c r="F69" s="21">
+        <v>153.5195695893382</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7151,8 +7200,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="9">
-        <v>2.247809531160659</v>
+      <c r="F70" s="27">
+        <v>75.54565155673205</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7171,8 +7220,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="9">
-        <v>0.1414736227542157</v>
+      <c r="F71" s="26">
+        <v>19.58147479282532</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7191,8 +7240,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="9">
-        <v>0.4956833922068945</v>
+      <c r="F72" s="10">
+        <v>116.3049573855315</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7211,8 +7260,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="9">
-        <v>1.973204032884826</v>
+      <c r="F73" s="17">
+        <v>62.35742076885559</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="137">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,97 +120,775 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4DADA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6BBBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A7A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D0D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E8E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4E2E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CACA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B7B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3ECEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DEDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E9E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C8C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B6B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E3E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3434"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE1515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4747"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3A3A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2F2F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4949"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4848"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3D3D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2727"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE1616"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3737"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3C3C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2424"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4343"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4A4A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFDEBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DAB7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB5D9B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2DFC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBDCBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4E0C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEDDBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0DEC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9E2C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8E2C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3E0C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDDCBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBCDCBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1DFC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5E0C5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4E8D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEDDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF3EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E1C6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF098509"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF018001"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E870E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF078407"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF068306"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F870F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C860C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D860D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF138913"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158A15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF198C19"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF088408"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF108810"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF209020"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E972E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF42A042"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B850B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1D8E1D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA8D2A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA1CFA1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4F0E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCECDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF2EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9DCD9D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6DB56D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF40A040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDECDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE5CF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0CEA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F0E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9DBB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7ABC7A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FC68F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BA54B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1EEE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCE4CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7BBC7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F1E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3F3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A0A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97E7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CBCB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88686"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB5151"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DDDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6A8A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88F8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C8C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D1D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4DCDC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF5C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6ADAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EAEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DADA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CFCF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E5E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EFEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E7E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E2E2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5CBCB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B9B9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EBEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DBDB"/>
+        <fgColor rgb="FFF7A6A6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF88C8C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B1B1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDED"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,25 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3E8E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4E1E1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C8C7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B7B7"/>
+        <fgColor rgb="FFF6B3B3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF89393"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,679 +918,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E9E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD2F2F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFE1313"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC4040"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD3131"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD2828"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC4343"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3D3D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3F3F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC4141"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3636"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD1E1E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFE0F0F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3434"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD2E2E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3E3E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC4242"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFE1B1B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFE0B0B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC4444"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0DEC0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDDCBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1DFC1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDDDBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2DFC2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBEDDBE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFDEBF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC8E2C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCAE3CA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCDE5CD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3E7D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEDDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF3EB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3E0C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF048204"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF058205"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF028102"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF068306"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0C860C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF108810"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF158A15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF188C18"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF289328"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3D9E3D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF038103"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF128912"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFADD5AD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA4D0A4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F0E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDFEDDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF2EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6F1E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9F2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9CCD9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF73B873"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF45A245"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFD6AF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4F0E4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EEE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EEDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCDCBC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF83C083"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E8D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EC58E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF51A851"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EEE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1E6D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81BF81"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE3EFE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7F1E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D6D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79797"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97373"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E4E4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5BCBC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C4C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C6C6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D4D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C7C7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97C7C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4646"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79D9D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF88181"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D8D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D7D7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79696"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97575"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E3E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79F9F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5CACA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3ECEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D2D2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6A8A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF88989"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DDDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF88585"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA5959"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B3B3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7A4A4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7A6A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79898"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C5C5"/>
+        <fgColor rgb="FFF96D6D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5BDBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B8B8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -986,8 +992,8 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1003,12 +1009,12 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1022,7 +1028,7 @@
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="65" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1036,52 +1042,52 @@
     <xf numFmtId="0" fontId="3" fillId="73" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="74" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="75" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="84" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="85" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="95" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="96" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="97" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="98" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="99" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="124" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1090,13 +1096,14 @@
     <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,7 +1438,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>31308.50288468429</v>
+        <v>32764.76828126188</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1451,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4">
-        <v>32116.77185932662</v>
+        <v>33684.62342552929</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1471,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5">
-        <v>32652.77289356306</v>
+        <v>34320.92501801479</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1491,7 +1498,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6">
-        <v>30913.20617542131</v>
+        <v>32272.19681768115</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1511,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="7">
-        <v>31386.85172422463</v>
+        <v>32730.77683768104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1531,7 +1538,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8">
-        <v>31692.99736956487</v>
+        <v>33075.48219717547</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1551,7 +1558,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="9">
-        <v>30806.71551505055</v>
+        <v>32171.06413710425</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1571,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="10">
-        <v>31092.20905234555</v>
+        <v>32424.35613100069</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1591,7 +1598,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="11">
-        <v>31045.04873313245</v>
+        <v>32378.00103256246</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1611,7 +1618,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="12">
-        <v>30789.84472166983</v>
+        <v>32156.65444156404</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1631,7 +1638,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="13">
-        <v>31019.23683556635</v>
+        <v>32355.39618071632</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1651,7 +1658,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>30922.13638687821</v>
+        <v>32265.85598407669</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1671,7 +1678,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="14">
-        <v>31146.64635002538</v>
+        <v>32531.9230336146</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1691,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="15">
-        <v>31815.96380544874</v>
+        <v>33253.91867750916</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1711,7 +1718,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="16">
-        <v>32316.02656635926</v>
+        <v>33825.17374809314</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1731,7 +1738,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="17">
-        <v>30884.54208234422</v>
+        <v>32237.68599546648</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1751,7 +1758,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>31336.20746375139</v>
+        <v>32664.16286914515</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1771,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="F19" s="19">
-        <v>31585.36554283437</v>
+        <v>32924.58147673774</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1791,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="12">
-        <v>30790.92900117916</v>
+        <v>32154.02228503053</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1810,8 +1817,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="11">
-        <v>31063.53761786732</v>
+      <c r="F21" s="20">
+        <v>32390.58496206599</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1830,8 +1837,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="20">
-        <v>31003.25397522288</v>
+      <c r="F22" s="13">
+        <v>32331.57199275272</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1851,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="12">
-        <v>30776.37656152951</v>
+        <v>32140.76494427156</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1870,8 +1877,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="20">
-        <v>30996.60895870821</v>
+      <c r="F24" s="21">
+        <v>32328.83503276443</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1891,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="17">
-        <v>30893.46495239998</v>
+        <v>32236.78492638006</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1910,8 +1917,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="21">
-        <v>31180.57531405703</v>
+      <c r="F26" s="14">
+        <v>32552.94126029571</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1931,7 +1938,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22">
-        <v>31911.46094542385</v>
+        <v>33329.36786877846</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1951,7 +1958,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="23">
-        <v>32392.8249820646</v>
+        <v>33848.60704037147</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1970,8 +1977,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="9">
-        <v>30816.77261055443</v>
+      <c r="F29" s="12">
+        <v>32159.01432017909</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1991,7 +1998,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="24">
-        <v>31212.17635286283</v>
+        <v>32509.81719825236</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2011,7 +2018,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="25">
-        <v>31401.05439593284</v>
+        <v>32782.03826145427</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2031,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="26">
-        <v>30756.35708700759</v>
+        <v>32112.95837223445</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2050,8 +2057,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="20">
-        <v>30992.39626055396</v>
+      <c r="F33" s="21">
+        <v>32309.40472051256</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2070,8 +2077,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="6">
-        <v>30905.80716637464</v>
+      <c r="F34" s="17">
+        <v>32224.13785793351</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2091,7 +2098,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="26">
-        <v>30744.80091826475</v>
+        <v>32106.79219261802</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2110,8 +2117,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="27">
-        <v>30937.16462655976</v>
+      <c r="F36" s="6">
+        <v>32257.76620075753</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2130,8 +2137,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="28">
-        <v>30833.47822897095</v>
+      <c r="F37" s="9">
+        <v>32172.49057149661</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2150,8 +2157,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="29">
-        <v>36256.53938489911</v>
+      <c r="F38" s="27">
+        <v>37737.83165219318</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2170,8 +2177,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="30">
-        <v>37064.80835954143</v>
+      <c r="F39" s="28">
+        <v>38657.6867964606</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2190,8 +2197,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="31">
-        <v>37600.80939377788</v>
+      <c r="F40" s="29">
+        <v>39293.9883889461</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2210,8 +2217,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="32">
-        <v>35774.42325736617</v>
+      <c r="F41" s="30">
+        <v>37161.55001167923</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2230,8 +2237,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="33">
-        <v>36195.04654896527</v>
+      <c r="F42" s="31">
+        <v>37545.41408884968</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2250,8 +2257,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="34">
-        <v>36465.35890463279</v>
+      <c r="F43" s="32">
+        <v>37870.365389347</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2270,8 +2277,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="35">
-        <v>35698.26219215386</v>
+      <c r="F44" s="33">
+        <v>37095.20234332988</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2290,8 +2297,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="36">
-        <v>35842.4653293194</v>
+      <c r="F45" s="34">
+        <v>37214.54125351362</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2310,8 +2317,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="32">
-        <v>35754.67382064828</v>
+      <c r="F46" s="35">
+        <v>37142.11225943222</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2330,8 +2337,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="35">
-        <v>35690.26741098692</v>
+      <c r="F47" s="33">
+        <v>37089.2803731096</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2350,8 +2357,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="37">
-        <v>35795.29729106486</v>
+      <c r="F48" s="30">
+        <v>37174.82323298256</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2370,8 +2377,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="38">
-        <v>35732.95856953711</v>
+      <c r="F49" s="35">
+        <v>37124.72374954847</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2390,8 +2397,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="39">
-        <v>36073.00908997656</v>
+      <c r="F50" s="36">
+        <v>37467.54660716016</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2410,8 +2417,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="40">
-        <v>36723.10399304463</v>
+      <c r="F51" s="37">
+        <v>38142.40966656118</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2430,8 +2437,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="41">
-        <v>37167.17222309698</v>
+      <c r="F52" s="38">
+        <v>38621.03759930973</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2450,8 +2457,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="38">
-        <v>35748.64622170095</v>
+      <c r="F53" s="35">
+        <v>37131.34831849814</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2470,8 +2477,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="42">
-        <v>36121.54746040817</v>
+      <c r="F54" s="36">
+        <v>37457.50315483373</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2490,8 +2497,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="43">
-        <v>36273.04811355958</v>
+      <c r="F55" s="39">
+        <v>37649.78335316283</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2510,8 +2517,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="35">
-        <v>35689.30527738567</v>
+      <c r="F56" s="33">
+        <v>37085.68142388945</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2530,8 +2537,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="44">
-        <v>35821.50441018996</v>
+      <c r="F57" s="30">
+        <v>37188.24850247798</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2550,8 +2557,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="38">
-        <v>35739.77251162053</v>
+      <c r="F58" s="35">
+        <v>37124.96494740989</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2570,8 +2577,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="35">
-        <v>35683.08917375551</v>
+      <c r="F59" s="33">
+        <v>37080.13694548504</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2590,8 +2597,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="37">
-        <v>35780.39598203712</v>
+      <c r="F60" s="35">
+        <v>37156.10460919305</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2610,8 +2617,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="45">
-        <v>35722.52643684297</v>
+      <c r="F61" s="35">
+        <v>37111.55433186603</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2630,8 +2637,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="42">
-        <v>36109.24617364286</v>
+      <c r="F62" s="40">
+        <v>37492.76157565065</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2650,8 +2657,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="46">
-        <v>36820.49428274581</v>
+      <c r="F63" s="41">
+        <v>38224.55575396035</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2670,8 +2677,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="47">
-        <v>37264.94123621205</v>
+      <c r="F64" s="28">
+        <v>38672.75978721697</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2690,8 +2697,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="45">
-        <v>35699.56192846098</v>
+      <c r="F65" s="33">
+        <v>37078.07858666952</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2710,8 +2717,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="48">
-        <v>35982.27288317835</v>
+      <c r="F66" s="42">
+        <v>37290.21897042119</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2730,8 +2737,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="33">
-        <v>36184.5958639324</v>
+      <c r="F67" s="31">
+        <v>37536.86745766114</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2750,8 +2757,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="49">
-        <v>35670.85707168161</v>
+      <c r="F68" s="43">
+        <v>37064.97820515984</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2770,8 +2777,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="32">
-        <v>35774.94540698842</v>
+      <c r="F69" s="35">
+        <v>37136.75090946539</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2790,8 +2797,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="45">
-        <v>35710.42293570488</v>
+      <c r="F70" s="33">
+        <v>37092.24578726138</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2810,8 +2817,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="49">
-        <v>35666.91057440764</v>
+      <c r="F71" s="43">
+        <v>37062.60408094769</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2830,8 +2837,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="38">
-        <v>35743.6253293506</v>
+      <c r="F72" s="35">
+        <v>37117.34389115014</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2850,8 +2857,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="45">
-        <v>35699.69372485037</v>
+      <c r="F73" s="33">
+        <v>37086.59738289783</v>
       </c>
     </row>
   </sheetData>
@@ -2900,8 +2907,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="50">
-        <v>3484.710325762061</v>
+      <c r="F2" s="44">
+        <v>4337.578691879053</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2920,8 +2927,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="51">
-        <v>3543.90197031129</v>
+      <c r="F3" s="45">
+        <v>4492.597895578871</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2940,8 +2947,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="51">
-        <v>3535.506478756357</v>
+      <c r="F4" s="46">
+        <v>4522.960252891155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2960,8 +2967,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="52">
-        <v>3470.743020189666</v>
+      <c r="F5" s="47">
+        <v>4285.576933589895</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2980,8 +2987,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="53">
-        <v>3528.214422379022</v>
+      <c r="F6" s="48">
+        <v>4418.251352786868</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3000,8 +3007,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="53">
-        <v>3519.123734929587</v>
+      <c r="F7" s="48">
+        <v>4433.790062446342</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3020,8 +3027,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="54">
-        <v>3457.144395896106</v>
+      <c r="F8" s="49">
+        <v>4254.062645687749</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3040,8 +3047,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="55">
-        <v>3504.303417556111</v>
+      <c r="F9" s="50">
+        <v>4348.710451342899</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3060,8 +3067,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="56">
-        <v>3488.598575254351</v>
+      <c r="F10" s="51">
+        <v>4320.875959752703</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3080,8 +3087,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="54">
-        <v>3454.085857509751</v>
+      <c r="F11" s="49">
+        <v>4248.154124920416</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3100,8 +3107,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="56">
-        <v>3496.048014208128</v>
+      <c r="F12" s="51">
+        <v>4328.768459005034</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3120,8 +3127,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="50">
-        <v>3477.805261532034</v>
+      <c r="F13" s="47">
+        <v>4292.856170837141</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3140,8 +3147,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="57">
-        <v>3365.525376545845</v>
+      <c r="F14" s="52">
+        <v>4169.214200035356</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3160,8 +3167,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="58">
-        <v>3319.822853242871</v>
+      <c r="F15" s="53">
+        <v>4179.914270078079</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3180,8 +3187,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="59">
-        <v>3283.023171932641</v>
+      <c r="F16" s="52">
+        <v>4162.523153908483</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3200,8 +3207,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="52">
-        <v>3465.95139037666</v>
+      <c r="F17" s="54">
+        <v>4272.538162035697</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3220,8 +3227,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="53">
-        <v>3522.615692441332</v>
+      <c r="F18" s="55">
+        <v>4400.401002157114</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3240,8 +3247,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="55">
-        <v>3509.680023834399</v>
+      <c r="F19" s="56">
+        <v>4403.072531739982</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3260,8 +3267,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="54">
-        <v>3453.5168879982</v>
+      <c r="F20" s="49">
+        <v>4245.454468895732</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3280,8 +3287,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="56">
-        <v>3499.519129144252</v>
+      <c r="F21" s="44">
+        <v>4335.821336413551</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3300,8 +3307,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="50">
-        <v>3483.239929932843</v>
+      <c r="F22" s="57">
+        <v>4305.785766027384</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3320,8 +3327,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="54">
-        <v>3450.762577828581</v>
+      <c r="F23" s="58">
+        <v>4239.918652225011</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3340,8 +3347,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="56">
-        <v>3491.695574065511</v>
+      <c r="F24" s="51">
+        <v>4317.459046901849</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3360,8 +3367,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="52">
-        <v>3473.020973120175</v>
+      <c r="F25" s="47">
+        <v>4280.987305882851</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3380,8 +3387,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="60">
-        <v>3192.24895844635</v>
+      <c r="F26" s="59">
+        <v>3948.026190259207</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3400,8 +3407,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="61">
-        <v>3010.769844526417</v>
+      <c r="F27" s="60">
+        <v>3760.070440331212</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3420,8 +3427,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="62">
-        <v>2804.962583936494</v>
+      <c r="F28" s="61">
+        <v>3510.260207738406</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3440,8 +3447,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="54">
-        <v>3453.450055161019</v>
+      <c r="F29" s="58">
+        <v>4240.136173828727</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3460,8 +3467,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="55">
-        <v>3507.149292616679</v>
+      <c r="F30" s="50">
+        <v>4354.109702684748</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3480,8 +3487,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="63">
-        <v>3444.107039405113</v>
+      <c r="F31" s="53">
+        <v>4185.772125067334</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3500,8 +3507,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="63">
-        <v>3444.638195980279</v>
+      <c r="F32" s="62">
+        <v>4223.72550171468</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3520,8 +3527,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="50">
-        <v>3486.846415053501</v>
+      <c r="F33" s="57">
+        <v>4302.940043738529</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3540,8 +3547,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="52">
-        <v>3468.919505351642</v>
+      <c r="F34" s="54">
+        <v>4267.447492795073</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3560,8 +3567,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="63">
-        <v>3442.428006329992</v>
+      <c r="F35" s="62">
+        <v>4220.960638908729</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3580,8 +3587,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="50">
-        <v>3479.940186402973</v>
+      <c r="F36" s="47">
+        <v>4286.904023102188</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3600,8 +3607,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="52">
-        <v>3461.139993137626</v>
+      <c r="F37" s="49">
+        <v>4252.147707237949</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3620,8 +3627,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="64">
-        <v>6468.944523086681</v>
+      <c r="F38" s="63">
+        <v>7794.716901413854</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3640,8 +3647,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="65">
-        <v>6528.136167635911</v>
+      <c r="F39" s="64">
+        <v>7949.736105113674</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3661,7 +3668,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="65">
-        <v>6519.740676080978</v>
+        <v>7980.098462425956</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3681,7 +3688,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="66">
-        <v>6443.368727644604</v>
+        <v>7715.935275824824</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3701,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="67">
-        <v>6498.121172315093</v>
+        <v>7836.150374153191</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3720,8 +3727,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="67">
-        <v>6488.452412941041</v>
+      <c r="F43" s="68">
+        <v>7846.282545520415</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3740,8 +3747,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="68">
-        <v>6429.926877809849</v>
+      <c r="F44" s="69">
+        <v>7689.51362460923</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3760,8 +3767,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="64">
-        <v>6461.432730005864</v>
+      <c r="F45" s="70">
+        <v>7745.579631606855</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3781,7 +3788,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="66">
-        <v>6444.537014765306</v>
+        <v>7714.840251376574</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3800,8 +3807,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="68">
-        <v>6427.909163473668</v>
+      <c r="F47" s="69">
+        <v>7686.307395718137</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3820,8 +3827,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="66">
-        <v>6453.33368453079</v>
+      <c r="F48" s="71">
+        <v>7729.921577206132</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3840,8 +3847,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="68">
-        <v>6440.049589534577</v>
+      <c r="F49" s="66">
+        <v>7706.915395211916</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3860,8 +3867,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="69">
-        <v>6333.98025305154</v>
+      <c r="F50" s="72">
+        <v>7600.156640770892</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3880,8 +3887,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="70">
-        <v>6273.178672176423</v>
+      <c r="F51" s="73">
+        <v>7577.243786824532</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3900,8 +3907,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="71">
-        <v>6192.049555804933</v>
+      <c r="F52" s="74">
+        <v>7492.693962771931</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3920,8 +3927,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="68">
-        <v>6438.605884320655</v>
+      <c r="F53" s="66">
+        <v>7703.202277831213</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3940,8 +3947,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="67">
-        <v>6486.997967098915</v>
+      <c r="F54" s="75">
+        <v>7812.258812418017</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3960,8 +3967,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="64">
-        <v>6460.933937693825</v>
+      <c r="F55" s="71">
+        <v>7732.593221209889</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3980,8 +3987,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="68">
-        <v>6427.458397286663</v>
+      <c r="F56" s="69">
+        <v>7683.905918049335</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4000,8 +4007,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="64">
-        <v>6457.144149006678</v>
+      <c r="F57" s="71">
+        <v>7733.88611161671</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4021,7 +4028,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="66">
-        <v>6441.031911473267</v>
+        <v>7706.133074194149</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4040,8 +4047,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="68">
-        <v>6425.804576072384</v>
+      <c r="F59" s="76">
+        <v>7680.870412070732</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4060,8 +4067,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="66">
-        <v>6449.828581238752</v>
+      <c r="F60" s="71">
+        <v>7720.626557258676</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4080,8 +4087,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="68">
-        <v>6437.282860121452</v>
+      <c r="F61" s="69">
+        <v>7699.707908939981</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4100,8 +4107,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="72">
-        <v>6137.77604724048</v>
+      <c r="F62" s="77">
+        <v>7361.305188062664</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4120,8 +4127,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="73">
-        <v>5899.647333218948</v>
+      <c r="F63" s="78">
+        <v>7098.152316568044</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4140,8 +4147,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="74">
-        <v>5567.108640947386</v>
+      <c r="F64" s="79">
+        <v>6708.455419505113</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4160,8 +4167,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="68">
-        <v>6427.776289282663</v>
+      <c r="F65" s="76">
+        <v>7677.06015988069</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4180,8 +4187,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="75">
-        <v>6471.164703497296</v>
+      <c r="F66" s="80">
+        <v>7758.304631815197</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4200,8 +4207,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="76">
-        <v>6229.161799775409</v>
+      <c r="F67" s="81">
+        <v>7423.007292501243</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4220,8 +4227,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="68">
-        <v>6421.891384087424</v>
+      <c r="F68" s="76">
+        <v>7671.084280896616</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4241,7 +4248,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="66">
-        <v>6446.719761147539</v>
+        <v>7708.246127423047</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4260,8 +4267,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="68">
-        <v>6433.268314398474</v>
+      <c r="F70" s="69">
+        <v>7687.726591873148</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4280,8 +4287,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="68">
-        <v>6420.816498931807</v>
+      <c r="F71" s="76">
+        <v>7669.695298844546</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4300,8 +4307,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="68">
-        <v>6440.825226581551</v>
+      <c r="F72" s="69">
+        <v>7699.80749337509</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4320,8 +4327,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="68">
-        <v>6430.809294465103</v>
+      <c r="F73" s="69">
+        <v>7684.795011853688</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4377,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4390,7 +4397,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4410,7 +4417,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4430,7 +4437,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4450,7 +4457,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4470,7 +4477,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4490,7 +4497,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4510,7 +4517,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4530,7 +4537,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4550,7 +4557,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4570,7 +4577,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4590,7 +4597,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="61">
         <v>0</v>
       </c>
     </row>
@@ -4610,8 +4617,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="77">
-        <v>776.947283782711</v>
+      <c r="F14" s="47">
+        <v>1033.791914967966</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4630,8 +4637,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="78">
-        <v>1269.268698901808</v>
+      <c r="F15" s="82">
+        <v>1701.605917004455</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4650,8 +4657,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="79">
-        <v>1453.322957496987</v>
+      <c r="F16" s="83">
+        <v>1894.789817527575</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4670,8 +4677,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="80">
-        <v>65.64504150066757</v>
+      <c r="F17" s="84">
+        <v>91.07311067744112</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4690,8 +4697,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="81">
-        <v>115.7436736172667</v>
+      <c r="F18" s="85">
+        <v>166.0461935692741</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4710,8 +4717,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="82">
-        <v>252.5413318475803</v>
+      <c r="F19" s="86">
+        <v>393.0476344534815</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4730,8 +4737,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="83">
-        <v>35.14205846374063</v>
+      <c r="F20" s="87">
+        <v>45.46769886085173</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4750,8 +4757,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="80">
-        <v>61.74191367827886</v>
+      <c r="F21" s="84">
+        <v>82.50775644247122</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4770,8 +4777,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="84">
-        <v>94.32298192994938</v>
+      <c r="F22" s="88">
+        <v>118.200545865547</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4790,8 +4797,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="83">
-        <v>28.50547413855713</v>
+      <c r="F23" s="87">
+        <v>39.78746220263121</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4810,8 +4817,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="85">
-        <v>48.43026831801955</v>
+      <c r="F24" s="89">
+        <v>65.48313719587433</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4830,8 +4837,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="80">
-        <v>61.74191367827886</v>
+      <c r="F25" s="84">
+        <v>75.58689636624248</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4850,8 +4857,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="86">
-        <v>1592.826201500888</v>
+      <c r="F26" s="90">
+        <v>1991.277257236136</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4870,8 +4877,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="87">
-        <v>2447.834162260545</v>
+      <c r="F27" s="91">
+        <v>3234.460096855248</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4890,8 +4897,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="88">
-        <v>3373.704118274395</v>
+      <c r="F28" s="92">
+        <v>4357.145618039855</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4910,8 +4917,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="61">
-        <v>274.6957403372998</v>
+      <c r="F29" s="93">
+        <v>368.2977468845017</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4930,8 +4937,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="60">
-        <v>487.4769334659765</v>
+      <c r="F30" s="94">
+        <v>709.6780924333409</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4950,8 +4957,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="89">
-        <v>1222.353167712925</v>
+      <c r="F31" s="95">
+        <v>1914.961628444792</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4970,8 +4977,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="90">
-        <v>139.6147085749215</v>
+      <c r="F32" s="85">
+        <v>186.8467441912867</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4990,8 +4997,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="82">
-        <v>255.8723450537753</v>
+      <c r="F33" s="60">
+        <v>334.3774898939805</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5010,8 +5017,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="91">
-        <v>373.0471275236956</v>
+      <c r="F34" s="96">
+        <v>464.6085448290942</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5030,8 +5037,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="81">
-        <v>118.0672363215096</v>
+      <c r="F35" s="97">
+        <v>155.0603782701473</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5050,8 +5057,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="92">
-        <v>207.3667693909634</v>
+      <c r="F36" s="98">
+        <v>280.1866958378833</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5070,8 +5077,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="93">
-        <v>242.5134724461028</v>
+      <c r="F37" s="99">
+        <v>295.6241047183453</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5090,7 +5097,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5110,7 +5117,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="62">
+      <c r="F39" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5130,7 +5137,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F40" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5150,7 +5157,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="62">
+      <c r="F41" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5170,7 +5177,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5190,7 +5197,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5210,7 +5217,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5230,7 +5237,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5250,7 +5257,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5270,7 +5277,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="62">
+      <c r="F47" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5290,7 +5297,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="62">
+      <c r="F48" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5310,7 +5317,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="62">
+      <c r="F49" s="61">
         <v>0</v>
       </c>
     </row>
@@ -5330,8 +5337,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="94">
-        <v>957.4485125771901</v>
+      <c r="F50" s="100">
+        <v>1285.631584020326</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5350,8 +5357,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="86">
-        <v>1593.743821344552</v>
+      <c r="F51" s="101">
+        <v>2230.884523953758</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5370,8 +5377,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="95">
-        <v>2130.826243049877</v>
+      <c r="F52" s="102">
+        <v>2882.174394381313</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5390,8 +5397,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="85">
-        <v>53.19532017783293</v>
+      <c r="F53" s="84">
+        <v>72.68492440412041</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5410,8 +5417,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="90">
-        <v>144.9819274179409</v>
+      <c r="F54" s="103">
+        <v>195.6661779311084</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5430,8 +5437,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="96">
-        <v>475.2447748072078</v>
+      <c r="F55" s="62">
+        <v>960.6595436415791</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5450,8 +5457,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="83">
-        <v>18.91098768620373</v>
+      <c r="F56" s="87">
+        <v>24.86121447175709</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5470,8 +5477,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="85">
-        <v>41.61902234569372</v>
+      <c r="F57" s="89">
+        <v>60.64088236861558</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5490,8 +5497,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="83">
-        <v>29.80130598904827</v>
+      <c r="F58" s="87">
+        <v>41.78719734004152</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5510,8 +5517,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="62">
-        <v>14.50186217095843</v>
+      <c r="F59" s="61">
+        <v>22.23862703285929</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5530,8 +5537,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="83">
-        <v>29.80130598904827</v>
+      <c r="F60" s="87">
+        <v>44.06008282690553</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5550,8 +5557,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="83">
-        <v>20.98905050705926</v>
+      <c r="F61" s="87">
+        <v>31.56284555208274</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5570,8 +5577,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="97">
-        <v>1902.008445514517</v>
+      <c r="F62" s="104">
+        <v>2328.311353248425</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5590,8 +5597,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="98">
-        <v>3137.568933481597</v>
+      <c r="F63" s="105">
+        <v>4072.499105061113</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5611,7 +5618,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="65">
-        <v>4794.007511144423</v>
+        <v>6003.874242101998</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5630,8 +5637,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="99">
-        <v>194.037687052477</v>
+      <c r="F65" s="106">
+        <v>256.7196528926427</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5650,8 +5657,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="100">
-        <v>526.34686842519</v>
+      <c r="F66" s="107">
+        <v>777.5346398535521</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5670,8 +5677,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="101">
-        <v>2172.225846674564</v>
+      <c r="F67" s="108">
+        <v>2847.942768970878</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5690,8 +5697,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="80">
-        <v>71.38856286543295</v>
+      <c r="F68" s="109">
+        <v>96.44556755640798</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5710,8 +5717,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="102">
-        <v>161.4407194325501</v>
+      <c r="F69" s="110">
+        <v>220.1192097561533</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5730,8 +5737,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="84">
-        <v>109.9446947539117</v>
+      <c r="F70" s="97">
+        <v>149.2668719999381</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5750,8 +5757,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="80">
-        <v>57.88515169447861</v>
+      <c r="F71" s="84">
+        <v>81.00475956670573</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5770,8 +5777,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="81">
-        <v>122.7558413406463</v>
+      <c r="F72" s="85">
+        <v>164.9264343670016</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5790,8 +5797,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="103">
-        <v>81.9630919655703</v>
+      <c r="F73" s="109">
+        <v>113.8753798397019</v>
       </c>
     </row>
   </sheetData>
@@ -5840,8 +5847,8 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="104">
-        <v>657.338309439164</v>
+      <c r="F2" s="111">
+        <v>806.7305808661038</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5860,8 +5867,8 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="44">
-        <v>1524.798928630718</v>
+      <c r="F3" s="112">
+        <v>1881.60492883334</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5880,8 +5887,8 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="31">
-        <v>2052.404471312229</v>
+      <c r="F4" s="29">
+        <v>2548.268878631126</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5900,8 +5907,8 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="105">
-        <v>248.0742946037855</v>
+      <c r="F5" s="113">
+        <v>262.157358996223</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5920,8 +5927,8 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="106">
-        <v>779.1912455964575</v>
+      <c r="F6" s="114">
+        <v>853.4117981930856</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5940,8 +5947,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="107">
-        <v>1076.246203487269</v>
+      <c r="F7" s="115">
+        <v>1213.655867346989</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5960,8 +5967,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="108">
-        <v>127.9850099394693</v>
+      <c r="F8" s="116">
+        <v>129.5103905171747</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5980,8 +5987,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="109">
-        <v>460.6375688944728</v>
+      <c r="F9" s="117">
+        <v>477.4501900687625</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6000,8 +6007,8 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="110">
-        <v>397.7724073796143</v>
+      <c r="F10" s="118">
+        <v>403.2606000403472</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6020,8 +6027,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="11">
-        <v>108.0556781723916</v>
+      <c r="F11" s="20">
+        <v>109.1921742096382</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6040,8 +6047,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="111">
-        <v>379.4099487672818</v>
+      <c r="F12" s="119">
+        <v>388.5482474465306</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6060,8 +6067,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="112">
-        <v>264.0667474030532</v>
+      <c r="F13" s="113">
+        <v>263.0957626390107</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6080,8 +6087,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="113">
-        <v>376.2968255640352</v>
+      <c r="F14" s="15">
+        <v>405.5208413751265</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6100,8 +6107,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="114">
-        <v>999.9117576844228</v>
+      <c r="F15" s="120">
+        <v>1138.216555312411</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6120,8 +6127,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="115">
-        <v>1463.174837284711</v>
+      <c r="F16" s="121">
+        <v>1692.080509726797</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6140,8 +6147,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="25">
-        <v>214.6185717136902</v>
+      <c r="F17" s="122">
+        <v>214.6077652273524</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6160,8 +6167,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="116">
-        <v>722.9482551855326</v>
+      <c r="F18" s="123">
+        <v>768.9474790274476</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6180,8 +6187,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="117">
-        <v>959.1706656615809</v>
+      <c r="F19" s="124">
+        <v>1032.03761620289</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6201,7 +6208,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="11">
-        <v>108.5709881701646</v>
+        <v>103.8603616514372</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6220,8 +6227,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="4">
-        <v>427.1818460043776</v>
+      <c r="F21" s="125">
+        <v>430.7899062047179</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6240,8 +6247,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="118">
-        <v>350.6190041485276</v>
+      <c r="F22" s="126">
+        <v>341.741366505282</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6260,8 +6267,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="20">
-        <v>91.26423835089506</v>
+      <c r="F23" s="21">
+        <v>85.06720422174931</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6280,8 +6287,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="118">
-        <v>352.4296317665307</v>
+      <c r="F24" s="8">
+        <v>350.6776873914533</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6300,8 +6307,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="119">
-        <v>230.6110245129578</v>
+      <c r="F25" s="127">
+        <v>222.1558399880838</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6320,8 +6327,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="120">
-        <v>236.9493714961847</v>
+      <c r="F26" s="122">
+        <v>205.3510582801132</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6340,8 +6347,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="121">
-        <v>786.3558889430577</v>
+      <c r="F27" s="128">
+        <v>793.8219168348512</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6360,8 +6367,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="122">
-        <v>1061.912664993885</v>
+      <c r="F28" s="129">
+        <v>1063.250855835067</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6380,8 +6387,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="123">
-        <v>134.3477647082477</v>
+      <c r="F29" s="11">
+        <v>103.5341017329936</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6400,8 +6407,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="5">
-        <v>583.4507444723068</v>
+      <c r="F30" s="4">
+        <v>568.3105086622859</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6420,8 +6427,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="124">
-        <v>709.2865343307651</v>
+      <c r="F31" s="130">
+        <v>672.1939942467851</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6440,8 +6447,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="17">
-        <v>65.12038198066942</v>
+      <c r="F32" s="131">
+        <v>41.06748167431141</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6460,8 +6467,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="125">
-        <v>343.3677746002728</v>
+      <c r="F33" s="132">
+        <v>316.7283719762797</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6480,8 +6487,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="120">
-        <v>238.8517707190812</v>
+      <c r="F34" s="18">
+        <v>195.9689584537841</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6500,8 +6507,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="126">
-        <v>51.3540235875361</v>
+      <c r="F35" s="9">
+        <v>32.13643925193654</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6520,8 +6527,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="127">
-        <v>281.2299119555381</v>
+      <c r="F36" s="25">
+        <v>249.0538315849104</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6540,8 +6547,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="24">
-        <v>158.7433211013739</v>
+      <c r="F37" s="116">
+        <v>129.0218864597478</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6560,8 +6567,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="104">
-        <v>657.338309439164</v>
+      <c r="F38" s="111">
+        <v>806.7305808661038</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6580,8 +6587,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="44">
-        <v>1524.798928630718</v>
+      <c r="F39" s="112">
+        <v>1881.60492883334</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6600,8 +6607,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="31">
-        <v>2052.404471312229</v>
+      <c r="F40" s="29">
+        <v>2548.268878631126</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6620,8 +6627,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="21">
-        <v>149.6463864641597</v>
+      <c r="F41" s="24">
+        <v>151.6673147631252</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6640,8 +6647,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="128">
-        <v>625.0221227337416</v>
+      <c r="F42" s="133">
+        <v>655.7464902619396</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6660,8 +6667,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="129">
-        <v>885.6657190272073</v>
+      <c r="F43" s="134">
+        <v>990.8299621264772</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6680,8 +6687,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="17">
-        <v>60.04347141709579</v>
+      <c r="F44" s="6">
+        <v>58.89799519817696</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6700,8 +6707,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="120">
-        <v>235.7524607786467</v>
+      <c r="F45" s="7">
+        <v>234.3029123795484</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6720,8 +6727,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="123">
-        <v>131.0652368669674</v>
+      <c r="F46" s="116">
+        <v>131.1345380678648</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6740,8 +6747,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="28">
-        <v>50.03097591396831</v>
+      <c r="F47" s="17">
+        <v>49.76979608679636</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6760,8 +6767,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="130">
-        <v>180.4853770490379</v>
+      <c r="F48" s="135">
+        <v>178.9268374477651</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -6780,8 +6787,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="13">
-        <v>104.8625605250693</v>
+      <c r="F49" s="20">
+        <v>105.8211720194499</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6800,8 +6807,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="125">
-        <v>338.8437444814808</v>
+      <c r="F50" s="126">
+        <v>341.8852751901172</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6820,8 +6827,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="131">
-        <v>928.1370666744319</v>
+      <c r="F51" s="134">
+        <v>993.8354806447721</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6840,8 +6847,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="132">
-        <v>1291.076180355287</v>
+      <c r="F52" s="136">
+        <v>1387.913589340734</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6860,8 +6867,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="10">
-        <v>119.1065074749921</v>
+      <c r="F53" s="20">
+        <v>108.7326235884141</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6880,8 +6887,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="133">
-        <v>540.3998289604566</v>
+      <c r="F54" s="137">
+        <v>543.9439945108126</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6900,8 +6907,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="134">
-        <v>665.8364527067786</v>
+      <c r="F55" s="133">
+        <v>656.5586016317884</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6920,8 +6927,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="28">
-        <v>48.61807612571168</v>
+      <c r="F56" s="131">
+        <v>43.76936919785181</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6940,8 +6947,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="25">
-        <v>210.5029606500208</v>
+      <c r="F57" s="18">
+        <v>196.3166413537553</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6961,7 +6968,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="11">
-        <v>112.6588245471884</v>
+        <v>105.2800488631123</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6981,7 +6988,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="9">
-        <v>40.74815128127878</v>
+        <v>35.18938481483664</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7001,7 +7008,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="24">
-        <v>162.0789647292588</v>
+        <v>150.9131937107875</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7020,8 +7027,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="20">
-        <v>91.66369841781029</v>
+      <c r="F61" s="21">
+        <v>85.44426806507632</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7040,8 +7047,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="130">
-        <v>178.8766223367151</v>
+      <c r="F62" s="116">
+        <v>128.248790972384</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7060,8 +7067,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="135">
-        <v>651.9960174181306</v>
+      <c r="F63" s="138">
+        <v>596.8900977874846</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7080,8 +7087,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="136">
-        <v>763.9042786128099</v>
+      <c r="F64" s="133">
+        <v>655.3972339811535</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7100,8 +7107,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="126">
-        <v>59.1926191970166</v>
+      <c r="F65" s="9">
+        <v>29.32077380927252</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7120,8 +7127,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="137">
-        <v>385.2919881290142</v>
+      <c r="F66" s="132">
+        <v>322.7056294954612</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7140,8 +7147,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="118">
-        <v>345.6120651611868</v>
+      <c r="F67" s="7">
+        <v>234.056777421435</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7161,7 +7168,7 @@
         <v>11</v>
       </c>
       <c r="F68" s="26">
-        <v>24.60285722240639</v>
+        <v>10.2445133155182</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7180,8 +7187,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="21">
-        <v>153.5195695893382</v>
+      <c r="F69" s="10">
+        <v>119.1790641475064</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7200,8 +7207,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="27">
-        <v>75.54565155673205</v>
+      <c r="F70" s="17">
+        <v>54.15440639359626</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7221,7 +7228,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="26">
-        <v>19.58147479282532</v>
+        <v>6.481407051300563</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7240,8 +7247,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="10">
-        <v>116.3049573855315</v>
+      <c r="F72" s="13">
+        <v>91.33341178430055</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7260,8 +7267,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="17">
-        <v>62.35742076885559</v>
+      <c r="F73" s="131">
+        <v>45.5744220105811</v>
       </c>
     </row>
   </sheetData>

--- a/results/Manuscript/material_use.xlsx
+++ b/results/Manuscript/material_use.xlsx
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="138">
+  <fills count="137">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,13 +126,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6BBBB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7A7A7"/>
+        <fgColor rgb="FFF5BCBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A8A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D0D0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E8E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,31 +180,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4DBDB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D0D0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EEEE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E8E7"/>
+        <fgColor rgb="FFF3E3E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5CBCB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B8B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3ECEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DEDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D6D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3E8E8"/>
+        <fgColor rgb="FFF3E9E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,643 +234,589 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF5C8C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B8B7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E4E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3EDED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE1515"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3939"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2E2E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4848"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4444"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB4747"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3C3C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2626"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFE1717"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3636"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4545"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3B3B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFD2323"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC4242"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDDDBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D9B6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4D8B4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0DEC0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBADBBA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB9DBB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2DFC2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBEDDBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7E1C7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8E2C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC1DFC1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBDCBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFDEBF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3E0C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3E7D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDECDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF3EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4E0C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF098509"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF018001"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0D860D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF068306"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F870F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B850B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0C860C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0E870E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF138913"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF148A14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF198C19"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF088408"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F8F1F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E972E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF42A042"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1D8E1D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF108810"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7D2A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ECE9E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F1E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE3EFE3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6F1E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAF2EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F2E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACB9A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF67B267"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF389B38"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEBDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCAE3CA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97CA97"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFE2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCECDC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5E9D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4F0E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFEDDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEEDDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF95C995"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7ABC7A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FC68F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BA54B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EEE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF79BC79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE5F0E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC3F3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D8D7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7A0A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97E7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5C4C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF5CACA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6B7B7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3ECEC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4DEDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D5D5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF3E7E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3E9E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C8C7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B6B6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E3E3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3434"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFE1515"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4747"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3A3A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD2F2F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4949"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4646"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4848"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3D3D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD2727"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFE1616"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3737"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3C3C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFD2424"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC4343"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB4A4A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBFDEBF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB7DAB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB5D9B5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC2DFC2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBDCBB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4E0C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBEDDBE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0DEC0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9E2C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC8E2C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3E0C3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDDCBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCDCBC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC1DFC1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4E8D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEDDE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBF3EB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6E1C6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF098509"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF018001"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0E870E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF078407"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF068306"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0F870F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0C860C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0D860D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF138913"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF158A15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF198C19"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF088408"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF108810"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF209020"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2E972E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42A042"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0B850B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF1D8E1D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA8D2A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA1CFA1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE4F0E4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCECDC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAF2EA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6F1E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE9F2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9DCD9D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6DB56D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF40A040"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDECDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE5CF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA0CEA0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE5F0E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EEE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EEDF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB9DBB9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF93C893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7ABC7A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE3EFE3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FC68F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4BA54B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE1EEE1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCE4CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7BBC7B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7F1E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFE2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFC3F3F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D8D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7A0A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF97E7E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3E5E5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C4C4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5CBCB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF5CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF88686"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFB5151"/>
+        <fgColor rgb="FFF88888"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFB5656"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,25 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6A8A8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF88F8F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5C8C8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D1D1"/>
+        <fgColor rgb="FFF6A9A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF89292"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4D2D2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,31 +852,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF7A6A6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF88C8C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B1B1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3EDED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4D3D3"/>
+        <fgColor rgb="FFF4E1E1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6ABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79696"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5BFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,19 +894,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF96D6D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF5BDBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6B8B8"/>
+        <fgColor rgb="FFF79595"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF97171"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5BEBE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B5B5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4DFDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6B9B9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1027,7 +1021,7 @@
     <xf numFmtId="0" fontId="2" fillId="58" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="59" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="60" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="62" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="63" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="64" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1045,8 +1039,8 @@
     <xf numFmtId="0" fontId="3" fillId="76" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="77" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="78" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="79" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="80" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="81" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="82" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="83" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1055,9 +1049,9 @@
     <xf numFmtId="0" fontId="2" fillId="86" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="87" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="88" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="89" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="90" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="91" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="92" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="93" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="94" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1069,24 +1063,24 @@
     <xf numFmtId="0" fontId="2" fillId="100" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="101" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="102" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="103" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="104" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="105" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="106" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="107" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="108" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="109" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="110" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="111" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="112" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="113" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="114" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="115" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="116" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="117" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="118" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="119" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="120" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="121" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="122" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="123" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1094,16 +1088,15 @@
     <xf numFmtId="0" fontId="2" fillId="125" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="126" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="127" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="128" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="130" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="131" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="132" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="133" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="134" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="135" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="136" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="137" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1438,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="3">
-        <v>32764.76828126188</v>
+        <v>33556.07371535119</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1458,7 +1451,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="4">
-        <v>33684.62342552929</v>
+        <v>34475.9288596186</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1478,7 +1471,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="5">
-        <v>34320.92501801479</v>
+        <v>35112.2304521041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1498,7 +1491,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="6">
-        <v>32272.19681768115</v>
+        <v>33063.50225177046</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1518,7 +1511,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="7">
-        <v>32730.77683768104</v>
+        <v>33522.08227177035</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1538,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="8">
-        <v>33075.48219717547</v>
+        <v>33866.78763126478</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1558,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="9">
-        <v>32171.06413710425</v>
+        <v>32962.36957119356</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1578,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="10">
-        <v>32424.35613100069</v>
+        <v>33215.66156509</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1598,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="11">
-        <v>32378.00103256246</v>
+        <v>33169.30646665177</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1617,8 +1610,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="12">
-        <v>32156.65444156404</v>
+      <c r="F11" s="9">
+        <v>32947.95987565335</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1637,8 +1630,8 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="13">
-        <v>32355.39618071632</v>
+      <c r="F12" s="11">
+        <v>33146.70161480563</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1657,8 +1650,8 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="6">
-        <v>32265.85598407669</v>
+      <c r="F13" s="12">
+        <v>33057.161418166</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1677,8 +1670,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="14">
-        <v>32531.9230336146</v>
+      <c r="F14" s="13">
+        <v>33312.36141980801</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1697,8 +1690,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="15">
-        <v>33253.91867750916</v>
+      <c r="F15" s="14">
+        <v>34027.64779886961</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1717,8 +1710,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="16">
-        <v>33825.17374809314</v>
+      <c r="F16" s="15">
+        <v>34588.39970539828</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1737,8 +1730,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="17">
-        <v>32237.68599546648</v>
+      <c r="F17" s="16">
+        <v>33022.00947478374</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1757,8 +1750,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>32664.16286914515</v>
+      <c r="F18" s="17">
+        <v>33442.84912476047</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1777,8 +1770,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="19">
-        <v>32924.58147673774</v>
+      <c r="F19" s="18">
+        <v>33697.02670636215</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1797,8 +1790,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="12">
-        <v>32154.02228503053</v>
+      <c r="F20" s="19">
+        <v>32941.85491788765</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1817,8 +1810,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="20">
-        <v>32390.58496206599</v>
+      <c r="F21" s="11">
+        <v>33174.90540631821</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1837,8 +1830,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="13">
-        <v>32331.57199275272</v>
+      <c r="F22" s="20">
+        <v>33114.29131142944</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1857,8 +1850,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="12">
-        <v>32140.76494427156</v>
+      <c r="F23" s="19">
+        <v>32928.5960201515</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1877,8 +1870,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="21">
-        <v>32328.83503276443</v>
+      <c r="F24" s="20">
+        <v>33114.52620044515</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1897,8 +1890,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="17">
-        <v>32236.78492638006</v>
+      <c r="F25" s="16">
+        <v>33022.47859203684</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1917,8 +1910,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="14">
-        <v>32552.94126029571</v>
+      <c r="F26" s="21">
+        <v>33330.00088497137</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1938,7 +1931,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="22">
-        <v>33329.36786877846</v>
+        <v>34101.1069765046</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1958,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="23">
-        <v>33848.60704037147</v>
+        <v>34612.73277126982</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1977,8 +1970,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="12">
-        <v>32159.01432017909</v>
+      <c r="F29" s="19">
+        <v>32931.16852926159</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1998,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="24">
-        <v>32509.81719825236</v>
+        <v>33269.04981493388</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2017,8 +2010,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="25">
-        <v>32782.03826145427</v>
+      <c r="F31" s="7">
+        <v>33545.0495299528</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2037,8 +2030,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="26">
-        <v>32112.95837223445</v>
+      <c r="F32" s="25">
+        <v>32894.55632611742</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2057,8 +2050,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="21">
-        <v>32309.40472051256</v>
+      <c r="F33" s="6">
+        <v>33080.28304692826</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2077,8 +2070,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="17">
-        <v>32224.13785793351</v>
+      <c r="F34" s="26">
+        <v>32989.68416724807</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2097,8 +2090,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="26">
-        <v>32106.79219261802</v>
+      <c r="F35" s="25">
+        <v>32888.8730754596</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2117,8 +2110,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="6">
-        <v>32257.76620075753</v>
+      <c r="F36" s="12">
+        <v>33032.23551524145</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2138,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="9">
-        <v>32172.49057149661</v>
+        <v>32947.83007895128</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2158,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="F38" s="27">
-        <v>37737.83165219318</v>
+        <v>38663.42622145909</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2178,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="28">
-        <v>38657.6867964606</v>
+        <v>39583.28136572651</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2198,7 +2191,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="29">
-        <v>39293.9883889461</v>
+        <v>40219.58295821201</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2218,7 +2211,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="30">
-        <v>37161.55001167923</v>
+        <v>38087.14458094514</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2238,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="31">
-        <v>37545.41408884968</v>
+        <v>38471.00865811559</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2258,7 +2251,7 @@
         <v>15</v>
       </c>
       <c r="F43" s="32">
-        <v>37870.365389347</v>
+        <v>38795.9599586129</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2278,7 +2271,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="33">
-        <v>37095.20234332988</v>
+        <v>38020.79691259578</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2298,7 +2291,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="34">
-        <v>37214.54125351362</v>
+        <v>38140.13582277954</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2318,7 +2311,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="35">
-        <v>37142.11225943222</v>
+        <v>38067.70682869813</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2338,7 +2331,7 @@
         <v>11</v>
       </c>
       <c r="F47" s="33">
-        <v>37089.2803731096</v>
+        <v>38014.8749423755</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2358,7 +2351,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="30">
-        <v>37174.82323298256</v>
+        <v>38100.41780224847</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2378,7 +2371,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="35">
-        <v>37124.72374954847</v>
+        <v>38050.31831881437</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2398,7 +2391,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="36">
-        <v>37467.54660716016</v>
+        <v>38385.20094246636</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2418,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="37">
-        <v>38142.40966656118</v>
+        <v>39055.57794248984</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2438,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="38">
-        <v>38621.03759930973</v>
+        <v>39524.33587161443</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2458,7 +2451,7 @@
         <v>11</v>
       </c>
       <c r="F53" s="35">
-        <v>37131.34831849814</v>
+        <v>38053.7090012128</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2478,7 +2471,7 @@
         <v>14</v>
       </c>
       <c r="F54" s="36">
-        <v>37457.50315483373</v>
+        <v>38374.73708148928</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2498,7 +2491,7 @@
         <v>15</v>
       </c>
       <c r="F55" s="39">
-        <v>37649.78335316283</v>
+        <v>38562.66377669395</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2518,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="33">
-        <v>37085.68142388945</v>
+        <v>38010.17951204516</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2537,8 +2530,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="30">
-        <v>37188.24850247798</v>
+      <c r="F57" s="40">
+        <v>38110.60791855922</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2558,7 +2551,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="35">
-        <v>37124.96494740989</v>
+        <v>38048.96225953311</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2578,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="33">
-        <v>37080.13694548504</v>
+        <v>38004.63460460831</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2597,8 +2590,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="35">
-        <v>37156.10460919305</v>
+      <c r="F60" s="30">
+        <v>38079.40795708801</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2617,8 +2610,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="35">
-        <v>37111.55433186603</v>
+      <c r="F61" s="33">
+        <v>38035.55098404257</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2637,8 +2630,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="40">
-        <v>37492.76157565065</v>
+      <c r="F62" s="41">
+        <v>38409.83478768745</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2657,8 +2650,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="41">
-        <v>38224.55575396035</v>
+      <c r="F63" s="42">
+        <v>39137.31729078215</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2678,7 +2671,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="28">
-        <v>38672.75978721697</v>
+        <v>39578.64648297401</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2698,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="F65" s="33">
-        <v>37078.07858666952</v>
+        <v>37997.90502400698</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2717,8 +2710,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="42">
-        <v>37290.21897042119</v>
+      <c r="F66" s="43">
+        <v>38192.17599399317</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2738,7 +2731,7 @@
         <v>15</v>
       </c>
       <c r="F67" s="31">
-        <v>37536.86745766114</v>
+        <v>38446.56542841826</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2757,8 +2750,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="43">
-        <v>37064.97820515984</v>
+      <c r="F68" s="33">
+        <v>37987.94317340715</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2778,7 +2771,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="35">
-        <v>37136.75090946539</v>
+        <v>38053.91632192466</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2798,7 +2791,7 @@
         <v>15</v>
       </c>
       <c r="F70" s="33">
-        <v>37092.24578726138</v>
+        <v>38013.91623100408</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2817,8 +2810,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="43">
-        <v>37062.60408094769</v>
+      <c r="F71" s="33">
+        <v>37986.46292541252</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2837,8 +2830,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="35">
-        <v>37117.34389115014</v>
+      <c r="F72" s="33">
+        <v>38037.1467072592</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2858,7 +2851,7 @@
         <v>15</v>
       </c>
       <c r="F73" s="33">
-        <v>37086.59738289783</v>
+        <v>38008.26221031472</v>
       </c>
     </row>
   </sheetData>
@@ -2908,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="44">
-        <v>4337.578691879053</v>
+        <v>4808.939153168285</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2928,7 +2921,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="45">
-        <v>4492.597895578871</v>
+        <v>4963.958356868105</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2948,7 +2941,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="46">
-        <v>4522.960252891155</v>
+        <v>4994.320714180388</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2968,7 +2961,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="47">
-        <v>4285.576933589895</v>
+        <v>4756.937394879127</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2988,7 +2981,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="48">
-        <v>4418.251352786868</v>
+        <v>4889.611814076101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3007,8 +3000,8 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="48">
-        <v>4433.790062446342</v>
+      <c r="F7" s="49">
+        <v>4905.150523735575</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3027,8 +3020,8 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="49">
-        <v>4254.062645687749</v>
+      <c r="F8" s="50">
+        <v>4725.423106976982</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3047,8 +3040,8 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="50">
-        <v>4348.710451342899</v>
+      <c r="F9" s="44">
+        <v>4820.070912632132</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3068,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="51">
-        <v>4320.875959752703</v>
+        <v>4792.236421041936</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3087,8 +3080,8 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="49">
-        <v>4248.154124920416</v>
+      <c r="F11" s="50">
+        <v>4719.514586209649</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3108,7 +3101,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="51">
-        <v>4328.768459005034</v>
+        <v>4800.128920294266</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3128,7 +3121,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="47">
-        <v>4292.856170837141</v>
+        <v>4764.216632126374</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3148,7 +3141,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="52">
-        <v>4169.214200035356</v>
+        <v>4632.458625574434</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3167,8 +3160,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="53">
-        <v>4179.914270078079</v>
+      <c r="F15" s="52">
+        <v>4637.950187269704</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3187,8 +3180,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="52">
-        <v>4162.523153908483</v>
+      <c r="F16" s="53">
+        <v>4612.593686862301</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3208,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="54">
-        <v>4272.538162035697</v>
+        <v>4741.161518605026</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3228,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="55">
-        <v>4400.401002157114</v>
+        <v>4868.165390930793</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3247,8 +3240,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="56">
-        <v>4403.072531739982</v>
+      <c r="F19" s="55">
+        <v>4867.722050050004</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3267,8 +3260,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="49">
-        <v>4245.454468895732</v>
+      <c r="F20" s="50">
+        <v>4714.998227544294</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3288,7 +3281,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="44">
-        <v>4335.821336413551</v>
+        <v>4804.44772804792</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3307,8 +3300,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="57">
-        <v>4305.785766027384</v>
+      <c r="F22" s="56">
+        <v>4774.115876219897</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3327,8 +3320,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="58">
-        <v>4239.918652225011</v>
+      <c r="F23" s="57">
+        <v>4709.463967850753</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3348,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="51">
-        <v>4317.459046901849</v>
+        <v>4786.386314869425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3368,7 +3361,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="47">
-        <v>4280.987305882851</v>
+        <v>4749.912075874368</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3387,8 +3380,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="59">
-        <v>3948.026190259207</v>
+      <c r="F26" s="58">
+        <v>4394.897060906228</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3407,8 +3400,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="60">
-        <v>3760.070440331212</v>
+      <c r="F27" s="59">
+        <v>4188.170631004454</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3427,8 +3420,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="61">
-        <v>3510.260207738406</v>
+      <c r="F28" s="60">
+        <v>3913.128617660705</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3447,8 +3440,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="58">
-        <v>4240.136173828727</v>
+      <c r="F29" s="57">
+        <v>4703.009090283087</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3467,8 +3460,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="50">
-        <v>4354.109702684748</v>
+      <c r="F30" s="44">
+        <v>4813.82176718819</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3488,7 +3481,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="53">
-        <v>4185.772125067334</v>
+        <v>4610.984721800287</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3507,8 +3500,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="62">
-        <v>4223.72550171468</v>
+      <c r="F32" s="61">
+        <v>4689.725414861371</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3527,8 +3520,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="57">
-        <v>4302.940043738529</v>
+      <c r="F33" s="47">
+        <v>4765.29423173313</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3547,8 +3540,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="54">
-        <v>4267.447492795073</v>
+      <c r="F34" s="50">
+        <v>4728.532297994628</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3567,8 +3560,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="62">
-        <v>4220.960638908729</v>
+      <c r="F35" s="61">
+        <v>4687.199938364113</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3588,7 +3581,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="47">
-        <v>4286.904023102188</v>
+        <v>4750.23079026654</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3607,8 +3600,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="49">
-        <v>4252.147707237949</v>
+      <c r="F37" s="50">
+        <v>4715.679041924318</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3627,8 +3620,8 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="63">
-        <v>7794.716901413854</v>
+      <c r="F38" s="62">
+        <v>8373.616507294711</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3647,8 +3640,8 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="64">
-        <v>7949.736105113674</v>
+      <c r="F39" s="63">
+        <v>8528.635710994529</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3667,8 +3660,8 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="65">
-        <v>7980.098462425956</v>
+      <c r="F40" s="64">
+        <v>8558.998068306812</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3687,8 +3680,8 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="66">
-        <v>7715.935275824824</v>
+      <c r="F41" s="65">
+        <v>8294.834881705678</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3707,8 +3700,8 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="67">
-        <v>7836.150374153191</v>
+      <c r="F42" s="66">
+        <v>8415.049980034046</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3727,8 +3720,8 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="68">
-        <v>7846.282545520415</v>
+      <c r="F43" s="66">
+        <v>8425.182151401272</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3747,8 +3740,8 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="69">
-        <v>7689.51362460923</v>
+      <c r="F44" s="67">
+        <v>8268.413230490085</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3767,8 +3760,8 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="70">
-        <v>7745.579631606855</v>
+      <c r="F45" s="68">
+        <v>8324.479237487709</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3787,8 +3780,8 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="66">
-        <v>7714.840251376574</v>
+      <c r="F46" s="65">
+        <v>8293.739857257429</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3807,8 +3800,8 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="69">
-        <v>7686.307395718137</v>
+      <c r="F47" s="67">
+        <v>8265.207001598992</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3827,8 +3820,8 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="71">
-        <v>7729.921577206132</v>
+      <c r="F48" s="69">
+        <v>8308.821183086988</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3847,8 +3840,8 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="66">
-        <v>7706.915395211916</v>
+      <c r="F49" s="70">
+        <v>8285.815001092771</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3867,8 +3860,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="72">
-        <v>7600.156640770892</v>
+      <c r="F50" s="71">
+        <v>8173.138151003921</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3887,8 +3880,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="73">
-        <v>7577.243786824532</v>
+      <c r="F51" s="72">
+        <v>8146.729656036377</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3907,8 +3900,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="74">
-        <v>7492.693962771931</v>
+      <c r="F52" s="73">
+        <v>8054.869170555805</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3927,8 +3920,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="66">
-        <v>7703.202277831213</v>
+      <c r="F53" s="70">
+        <v>8280.670605945497</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3947,8 +3940,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="75">
-        <v>7812.258812418017</v>
+      <c r="F54" s="74">
+        <v>8388.729755259652</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3967,8 +3960,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="71">
-        <v>7732.593221209889</v>
+      <c r="F55" s="65">
+        <v>8302.366942819292</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3987,8 +3980,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="69">
-        <v>7683.905918049335</v>
+      <c r="F56" s="67">
+        <v>8262.15535361289</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4007,8 +4000,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="71">
-        <v>7733.88611161671</v>
+      <c r="F57" s="69">
+        <v>8311.355706364431</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4027,8 +4020,8 @@
       <c r="E58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="66">
-        <v>7706.133074194149</v>
+      <c r="F58" s="70">
+        <v>8284.161901788879</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4047,8 +4040,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="76">
-        <v>7680.870412070732</v>
+      <c r="F59" s="67">
+        <v>8259.120276666716</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4067,8 +4060,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="71">
-        <v>7720.626557258676</v>
+      <c r="F60" s="65">
+        <v>8298.39516526447</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4087,8 +4080,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="69">
-        <v>7699.707908939981</v>
+      <c r="F61" s="70">
+        <v>8277.737396481385</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4107,8 +4100,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="77">
-        <v>7361.305188062664</v>
+      <c r="F62" s="75">
+        <v>7924.869400132473</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4127,8 +4120,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="78">
-        <v>7098.152316568044</v>
+      <c r="F63" s="76">
+        <v>7647.601137097948</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4147,8 +4140,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="79">
-        <v>6708.455419505113</v>
+      <c r="F64" s="77">
+        <v>7236.970897348808</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4167,8 +4160,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="76">
-        <v>7677.06015988069</v>
+      <c r="F65" s="67">
+        <v>8252.734967934008</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4187,8 +4180,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="80">
-        <v>7758.304631815197</v>
+      <c r="F66" s="68">
+        <v>8328.824100155238</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4207,8 +4200,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="81">
-        <v>7423.007292501243</v>
+      <c r="F67" s="78">
+        <v>7975.519679095796</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4227,8 +4220,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="76">
-        <v>7671.084280896616</v>
+      <c r="F68" s="79">
+        <v>8248.279696464604</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4247,8 +4240,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="66">
-        <v>7708.246127423047</v>
+      <c r="F69" s="70">
+        <v>8282.932616463178</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4267,8 +4260,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="69">
-        <v>7687.726591873148</v>
+      <c r="F70" s="67">
+        <v>8264.254369580316</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4287,8 +4280,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="76">
-        <v>7669.695298844546</v>
+      <c r="F71" s="79">
+        <v>8247.405693653636</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4307,8 +4300,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="69">
-        <v>7699.80749337509</v>
+      <c r="F72" s="70">
+        <v>8275.505922656806</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4327,8 +4320,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="69">
-        <v>7684.795011853688</v>
+      <c r="F73" s="67">
+        <v>8261.32840588667</v>
       </c>
     </row>
   </sheetData>
@@ -4377,7 +4370,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4397,7 +4390,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4417,7 +4410,7 @@
       <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4437,7 +4430,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4457,7 +4450,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4477,7 +4470,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4497,7 +4490,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4517,7 +4510,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4537,7 +4530,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4557,7 +4550,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4577,7 +4570,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4597,7 +4590,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="60">
         <v>0</v>
       </c>
     </row>
@@ -4617,8 +4610,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="47">
-        <v>1033.791914967966</v>
+      <c r="F14" s="50">
+        <v>1119.674555305309</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4637,8 +4630,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="82">
-        <v>1701.605917004455</v>
+      <c r="F15" s="80">
+        <v>1830.918696923128</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4657,8 +4650,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="83">
-        <v>1894.789817527575</v>
+      <c r="F16" s="81">
+        <v>2072.079517364168</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4677,8 +4670,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="84">
-        <v>91.07311067744112</v>
+      <c r="F17" s="82">
+        <v>111.8712677089844</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4697,8 +4690,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="85">
-        <v>166.0461935692741</v>
+      <c r="F18" s="83">
+        <v>203.0996334385787</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4717,8 +4710,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="86">
-        <v>393.0476344534815</v>
+      <c r="F19" s="84">
+        <v>480.0557587658553</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4737,8 +4730,8 @@
       <c r="E20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="87">
-        <v>45.46769886085173</v>
+      <c r="F20" s="85">
+        <v>55.95566222822825</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4757,8 +4750,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="84">
-        <v>82.50775644247122</v>
+      <c r="F21" s="82">
+        <v>101.588013534197</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4777,8 +4770,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="88">
-        <v>118.200545865547</v>
+      <c r="F22" s="86">
+        <v>143.7379112624632</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4798,7 +4791,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="87">
-        <v>39.78746220263121</v>
+        <v>49.37616259742946</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4817,8 +4810,8 @@
       <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="89">
-        <v>65.48313719587433</v>
+      <c r="F24" s="88">
+        <v>80.86866377256806</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4837,8 +4830,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="84">
-        <v>75.58689636624248</v>
+      <c r="F25" s="88">
+        <v>92.42080057258431</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4857,8 +4850,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="90">
-        <v>1991.277257236136</v>
+      <c r="F26" s="89">
+        <v>2212.566938905567</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4877,8 +4870,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="91">
-        <v>3234.460096855248</v>
+      <c r="F27" s="90">
+        <v>3575.808205578299</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4897,8 +4890,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="92">
-        <v>4357.145618039855</v>
+      <c r="F28" s="91">
+        <v>4838.308549314899</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4917,8 +4910,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="93">
-        <v>368.2977468845017</v>
+      <c r="F29" s="92">
+        <v>452.5976428071358</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4937,8 +4930,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="94">
-        <v>709.6780924333409</v>
+      <c r="F30" s="93">
+        <v>878.1597441467133</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4957,8 +4950,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="95">
-        <v>1914.961628444792</v>
+      <c r="F31" s="94">
+        <v>2285.963868792758</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4977,8 +4970,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="85">
-        <v>186.8467441912867</v>
+      <c r="F32" s="95">
+        <v>225.1511462685792</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4997,8 +4990,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="60">
-        <v>334.3774898939805</v>
+      <c r="F33" s="96">
+        <v>411.1483245017114</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -5017,8 +5010,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="96">
-        <v>464.6085448290942</v>
+      <c r="F34" s="97">
+        <v>575.6465968074476</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -5037,8 +5030,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="97">
-        <v>155.0603782701473</v>
+      <c r="F35" s="98">
+        <v>187.9562576837471</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -5057,8 +5050,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="98">
-        <v>280.1866958378833</v>
+      <c r="F36" s="99">
+        <v>345.7120798547061</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -5077,8 +5070,8 @@
       <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="99">
-        <v>295.6241047183453</v>
+      <c r="F37" s="100">
+        <v>366.3633370655003</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -5097,7 +5090,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="61">
+      <c r="F38" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5117,7 +5110,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="61">
+      <c r="F39" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5137,7 +5130,7 @@
       <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="61">
+      <c r="F40" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5157,7 +5150,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="61">
+      <c r="F41" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5177,7 +5170,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="61">
+      <c r="F42" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5197,7 +5190,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F43" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5217,7 +5210,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="61">
+      <c r="F44" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5237,7 +5230,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="61">
+      <c r="F45" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5257,7 +5250,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="61">
+      <c r="F46" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5277,7 +5270,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="61">
+      <c r="F47" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5297,7 +5290,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="61">
+      <c r="F48" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5317,7 +5310,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="61">
+      <c r="F49" s="60">
         <v>0</v>
       </c>
     </row>
@@ -5337,8 +5330,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="100">
-        <v>1285.631584020326</v>
+      <c r="F50" s="49">
+        <v>1350.620237012808</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -5358,7 +5351,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="101">
-        <v>2230.884523953758</v>
+        <v>2330.929798738635</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -5378,7 +5371,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="102">
-        <v>2882.174394381313</v>
+        <v>3041.762419776407</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -5397,8 +5390,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="84">
-        <v>72.68492440412041</v>
+      <c r="F53" s="88">
+        <v>81.50571391546639</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5417,8 +5410,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="103">
-        <v>195.6661779311084</v>
+      <c r="F54" s="83">
+        <v>218.7656616866418</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -5437,8 +5430,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="62">
-        <v>960.6595436415791</v>
+      <c r="F55" s="61">
+        <v>1054.134363940734</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -5458,7 +5451,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="87">
-        <v>24.86121447175709</v>
+        <v>27.99293572856527</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5477,8 +5470,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="89">
-        <v>60.64088236861558</v>
+      <c r="F57" s="85">
+        <v>68.69983935686115</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5498,7 +5491,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="87">
-        <v>41.78719734004152</v>
+        <v>46.34781308400063</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5517,8 +5510,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="61">
-        <v>22.23862703285929</v>
+      <c r="F59" s="87">
+        <v>25.12240359839516</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5537,8 +5530,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="87">
-        <v>44.06008282690553</v>
+      <c r="F60" s="85">
+        <v>49.88219073577812</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5558,7 +5551,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="87">
-        <v>31.56284555208274</v>
+        <v>35.69865593460129</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5577,8 +5570,8 @@
       <c r="E62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="104">
-        <v>2328.311353248425</v>
+      <c r="F62" s="103">
+        <v>2470.004523058341</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5597,8 +5590,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="105">
-        <v>4072.499105061113</v>
+      <c r="F63" s="104">
+        <v>4314.143828108827</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5617,8 +5610,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="65">
-        <v>6003.874242101998</v>
+      <c r="F64" s="64">
+        <v>6381.27049171649</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5637,8 +5630,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="106">
-        <v>256.7196528926427</v>
+      <c r="F65" s="105">
+        <v>284.7958657473425</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5657,8 +5650,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="107">
-        <v>777.5346398535521</v>
+      <c r="F66" s="93">
+        <v>890.6225488466105</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5677,8 +5670,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="108">
-        <v>2847.942768970878</v>
+      <c r="F67" s="106">
+        <v>3079.201925582556</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5697,8 +5690,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="109">
-        <v>96.44556755640798</v>
+      <c r="F68" s="82">
+        <v>107.3061028216297</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5717,8 +5710,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="110">
-        <v>220.1192097561533</v>
+      <c r="F69" s="95">
+        <v>248.9017607867299</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5737,8 +5730,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="97">
-        <v>149.2668719999381</v>
+      <c r="F70" s="107">
+        <v>165.3150673716495</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5757,8 +5750,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="84">
-        <v>81.00475956670573</v>
+      <c r="F71" s="88">
+        <v>88.53375757692498</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5777,8 +5770,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="85">
-        <v>164.9264343670016</v>
+      <c r="F72" s="98">
+        <v>185.4389071447822</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5797,8 +5790,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="109">
-        <v>113.8753798397019</v>
+      <c r="F73" s="86">
+        <v>128.1193689860407</v>
       </c>
     </row>
   </sheetData>
@@ -5847,7 +5840,7 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="111">
+      <c r="F2" s="108">
         <v>806.7305808661038</v>
       </c>
     </row>
@@ -5867,7 +5860,7 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="112">
+      <c r="F3" s="109">
         <v>1881.60492883334</v>
       </c>
     </row>
@@ -5907,7 +5900,7 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="113">
+      <c r="F5" s="110">
         <v>262.157358996223</v>
       </c>
     </row>
@@ -5927,7 +5920,7 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="114">
+      <c r="F6" s="111">
         <v>853.4117981930856</v>
       </c>
     </row>
@@ -5947,7 +5940,7 @@
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="115">
+      <c r="F7" s="112">
         <v>1213.655867346989</v>
       </c>
     </row>
@@ -5967,7 +5960,7 @@
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="116">
+      <c r="F8" s="113">
         <v>129.5103905171747</v>
       </c>
     </row>
@@ -5987,7 +5980,7 @@
       <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="114">
         <v>477.4501900687625</v>
       </c>
     </row>
@@ -6007,7 +6000,7 @@
       <c r="E10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="118">
+      <c r="F10" s="115">
         <v>403.2606000403472</v>
       </c>
     </row>
@@ -6027,7 +6020,7 @@
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="116">
         <v>109.1921742096382</v>
       </c>
     </row>
@@ -6047,7 +6040,7 @@
       <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="119">
+      <c r="F12" s="117">
         <v>388.5482474465306</v>
       </c>
     </row>
@@ -6067,7 +6060,7 @@
       <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="113">
+      <c r="F13" s="110">
         <v>263.0957626390107</v>
       </c>
     </row>
@@ -6087,8 +6080,8 @@
       <c r="E14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="15">
-        <v>405.5208413751265</v>
+      <c r="F14" s="117">
+        <v>386.5377577290793</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6107,8 +6100,8 @@
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="120">
-        <v>1138.216555312411</v>
+      <c r="F15" s="118">
+        <v>1107.315698485947</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6127,8 +6120,8 @@
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="121">
-        <v>1692.080509726797</v>
+      <c r="F16" s="119">
+        <v>1642.711104607218</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6147,8 +6140,8 @@
       <c r="E17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="122">
-        <v>214.6077652273524</v>
+      <c r="F17" s="120">
+        <v>204.8887057354022</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6167,8 +6160,8 @@
       <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="123">
-        <v>768.9474790274476</v>
+      <c r="F18" s="121">
+        <v>752.7322280378927</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6187,8 +6180,8 @@
       <c r="E19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="124">
-        <v>1032.03761620289</v>
+      <c r="F19" s="122">
+        <v>1006.466468758789</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6208,7 +6201,7 @@
         <v>11</v>
       </c>
       <c r="F20" s="11">
-        <v>103.8603616514372</v>
+        <v>98.57085777857623</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6227,8 +6220,8 @@
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="125">
-        <v>430.7899062047179</v>
+      <c r="F21" s="22">
+        <v>421.0708467127677</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6247,8 +6240,8 @@
       <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="126">
-        <v>341.741366505282</v>
+      <c r="F22" s="123">
+        <v>330.1248999959673</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6267,8 +6260,8 @@
       <c r="E23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="21">
-        <v>85.06720422174931</v>
+      <c r="F23" s="20">
+        <v>79.77770034888832</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6288,7 +6281,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="8">
-        <v>350.6776873914533</v>
+        <v>342.6302276612099</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6307,8 +6300,8 @@
       <c r="E25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="127">
-        <v>222.1558399880838</v>
+      <c r="F25" s="124">
+        <v>214.1083802578405</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6327,8 +6320,8 @@
       <c r="E26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="122">
-        <v>205.3510582801132</v>
+      <c r="F26" s="125">
+        <v>166.615658224243</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6347,8 +6340,8 @@
       <c r="E27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="128">
-        <v>793.8219168348512</v>
+      <c r="F27" s="126">
+        <v>730.9953198556884</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6367,8 +6360,8 @@
       <c r="E28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="129">
-        <v>1063.250855835067</v>
+      <c r="F28" s="127">
+        <v>967.5791012771572</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6387,8 +6380,8 @@
       <c r="E29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="11">
-        <v>103.5341017329936</v>
+      <c r="F29" s="20">
+        <v>75.89533189132192</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6407,8 +6400,8 @@
       <c r="E30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="4">
-        <v>568.3105086622859</v>
+      <c r="F30" s="128">
+        <v>524.5892944686989</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6427,8 +6420,8 @@
       <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="130">
-        <v>672.1939942467851</v>
+      <c r="F31" s="15">
+        <v>597.7519640997244</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6447,8 +6440,8 @@
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="131">
-        <v>41.06748167431141</v>
+      <c r="F32" s="9">
+        <v>25.99945332542215</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6467,8 +6460,8 @@
       <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="132">
-        <v>316.7283719762797</v>
+      <c r="F33" s="18">
+        <v>287.2949910080251</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6487,8 +6480,8 @@
       <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="18">
-        <v>195.9689584537841</v>
+      <c r="F34" s="21">
+        <v>159.9341775893124</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6507,8 +6500,8 @@
       <c r="E35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="9">
-        <v>32.13643925193654</v>
+      <c r="F35" s="19">
+        <v>17.79072617034921</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6527,8 +6520,8 @@
       <c r="E36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="25">
-        <v>249.0538315849104</v>
+      <c r="F36" s="7">
+        <v>224.1840178546336</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6548,7 +6541,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="116">
-        <v>129.0218864597478</v>
+        <v>105.2268332222385</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6567,7 +6560,7 @@
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="111">
+      <c r="F38" s="108">
         <v>806.7305808661038</v>
       </c>
     </row>
@@ -6587,7 +6580,7 @@
       <c r="E39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="112">
+      <c r="F39" s="109">
         <v>1881.60492883334</v>
       </c>
     </row>
@@ -6627,7 +6620,7 @@
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="13">
         <v>151.6673147631252</v>
       </c>
     </row>
@@ -6647,7 +6640,7 @@
       <c r="E42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="133">
+      <c r="F42" s="129">
         <v>655.7464902619396</v>
       </c>
     </row>
@@ -6667,7 +6660,7 @@
       <c r="E43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="134">
+      <c r="F43" s="130">
         <v>990.8299621264772</v>
       </c>
     </row>
@@ -6687,7 +6680,7 @@
       <c r="E44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="12">
         <v>58.89799519817696</v>
       </c>
     </row>
@@ -6707,7 +6700,7 @@
       <c r="E45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="3">
         <v>234.3029123795484</v>
       </c>
     </row>
@@ -6727,7 +6720,7 @@
       <c r="E46" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="116">
+      <c r="F46" s="113">
         <v>131.1345380678648</v>
       </c>
     </row>
@@ -6747,7 +6740,7 @@
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <v>49.76979608679636</v>
       </c>
     </row>
@@ -6767,7 +6760,7 @@
       <c r="E48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="135">
+      <c r="F48" s="131">
         <v>178.9268374477651</v>
       </c>
     </row>
@@ -6787,7 +6780,7 @@
       <c r="E49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="116">
         <v>105.8211720194499</v>
       </c>
     </row>
@@ -6807,8 +6800,8 @@
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="126">
-        <v>341.8852751901172</v>
+      <c r="F50" s="123">
+        <v>328.0269455825905</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6827,8 +6820,8 @@
       <c r="E51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="134">
-        <v>993.8354806447721</v>
+      <c r="F51" s="132">
+        <v>971.9954506385284</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6847,8 +6840,8 @@
       <c r="E52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="136">
-        <v>1387.913589340734</v>
+      <c r="F52" s="133">
+        <v>1348.892894282539</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6867,8 +6860,8 @@
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="20">
-        <v>108.7326235884141</v>
+      <c r="F53" s="116">
+        <v>104.0674592706092</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -6887,8 +6880,8 @@
       <c r="E54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="137">
-        <v>543.9439945108126</v>
+      <c r="F54" s="134">
+        <v>533.1546888612326</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -6907,8 +6900,8 @@
       <c r="E55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="133">
-        <v>656.5586016317884</v>
+      <c r="F55" s="135">
+        <v>634.7185716255444</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -6927,8 +6920,8 @@
       <c r="E56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="131">
-        <v>43.76936919785181</v>
+      <c r="F56" s="26">
+        <v>42.02271777035035</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6947,8 +6940,8 @@
       <c r="E57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="18">
-        <v>196.3166413537553</v>
+      <c r="F57" s="136">
+        <v>191.6514770359503</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6968,7 +6961,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="11">
-        <v>105.2800488631123</v>
+        <v>102.8120134342901</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6987,8 +6980,8 @@
       <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="9">
-        <v>35.18938481483664</v>
+      <c r="F59" s="26">
+        <v>33.4427333873352</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7007,8 +7000,8 @@
       <c r="E60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="24">
-        <v>150.9131937107875</v>
+      <c r="F60" s="13">
+        <v>147.4909744647802</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7027,8 +7020,8 @@
       <c r="E61" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="21">
-        <v>85.44426806507632</v>
+      <c r="F61" s="20">
+        <v>82.97623263625414</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7048,7 +7041,7 @@
         <v>11</v>
       </c>
       <c r="F62" s="116">
-        <v>128.248790972384</v>
+        <v>104.3920399322222</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7067,8 +7060,8 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="138">
-        <v>596.8900977874846</v>
+      <c r="F63" s="4">
+        <v>554.6062799924052</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7087,8 +7080,8 @@
       <c r="E64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="133">
-        <v>655.3972339811535</v>
+      <c r="F64" s="137">
+        <v>585.3052324351245</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7107,8 +7100,8 @@
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="9">
-        <v>29.32077380927252</v>
+      <c r="F65" s="19">
+        <v>20.3278440532795</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7127,8 +7120,8 @@
       <c r="E66" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="132">
-        <v>322.7056294954612</v>
+      <c r="F66" s="18">
+        <v>290.6879462606953</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7147,8 +7140,8 @@
       <c r="E67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="7">
-        <v>234.056777421435</v>
+      <c r="F67" s="136">
+        <v>191.7729596263556</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7167,8 +7160,8 @@
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="26">
-        <v>10.2445133155182</v>
+      <c r="F68" s="25">
+        <v>5.910721984060046</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7187,8 +7180,8 @@
       <c r="E69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="10">
-        <v>119.1790641475064</v>
+      <c r="F69" s="116">
+        <v>106.5367905001443</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7207,8 +7200,8 @@
       <c r="E70" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="17">
-        <v>54.15440639359626</v>
+      <c r="F70" s="16">
+        <v>47.85845269671336</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7227,8 +7220,8 @@
       <c r="E71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="26">
-        <v>6.481407051300563</v>
+      <c r="F71" s="25">
+        <v>3.556471178461126</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7247,8 +7240,8 @@
       <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="13">
-        <v>91.33341178430055</v>
+      <c r="F72" s="20">
+        <v>82.34048202830755</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7267,8 +7260,8 @@
       <c r="E73" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="131">
-        <v>45.5744220105811</v>
+      <c r="F73" s="26">
+        <v>39.2784683136982</v>
       </c>
     </row>
   </sheetData>
